--- a/FiltaAnalysis/Filta Franchisee Business Planning worksheet.xlsx
+++ b/FiltaAnalysis/Filta Franchisee Business Planning worksheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT Home PC\Desktop\FiltaAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D1B78D-0CC2-4433-B325-68E21C4729D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Income Statement'!$A:$C,'Income Statement'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
   <si>
     <t>Dynamics</t>
   </si>
@@ -594,12 +588,18 @@
   </si>
   <si>
     <t>hourly rate for warehouse manager</t>
+  </si>
+  <si>
+    <t>number of stops</t>
+  </si>
+  <si>
+    <t>customers per van 10 for 10k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1449,7 +1449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,26 +1482,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1534,23 +1517,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1726,14 +1692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1730,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="13">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="4"/>
@@ -1774,10 +1740,17 @@
         <v>61</v>
       </c>
       <c r="B4" s="152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <f>10000/105</f>
+        <v>95.238095238095241</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -1788,6 +1761,10 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <f>3</f>
+        <v>3</v>
+      </c>
       <c r="F5" s="163">
         <f>16*4</f>
         <v>64</v>
@@ -1798,13 +1775,17 @@
         <v>133</v>
       </c>
       <c r="B6" s="24">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <f>E4*E5</f>
+        <v>285.71428571428572</v>
+      </c>
       <c r="F6">
         <f>B6/B3</f>
-        <v>285.71428571428572</v>
+        <v>190.47619047619048</v>
       </c>
       <c r="G6" s="163" t="s">
         <v>180</v>
@@ -1821,9 +1802,12 @@
         <v>113</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
       <c r="F7">
         <f>F6/4</f>
-        <v>71.428571428571431</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="G7" s="163" t="s">
         <v>181</v>
@@ -1834,13 +1818,17 @@
         <v>114</v>
       </c>
       <c r="B8" s="19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f>E4/8</f>
+        <v>11.904761904761905</v>
+      </c>
       <c r="F8">
         <f>F7/2</f>
-        <v>35.714285714285715</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="G8" s="163" t="s">
         <v>182</v>
@@ -1857,6 +1845,10 @@
         <v>105</v>
       </c>
       <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <f>140/12</f>
+        <v>11.666666666666666</v>
+      </c>
       <c r="G9" s="163" t="s">
         <v>183</v>
       </c>
@@ -1874,7 +1866,7 @@
       <c r="D10" s="4"/>
       <c r="F10">
         <f>F7/3</f>
-        <v>23.80952380952381</v>
+        <v>15.873015873015873</v>
       </c>
       <c r="G10" s="163" t="s">
         <v>184</v>
@@ -1893,7 +1885,7 @@
       <c r="D11" s="4"/>
       <c r="F11">
         <f>F10/5</f>
-        <v>4.7619047619047619</v>
+        <v>3.1746031746031749</v>
       </c>
       <c r="G11" s="163" t="s">
         <v>185</v>
@@ -2072,7 +2064,10 @@
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29">
+        <f>3*2*35*4*12</f>
+        <v>10080</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
@@ -2081,6 +2076,9 @@
       <c r="B23" s="13"/>
       <c r="C23" s="37" t="s">
         <v>138</v>
+      </c>
+      <c r="G23" s="163" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2398,7 +2396,7 @@
         <v>157</v>
       </c>
       <c r="B54" s="16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>103</v>
@@ -2481,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="Q42" sqref="Q42:X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,259 +2778,259 @@
       <c r="D3" s="76"/>
       <c r="E3" s="76">
         <f>(E7*Assumptions!$B$8)+(Assumptions!$B$9*E4)</f>
-        <v>21.616</v>
+        <v>27.6</v>
       </c>
       <c r="F3" s="76">
         <f>(F7*Assumptions!$B$8)+(Assumptions!$B$9*F4)</f>
-        <v>33.231999999999999</v>
+        <v>45.2</v>
       </c>
       <c r="G3" s="76">
         <f>(G7*Assumptions!$B$8)+(Assumptions!$B$9*G4)</f>
-        <v>44.848000000000006</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="H3" s="76">
         <f>(H7*Assumptions!$B$8)+(Assumptions!$B$9*H4)</f>
-        <v>56.464000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I3" s="76">
         <f>(I7*Assumptions!$B$8)+(Assumptions!$B$9*I4)</f>
-        <v>68.080000000000013</v>
+        <v>98</v>
       </c>
       <c r="J3" s="76">
         <f>(J7*Assumptions!$B$8)+(Assumptions!$B$9*J4)</f>
-        <v>79.696000000000012</v>
+        <v>115.60000000000001</v>
       </c>
       <c r="K3" s="76">
         <f>(K7*Assumptions!$B$8)+(Assumptions!$B$9*K4)</f>
-        <v>91.312000000000012</v>
+        <v>133.20000000000002</v>
       </c>
       <c r="L3" s="76">
         <f>(L7*Assumptions!$B$8)+(Assumptions!$B$9*L4)</f>
-        <v>102.92800000000001</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="M3" s="76">
         <f>(M7*Assumptions!$B$8)+(Assumptions!$B$9*M4)</f>
-        <v>124.54400000000001</v>
+        <v>168.4</v>
       </c>
       <c r="N3" s="76">
         <f>(N7*Assumptions!$B$8)+(Assumptions!$B$9*N4)</f>
-        <v>136.16000000000003</v>
+        <v>186</v>
       </c>
       <c r="O3" s="76">
         <f>(O7*Assumptions!$B$8)+(Assumptions!$B$9*O4)</f>
-        <v>147.77600000000001</v>
+        <v>213.60000000000002</v>
       </c>
       <c r="P3" s="127">
         <f>SUM(D3:O3)</f>
-        <v>906.65600000000018</v>
+        <v>1281.5999999999999</v>
       </c>
       <c r="Q3" s="76">
         <f>(Q7*Assumptions!$B$8)+(Assumptions!$B$9*Q4)</f>
-        <v>159.39200000000002</v>
+        <v>231.20000000000002</v>
       </c>
       <c r="R3" s="76">
         <f>(R7*Assumptions!$B$8)+(Assumptions!$B$9*R4)</f>
-        <v>171.00800000000001</v>
+        <v>248.8</v>
       </c>
       <c r="S3" s="76">
         <f>(S7*Assumptions!$B$8)+(Assumptions!$B$9*S4)</f>
-        <v>182.62400000000002</v>
+        <v>266.40000000000003</v>
       </c>
       <c r="T3" s="76">
         <f>(T7*Assumptions!$B$8)+(Assumptions!$B$9*T4)</f>
-        <v>194.24</v>
+        <v>284</v>
       </c>
       <c r="U3" s="76">
         <f>(U7*Assumptions!$B$8)+(Assumptions!$B$9*U4)</f>
-        <v>205.85600000000002</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="V3" s="76">
         <f>(V7*Assumptions!$B$8)+(Assumptions!$B$9*V4)</f>
-        <v>227.47200000000004</v>
+        <v>319.20000000000005</v>
       </c>
       <c r="W3" s="76">
         <f>(W7*Assumptions!$B$8)+(Assumptions!$B$9*W4)</f>
-        <v>239.08800000000002</v>
+        <v>336.8</v>
       </c>
       <c r="X3" s="76">
         <f>(X7*Assumptions!$B$8)+(Assumptions!$B$9*X4)</f>
-        <v>250.70400000000004</v>
+        <v>354.40000000000003</v>
       </c>
       <c r="Y3" s="76">
         <f>(Y7*Assumptions!$B$8)+(Assumptions!$B$9*Y4)</f>
-        <v>262.32000000000005</v>
+        <v>372</v>
       </c>
       <c r="Z3" s="76">
         <f>(Z7*Assumptions!$B$8)+(Assumptions!$B$9*Z4)</f>
-        <v>273.93600000000004</v>
+        <v>389.6</v>
       </c>
       <c r="AA3" s="76">
         <f>(AA7*Assumptions!$B$8)+(Assumptions!$B$9*AA4)</f>
-        <v>285.55200000000002</v>
+        <v>417.20000000000005</v>
       </c>
       <c r="AB3" s="76">
         <f>(AB7*Assumptions!$B$8)+(Assumptions!$B$9*AB4)</f>
-        <v>297.16800000000001</v>
+        <v>434.8</v>
       </c>
       <c r="AC3" s="127">
         <f>SUM(Q3:AB3)</f>
-        <v>2749.3600000000006</v>
+        <v>3956</v>
       </c>
       <c r="AD3" s="76">
         <f>(AD7*Assumptions!$B$8)+(Assumptions!$B$9*AD4)</f>
-        <v>308.78400000000005</v>
+        <v>452.40000000000003</v>
       </c>
       <c r="AE3" s="76">
         <f>(AE7*Assumptions!$B$8)+(Assumptions!$B$9*AE4)</f>
-        <v>330.40000000000003</v>
+        <v>470.00000000000006</v>
       </c>
       <c r="AF3" s="76">
         <f>(AF7*Assumptions!$B$8)+(Assumptions!$B$9*AF4)</f>
-        <v>342.01600000000002</v>
+        <v>487.6</v>
       </c>
       <c r="AG3" s="76">
         <f>(AG7*Assumptions!$B$8)+(Assumptions!$B$9*AG4)</f>
-        <v>353.63200000000006</v>
+        <v>505.20000000000005</v>
       </c>
       <c r="AH3" s="76">
         <f>(AH7*Assumptions!$B$8)+(Assumptions!$B$9*AH4)</f>
-        <v>365.24800000000005</v>
+        <v>522.80000000000007</v>
       </c>
       <c r="AI3" s="76">
         <f>(AI7*Assumptions!$B$8)+(Assumptions!$B$9*AI4)</f>
-        <v>376.86400000000003</v>
+        <v>540.40000000000009</v>
       </c>
       <c r="AJ3" s="76">
         <f>(AJ7*Assumptions!$B$8)+(Assumptions!$B$9*AJ4)</f>
-        <v>388.48</v>
+        <v>558</v>
       </c>
       <c r="AK3" s="76">
         <f>(AK7*Assumptions!$B$8)+(Assumptions!$B$9*AK4)</f>
-        <v>400.096</v>
+        <v>575.6</v>
       </c>
       <c r="AL3" s="76">
         <f>(AL7*Assumptions!$B$8)+(Assumptions!$B$9*AL4)</f>
-        <v>411.71200000000005</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="AM3" s="76">
         <f>(AM7*Assumptions!$B$8)+(Assumptions!$B$9*AM4)</f>
-        <v>433.32800000000009</v>
+        <v>620.80000000000007</v>
       </c>
       <c r="AN3" s="76">
         <f>(AN7*Assumptions!$B$8)+(Assumptions!$B$9*AN4)</f>
-        <v>444.94400000000007</v>
+        <v>638.40000000000009</v>
       </c>
       <c r="AO3" s="76">
         <f>(AO7*Assumptions!$B$8)+(Assumptions!$B$9*AO4)</f>
-        <v>456.56</v>
+        <v>656</v>
       </c>
       <c r="AP3" s="127">
         <f>SUM(AD3:AO3)</f>
-        <v>4612.0640000000012</v>
+        <v>6620.4</v>
       </c>
       <c r="AQ3" s="76">
         <f>(AQ7*Assumptions!$B$8)+(Assumptions!$B$9*AQ4)</f>
-        <v>468.17600000000004</v>
+        <v>673.6</v>
       </c>
       <c r="AR3" s="76">
         <f>(AR7*Assumptions!$B$8)+(Assumptions!$B$9*AR4)</f>
-        <v>479.79200000000003</v>
+        <v>691.2</v>
       </c>
       <c r="AS3" s="76">
         <f>(AS7*Assumptions!$B$8)+(Assumptions!$B$9*AS4)</f>
-        <v>491.40800000000007</v>
+        <v>708.80000000000007</v>
       </c>
       <c r="AT3" s="76">
         <f>(AT7*Assumptions!$B$8)+(Assumptions!$B$9*AT4)</f>
-        <v>503.02400000000006</v>
+        <v>726.40000000000009</v>
       </c>
       <c r="AU3" s="76">
         <f>(AU7*Assumptions!$B$8)+(Assumptions!$B$9*AU4)</f>
-        <v>514.6400000000001</v>
+        <v>744</v>
       </c>
       <c r="AV3" s="76">
         <f>(AV7*Assumptions!$B$8)+(Assumptions!$B$9*AV4)</f>
-        <v>536.25600000000009</v>
+        <v>761.6</v>
       </c>
       <c r="AW3" s="76">
         <f>(AW7*Assumptions!$B$8)+(Assumptions!$B$9*AW4)</f>
-        <v>547.87200000000007</v>
+        <v>779.2</v>
       </c>
       <c r="AX3" s="76">
         <f>(AX7*Assumptions!$B$8)+(Assumptions!$B$9*AX4)</f>
-        <v>559.48800000000006</v>
+        <v>796.80000000000007</v>
       </c>
       <c r="AY3" s="76">
         <f>(AY7*Assumptions!$B$8)+(Assumptions!$B$9*AY4)</f>
-        <v>571.10400000000004</v>
+        <v>824.40000000000009</v>
       </c>
       <c r="AZ3" s="76">
         <f>(AZ7*Assumptions!$B$8)+(Assumptions!$B$9*AZ4)</f>
-        <v>582.72000000000014</v>
+        <v>842.00000000000011</v>
       </c>
       <c r="BA3" s="76">
         <f>(BA7*Assumptions!$B$8)+(Assumptions!$B$9*BA4)</f>
-        <v>594.33600000000001</v>
+        <v>859.6</v>
       </c>
       <c r="BB3" s="76">
         <f>(BB7*Assumptions!$B$8)+(Assumptions!$B$9*BB4)</f>
-        <v>605.95200000000011</v>
+        <v>877.2</v>
       </c>
       <c r="BC3" s="127">
         <f>SUM(AQ3:BB3)</f>
-        <v>6454.7680000000018</v>
+        <v>9284.8000000000011</v>
       </c>
       <c r="BD3" s="76">
         <f>(BD7*Assumptions!$B$8)+(Assumptions!$B$9*BD4)</f>
-        <v>617.5680000000001</v>
+        <v>894.80000000000007</v>
       </c>
       <c r="BE3" s="76">
         <f>(BE7*Assumptions!$B$8)+(Assumptions!$B$9*BE4)</f>
-        <v>639.18400000000008</v>
+        <v>912.40000000000009</v>
       </c>
       <c r="BF3" s="76">
         <f>(BF7*Assumptions!$B$8)+(Assumptions!$B$9*BF4)</f>
-        <v>650.80000000000007</v>
+        <v>930.00000000000011</v>
       </c>
       <c r="BG3" s="76">
         <f>(BG7*Assumptions!$B$8)+(Assumptions!$B$9*BG4)</f>
-        <v>662.41600000000005</v>
+        <v>947.6</v>
       </c>
       <c r="BH3" s="76">
         <f>(BH7*Assumptions!$B$8)+(Assumptions!$B$9*BH4)</f>
-        <v>674.03200000000004</v>
+        <v>965.2</v>
       </c>
       <c r="BI3" s="76">
         <f>(BI7*Assumptions!$B$8)+(Assumptions!$B$9*BI4)</f>
-        <v>685.64800000000002</v>
+        <v>982.80000000000007</v>
       </c>
       <c r="BJ3" s="76">
         <f>(BJ7*Assumptions!$B$8)+(Assumptions!$B$9*BJ4)</f>
-        <v>697.26400000000012</v>
+        <v>1000.4000000000001</v>
       </c>
       <c r="BK3" s="76">
         <f>(BK7*Assumptions!$B$8)+(Assumptions!$B$9*BK4)</f>
-        <v>708.88000000000011</v>
+        <v>1028</v>
       </c>
       <c r="BL3" s="76">
         <f>(BL7*Assumptions!$B$8)+(Assumptions!$B$9*BL4)</f>
-        <v>720.49600000000009</v>
+        <v>1045.6000000000001</v>
       </c>
       <c r="BM3" s="76">
         <f>(BM7*Assumptions!$B$8)+(Assumptions!$B$9*BM4)</f>
-        <v>742.11200000000008</v>
+        <v>1063.2</v>
       </c>
       <c r="BN3" s="76">
         <f>(BN7*Assumptions!$B$8)+(Assumptions!$B$9*BN4)</f>
-        <v>753.72800000000007</v>
+        <v>1080.8000000000002</v>
       </c>
       <c r="BO3" s="76">
         <f>(BO7*Assumptions!$B$8)+(Assumptions!$B$9*BO4)</f>
-        <v>765.34400000000005</v>
+        <v>1098.4000000000001</v>
       </c>
       <c r="BP3" s="127">
         <f>SUM(BD3:BO3)</f>
-        <v>8317.4720000000016</v>
+        <v>11949.200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,11 +3075,11 @@
       </c>
       <c r="M4" s="78">
         <f>ROUNDUP(M19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="78">
         <f>ROUNDUP(N19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="78">
         <f>ROUNDUP(O19/Assumptions!$B$6,0)</f>
@@ -3113,23 +3111,23 @@
       </c>
       <c r="V4" s="78">
         <f>ROUNDUP(V19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" s="78">
         <f>ROUNDUP(W19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" s="78">
         <f>ROUNDUP(X19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="78">
         <f>ROUNDUP(Y19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="78">
         <f>ROUNDUP(Z19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="78">
         <f>ROUNDUP(AA19/Assumptions!$B$6,0)</f>
@@ -3149,155 +3147,155 @@
       </c>
       <c r="AE4" s="78">
         <f>ROUNDUP(AE19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="78">
         <f>ROUNDUP(AF19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="78">
         <f>ROUNDUP(AG19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="78">
         <f>ROUNDUP(AH19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="78">
         <f>ROUNDUP(AI19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="78">
         <f>ROUNDUP(AJ19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="78">
         <f>ROUNDUP(AK19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL4" s="78">
         <f>ROUNDUP(AL19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM4" s="78">
         <f>ROUNDUP(AM19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN4" s="78">
         <f>ROUNDUP(AN19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO4" s="78">
         <f>ROUNDUP(AO19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP4" s="128">
         <f>+AO4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ4" s="78">
         <f>ROUNDUP(AQ19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR4" s="78">
         <f>ROUNDUP(AR19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="78">
         <f>ROUNDUP(AS19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="78">
         <f>ROUNDUP(AT19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU4" s="78">
         <f>ROUNDUP(AU19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="78">
         <f>ROUNDUP(AV19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="78">
         <f>ROUNDUP(AW19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="78">
         <f>ROUNDUP(AX19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY4" s="78">
         <f>ROUNDUP(AY19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" s="78">
         <f>ROUNDUP(AZ19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="78">
         <f>ROUNDUP(BA19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB4" s="78">
         <f>ROUNDUP(BB19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC4" s="128">
         <f>+BB4</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD4" s="78">
         <f>ROUNDUP(BD19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE4" s="78">
         <f>ROUNDUP(BE19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF4" s="78">
         <f>ROUNDUP(BF19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG4" s="78">
         <f>ROUNDUP(BG19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH4" s="78">
         <f>ROUNDUP(BH19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI4" s="78">
         <f>ROUNDUP(BI19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ4" s="78">
         <f>ROUNDUP(BJ19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BK4" s="78">
         <f>ROUNDUP(BK19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BL4" s="78">
         <f>ROUNDUP(BL19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM4" s="78">
         <f>ROUNDUP(BM19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BN4" s="78">
         <f>ROUNDUP(BN19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BO4" s="78">
         <f>ROUNDUP(BO19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BP4" s="128">
         <f>+BO4</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,7 +3338,7 @@
       </c>
       <c r="M5" s="76">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="76">
         <f t="shared" si="0"/>
@@ -3348,7 +3346,7 @@
       </c>
       <c r="O5" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="127">
         <f t="shared" ref="P5:P56" si="1">SUM(D5:O5)</f>
@@ -3376,7 +3374,7 @@
       </c>
       <c r="V5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="76">
         <f t="shared" si="2"/>
@@ -3396,7 +3394,7 @@
       </c>
       <c r="AA5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="76">
         <f t="shared" si="2"/>
@@ -3412,7 +3410,7 @@
       </c>
       <c r="AE5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="76">
         <f t="shared" si="2"/>
@@ -3456,7 +3454,7 @@
       </c>
       <c r="AP5" s="127">
         <f t="shared" ref="AP5:AP56" si="4">SUM(AD5:AO5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="76">
         <f>+AQ4-AO4</f>
@@ -3480,7 +3478,7 @@
       </c>
       <c r="AV5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="76">
         <f t="shared" si="2"/>
@@ -3492,7 +3490,7 @@
       </c>
       <c r="AY5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="76">
         <f t="shared" si="2"/>
@@ -3516,7 +3514,7 @@
       </c>
       <c r="BE5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="76">
         <f t="shared" si="2"/>
@@ -3540,7 +3538,7 @@
       </c>
       <c r="BK5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="76">
         <f t="shared" si="2"/>
@@ -3548,7 +3546,7 @@
       </c>
       <c r="BM5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="76">
         <f t="shared" si="2"/>
@@ -3560,7 +3558,7 @@
       </c>
       <c r="BP5" s="127">
         <f t="shared" ref="BP5:BP56" si="6">SUM(BD5:BO5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:68" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3571,259 +3569,259 @@
       <c r="D6" s="81"/>
       <c r="E6" s="81">
         <f>+D6+Assumptions!$B$4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="81">
         <f>+E6+Assumptions!$B$4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="82">
         <f>+F6+Assumptions!$B$4</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" s="82">
         <f>+G6+Assumptions!$B$4</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I6" s="82">
         <f>+H6+Assumptions!$B$4</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" s="82">
         <f>+I6+Assumptions!$B$4</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K6" s="82">
         <f>+J6+Assumptions!$B$4</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="82">
         <f>+K6+Assumptions!$B$4</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M6" s="82">
         <f>+L6+Assumptions!$B$4</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N6" s="82">
         <f>+M6+Assumptions!$B$4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O6" s="82">
         <f>+N6+Assumptions!$B$4</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="P6" s="129">
         <f>+O6</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="82">
         <f>+O6+Assumptions!$B$4</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="R6" s="82">
         <f>+Q6+Assumptions!$B$4</f>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S6" s="82">
         <f>+R6+Assumptions!$B$4</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="T6" s="82">
         <f>+S6+Assumptions!$B$4</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="U6" s="82">
         <f>+T6+Assumptions!$B$4</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="V6" s="82">
         <f>+U6+Assumptions!$B$4</f>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="W6" s="82">
         <f>+V6+Assumptions!$B$4</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="X6" s="82">
         <f>+W6+Assumptions!$B$4</f>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="82">
         <f>+X6+Assumptions!$B$4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="82">
         <f>+Y6+Assumptions!$B$4</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="82">
         <f>+Z6+Assumptions!$B$4</f>
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="82">
         <f>+AA6+Assumptions!$B$4</f>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="129">
         <f>+AB6</f>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="82">
         <f>+AB6+Assumptions!$B$4</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="82">
         <f>+AD6+Assumptions!$B$4</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="82">
         <f>+AE6+Assumptions!$B$4</f>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="AG6" s="82">
         <f>+AF6+Assumptions!$B$4</f>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AH6" s="82">
         <f>+AG6+Assumptions!$B$4</f>
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="82">
         <f>+AH6+Assumptions!$B$4</f>
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="AJ6" s="82">
         <f>+AI6+Assumptions!$B$4</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AK6" s="82">
         <f>+AJ6+Assumptions!$B$4</f>
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AL6" s="82">
         <f>+AK6+Assumptions!$B$4</f>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="AM6" s="82">
         <f>+AL6+Assumptions!$B$4</f>
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="AN6" s="82">
         <f>+AM6+Assumptions!$B$4</f>
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="AO6" s="82">
         <f>+AN6+Assumptions!$B$4</f>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="129">
         <f>+AO6</f>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AQ6" s="82">
         <f>+AO6+Assumptions!$B$4</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="82">
         <f>+AQ6+Assumptions!$B$4</f>
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AS6" s="82">
         <f>+AR6+Assumptions!$B$4</f>
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AT6" s="82">
         <f>+AS6+Assumptions!$B$4</f>
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AU6" s="82">
         <f>+AT6+Assumptions!$B$4</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AV6" s="82">
         <f>+AU6+Assumptions!$B$4</f>
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AW6" s="82">
         <f>+AV6+Assumptions!$B$4</f>
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="AX6" s="82">
         <f>+AW6+Assumptions!$B$4</f>
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="AY6" s="82">
         <f>+AX6+Assumptions!$B$4</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="AZ6" s="82">
         <f>+AY6+Assumptions!$B$4</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="BA6" s="82">
         <f>+AZ6+Assumptions!$B$4</f>
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="BB6" s="82">
         <f>+BA6+Assumptions!$B$4</f>
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="BC6" s="129">
         <f>+BB6</f>
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="BD6" s="82">
         <f>+BB6+Assumptions!$B$4</f>
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="BE6" s="82">
         <f>+BD6+Assumptions!$B$4</f>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="BF6" s="82">
         <f>+BE6+Assumptions!$B$4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="BG6" s="82">
         <f>+BF6+Assumptions!$B$4</f>
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="BH6" s="82">
         <f>+BG6+Assumptions!$B$4</f>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="BI6" s="82">
         <f>+BH6+Assumptions!$B$4</f>
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="BJ6" s="82">
         <f>+BI6+Assumptions!$B$4</f>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="BK6" s="82">
         <f>+BJ6+Assumptions!$B$4</f>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="BL6" s="82">
         <f>+BK6+Assumptions!$B$4</f>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="BM6" s="82">
         <f>+BL6+Assumptions!$B$4</f>
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="BN6" s="82">
         <f>+BM6+Assumptions!$B$4</f>
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="BO6" s="82">
         <f>+BN6+Assumptions!$B$4</f>
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="BP6" s="129">
         <f>+BO6</f>
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:68" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3837,259 +3835,259 @@
       </c>
       <c r="E7" s="85">
         <f>ROUND((E6*Assumptions!$B$5),0)*4.4</f>
-        <v>35.200000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F7" s="85">
         <f>ROUND((F6*Assumptions!$B$5),0)*4.4</f>
-        <v>70.400000000000006</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G7" s="86">
         <f>ROUND((G6*Assumptions!$B$5),0)*4.4</f>
-        <v>105.60000000000001</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="H7" s="86">
         <f>ROUND((H6*Assumptions!$B$5),0)*4.4</f>
-        <v>140.80000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I7" s="86">
         <f>ROUND((I6*Assumptions!$B$5),0)*4.4</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="J7" s="86">
         <f>ROUND((J6*Assumptions!$B$5),0)*4.4</f>
-        <v>211.20000000000002</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="K7" s="86">
         <f>ROUND((K6*Assumptions!$B$5),0)*4.4</f>
-        <v>246.40000000000003</v>
+        <v>123.20000000000002</v>
       </c>
       <c r="L7" s="86">
         <f>ROUND((L6*Assumptions!$B$5),0)*4.4</f>
-        <v>281.60000000000002</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="M7" s="86">
         <f>ROUND((M6*Assumptions!$B$5),0)*4.4</f>
-        <v>316.8</v>
+        <v>158.4</v>
       </c>
       <c r="N7" s="86">
         <f>ROUND((N6*Assumptions!$B$5),0)*4.4</f>
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="O7" s="86">
         <f>ROUND((O6*Assumptions!$B$5),0)*4.4</f>
-        <v>387.20000000000005</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="P7" s="130">
         <f t="shared" si="1"/>
-        <v>2323.2000000000003</v>
+        <v>1161.6000000000001</v>
       </c>
       <c r="Q7" s="86">
         <f>ROUND((Q6*Assumptions!$B$5),0)*4.4</f>
-        <v>422.40000000000003</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="R7" s="86">
         <f>ROUND((R6*Assumptions!$B$5),0)*4.4</f>
-        <v>457.6</v>
+        <v>228.8</v>
       </c>
       <c r="S7" s="86">
         <f>ROUND((S6*Assumptions!$B$5),0)*4.4</f>
-        <v>492.80000000000007</v>
+        <v>246.40000000000003</v>
       </c>
       <c r="T7" s="86">
         <f>ROUND((T6*Assumptions!$B$5),0)*4.4</f>
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="U7" s="86">
         <f>ROUND((U6*Assumptions!$B$5),0)*4.4</f>
-        <v>563.20000000000005</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="V7" s="86">
         <f>ROUND((V6*Assumptions!$B$5),0)*4.4</f>
-        <v>598.40000000000009</v>
+        <v>299.20000000000005</v>
       </c>
       <c r="W7" s="86">
         <f>ROUND((W6*Assumptions!$B$5),0)*4.4</f>
-        <v>633.6</v>
+        <v>316.8</v>
       </c>
       <c r="X7" s="86">
         <f>ROUND((X6*Assumptions!$B$5),0)*4.4</f>
-        <v>668.80000000000007</v>
+        <v>334.40000000000003</v>
       </c>
       <c r="Y7" s="86">
         <f>ROUND((Y6*Assumptions!$B$5),0)*4.4</f>
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="Z7" s="86">
         <f>ROUND((Z6*Assumptions!$B$5),0)*4.4</f>
-        <v>739.2</v>
+        <v>369.6</v>
       </c>
       <c r="AA7" s="86">
         <f>ROUND((AA6*Assumptions!$B$5),0)*4.4</f>
-        <v>774.40000000000009</v>
+        <v>387.20000000000005</v>
       </c>
       <c r="AB7" s="86">
         <f>ROUND((AB6*Assumptions!$B$5),0)*4.4</f>
-        <v>809.6</v>
+        <v>404.8</v>
       </c>
       <c r="AC7" s="130">
         <f t="shared" si="3"/>
-        <v>7392</v>
+        <v>3696</v>
       </c>
       <c r="AD7" s="86">
         <f>ROUND((AD6*Assumptions!$B$5),0)*4.4</f>
-        <v>844.80000000000007</v>
+        <v>422.40000000000003</v>
       </c>
       <c r="AE7" s="86">
         <f>ROUND((AE6*Assumptions!$B$5),0)*4.4</f>
-        <v>880.00000000000011</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="AF7" s="86">
         <f>ROUND((AF6*Assumptions!$B$5),0)*4.4</f>
-        <v>915.2</v>
+        <v>457.6</v>
       </c>
       <c r="AG7" s="86">
         <f>ROUND((AG6*Assumptions!$B$5),0)*4.4</f>
-        <v>950.40000000000009</v>
+        <v>475.20000000000005</v>
       </c>
       <c r="AH7" s="86">
         <f>ROUND((AH6*Assumptions!$B$5),0)*4.4</f>
-        <v>985.60000000000014</v>
+        <v>492.80000000000007</v>
       </c>
       <c r="AI7" s="86">
         <f>ROUND((AI6*Assumptions!$B$5),0)*4.4</f>
-        <v>1020.8000000000001</v>
+        <v>510.40000000000003</v>
       </c>
       <c r="AJ7" s="86">
         <f>ROUND((AJ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1056</v>
+        <v>528</v>
       </c>
       <c r="AK7" s="86">
         <f>ROUND((AK6*Assumptions!$B$5),0)*4.4</f>
-        <v>1091.2</v>
+        <v>545.6</v>
       </c>
       <c r="AL7" s="86">
         <f>ROUND((AL6*Assumptions!$B$5),0)*4.4</f>
-        <v>1126.4000000000001</v>
+        <v>563.20000000000005</v>
       </c>
       <c r="AM7" s="86">
         <f>ROUND((AM6*Assumptions!$B$5),0)*4.4</f>
-        <v>1161.6000000000001</v>
+        <v>580.80000000000007</v>
       </c>
       <c r="AN7" s="86">
         <f>ROUND((AN6*Assumptions!$B$5),0)*4.4</f>
-        <v>1196.8000000000002</v>
+        <v>598.40000000000009</v>
       </c>
       <c r="AO7" s="86">
         <f>ROUND((AO6*Assumptions!$B$5),0)*4.4</f>
-        <v>1232</v>
+        <v>616</v>
       </c>
       <c r="AP7" s="130">
         <f t="shared" si="4"/>
-        <v>12460.8</v>
+        <v>6230.4</v>
       </c>
       <c r="AQ7" s="86">
         <f>ROUND((AQ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1267.2</v>
+        <v>633.6</v>
       </c>
       <c r="AR7" s="86">
         <f>ROUND((AR6*Assumptions!$B$5),0)*4.4</f>
-        <v>1302.4000000000001</v>
+        <v>651.20000000000005</v>
       </c>
       <c r="AS7" s="86">
         <f>ROUND((AS6*Assumptions!$B$5),0)*4.4</f>
-        <v>1337.6000000000001</v>
+        <v>668.80000000000007</v>
       </c>
       <c r="AT7" s="86">
         <f>ROUND((AT6*Assumptions!$B$5),0)*4.4</f>
-        <v>1372.8000000000002</v>
+        <v>686.40000000000009</v>
       </c>
       <c r="AU7" s="86">
         <f>ROUND((AU6*Assumptions!$B$5),0)*4.4</f>
-        <v>1408</v>
+        <v>704</v>
       </c>
       <c r="AV7" s="86">
         <f>ROUND((AV6*Assumptions!$B$5),0)*4.4</f>
-        <v>1443.2</v>
+        <v>721.6</v>
       </c>
       <c r="AW7" s="86">
         <f>ROUND((AW6*Assumptions!$B$5),0)*4.4</f>
-        <v>1478.4</v>
+        <v>739.2</v>
       </c>
       <c r="AX7" s="86">
         <f>ROUND((AX6*Assumptions!$B$5),0)*4.4</f>
-        <v>1513.6000000000001</v>
+        <v>756.80000000000007</v>
       </c>
       <c r="AY7" s="86">
         <f>ROUND((AY6*Assumptions!$B$5),0)*4.4</f>
-        <v>1548.8000000000002</v>
+        <v>774.40000000000009</v>
       </c>
       <c r="AZ7" s="86">
         <f>ROUND((AZ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1584.0000000000002</v>
+        <v>792.00000000000011</v>
       </c>
       <c r="BA7" s="86">
         <f>ROUND((BA6*Assumptions!$B$5),0)*4.4</f>
-        <v>1619.2</v>
+        <v>809.6</v>
       </c>
       <c r="BB7" s="86">
         <f>ROUND((BB6*Assumptions!$B$5),0)*4.4</f>
-        <v>1654.4</v>
+        <v>827.2</v>
       </c>
       <c r="BC7" s="130">
         <f t="shared" si="5"/>
-        <v>17529.600000000002</v>
+        <v>8764.8000000000011</v>
       </c>
       <c r="BD7" s="86">
         <f>ROUND((BD6*Assumptions!$B$5),0)*4.4</f>
-        <v>1689.6000000000001</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="BE7" s="86">
         <f>ROUND((BE6*Assumptions!$B$5),0)*4.4</f>
-        <v>1724.8000000000002</v>
+        <v>862.40000000000009</v>
       </c>
       <c r="BF7" s="86">
         <f>ROUND((BF6*Assumptions!$B$5),0)*4.4</f>
-        <v>1760.0000000000002</v>
+        <v>880.00000000000011</v>
       </c>
       <c r="BG7" s="86">
         <f>ROUND((BG6*Assumptions!$B$5),0)*4.4</f>
-        <v>1795.2</v>
+        <v>897.6</v>
       </c>
       <c r="BH7" s="86">
         <f>ROUND((BH6*Assumptions!$B$5),0)*4.4</f>
-        <v>1830.4</v>
+        <v>915.2</v>
       </c>
       <c r="BI7" s="86">
         <f>ROUND((BI6*Assumptions!$B$5),0)*4.4</f>
-        <v>1865.6000000000001</v>
+        <v>932.80000000000007</v>
       </c>
       <c r="BJ7" s="86">
         <f>ROUND((BJ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1900.8000000000002</v>
+        <v>950.40000000000009</v>
       </c>
       <c r="BK7" s="86">
         <f>ROUND((BK6*Assumptions!$B$5),0)*4.4</f>
-        <v>1936.0000000000002</v>
+        <v>968.00000000000011</v>
       </c>
       <c r="BL7" s="86">
         <f>ROUND((BL6*Assumptions!$B$5),0)*4.4</f>
-        <v>1971.2000000000003</v>
+        <v>985.60000000000014</v>
       </c>
       <c r="BM7" s="86">
         <f>ROUND((BM6*Assumptions!$B$5),0)*4.4</f>
-        <v>2006.4</v>
+        <v>1003.2</v>
       </c>
       <c r="BN7" s="86">
         <f>ROUND((BN6*Assumptions!$B$5),0)*4.4</f>
-        <v>2041.6000000000001</v>
+        <v>1020.8000000000001</v>
       </c>
       <c r="BO7" s="86">
         <f>ROUND((BO6*Assumptions!$B$5),0)*4.4</f>
-        <v>2076.8000000000002</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BP7" s="130">
         <f t="shared" si="6"/>
-        <v>22598.400000000001</v>
+        <v>11299.2</v>
       </c>
     </row>
     <row r="8" spans="1:68" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6589,259 +6587,259 @@
       </c>
       <c r="E19" s="78">
         <f>+E7*Assumptions!$B$3</f>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F19" s="78">
         <f>+F7*Assumptions!$B$3</f>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G19" s="76">
         <f>+G7*Assumptions!$B$3</f>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H19" s="76">
         <f>+H7*Assumptions!$B$3</f>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I19" s="76">
         <f>+I7*Assumptions!$B$3</f>
-        <v>6160</v>
+        <v>9240</v>
       </c>
       <c r="J19" s="76">
         <f>+J7*Assumptions!$B$3</f>
-        <v>7392.0000000000009</v>
+        <v>11088</v>
       </c>
       <c r="K19" s="76">
         <f>+K7*Assumptions!$B$3</f>
-        <v>8624.0000000000018</v>
+        <v>12936.000000000002</v>
       </c>
       <c r="L19" s="76">
         <f>+L7*Assumptions!$B$3</f>
-        <v>9856</v>
+        <v>14784.000000000002</v>
       </c>
       <c r="M19" s="76">
         <f>+M7*Assumptions!$B$3</f>
-        <v>11088</v>
+        <v>16632</v>
       </c>
       <c r="N19" s="76">
         <f>+N7*Assumptions!$B$3</f>
-        <v>12320</v>
+        <v>18480</v>
       </c>
       <c r="O19" s="76">
         <f>+O7*Assumptions!$B$3</f>
-        <v>13552.000000000002</v>
+        <v>20328.000000000004</v>
       </c>
       <c r="P19" s="127">
         <f t="shared" si="1"/>
-        <v>81312</v>
+        <v>121968</v>
       </c>
       <c r="Q19" s="76">
         <f>+Q7*Assumptions!$B$3</f>
-        <v>14784.000000000002</v>
+        <v>22176</v>
       </c>
       <c r="R19" s="76">
         <f>+R7*Assumptions!$B$3</f>
-        <v>16016</v>
+        <v>24024</v>
       </c>
       <c r="S19" s="76">
         <f>+S7*Assumptions!$B$3</f>
-        <v>17248.000000000004</v>
+        <v>25872.000000000004</v>
       </c>
       <c r="T19" s="76">
         <f>+T7*Assumptions!$B$3</f>
-        <v>18480</v>
+        <v>27720</v>
       </c>
       <c r="U19" s="76">
         <f>+U7*Assumptions!$B$3</f>
-        <v>19712</v>
+        <v>29568.000000000004</v>
       </c>
       <c r="V19" s="76">
         <f>+V7*Assumptions!$B$3</f>
-        <v>20944.000000000004</v>
+        <v>31416.000000000004</v>
       </c>
       <c r="W19" s="76">
         <f>+W7*Assumptions!$B$3</f>
-        <v>22176</v>
+        <v>33264</v>
       </c>
       <c r="X19" s="76">
         <f>+X7*Assumptions!$B$3</f>
-        <v>23408.000000000004</v>
+        <v>35112</v>
       </c>
       <c r="Y19" s="76">
         <f>+Y7*Assumptions!$B$3</f>
-        <v>24640</v>
+        <v>36960</v>
       </c>
       <c r="Z19" s="76">
         <f>+Z7*Assumptions!$B$3</f>
-        <v>25872</v>
+        <v>38808</v>
       </c>
       <c r="AA19" s="76">
         <f>+AA7*Assumptions!$B$3</f>
-        <v>27104.000000000004</v>
+        <v>40656.000000000007</v>
       </c>
       <c r="AB19" s="76">
         <f>+AB7*Assumptions!$B$3</f>
-        <v>28336</v>
+        <v>42504</v>
       </c>
       <c r="AC19" s="127">
         <f t="shared" si="3"/>
-        <v>258720</v>
+        <v>388080</v>
       </c>
       <c r="AD19" s="76">
         <f>+AD7*Assumptions!$B$3</f>
-        <v>29568.000000000004</v>
+        <v>44352</v>
       </c>
       <c r="AE19" s="76">
         <f>+AE7*Assumptions!$B$3</f>
-        <v>30800.000000000004</v>
+        <v>46200.000000000007</v>
       </c>
       <c r="AF19" s="76">
         <f>+AF7*Assumptions!$B$3</f>
-        <v>32032</v>
+        <v>48048</v>
       </c>
       <c r="AG19" s="76">
         <f>+AG7*Assumptions!$B$3</f>
-        <v>33264</v>
+        <v>49896.000000000007</v>
       </c>
       <c r="AH19" s="76">
         <f>+AH7*Assumptions!$B$3</f>
-        <v>34496.000000000007</v>
+        <v>51744.000000000007</v>
       </c>
       <c r="AI19" s="76">
         <f>+AI7*Assumptions!$B$3</f>
-        <v>35728</v>
+        <v>53592</v>
       </c>
       <c r="AJ19" s="76">
         <f>+AJ7*Assumptions!$B$3</f>
-        <v>36960</v>
+        <v>55440</v>
       </c>
       <c r="AK19" s="76">
         <f>+AK7*Assumptions!$B$3</f>
-        <v>38192</v>
+        <v>57288</v>
       </c>
       <c r="AL19" s="76">
         <f>+AL7*Assumptions!$B$3</f>
-        <v>39424</v>
+        <v>59136.000000000007</v>
       </c>
       <c r="AM19" s="76">
         <f>+AM7*Assumptions!$B$3</f>
-        <v>40656.000000000007</v>
+        <v>60984.000000000007</v>
       </c>
       <c r="AN19" s="76">
         <f>+AN7*Assumptions!$B$3</f>
-        <v>41888.000000000007</v>
+        <v>62832.000000000007</v>
       </c>
       <c r="AO19" s="76">
         <f>+AO7*Assumptions!$B$3</f>
-        <v>43120</v>
+        <v>64680</v>
       </c>
       <c r="AP19" s="127">
         <f t="shared" si="4"/>
-        <v>436128</v>
+        <v>654192</v>
       </c>
       <c r="AQ19" s="76">
         <f>+AQ7*Assumptions!$B$3</f>
-        <v>44352</v>
+        <v>66528</v>
       </c>
       <c r="AR19" s="76">
         <f>+AR7*Assumptions!$B$3</f>
-        <v>45584</v>
+        <v>68376</v>
       </c>
       <c r="AS19" s="76">
         <f>+AS7*Assumptions!$B$3</f>
-        <v>46816.000000000007</v>
+        <v>70224</v>
       </c>
       <c r="AT19" s="76">
         <f>+AT7*Assumptions!$B$3</f>
-        <v>48048.000000000007</v>
+        <v>72072.000000000015</v>
       </c>
       <c r="AU19" s="76">
         <f>+AU7*Assumptions!$B$3</f>
-        <v>49280</v>
+        <v>73920</v>
       </c>
       <c r="AV19" s="76">
         <f>+AV7*Assumptions!$B$3</f>
-        <v>50512</v>
+        <v>75768</v>
       </c>
       <c r="AW19" s="76">
         <f>+AW7*Assumptions!$B$3</f>
-        <v>51744</v>
+        <v>77616</v>
       </c>
       <c r="AX19" s="76">
         <f>+AX7*Assumptions!$B$3</f>
-        <v>52976.000000000007</v>
+        <v>79464</v>
       </c>
       <c r="AY19" s="76">
         <f>+AY7*Assumptions!$B$3</f>
-        <v>54208.000000000007</v>
+        <v>81312.000000000015</v>
       </c>
       <c r="AZ19" s="76">
         <f>+AZ7*Assumptions!$B$3</f>
-        <v>55440.000000000007</v>
+        <v>83160.000000000015</v>
       </c>
       <c r="BA19" s="76">
         <f>+BA7*Assumptions!$B$3</f>
-        <v>56672</v>
+        <v>85008</v>
       </c>
       <c r="BB19" s="76">
         <f>+BB7*Assumptions!$B$3</f>
-        <v>57904</v>
+        <v>86856</v>
       </c>
       <c r="BC19" s="127">
         <f t="shared" si="5"/>
-        <v>613536</v>
+        <v>920304</v>
       </c>
       <c r="BD19" s="76">
         <f>+BD7*Assumptions!$B$3</f>
-        <v>59136.000000000007</v>
+        <v>88704</v>
       </c>
       <c r="BE19" s="76">
         <f>+BE7*Assumptions!$B$3</f>
-        <v>60368.000000000007</v>
+        <v>90552.000000000015</v>
       </c>
       <c r="BF19" s="76">
         <f>+BF7*Assumptions!$B$3</f>
-        <v>61600.000000000007</v>
+        <v>92400.000000000015</v>
       </c>
       <c r="BG19" s="76">
         <f>+BG7*Assumptions!$B$3</f>
-        <v>62832</v>
+        <v>94248</v>
       </c>
       <c r="BH19" s="76">
         <f>+BH7*Assumptions!$B$3</f>
-        <v>64064</v>
+        <v>96096</v>
       </c>
       <c r="BI19" s="76">
         <f>+BI7*Assumptions!$B$3</f>
-        <v>65296.000000000007</v>
+        <v>97944</v>
       </c>
       <c r="BJ19" s="76">
         <f>+BJ7*Assumptions!$B$3</f>
-        <v>66528</v>
+        <v>99792.000000000015</v>
       </c>
       <c r="BK19" s="76">
         <f>+BK7*Assumptions!$B$3</f>
-        <v>67760.000000000015</v>
+        <v>101640.00000000001</v>
       </c>
       <c r="BL19" s="76">
         <f>+BL7*Assumptions!$B$3</f>
-        <v>68992.000000000015</v>
+        <v>103488.00000000001</v>
       </c>
       <c r="BM19" s="76">
         <f>+BM7*Assumptions!$B$3</f>
-        <v>70224</v>
+        <v>105336</v>
       </c>
       <c r="BN19" s="76">
         <f>+BN7*Assumptions!$B$3</f>
-        <v>71456</v>
+        <v>107184</v>
       </c>
       <c r="BO19" s="76">
         <f>+BO7*Assumptions!$B$3</f>
-        <v>72688</v>
+        <v>109032.00000000001</v>
       </c>
       <c r="BP19" s="127">
         <f t="shared" si="6"/>
-        <v>790944</v>
+        <v>1186416</v>
       </c>
     </row>
     <row r="20" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7920,259 +7918,259 @@
       </c>
       <c r="E24" s="97">
         <f t="shared" si="17"/>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F24" s="97">
         <f t="shared" si="17"/>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G24" s="98">
         <f t="shared" si="17"/>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H24" s="98">
         <f t="shared" si="17"/>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I24" s="98">
         <f t="shared" si="17"/>
-        <v>6196</v>
+        <v>9276</v>
       </c>
       <c r="J24" s="98">
         <f t="shared" si="17"/>
-        <v>7464.0000000000009</v>
+        <v>11160</v>
       </c>
       <c r="K24" s="98">
         <f t="shared" si="17"/>
-        <v>8732.0000000000018</v>
+        <v>13044.000000000002</v>
       </c>
       <c r="L24" s="98">
         <f t="shared" si="17"/>
-        <v>10000</v>
+        <v>14928.000000000002</v>
       </c>
       <c r="M24" s="98">
         <f t="shared" si="17"/>
-        <v>11268</v>
+        <v>16812</v>
       </c>
       <c r="N24" s="98">
         <f t="shared" si="17"/>
-        <v>12536</v>
+        <v>18696</v>
       </c>
       <c r="O24" s="98">
         <f t="shared" si="17"/>
-        <v>13804.000000000002</v>
+        <v>20580.000000000004</v>
       </c>
       <c r="P24" s="133">
         <f t="shared" si="1"/>
-        <v>82320</v>
+        <v>122976</v>
       </c>
       <c r="Q24" s="98">
         <f t="shared" ref="Q24:AB24" si="18">SUM(Q19:Q22)</f>
-        <v>15072.000000000002</v>
+        <v>22464</v>
       </c>
       <c r="R24" s="98">
         <f t="shared" si="18"/>
-        <v>16340</v>
+        <v>24348</v>
       </c>
       <c r="S24" s="98">
         <f t="shared" si="18"/>
-        <v>17608.000000000004</v>
+        <v>26232.000000000004</v>
       </c>
       <c r="T24" s="98">
         <f t="shared" si="18"/>
-        <v>18876</v>
+        <v>28116</v>
       </c>
       <c r="U24" s="98">
         <f t="shared" si="18"/>
-        <v>20144</v>
+        <v>30000.000000000004</v>
       </c>
       <c r="V24" s="98">
         <f t="shared" si="18"/>
-        <v>21412.000000000004</v>
+        <v>31884.000000000004</v>
       </c>
       <c r="W24" s="98">
         <f t="shared" si="18"/>
-        <v>22680</v>
+        <v>33768</v>
       </c>
       <c r="X24" s="98">
         <f t="shared" si="18"/>
-        <v>23948.000000000004</v>
+        <v>35652</v>
       </c>
       <c r="Y24" s="98">
         <f t="shared" si="18"/>
-        <v>25216</v>
+        <v>37536</v>
       </c>
       <c r="Z24" s="98">
         <f t="shared" si="18"/>
-        <v>26484</v>
+        <v>39420</v>
       </c>
       <c r="AA24" s="98">
         <f t="shared" si="18"/>
-        <v>27752.000000000004</v>
+        <v>41304.000000000007</v>
       </c>
       <c r="AB24" s="98">
         <f t="shared" si="18"/>
-        <v>29020</v>
+        <v>43188</v>
       </c>
       <c r="AC24" s="133">
         <f t="shared" si="3"/>
-        <v>264552</v>
+        <v>393912</v>
       </c>
       <c r="AD24" s="98">
         <f t="shared" ref="AD24:AO24" si="19">SUM(AD19:AD22)</f>
-        <v>30288.000000000004</v>
+        <v>45072</v>
       </c>
       <c r="AE24" s="98">
         <f t="shared" si="19"/>
-        <v>31556.000000000004</v>
+        <v>46956.000000000007</v>
       </c>
       <c r="AF24" s="98">
         <f t="shared" si="19"/>
-        <v>32824</v>
+        <v>48840</v>
       </c>
       <c r="AG24" s="98">
         <f t="shared" si="19"/>
-        <v>34092</v>
+        <v>50724.000000000007</v>
       </c>
       <c r="AH24" s="98">
         <f t="shared" si="19"/>
-        <v>35360.000000000007</v>
+        <v>52608.000000000007</v>
       </c>
       <c r="AI24" s="98">
         <f t="shared" si="19"/>
-        <v>36628</v>
+        <v>54492</v>
       </c>
       <c r="AJ24" s="98">
         <f t="shared" si="19"/>
-        <v>37896</v>
+        <v>56376</v>
       </c>
       <c r="AK24" s="98">
         <f t="shared" si="19"/>
-        <v>39164</v>
+        <v>58260</v>
       </c>
       <c r="AL24" s="98">
         <f t="shared" si="19"/>
-        <v>40432</v>
+        <v>60144.000000000007</v>
       </c>
       <c r="AM24" s="98">
         <f t="shared" si="19"/>
-        <v>41700.000000000007</v>
+        <v>62028.000000000007</v>
       </c>
       <c r="AN24" s="98">
         <f t="shared" si="19"/>
-        <v>42968.000000000007</v>
+        <v>63912.000000000007</v>
       </c>
       <c r="AO24" s="98">
         <f t="shared" si="19"/>
-        <v>44236</v>
+        <v>65796</v>
       </c>
       <c r="AP24" s="133">
         <f t="shared" si="4"/>
-        <v>447144</v>
+        <v>665208</v>
       </c>
       <c r="AQ24" s="98">
         <f t="shared" ref="AQ24:BB24" si="20">SUM(AQ19:AQ22)</f>
-        <v>45504</v>
+        <v>67680</v>
       </c>
       <c r="AR24" s="98">
         <f t="shared" si="20"/>
-        <v>46772</v>
+        <v>69564</v>
       </c>
       <c r="AS24" s="98">
         <f t="shared" si="20"/>
-        <v>48040.000000000007</v>
+        <v>71448</v>
       </c>
       <c r="AT24" s="98">
         <f t="shared" si="20"/>
-        <v>49308.000000000007</v>
+        <v>73332.000000000015</v>
       </c>
       <c r="AU24" s="98">
         <f t="shared" si="20"/>
-        <v>50576</v>
+        <v>75216</v>
       </c>
       <c r="AV24" s="98">
         <f t="shared" si="20"/>
-        <v>51844</v>
+        <v>77100</v>
       </c>
       <c r="AW24" s="98">
         <f t="shared" si="20"/>
-        <v>53112</v>
+        <v>78984</v>
       </c>
       <c r="AX24" s="98">
         <f t="shared" si="20"/>
-        <v>54380.000000000007</v>
+        <v>80868</v>
       </c>
       <c r="AY24" s="98">
         <f t="shared" si="20"/>
-        <v>55648.000000000007</v>
+        <v>82752.000000000015</v>
       </c>
       <c r="AZ24" s="98">
         <f t="shared" si="20"/>
-        <v>56916.000000000007</v>
+        <v>84636.000000000015</v>
       </c>
       <c r="BA24" s="98">
         <f t="shared" si="20"/>
-        <v>58184</v>
+        <v>86520</v>
       </c>
       <c r="BB24" s="98">
         <f t="shared" si="20"/>
-        <v>59452</v>
+        <v>88404</v>
       </c>
       <c r="BC24" s="133">
         <f t="shared" si="5"/>
-        <v>629736</v>
+        <v>936504</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" ref="BD24:BO24" si="21">SUM(BD19:BD22)</f>
-        <v>60720.000000000007</v>
+        <v>90288</v>
       </c>
       <c r="BE24" s="98">
         <f t="shared" si="21"/>
-        <v>61988.000000000007</v>
+        <v>92172.000000000015</v>
       </c>
       <c r="BF24" s="98">
         <f t="shared" si="21"/>
-        <v>63256.000000000007</v>
+        <v>94056.000000000015</v>
       </c>
       <c r="BG24" s="98">
         <f t="shared" si="21"/>
-        <v>64524</v>
+        <v>95940</v>
       </c>
       <c r="BH24" s="98">
         <f t="shared" si="21"/>
-        <v>65792</v>
+        <v>97824</v>
       </c>
       <c r="BI24" s="98">
         <f t="shared" si="21"/>
-        <v>67060</v>
+        <v>99708</v>
       </c>
       <c r="BJ24" s="98">
         <f t="shared" si="21"/>
-        <v>68328</v>
+        <v>101592.00000000001</v>
       </c>
       <c r="BK24" s="98">
         <f t="shared" si="21"/>
-        <v>69596.000000000015</v>
+        <v>103476.00000000001</v>
       </c>
       <c r="BL24" s="98">
         <f t="shared" si="21"/>
-        <v>70864.000000000015</v>
+        <v>105360.00000000001</v>
       </c>
       <c r="BM24" s="98">
         <f t="shared" si="21"/>
-        <v>72132</v>
+        <v>107244</v>
       </c>
       <c r="BN24" s="98">
         <f t="shared" si="21"/>
-        <v>73400</v>
+        <v>109128</v>
       </c>
       <c r="BO24" s="98">
         <f t="shared" si="21"/>
-        <v>74668</v>
+        <v>111012.00000000001</v>
       </c>
       <c r="BP24" s="133">
         <f t="shared" si="6"/>
-        <v>812328</v>
+        <v>1207800</v>
       </c>
     </row>
     <row r="25" spans="1:68" s="77" customFormat="1" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -8354,259 +8352,259 @@
       <c r="D27" s="101"/>
       <c r="E27" s="76">
         <f>(E7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>432.32000000000005</v>
+        <v>552</v>
       </c>
       <c r="F27" s="76">
         <f>(F7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>664.6400000000001</v>
+        <v>904</v>
       </c>
       <c r="G27" s="76">
         <f>(G7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>896.96000000000015</v>
+        <v>1256</v>
       </c>
       <c r="H27" s="76">
         <f>(H7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1129.2800000000002</v>
+        <v>1608</v>
       </c>
       <c r="I27" s="76">
         <f>(I7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1361.6000000000001</v>
+        <v>1960</v>
       </c>
       <c r="J27" s="76">
         <f>(J7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1593.9200000000003</v>
+        <v>2312</v>
       </c>
       <c r="K27" s="76">
         <f>(K7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1826.2400000000002</v>
+        <v>2664.0000000000005</v>
       </c>
       <c r="L27" s="76">
         <f>(L7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2058.5600000000004</v>
+        <v>3016</v>
       </c>
       <c r="M27" s="76">
         <f>(M7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2290.88</v>
+        <v>3368</v>
       </c>
       <c r="N27" s="76">
         <f>(N7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2523.2000000000003</v>
+        <v>3720</v>
       </c>
       <c r="O27" s="76">
         <f>(O7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2755.5200000000004</v>
+        <v>4072.0000000000005</v>
       </c>
       <c r="P27" s="127">
         <f t="shared" si="1"/>
-        <v>17533.120000000003</v>
+        <v>25432</v>
       </c>
       <c r="Q27" s="76">
         <f>(Q7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2987.8400000000006</v>
+        <v>4424</v>
       </c>
       <c r="R27" s="76">
         <f>(R7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3220.1600000000003</v>
+        <v>4776</v>
       </c>
       <c r="S27" s="76">
         <f>(S7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3452.4800000000005</v>
+        <v>5128.0000000000009</v>
       </c>
       <c r="T27" s="76">
         <f>(T7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3684.8</v>
+        <v>5480</v>
       </c>
       <c r="U27" s="76">
         <f>(U7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3917.1200000000003</v>
+        <v>5832</v>
       </c>
       <c r="V27" s="76">
         <f>(V7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4149.4400000000005</v>
+        <v>6184.0000000000009</v>
       </c>
       <c r="W27" s="76">
         <f>(W7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4381.76</v>
+        <v>6536</v>
       </c>
       <c r="X27" s="76">
         <f>(X7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4614.0800000000008</v>
+        <v>6888.0000000000009</v>
       </c>
       <c r="Y27" s="76">
         <f>(Y7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4846.4000000000005</v>
+        <v>7240</v>
       </c>
       <c r="Z27" s="76">
         <f>(Z7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5078.7200000000012</v>
+        <v>7592</v>
       </c>
       <c r="AA27" s="76">
         <f>(AA7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5311.0400000000009</v>
+        <v>7944.0000000000009</v>
       </c>
       <c r="AB27" s="76">
         <f>(AB7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5543.3600000000006</v>
+        <v>8296</v>
       </c>
       <c r="AC27" s="127">
         <f t="shared" si="3"/>
-        <v>51187.200000000012</v>
+        <v>76320</v>
       </c>
       <c r="AD27" s="76">
         <f>(AD7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5775.6800000000012</v>
+        <v>8648</v>
       </c>
       <c r="AE27" s="76">
         <f>(AE7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6008.0000000000009</v>
+        <v>9000.0000000000018</v>
       </c>
       <c r="AF27" s="76">
         <f>(AF7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6240.3200000000006</v>
+        <v>9352</v>
       </c>
       <c r="AG27" s="76">
         <f>(AG7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6472.6400000000012</v>
+        <v>9704</v>
       </c>
       <c r="AH27" s="76">
         <f>(AH7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6704.9600000000009</v>
+        <v>10056.000000000002</v>
       </c>
       <c r="AI27" s="76">
         <f>(AI7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6937.2800000000007</v>
+        <v>10408</v>
       </c>
       <c r="AJ27" s="76">
         <f>(AJ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7169.6</v>
+        <v>10760</v>
       </c>
       <c r="AK27" s="76">
         <f>(AK7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7401.92</v>
+        <v>11112</v>
       </c>
       <c r="AL27" s="76">
         <f>(AL7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7634.2400000000007</v>
+        <v>11464</v>
       </c>
       <c r="AM27" s="76">
         <f>(AM7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7866.5600000000013</v>
+        <v>11816.000000000002</v>
       </c>
       <c r="AN27" s="76">
         <f>(AN7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8098.880000000001</v>
+        <v>12168.000000000002</v>
       </c>
       <c r="AO27" s="76">
         <f>(AO7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8331.2000000000007</v>
+        <v>12520</v>
       </c>
       <c r="AP27" s="127">
         <f t="shared" si="4"/>
-        <v>84641.279999999999</v>
+        <v>127008</v>
       </c>
       <c r="AQ27" s="76">
         <f>(AQ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8563.52</v>
+        <v>12872</v>
       </c>
       <c r="AR27" s="76">
         <f>(AR7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8795.84</v>
+        <v>13224</v>
       </c>
       <c r="AS27" s="76">
         <f>(AS7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9028.1600000000017</v>
+        <v>13576.000000000002</v>
       </c>
       <c r="AT27" s="76">
         <f>(AT7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9260.4800000000014</v>
+        <v>13928.000000000002</v>
       </c>
       <c r="AU27" s="76">
         <f>(AU7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9492.8000000000011</v>
+        <v>14280</v>
       </c>
       <c r="AV27" s="76">
         <f>(AV7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9725.1200000000008</v>
+        <v>14632</v>
       </c>
       <c r="AW27" s="76">
         <f>(AW7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9957.4400000000023</v>
+        <v>14984</v>
       </c>
       <c r="AX27" s="76">
         <f>(AX7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10189.760000000002</v>
+        <v>15336.000000000002</v>
       </c>
       <c r="AY27" s="76">
         <f>(AY7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10422.080000000002</v>
+        <v>15688.000000000002</v>
       </c>
       <c r="AZ27" s="76">
         <f>(AZ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10654.400000000003</v>
+        <v>16040.000000000002</v>
       </c>
       <c r="BA27" s="76">
         <f>(BA7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10886.720000000001</v>
+        <v>16392</v>
       </c>
       <c r="BB27" s="76">
         <f>(BB7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11119.040000000003</v>
+        <v>16744</v>
       </c>
       <c r="BC27" s="127">
         <f t="shared" si="5"/>
-        <v>118095.36000000004</v>
+        <v>177696</v>
       </c>
       <c r="BD27" s="76">
         <f>(BD7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11351.360000000002</v>
+        <v>17096</v>
       </c>
       <c r="BE27" s="76">
         <f>(BE7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11583.680000000002</v>
+        <v>17448</v>
       </c>
       <c r="BF27" s="76">
         <f>(BF7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11816.000000000002</v>
+        <v>17800.000000000004</v>
       </c>
       <c r="BG27" s="76">
         <f>(BG7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12048.320000000002</v>
+        <v>18152</v>
       </c>
       <c r="BH27" s="76">
         <f>(BH7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12280.640000000001</v>
+        <v>18504</v>
       </c>
       <c r="BI27" s="76">
         <f>(BI7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12512.960000000001</v>
+        <v>18856</v>
       </c>
       <c r="BJ27" s="76">
         <f>(BJ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12745.280000000002</v>
+        <v>19208</v>
       </c>
       <c r="BK27" s="76">
         <f>(BK7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12977.600000000002</v>
+        <v>19560.000000000004</v>
       </c>
       <c r="BL27" s="76">
         <f>(BL7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13209.920000000002</v>
+        <v>19912.000000000004</v>
       </c>
       <c r="BM27" s="76">
         <f>(BM7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13442.240000000002</v>
+        <v>20264</v>
       </c>
       <c r="BN27" s="76">
         <f>(BN7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13674.560000000001</v>
+        <v>20616</v>
       </c>
       <c r="BO27" s="76">
         <f>(BO7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13906.880000000001</v>
+        <v>20968</v>
       </c>
       <c r="BP27" s="127">
         <f t="shared" si="6"/>
-        <v>151549.44000000003</v>
+        <v>228384</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,259 +8615,259 @@
       <c r="D28" s="101"/>
       <c r="E28" s="76">
         <f>+E27*Assumptions!$B$10</f>
-        <v>8.6464000000000016</v>
+        <v>11.040000000000001</v>
       </c>
       <c r="F28" s="76">
         <f>+F27*Assumptions!$B$10</f>
-        <v>13.292800000000002</v>
+        <v>18.080000000000002</v>
       </c>
       <c r="G28" s="76">
         <f>+G27*Assumptions!$B$10</f>
-        <v>17.939200000000003</v>
+        <v>25.12</v>
       </c>
       <c r="H28" s="76">
         <f>+H27*Assumptions!$B$10</f>
-        <v>22.585600000000003</v>
+        <v>32.160000000000004</v>
       </c>
       <c r="I28" s="76">
         <f>+I27*Assumptions!$B$10</f>
-        <v>27.232000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J28" s="76">
         <f>+J27*Assumptions!$B$10</f>
-        <v>31.878400000000006</v>
+        <v>46.24</v>
       </c>
       <c r="K28" s="76">
         <f>+K27*Assumptions!$B$10</f>
-        <v>36.524800000000006</v>
+        <v>53.280000000000008</v>
       </c>
       <c r="L28" s="76">
         <f>+L27*Assumptions!$B$10</f>
-        <v>41.171200000000006</v>
+        <v>60.32</v>
       </c>
       <c r="M28" s="76">
         <f>+M27*Assumptions!$B$10</f>
-        <v>45.817600000000006</v>
+        <v>67.36</v>
       </c>
       <c r="N28" s="76">
         <f>+N27*Assumptions!$B$10</f>
-        <v>50.464000000000006</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="O28" s="76">
         <f>+O27*Assumptions!$B$10</f>
-        <v>55.110400000000013</v>
+        <v>81.440000000000012</v>
       </c>
       <c r="P28" s="127">
         <f>+P27*Assumptions!$B$10</f>
-        <v>350.66240000000005</v>
+        <v>508.64</v>
       </c>
       <c r="Q28" s="76">
         <f>+Q27*Assumptions!$B$10</f>
-        <v>59.756800000000013</v>
+        <v>88.48</v>
       </c>
       <c r="R28" s="76">
         <f>+R27*Assumptions!$B$10</f>
-        <v>64.403200000000012</v>
+        <v>95.52</v>
       </c>
       <c r="S28" s="76">
         <f>+S27*Assumptions!$B$10</f>
-        <v>69.049600000000012</v>
+        <v>102.56000000000002</v>
       </c>
       <c r="T28" s="76">
         <f>+T27*Assumptions!$B$10</f>
-        <v>73.696000000000012</v>
+        <v>109.60000000000001</v>
       </c>
       <c r="U28" s="76">
         <f>+U27*Assumptions!$B$10</f>
-        <v>78.342400000000012</v>
+        <v>116.64</v>
       </c>
       <c r="V28" s="76">
         <f>+V27*Assumptions!$B$10</f>
-        <v>82.988800000000012</v>
+        <v>123.68000000000002</v>
       </c>
       <c r="W28" s="76">
         <f>+W27*Assumptions!$B$10</f>
-        <v>87.635200000000012</v>
+        <v>130.72</v>
       </c>
       <c r="X28" s="76">
         <f>+X27*Assumptions!$B$10</f>
-        <v>92.281600000000012</v>
+        <v>137.76000000000002</v>
       </c>
       <c r="Y28" s="76">
         <f>+Y27*Assumptions!$B$10</f>
-        <v>96.928000000000011</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="Z28" s="76">
         <f>+Z27*Assumptions!$B$10</f>
-        <v>101.57440000000003</v>
+        <v>151.84</v>
       </c>
       <c r="AA28" s="76">
         <f>+AA27*Assumptions!$B$10</f>
-        <v>106.22080000000003</v>
+        <v>158.88000000000002</v>
       </c>
       <c r="AB28" s="76">
         <f>+AB27*Assumptions!$B$10</f>
-        <v>110.86720000000001</v>
+        <v>165.92000000000002</v>
       </c>
       <c r="AC28" s="127">
         <f>+AC27*Assumptions!$B$10</f>
-        <v>1023.7440000000003</v>
+        <v>1526.4</v>
       </c>
       <c r="AD28" s="76">
         <f>+AD27*Assumptions!$B$10</f>
-        <v>115.51360000000003</v>
+        <v>172.96</v>
       </c>
       <c r="AE28" s="76">
         <f>+AE27*Assumptions!$B$10</f>
-        <v>120.16000000000003</v>
+        <v>180.00000000000003</v>
       </c>
       <c r="AF28" s="76">
         <f>+AF27*Assumptions!$B$10</f>
-        <v>124.80640000000001</v>
+        <v>187.04</v>
       </c>
       <c r="AG28" s="76">
         <f>+AG27*Assumptions!$B$10</f>
-        <v>129.45280000000002</v>
+        <v>194.08</v>
       </c>
       <c r="AH28" s="76">
         <f>+AH27*Assumptions!$B$10</f>
-        <v>134.09920000000002</v>
+        <v>201.12000000000003</v>
       </c>
       <c r="AI28" s="76">
         <f>+AI27*Assumptions!$B$10</f>
-        <v>138.74560000000002</v>
+        <v>208.16</v>
       </c>
       <c r="AJ28" s="76">
         <f>+AJ27*Assumptions!$B$10</f>
-        <v>143.39200000000002</v>
+        <v>215.20000000000002</v>
       </c>
       <c r="AK28" s="76">
         <f>+AK27*Assumptions!$B$10</f>
-        <v>148.0384</v>
+        <v>222.24</v>
       </c>
       <c r="AL28" s="76">
         <f>+AL27*Assumptions!$B$10</f>
-        <v>152.68480000000002</v>
+        <v>229.28</v>
       </c>
       <c r="AM28" s="76">
         <f>+AM27*Assumptions!$B$10</f>
-        <v>157.33120000000002</v>
+        <v>236.32000000000005</v>
       </c>
       <c r="AN28" s="76">
         <f>+AN27*Assumptions!$B$10</f>
-        <v>161.97760000000002</v>
+        <v>243.36000000000004</v>
       </c>
       <c r="AO28" s="76">
         <f>+AO27*Assumptions!$B$10</f>
-        <v>166.62400000000002</v>
+        <v>250.4</v>
       </c>
       <c r="AP28" s="127">
         <f>+AP27*Assumptions!$B$10</f>
-        <v>1692.8256000000001</v>
+        <v>2540.16</v>
       </c>
       <c r="AQ28" s="76">
         <f>+AQ27*Assumptions!$B$10</f>
-        <v>171.27040000000002</v>
+        <v>257.44</v>
       </c>
       <c r="AR28" s="76">
         <f>+AR27*Assumptions!$B$10</f>
-        <v>175.91679999999999</v>
+        <v>264.48</v>
       </c>
       <c r="AS28" s="76">
         <f>+AS27*Assumptions!$B$10</f>
-        <v>180.56320000000002</v>
+        <v>271.52000000000004</v>
       </c>
       <c r="AT28" s="76">
         <f>+AT27*Assumptions!$B$10</f>
-        <v>185.20960000000002</v>
+        <v>278.56000000000006</v>
       </c>
       <c r="AU28" s="76">
         <f>+AU27*Assumptions!$B$10</f>
-        <v>189.85600000000002</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="AV28" s="76">
         <f>+AV27*Assumptions!$B$10</f>
-        <v>194.50240000000002</v>
+        <v>292.64</v>
       </c>
       <c r="AW28" s="76">
         <f>+AW27*Assumptions!$B$10</f>
-        <v>199.14880000000005</v>
+        <v>299.68</v>
       </c>
       <c r="AX28" s="76">
         <f>+AX27*Assumptions!$B$10</f>
-        <v>203.79520000000005</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="AY28" s="76">
         <f>+AY27*Assumptions!$B$10</f>
-        <v>208.44160000000005</v>
+        <v>313.76000000000005</v>
       </c>
       <c r="AZ28" s="76">
         <f>+AZ27*Assumptions!$B$10</f>
-        <v>213.08800000000008</v>
+        <v>320.80000000000007</v>
       </c>
       <c r="BA28" s="76">
         <f>+BA27*Assumptions!$B$10</f>
-        <v>217.73440000000002</v>
+        <v>327.84000000000003</v>
       </c>
       <c r="BB28" s="76">
         <f>+BB27*Assumptions!$B$10</f>
-        <v>222.38080000000005</v>
+        <v>334.88</v>
       </c>
       <c r="BC28" s="127">
         <f>+BC27*Assumptions!$B$10</f>
-        <v>2361.907200000001</v>
+        <v>3553.92</v>
       </c>
       <c r="BD28" s="76">
         <f>+BD27*Assumptions!$B$10</f>
-        <v>227.02720000000005</v>
+        <v>341.92</v>
       </c>
       <c r="BE28" s="76">
         <f>+BE27*Assumptions!$B$10</f>
-        <v>231.67360000000005</v>
+        <v>348.96</v>
       </c>
       <c r="BF28" s="76">
         <f>+BF27*Assumptions!$B$10</f>
-        <v>236.32000000000005</v>
+        <v>356.00000000000006</v>
       </c>
       <c r="BG28" s="76">
         <f>+BG27*Assumptions!$B$10</f>
-        <v>240.96640000000002</v>
+        <v>363.04</v>
       </c>
       <c r="BH28" s="76">
         <f>+BH27*Assumptions!$B$10</f>
-        <v>245.61280000000002</v>
+        <v>370.08</v>
       </c>
       <c r="BI28" s="76">
         <f>+BI27*Assumptions!$B$10</f>
-        <v>250.25920000000002</v>
+        <v>377.12</v>
       </c>
       <c r="BJ28" s="76">
         <f>+BJ27*Assumptions!$B$10</f>
-        <v>254.90560000000005</v>
+        <v>384.16</v>
       </c>
       <c r="BK28" s="76">
         <f>+BK27*Assumptions!$B$10</f>
-        <v>259.55200000000002</v>
+        <v>391.2000000000001</v>
       </c>
       <c r="BL28" s="76">
         <f>+BL27*Assumptions!$B$10</f>
-        <v>264.19840000000005</v>
+        <v>398.24000000000007</v>
       </c>
       <c r="BM28" s="76">
         <f>+BM27*Assumptions!$B$10</f>
-        <v>268.84480000000002</v>
+        <v>405.28000000000003</v>
       </c>
       <c r="BN28" s="76">
         <f>+BN27*Assumptions!$B$10</f>
-        <v>273.49120000000005</v>
+        <v>412.32</v>
       </c>
       <c r="BO28" s="76">
         <f>+BO27*Assumptions!$B$10</f>
-        <v>278.13760000000002</v>
+        <v>419.36</v>
       </c>
       <c r="BP28" s="127">
         <f t="shared" si="6"/>
-        <v>3030.9888000000001</v>
+        <v>4567.68</v>
       </c>
     </row>
     <row r="29" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8923,11 +8921,11 @@
       </c>
       <c r="Q29" s="76">
         <f>+M4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>595</v>
       </c>
       <c r="R29" s="76">
         <f>+N4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>595</v>
       </c>
       <c r="S29" s="76">
         <f>+O4*Assumptions!$B$11</f>
@@ -8955,27 +8953,27 @@
       </c>
       <c r="Y29" s="76">
         <f>+V4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>1190</v>
       </c>
       <c r="Z29" s="76">
         <f>+W4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>1190</v>
       </c>
       <c r="AA29" s="76">
         <f>+X4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>1190</v>
       </c>
       <c r="AB29" s="76">
         <f>+Y4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>1190</v>
       </c>
       <c r="AC29" s="127">
         <f t="shared" si="3"/>
-        <v>16660</v>
+        <v>13090</v>
       </c>
       <c r="AD29" s="76">
         <f>+Z4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>1190</v>
       </c>
       <c r="AE29" s="76">
         <f>+AA4*Assumptions!$B$11</f>
@@ -8991,143 +8989,143 @@
       </c>
       <c r="AH29" s="76">
         <f>+AE4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AI29" s="76">
         <f>+AF4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AJ29" s="76">
         <f>+AG4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AK29" s="76">
         <f>+AH4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AL29" s="76">
         <f>+AI4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AM29" s="76">
         <f>+AJ4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AN29" s="76">
         <f>+AK4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AO29" s="76">
         <f>+AL4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>1785</v>
       </c>
       <c r="AP29" s="127">
         <f t="shared" si="4"/>
-        <v>26180</v>
+        <v>20825</v>
       </c>
       <c r="AQ29" s="76">
         <f>+AM4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AR29" s="76">
         <f>+AN4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AS29" s="76">
         <f>+AO4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AT29" s="76">
         <f>+AQ4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AU29" s="76">
         <f>+AR4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AV29" s="76">
         <f>+AS4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AW29" s="76">
         <f>+AT4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AX29" s="76">
         <f>+AU4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>2380</v>
       </c>
       <c r="AY29" s="76">
         <f>+AV4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2380</v>
       </c>
       <c r="AZ29" s="76">
         <f>+AW4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2380</v>
       </c>
       <c r="BA29" s="76">
         <f>+AX4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2380</v>
       </c>
       <c r="BB29" s="76">
         <f>+AY4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2975</v>
       </c>
       <c r="BC29" s="127">
         <f t="shared" si="5"/>
-        <v>38080</v>
+        <v>29155</v>
       </c>
       <c r="BD29" s="76">
         <f>+AZ4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2975</v>
       </c>
       <c r="BE29" s="76">
         <f>+BA4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2975</v>
       </c>
       <c r="BF29" s="76">
         <f>+BB4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2975</v>
       </c>
       <c r="BG29" s="76">
         <f>+BD4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>2975</v>
       </c>
       <c r="BH29" s="76">
         <f>+BE4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BI29" s="76">
         <f>+BF4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BJ29" s="76">
         <f>+BG4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BK29" s="76">
         <f>+BH4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BL29" s="76">
         <f>+BI4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BM29" s="76">
         <f>+BJ4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>2975</v>
       </c>
       <c r="BN29" s="76">
         <f>+BK4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>3570</v>
       </c>
       <c r="BO29" s="76">
         <f>+BL4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>3570</v>
       </c>
       <c r="BP29" s="127">
         <f t="shared" si="6"/>
-        <v>47600</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="30" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9171,11 +9169,11 @@
       </c>
       <c r="M30" s="76">
         <f>+Assumptions!$B$12*M4</f>
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="N30" s="76">
         <f>+Assumptions!$B$12*N4</f>
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="O30" s="76">
         <f>+Assumptions!$B$12*O4</f>
@@ -9183,7 +9181,7 @@
       </c>
       <c r="P30" s="127">
         <f t="shared" si="1"/>
-        <v>6132</v>
+        <v>5256</v>
       </c>
       <c r="Q30" s="76">
         <f>+Assumptions!$B$12*Q4</f>
@@ -9207,23 +9205,23 @@
       </c>
       <c r="V30" s="76">
         <f>+Assumptions!$B$12*V4</f>
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="W30" s="76">
         <f>+Assumptions!$B$12*W4</f>
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="X30" s="76">
         <f>+Assumptions!$B$12*X4</f>
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="Y30" s="76">
         <f>+Assumptions!$B$12*Y4</f>
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="Z30" s="76">
         <f>+Assumptions!$B$12*Z4</f>
-        <v>1314</v>
+        <v>876</v>
       </c>
       <c r="AA30" s="76">
         <f>+Assumptions!$B$12*AA4</f>
@@ -9235,7 +9233,7 @@
       </c>
       <c r="AC30" s="127">
         <f t="shared" si="3"/>
-        <v>13578</v>
+        <v>11388</v>
       </c>
       <c r="AD30" s="76">
         <f>+Assumptions!$B$12*AD4</f>
@@ -9243,155 +9241,155 @@
       </c>
       <c r="AE30" s="76">
         <f>+Assumptions!$B$12*AE4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AF30" s="76">
         <f>+Assumptions!$B$12*AF4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AG30" s="76">
         <f>+Assumptions!$B$12*AG4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AH30" s="76">
         <f>+Assumptions!$B$12*AH4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AI30" s="76">
         <f>+Assumptions!$B$12*AI4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AJ30" s="76">
         <f>+Assumptions!$B$12*AJ4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AK30" s="76">
         <f>+Assumptions!$B$12*AK4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AL30" s="76">
         <f>+Assumptions!$B$12*AL4</f>
-        <v>1752</v>
+        <v>1314</v>
       </c>
       <c r="AM30" s="76">
         <f>+Assumptions!$B$12*AM4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AN30" s="76">
         <f>+Assumptions!$B$12*AN4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AO30" s="76">
         <f>+Assumptions!$B$12*AO4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AP30" s="127">
         <f t="shared" si="4"/>
-        <v>21900</v>
+        <v>17082</v>
       </c>
       <c r="AQ30" s="76">
         <f>+Assumptions!$B$12*AQ4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AR30" s="76">
         <f>+Assumptions!$B$12*AR4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AS30" s="76">
         <f>+Assumptions!$B$12*AS4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AT30" s="76">
         <f>+Assumptions!$B$12*AT4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AU30" s="76">
         <f>+Assumptions!$B$12*AU4</f>
-        <v>2190</v>
+        <v>1752</v>
       </c>
       <c r="AV30" s="76">
         <f>+Assumptions!$B$12*AV4</f>
-        <v>2628</v>
+        <v>1752</v>
       </c>
       <c r="AW30" s="76">
         <f>+Assumptions!$B$12*AW4</f>
-        <v>2628</v>
+        <v>1752</v>
       </c>
       <c r="AX30" s="76">
         <f>+Assumptions!$B$12*AX4</f>
-        <v>2628</v>
+        <v>1752</v>
       </c>
       <c r="AY30" s="76">
         <f>+Assumptions!$B$12*AY4</f>
-        <v>2628</v>
+        <v>2190</v>
       </c>
       <c r="AZ30" s="76">
         <f>+Assumptions!$B$12*AZ4</f>
-        <v>2628</v>
+        <v>2190</v>
       </c>
       <c r="BA30" s="76">
         <f>+Assumptions!$B$12*BA4</f>
-        <v>2628</v>
+        <v>2190</v>
       </c>
       <c r="BB30" s="76">
         <f>+Assumptions!$B$12*BB4</f>
-        <v>2628</v>
+        <v>2190</v>
       </c>
       <c r="BC30" s="127">
         <f t="shared" si="5"/>
-        <v>29346</v>
+        <v>22776</v>
       </c>
       <c r="BD30" s="76">
         <f>+Assumptions!$B$12*BD4</f>
-        <v>2628</v>
+        <v>2190</v>
       </c>
       <c r="BE30" s="76">
         <f>+Assumptions!$B$12*BE4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BF30" s="76">
         <f>+Assumptions!$B$12*BF4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BG30" s="76">
         <f>+Assumptions!$B$12*BG4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BH30" s="76">
         <f>+Assumptions!$B$12*BH4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BI30" s="76">
         <f>+Assumptions!$B$12*BI4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BJ30" s="76">
         <f>+Assumptions!$B$12*BJ4</f>
-        <v>3066</v>
+        <v>2190</v>
       </c>
       <c r="BK30" s="76">
         <f>+Assumptions!$B$12*BK4</f>
-        <v>3066</v>
+        <v>2628</v>
       </c>
       <c r="BL30" s="76">
         <f>+Assumptions!$B$12*BL4</f>
-        <v>3066</v>
+        <v>2628</v>
       </c>
       <c r="BM30" s="76">
         <f>+Assumptions!$B$12*BM4</f>
-        <v>3504</v>
+        <v>2628</v>
       </c>
       <c r="BN30" s="76">
         <f>+Assumptions!$B$12*BN4</f>
-        <v>3504</v>
+        <v>2628</v>
       </c>
       <c r="BO30" s="76">
         <f>+Assumptions!$B$12*BO4</f>
-        <v>3504</v>
+        <v>2628</v>
       </c>
       <c r="BP30" s="127">
         <f t="shared" si="6"/>
-        <v>37668</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="31" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9438,11 +9436,11 @@
       </c>
       <c r="M31" s="76">
         <f>+Assumptions!$B$39*M4</f>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N31" s="76">
         <f>+Assumptions!$B$39*N4</f>
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="O31" s="76">
         <f>+Assumptions!$B$39*O4</f>
@@ -9450,7 +9448,7 @@
       </c>
       <c r="P31" s="127">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>4550</v>
       </c>
       <c r="Q31" s="76">
         <f>+Assumptions!$B$39*Q4</f>
@@ -9474,23 +9472,23 @@
       </c>
       <c r="V31" s="76">
         <f>+Assumptions!$B$39*V4</f>
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="W31" s="76">
         <f>+Assumptions!$B$39*W4</f>
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="X31" s="76">
         <f>+Assumptions!$B$39*X4</f>
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="Y31" s="76">
         <f>+Assumptions!$B$39*Y4</f>
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="Z31" s="76">
         <f>+Assumptions!$B$39*Z4</f>
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="AA31" s="76">
         <f>+Assumptions!$B$39*AA4</f>
@@ -9502,7 +9500,7 @@
       </c>
       <c r="AC31" s="127">
         <f t="shared" si="3"/>
-        <v>10850</v>
+        <v>9100</v>
       </c>
       <c r="AD31" s="76">
         <f>+Assumptions!$B$39*AD4</f>
@@ -9510,155 +9508,155 @@
       </c>
       <c r="AE31" s="76">
         <f>+Assumptions!$B$39*AE4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AF31" s="76">
         <f>+Assumptions!$B$39*AF4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AG31" s="76">
         <f>+Assumptions!$B$39*AG4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AH31" s="76">
         <f>+Assumptions!$B$39*AH4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AI31" s="76">
         <f>+Assumptions!$B$39*AI4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AJ31" s="76">
         <f>+Assumptions!$B$39*AJ4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AK31" s="76">
         <f>+Assumptions!$B$39*AK4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AL31" s="76">
         <f>+Assumptions!$B$39*AL4</f>
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="AM31" s="76">
         <f>+Assumptions!$B$39*AM4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AN31" s="76">
         <f>+Assumptions!$B$39*AN4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AO31" s="76">
         <f>+Assumptions!$B$39*AO4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AP31" s="127">
         <f t="shared" si="4"/>
-        <v>17500</v>
+        <v>13650</v>
       </c>
       <c r="AQ31" s="76">
         <f>+Assumptions!$B$39*AQ4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AR31" s="76">
         <f>+Assumptions!$B$39*AR4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AS31" s="76">
         <f>+Assumptions!$B$39*AS4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AT31" s="76">
         <f>+Assumptions!$B$39*AT4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AU31" s="76">
         <f>+Assumptions!$B$39*AU4</f>
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="AV31" s="76">
         <f>+Assumptions!$B$39*AV4</f>
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="AW31" s="76">
         <f>+Assumptions!$B$39*AW4</f>
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="AX31" s="76">
         <f>+Assumptions!$B$39*AX4</f>
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="AY31" s="76">
         <f>+Assumptions!$B$39*AY4</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="AZ31" s="76">
         <f>+Assumptions!$B$39*AZ4</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="BA31" s="76">
         <f>+Assumptions!$B$39*BA4</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="BB31" s="76">
         <f>+Assumptions!$B$39*BB4</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="BC31" s="127">
         <f t="shared" si="5"/>
-        <v>23450</v>
+        <v>18200</v>
       </c>
       <c r="BD31" s="76">
         <f>+Assumptions!$B$39*BD4</f>
-        <v>2100</v>
+        <v>1750</v>
       </c>
       <c r="BE31" s="76">
         <f>+Assumptions!$B$39*BE4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BF31" s="76">
         <f>+Assumptions!$B$39*BF4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BG31" s="76">
         <f>+Assumptions!$B$39*BG4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BH31" s="76">
         <f>+Assumptions!$B$39*BH4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BI31" s="76">
         <f>+Assumptions!$B$39*BI4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BJ31" s="76">
         <f>+Assumptions!$B$39*BJ4</f>
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="BK31" s="76">
         <f>+Assumptions!$B$39*BK4</f>
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="BL31" s="76">
         <f>+Assumptions!$B$39*BL4</f>
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="BM31" s="76">
         <f>+Assumptions!$B$39*BM4</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="BN31" s="76">
         <f>+Assumptions!$B$39*BN4</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="BO31" s="76">
         <f>+Assumptions!$B$39*BO4</f>
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="BP31" s="127">
         <f t="shared" si="6"/>
-        <v>30100</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="32" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9705,11 +9703,11 @@
       </c>
       <c r="M32" s="76">
         <f>+Assumptions!$B$40*M4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N32" s="76">
         <f>+Assumptions!$B$40*N4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O32" s="76">
         <f>+Assumptions!$B$40*O4</f>
@@ -9717,7 +9715,7 @@
       </c>
       <c r="P32" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q32" s="76">
         <f>+Assumptions!$B$40*Q4</f>
@@ -9741,23 +9739,23 @@
       </c>
       <c r="V32" s="76">
         <f>+Assumptions!$B$40*V4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W32" s="76">
         <f>+Assumptions!$B$40*W4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X32" s="76">
         <f>+Assumptions!$B$40*X4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y32" s="76">
         <f>+Assumptions!$B$40*Y4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z32" s="76">
         <f>+Assumptions!$B$40*Z4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="76">
         <f>+Assumptions!$B$40*AA4</f>
@@ -9769,7 +9767,7 @@
       </c>
       <c r="AC32" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="AD32" s="76">
         <f>+Assumptions!$B$40*AD4</f>
@@ -9777,155 +9775,155 @@
       </c>
       <c r="AE32" s="76">
         <f>+Assumptions!$B$40*AE4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AF32" s="76">
         <f>+Assumptions!$B$40*AF4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AG32" s="76">
         <f>+Assumptions!$B$40*AG4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH32" s="76">
         <f>+Assumptions!$B$40*AH4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI32" s="76">
         <f>+Assumptions!$B$40*AI4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AJ32" s="76">
         <f>+Assumptions!$B$40*AJ4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AK32" s="76">
         <f>+Assumptions!$B$40*AK4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AL32" s="76">
         <f>+Assumptions!$B$40*AL4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AM32" s="76">
         <f>+Assumptions!$B$40*AM4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN32" s="76">
         <f>+Assumptions!$B$40*AN4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AO32" s="76">
         <f>+Assumptions!$B$40*AO4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AP32" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>3900</v>
       </c>
       <c r="AQ32" s="76">
         <f>+Assumptions!$B$40*AQ4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AR32" s="76">
         <f>+Assumptions!$B$40*AR4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AS32" s="76">
         <f>+Assumptions!$B$40*AS4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AT32" s="76">
         <f>+Assumptions!$B$40*AT4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AU32" s="76">
         <f>+Assumptions!$B$40*AU4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AV32" s="76">
         <f>+Assumptions!$B$40*AV4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AW32" s="76">
         <f>+Assumptions!$B$40*AW4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AX32" s="76">
         <f>+Assumptions!$B$40*AX4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AY32" s="76">
         <f>+Assumptions!$B$40*AY4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AZ32" s="76">
         <f>+Assumptions!$B$40*AZ4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BA32" s="76">
         <f>+Assumptions!$B$40*BA4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BB32" s="76">
         <f>+Assumptions!$B$40*BB4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BC32" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="BD32" s="76">
         <f>+Assumptions!$B$40*BD4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BE32" s="76">
         <f>+Assumptions!$B$40*BE4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BF32" s="76">
         <f>+Assumptions!$B$40*BF4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BG32" s="76">
         <f>+Assumptions!$B$40*BG4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BH32" s="76">
         <f>+Assumptions!$B$40*BH4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BI32" s="76">
         <f>+Assumptions!$B$40*BI4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BJ32" s="76">
         <f>+Assumptions!$B$40*BJ4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BK32" s="76">
         <f>+Assumptions!$B$40*BK4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BL32" s="76">
         <f>+Assumptions!$B$40*BL4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BM32" s="76">
         <f>+Assumptions!$B$40*BM4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BN32" s="76">
         <f>+Assumptions!$B$40*BN4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BO32" s="76">
         <f>+Assumptions!$B$40*BO4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BP32" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="33" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9972,11 +9970,11 @@
       </c>
       <c r="M33" s="76">
         <f>+Assumptions!$B$41*M4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="76">
         <f>+Assumptions!$B$41*N4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="76">
         <f>+Assumptions!$B$41*O4</f>
@@ -9984,7 +9982,7 @@
       </c>
       <c r="P33" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q33" s="76">
         <f>+Assumptions!$B$41*Q4</f>
@@ -10008,23 +10006,23 @@
       </c>
       <c r="V33" s="76">
         <f>+Assumptions!$B$41*V4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W33" s="76">
         <f>+Assumptions!$B$41*W4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X33" s="76">
         <f>+Assumptions!$B$41*X4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y33" s="76">
         <f>+Assumptions!$B$41*Y4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z33" s="76">
         <f>+Assumptions!$B$41*Z4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="76">
         <f>+Assumptions!$B$41*AA4</f>
@@ -10036,7 +10034,7 @@
       </c>
       <c r="AC33" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="AD33" s="76">
         <f>+Assumptions!$B$41*AD4</f>
@@ -10044,155 +10042,155 @@
       </c>
       <c r="AE33" s="76">
         <f>+Assumptions!$B$41*AE4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AF33" s="76">
         <f>+Assumptions!$B$41*AF4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AG33" s="76">
         <f>+Assumptions!$B$41*AG4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH33" s="76">
         <f>+Assumptions!$B$41*AH4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI33" s="76">
         <f>+Assumptions!$B$41*AI4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AJ33" s="76">
         <f>+Assumptions!$B$41*AJ4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AK33" s="76">
         <f>+Assumptions!$B$41*AK4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AL33" s="76">
         <f>+Assumptions!$B$41*AL4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AM33" s="76">
         <f>+Assumptions!$B$41*AM4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN33" s="76">
         <f>+Assumptions!$B$41*AN4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AO33" s="76">
         <f>+Assumptions!$B$41*AO4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AP33" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>3900</v>
       </c>
       <c r="AQ33" s="76">
         <f>+Assumptions!$B$41*AQ4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AR33" s="76">
         <f>+Assumptions!$B$41*AR4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AS33" s="76">
         <f>+Assumptions!$B$41*AS4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AT33" s="76">
         <f>+Assumptions!$B$41*AT4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AU33" s="76">
         <f>+Assumptions!$B$41*AU4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AV33" s="76">
         <f>+Assumptions!$B$41*AV4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AW33" s="76">
         <f>+Assumptions!$B$41*AW4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AX33" s="76">
         <f>+Assumptions!$B$41*AX4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AY33" s="76">
         <f>+Assumptions!$B$41*AY4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AZ33" s="76">
         <f>+Assumptions!$B$41*AZ4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BA33" s="76">
         <f>+Assumptions!$B$41*BA4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BB33" s="76">
         <f>+Assumptions!$B$41*BB4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BC33" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="BD33" s="76">
         <f>+Assumptions!$B$41*BD4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BE33" s="76">
         <f>+Assumptions!$B$41*BE4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BF33" s="76">
         <f>+Assumptions!$B$41*BF4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BG33" s="76">
         <f>+Assumptions!$B$41*BG4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BH33" s="76">
         <f>+Assumptions!$B$41*BH4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BI33" s="76">
         <f>+Assumptions!$B$41*BI4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BJ33" s="76">
         <f>+Assumptions!$B$41*BJ4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BK33" s="76">
         <f>+Assumptions!$B$41*BK4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BL33" s="76">
         <f>+Assumptions!$B$41*BL4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BM33" s="76">
         <f>+Assumptions!$B$41*BM4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BN33" s="76">
         <f>+Assumptions!$B$41*BN4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BO33" s="76">
         <f>+Assumptions!$B$41*BO4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BP33" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="34" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10239,11 +10237,11 @@
       </c>
       <c r="M34" s="76">
         <f>+Assumptions!$B$42*M4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N34" s="76">
         <f>+Assumptions!$B$42*N4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O34" s="76">
         <f>+Assumptions!$B$42*O4</f>
@@ -10251,7 +10249,7 @@
       </c>
       <c r="P34" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q34" s="76">
         <f>+Assumptions!$B$42*Q4</f>
@@ -10275,23 +10273,23 @@
       </c>
       <c r="V34" s="76">
         <f>+Assumptions!$B$42*V4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W34" s="76">
         <f>+Assumptions!$B$42*W4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X34" s="76">
         <f>+Assumptions!$B$42*X4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y34" s="76">
         <f>+Assumptions!$B$42*Y4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z34" s="76">
         <f>+Assumptions!$B$42*Z4</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA34" s="76">
         <f>+Assumptions!$B$42*AA4</f>
@@ -10303,7 +10301,7 @@
       </c>
       <c r="AC34" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="AD34" s="76">
         <f>+Assumptions!$B$42*AD4</f>
@@ -10311,155 +10309,155 @@
       </c>
       <c r="AE34" s="76">
         <f>+Assumptions!$B$42*AE4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AF34" s="76">
         <f>+Assumptions!$B$42*AF4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AG34" s="76">
         <f>+Assumptions!$B$42*AG4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH34" s="76">
         <f>+Assumptions!$B$42*AH4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI34" s="76">
         <f>+Assumptions!$B$42*AI4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AJ34" s="76">
         <f>+Assumptions!$B$42*AJ4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AK34" s="76">
         <f>+Assumptions!$B$42*AK4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AL34" s="76">
         <f>+Assumptions!$B$42*AL4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AM34" s="76">
         <f>+Assumptions!$B$42*AM4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN34" s="76">
         <f>+Assumptions!$B$42*AN4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AO34" s="76">
         <f>+Assumptions!$B$42*AO4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AP34" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>3900</v>
       </c>
       <c r="AQ34" s="76">
         <f>+Assumptions!$B$42*AQ4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AR34" s="76">
         <f>+Assumptions!$B$42*AR4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AS34" s="76">
         <f>+Assumptions!$B$42*AS4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AT34" s="76">
         <f>+Assumptions!$B$42*AT4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AU34" s="76">
         <f>+Assumptions!$B$42*AU4</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AV34" s="76">
         <f>+Assumptions!$B$42*AV4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AW34" s="76">
         <f>+Assumptions!$B$42*AW4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AX34" s="76">
         <f>+Assumptions!$B$42*AX4</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AY34" s="76">
         <f>+Assumptions!$B$42*AY4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AZ34" s="76">
         <f>+Assumptions!$B$42*AZ4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BA34" s="76">
         <f>+Assumptions!$B$42*BA4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BB34" s="76">
         <f>+Assumptions!$B$42*BB4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BC34" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="BD34" s="76">
         <f>+Assumptions!$B$42*BD4</f>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="BE34" s="76">
         <f>+Assumptions!$B$42*BE4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BF34" s="76">
         <f>+Assumptions!$B$42*BF4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BG34" s="76">
         <f>+Assumptions!$B$42*BG4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BH34" s="76">
         <f>+Assumptions!$B$42*BH4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BI34" s="76">
         <f>+Assumptions!$B$42*BI4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BJ34" s="76">
         <f>+Assumptions!$B$42*BJ4</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="BK34" s="76">
         <f>+Assumptions!$B$42*BK4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BL34" s="76">
         <f>+Assumptions!$B$42*BL4</f>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="BM34" s="76">
         <f>+Assumptions!$B$42*BM4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BN34" s="76">
         <f>+Assumptions!$B$42*BN4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BO34" s="76">
         <f>+Assumptions!$B$42*BO4</f>
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="BP34" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="35" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10505,11 +10503,11 @@
       </c>
       <c r="M35" s="78">
         <f>+M4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N35" s="78">
         <f>+N4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O35" s="78">
         <f>+O4*Assumptions!$B$44</f>
@@ -10517,7 +10515,7 @@
       </c>
       <c r="P35" s="127">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q35" s="78">
         <f>+Q4*Assumptions!$B$44</f>
@@ -10541,23 +10539,23 @@
       </c>
       <c r="V35" s="78">
         <f>+V4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W35" s="78">
         <f>+W4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X35" s="78">
         <f>+X4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y35" s="78">
         <f>+Y4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z35" s="78">
         <f>+Z4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA35" s="78">
         <f>+AA4*Assumptions!$B$44</f>
@@ -10569,7 +10567,7 @@
       </c>
       <c r="AC35" s="127">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AD35" s="78">
         <f>+AD4*Assumptions!$B$44</f>
@@ -10577,155 +10575,155 @@
       </c>
       <c r="AE35" s="78">
         <f>+AE4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF35" s="78">
         <f>+AF4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG35" s="78">
         <f>+AG4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH35" s="78">
         <f>+AH4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AI35" s="78">
         <f>+AI4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ35" s="78">
         <f>+AJ4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AK35" s="78">
         <f>+AK4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AL35" s="78">
         <f>+AL4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AM35" s="78">
         <f>+AM4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AN35" s="78">
         <f>+AN4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO35" s="78">
         <f>+AO4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP35" s="127">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="AQ35" s="78">
         <f>+AQ4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR35" s="78">
         <f>+AR4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AS35" s="78">
         <f>+AS4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT35" s="78">
         <f>+AT4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AU35" s="78">
         <f>+AU4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV35" s="78">
         <f>+AV4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW35" s="78">
         <f>+AW4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AX35" s="78">
         <f>+AX4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AY35" s="78">
         <f>+AY4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ35" s="78">
         <f>+AZ4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA35" s="78">
         <f>+BA4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB35" s="78">
         <f>+BB4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BC35" s="127">
         <f t="shared" si="5"/>
-        <v>670</v>
+        <v>520</v>
       </c>
       <c r="BD35" s="78">
         <f>+BD4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BE35" s="78">
         <f>+BE4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BF35" s="78">
         <f>+BF4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BG35" s="78">
         <f>+BG4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BH35" s="78">
         <f>+BH4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BI35" s="78">
         <f>+BI4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BJ35" s="78">
         <f>+BJ4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BK35" s="78">
         <f>+BK4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BL35" s="78">
         <f>+BL4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BM35" s="78">
         <f>+BM4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BN35" s="78">
         <f>+BN4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BO35" s="78">
         <f>+BO4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BP35" s="127">
         <f t="shared" si="6"/>
-        <v>860</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10771,11 +10769,11 @@
       </c>
       <c r="M36" s="78">
         <f>+M4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N36" s="78">
         <f>+N4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O36" s="78">
         <f>+O4*Assumptions!$B$43</f>
@@ -10783,7 +10781,7 @@
       </c>
       <c r="P36" s="127">
         <f>SUM(D36:O36)</f>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q36" s="78">
         <f>+Q4*Assumptions!$B$43</f>
@@ -10807,23 +10805,23 @@
       </c>
       <c r="V36" s="78">
         <f>+V4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="W36" s="78">
         <f>+W4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="X36" s="78">
         <f>+X4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y36" s="78">
         <f>+Y4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z36" s="78">
         <f>+Z4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AA36" s="78">
         <f>+AA4*Assumptions!$B$43</f>
@@ -10835,7 +10833,7 @@
       </c>
       <c r="AC36" s="127">
         <f>SUM(Q36:AB36)</f>
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="AD36" s="78">
         <f>+AD4*Assumptions!$B$43</f>
@@ -10843,155 +10841,155 @@
       </c>
       <c r="AE36" s="78">
         <f>+AE4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AF36" s="78">
         <f>+AF4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AG36" s="78">
         <f>+AG4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AH36" s="78">
         <f>+AH4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AI36" s="78">
         <f>+AI4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ36" s="78">
         <f>+AJ4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AK36" s="78">
         <f>+AK4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL36" s="78">
         <f>+AL4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AM36" s="78">
         <f>+AM4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN36" s="78">
         <f>+AN4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AO36" s="78">
         <f>+AO4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP36" s="127">
         <f>SUM(AD36:AO36)</f>
-        <v>2500</v>
+        <v>1950</v>
       </c>
       <c r="AQ36" s="78">
         <f>+AQ4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR36" s="78">
         <f>+AR4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS36" s="78">
         <f>+AS4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT36" s="78">
         <f>+AT4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AU36" s="78">
         <f>+AU4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AV36" s="78">
         <f>+AV4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AW36" s="78">
         <f>+AW4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AX36" s="78">
         <f>+AX4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AY36" s="78">
         <f>+AY4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AZ36" s="78">
         <f>+AZ4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA36" s="78">
         <f>+BA4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB36" s="78">
         <f>+BB4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC36" s="127">
         <f>SUM(AQ36:BB36)</f>
-        <v>3350</v>
+        <v>2600</v>
       </c>
       <c r="BD36" s="78">
         <f>+BD4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BE36" s="78">
         <f>+BE4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BF36" s="78">
         <f>+BF4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BG36" s="78">
         <f>+BG4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BH36" s="78">
         <f>+BH4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BI36" s="78">
         <f>+BI4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BJ36" s="78">
         <f>+BJ4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BK36" s="78">
         <f>+BK4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BL36" s="78">
         <f>+BL4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BM36" s="78">
         <f>+BM4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BN36" s="78">
         <f>+BN4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BO36" s="78">
         <f>+BO4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BP36" s="127">
         <f>SUM(BD36:BO36)</f>
-        <v>4300</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="37" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11037,11 +11035,11 @@
       </c>
       <c r="M37" s="78">
         <f>+M4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N37" s="78">
         <f>+N4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O37" s="78">
         <f>+O4*Assumptions!$B$45</f>
@@ -11049,7 +11047,7 @@
       </c>
       <c r="P37" s="128">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q37" s="78">
         <f>+Q4*Assumptions!$B$45</f>
@@ -11073,23 +11071,23 @@
       </c>
       <c r="V37" s="78">
         <f>+V4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="W37" s="78">
         <f>+W4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="X37" s="78">
         <f>+X4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Y37" s="78">
         <f>+Y4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z37" s="78">
         <f>+Z4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AA37" s="78">
         <f>+AA4*Assumptions!$B$45</f>
@@ -11101,7 +11099,7 @@
       </c>
       <c r="AC37" s="128">
         <f t="shared" si="3"/>
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="AD37" s="78">
         <f>+AD4*Assumptions!$B$45</f>
@@ -11109,155 +11107,155 @@
       </c>
       <c r="AE37" s="78">
         <f>+AE4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AF37" s="78">
         <f>+AF4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AG37" s="78">
         <f>+AG4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AH37" s="78">
         <f>+AH4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AI37" s="78">
         <f>+AI4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ37" s="78">
         <f>+AJ4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AK37" s="78">
         <f>+AK4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL37" s="78">
         <f>+AL4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AM37" s="78">
         <f>+AM4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN37" s="78">
         <f>+AN4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AO37" s="78">
         <f>+AO4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP37" s="128">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>1950</v>
       </c>
       <c r="AQ37" s="78">
         <f>+AQ4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR37" s="78">
         <f>+AR4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS37" s="78">
         <f>+AS4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT37" s="78">
         <f>+AT4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AU37" s="78">
         <f>+AU4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AV37" s="78">
         <f>+AV4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AW37" s="78">
         <f>+AW4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AX37" s="78">
         <f>+AX4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AY37" s="78">
         <f>+AY4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AZ37" s="78">
         <f>+AZ4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA37" s="78">
         <f>+BA4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB37" s="78">
         <f>+BB4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC37" s="128">
         <f t="shared" si="5"/>
-        <v>3350</v>
+        <v>2600</v>
       </c>
       <c r="BD37" s="78">
         <f>+BD4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BE37" s="78">
         <f>+BE4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BF37" s="78">
         <f>+BF4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BG37" s="78">
         <f>+BG4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BH37" s="78">
         <f>+BH4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BI37" s="78">
         <f>+BI4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BJ37" s="78">
         <f>+BJ4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BK37" s="78">
         <f>+BK4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BL37" s="78">
         <f>+BL4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BM37" s="78">
         <f>+BM4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BN37" s="78">
         <f>+BN4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BO37" s="78">
         <f>+BO4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BP37" s="128">
         <f t="shared" si="6"/>
-        <v>4300</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="38" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12070,259 +12068,259 @@
       </c>
       <c r="E41" s="97">
         <f t="shared" ref="E41:I41" si="26">SUM(E27:E39)</f>
-        <v>1638.9664</v>
+        <v>1761.04</v>
       </c>
       <c r="F41" s="97">
         <f t="shared" si="26"/>
-        <v>1875.9328</v>
+        <v>2120.08</v>
       </c>
       <c r="G41" s="97">
         <f t="shared" si="26"/>
-        <v>2707.8992000000003</v>
+        <v>3074.12</v>
       </c>
       <c r="H41" s="97">
         <f t="shared" si="26"/>
-        <v>2944.8656000000001</v>
+        <v>3433.16</v>
       </c>
       <c r="I41" s="97">
         <f t="shared" si="26"/>
-        <v>3193.8320000000003</v>
+        <v>3804.2</v>
       </c>
       <c r="J41" s="97">
         <f t="shared" ref="J41" si="27">SUM(J27:J39)</f>
-        <v>3442.7984000000006</v>
+        <v>4175.24</v>
       </c>
       <c r="K41" s="97">
         <f t="shared" ref="K41" si="28">SUM(K27:K39)</f>
-        <v>3691.7647999999999</v>
+        <v>4546.2800000000007</v>
       </c>
       <c r="L41" s="97">
         <f t="shared" ref="L41" si="29">SUM(L27:L39)</f>
-        <v>3940.7312000000006</v>
+        <v>4917.32</v>
       </c>
       <c r="M41" s="97">
         <f t="shared" ref="M41:N41" si="30">SUM(M27:M39)</f>
-        <v>5387.6975999999995</v>
+        <v>5288.3600000000006</v>
       </c>
       <c r="N41" s="97">
         <f t="shared" si="30"/>
-        <v>5636.6640000000007</v>
+        <v>5659.4</v>
       </c>
       <c r="O41" s="97">
         <f t="shared" ref="O41" si="31">SUM(O27:O39)</f>
-        <v>5885.6304</v>
+        <v>7228.4400000000005</v>
       </c>
       <c r="P41" s="97">
         <f t="shared" ref="P41" si="32">SUM(P27:P39)</f>
-        <v>41106.782400000004</v>
+        <v>46767.64</v>
       </c>
       <c r="Q41" s="97">
         <f t="shared" ref="Q41" si="33">SUM(Q27:Q39)</f>
-        <v>6729.5968000000012</v>
+        <v>7599.48</v>
       </c>
       <c r="R41" s="97">
         <f t="shared" ref="R41:S41" si="34">SUM(R27:R39)</f>
-        <v>6978.5632000000005</v>
+        <v>7970.52</v>
       </c>
       <c r="S41" s="97">
         <f t="shared" si="34"/>
-        <v>7227.5295999999998</v>
+        <v>8936.5600000000013</v>
       </c>
       <c r="T41" s="97">
         <f t="shared" ref="T41" si="35">SUM(T27:T39)</f>
-        <v>7476.4960000000001</v>
+        <v>9307.6</v>
       </c>
       <c r="U41" s="97">
         <f t="shared" ref="U41" si="36">SUM(U27:U39)</f>
-        <v>7725.4624000000003</v>
+        <v>9678.64</v>
       </c>
       <c r="V41" s="97">
         <f t="shared" ref="V41" si="37">SUM(V27:V39)</f>
-        <v>9172.4288000000015</v>
+        <v>10049.68</v>
       </c>
       <c r="W41" s="97">
         <f t="shared" ref="W41:X41" si="38">SUM(W27:W39)</f>
-        <v>9421.395199999999</v>
+        <v>10420.720000000001</v>
       </c>
       <c r="X41" s="97">
         <f t="shared" si="38"/>
-        <v>9670.3616000000002</v>
+        <v>10791.760000000002</v>
       </c>
       <c r="Y41" s="97">
         <f t="shared" ref="Y41" si="39">SUM(Y27:Y39)</f>
-        <v>10514.328000000001</v>
+        <v>11162.8</v>
       </c>
       <c r="Z41" s="97">
         <f t="shared" ref="Z41" si="40">SUM(Z27:Z39)</f>
-        <v>10763.294400000002</v>
+        <v>11533.84</v>
       </c>
       <c r="AA41" s="97">
         <f t="shared" ref="AA41" si="41">SUM(AA27:AA39)</f>
-        <v>11012.2608</v>
+        <v>13102.880000000001</v>
       </c>
       <c r="AB41" s="97">
         <f t="shared" ref="AB41:AC41" si="42">SUM(AB27:AB39)</f>
-        <v>11261.227200000001</v>
+        <v>13473.92</v>
       </c>
       <c r="AC41" s="97">
         <f t="shared" si="42"/>
-        <v>107952.94400000002</v>
+        <v>124028.4</v>
       </c>
       <c r="AD41" s="97">
         <f t="shared" ref="AD41" si="43">SUM(AD27:AD39)</f>
-        <v>11510.193600000002</v>
+        <v>13844.96</v>
       </c>
       <c r="AE41" s="97">
         <f t="shared" ref="AE41" si="44">SUM(AE27:AE39)</f>
-        <v>12957.16</v>
+        <v>14811.000000000002</v>
       </c>
       <c r="AF41" s="97">
         <f t="shared" ref="AF41" si="45">SUM(AF27:AF39)</f>
-        <v>13206.126400000001</v>
+        <v>15182.04</v>
       </c>
       <c r="AG41" s="97">
         <f t="shared" ref="AG41:AH41" si="46">SUM(AG27:AG39)</f>
-        <v>13455.092800000002</v>
+        <v>15553.08</v>
       </c>
       <c r="AH41" s="97">
         <f t="shared" si="46"/>
-        <v>14299.0592</v>
+        <v>15924.120000000003</v>
       </c>
       <c r="AI41" s="97">
         <f t="shared" ref="AI41" si="47">SUM(AI27:AI39)</f>
-        <v>14548.025600000001</v>
+        <v>16295.16</v>
       </c>
       <c r="AJ41" s="97">
         <f t="shared" ref="AJ41" si="48">SUM(AJ27:AJ39)</f>
-        <v>14796.992</v>
+        <v>16666.2</v>
       </c>
       <c r="AK41" s="97">
         <f t="shared" ref="AK41" si="49">SUM(AK27:AK39)</f>
-        <v>15045.9584</v>
+        <v>17037.239999999998</v>
       </c>
       <c r="AL41" s="97">
         <f t="shared" ref="AL41:AM41" si="50">SUM(AL27:AL39)</f>
-        <v>15294.924800000001</v>
+        <v>17408.28</v>
       </c>
       <c r="AM41" s="97">
         <f t="shared" si="50"/>
-        <v>16741.891200000002</v>
+        <v>18977.32</v>
       </c>
       <c r="AN41" s="97">
         <f t="shared" ref="AN41" si="51">SUM(AN27:AN39)</f>
-        <v>16990.857600000003</v>
+        <v>19348.36</v>
       </c>
       <c r="AO41" s="97">
         <f t="shared" ref="AO41" si="52">SUM(AO27:AO39)</f>
-        <v>17239.824000000001</v>
+        <v>19719.400000000001</v>
       </c>
       <c r="AP41" s="97">
         <f t="shared" ref="AP41" si="53">SUM(AP27:AP39)</f>
-        <v>176086.10560000001</v>
+        <v>200767.16</v>
       </c>
       <c r="AQ41" s="97">
         <f t="shared" ref="AQ41:AR41" si="54">SUM(AQ27:AQ39)</f>
-        <v>18083.790399999998</v>
+        <v>20685.440000000002</v>
       </c>
       <c r="AR41" s="97">
         <f t="shared" si="54"/>
-        <v>18332.756800000003</v>
+        <v>21056.48</v>
       </c>
       <c r="AS41" s="97">
         <f t="shared" ref="AS41" si="55">SUM(AS27:AS39)</f>
-        <v>18581.7232</v>
+        <v>21427.520000000004</v>
       </c>
       <c r="AT41" s="97">
         <f t="shared" ref="AT41" si="56">SUM(AT27:AT39)</f>
-        <v>18830.689600000002</v>
+        <v>21798.560000000001</v>
       </c>
       <c r="AU41" s="97">
         <f t="shared" ref="AU41" si="57">SUM(AU27:AU39)</f>
-        <v>19079.656000000003</v>
+        <v>22169.599999999999</v>
       </c>
       <c r="AV41" s="97">
         <f t="shared" ref="AV41:AW41" si="58">SUM(AV27:AV39)</f>
-        <v>20526.6224</v>
+        <v>22540.639999999999</v>
       </c>
       <c r="AW41" s="97">
         <f t="shared" si="58"/>
-        <v>20775.588800000005</v>
+        <v>22911.68</v>
       </c>
       <c r="AX41" s="97">
         <f t="shared" ref="AX41" si="59">SUM(AX27:AX39)</f>
-        <v>21024.555200000003</v>
+        <v>23282.720000000001</v>
       </c>
       <c r="AY41" s="97">
         <f t="shared" ref="AY41" si="60">SUM(AY27:AY39)</f>
-        <v>21868.5216</v>
+        <v>24851.760000000002</v>
       </c>
       <c r="AZ41" s="97">
         <f t="shared" ref="AZ41" si="61">SUM(AZ27:AZ39)</f>
-        <v>22117.488000000005</v>
+        <v>25222.800000000003</v>
       </c>
       <c r="BA41" s="97">
         <f t="shared" ref="BA41:BB41" si="62">SUM(BA27:BA39)</f>
-        <v>22366.454400000002</v>
+        <v>25593.84</v>
       </c>
       <c r="BB41" s="97">
         <f t="shared" si="62"/>
-        <v>22615.420800000004</v>
+        <v>26559.88</v>
       </c>
       <c r="BC41" s="97">
         <f t="shared" ref="BC41" si="63">SUM(BC27:BC39)</f>
-        <v>244203.26720000006</v>
+        <v>278100.92000000004</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" ref="BD41" si="64">SUM(BD27:BD39)</f>
-        <v>22864.387200000005</v>
+        <v>26930.92</v>
       </c>
       <c r="BE41" s="97">
         <f t="shared" ref="BE41" si="65">SUM(BE27:BE39)</f>
-        <v>24311.353600000002</v>
+        <v>27301.96</v>
       </c>
       <c r="BF41" s="97">
         <f t="shared" ref="BF41:BG41" si="66">SUM(BF27:BF39)</f>
-        <v>24560.32</v>
+        <v>27673.000000000004</v>
       </c>
       <c r="BG41" s="97">
         <f t="shared" si="66"/>
-        <v>24809.286400000001</v>
+        <v>28044.04</v>
       </c>
       <c r="BH41" s="97">
         <f t="shared" ref="BH41" si="67">SUM(BH27:BH39)</f>
-        <v>25653.252800000002</v>
+        <v>28415.08</v>
       </c>
       <c r="BI41" s="97">
         <f t="shared" ref="BI41" si="68">SUM(BI27:BI39)</f>
-        <v>25902.2192</v>
+        <v>28786.12</v>
       </c>
       <c r="BJ41" s="97">
         <f t="shared" ref="BJ41" si="69">SUM(BJ27:BJ39)</f>
-        <v>26151.185600000004</v>
+        <v>29157.16</v>
       </c>
       <c r="BK41" s="97">
         <f t="shared" ref="BK41:BL41" si="70">SUM(BK27:BK39)</f>
-        <v>26400.152000000002</v>
+        <v>30726.200000000004</v>
       </c>
       <c r="BL41" s="97">
         <f t="shared" si="70"/>
-        <v>26649.118399999999</v>
+        <v>31097.240000000005</v>
       </c>
       <c r="BM41" s="97">
         <f t="shared" ref="BM41" si="71">SUM(BM27:BM39)</f>
-        <v>28096.084800000004</v>
+        <v>31468.28</v>
       </c>
       <c r="BN41" s="97">
         <f t="shared" ref="BN41" si="72">SUM(BN27:BN39)</f>
-        <v>28345.051200000002</v>
+        <v>32434.32</v>
       </c>
       <c r="BO41" s="97">
         <f t="shared" ref="BO41" si="73">SUM(BO27:BO39)</f>
-        <v>28594.017599999999</v>
+        <v>32805.360000000001</v>
       </c>
       <c r="BP41" s="97">
         <f t="shared" ref="BP41" si="74">SUM(BP27:BP39)</f>
-        <v>312336.42879999999</v>
+        <v>354839.68</v>
       </c>
     </row>
     <row r="42" spans="1:68" s="103" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -12336,259 +12334,259 @@
       </c>
       <c r="E42" s="104">
         <f t="shared" si="75"/>
-        <v>-406.96640000000002</v>
+        <v>86.960000000000264</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="75"/>
-        <v>588.06719999999996</v>
+        <v>1575.9200000000005</v>
       </c>
       <c r="G42" s="105">
         <f t="shared" si="75"/>
-        <v>988.10080000000016</v>
+        <v>2469.88</v>
       </c>
       <c r="H42" s="105">
         <f t="shared" si="75"/>
-        <v>1983.1343999999999</v>
+        <v>3958.8400000000011</v>
       </c>
       <c r="I42" s="105">
         <f t="shared" si="75"/>
-        <v>3002.1679999999997</v>
+        <v>5471.8</v>
       </c>
       <c r="J42" s="105">
         <f t="shared" si="75"/>
-        <v>4021.2016000000003</v>
+        <v>6984.76</v>
       </c>
       <c r="K42" s="105">
         <f t="shared" si="75"/>
-        <v>5040.2352000000019</v>
+        <v>8497.7200000000012</v>
       </c>
       <c r="L42" s="105">
         <f t="shared" si="75"/>
-        <v>6059.2687999999998</v>
+        <v>10010.680000000002</v>
       </c>
       <c r="M42" s="105">
         <f t="shared" si="75"/>
-        <v>5880.3024000000005</v>
+        <v>11523.64</v>
       </c>
       <c r="N42" s="105">
         <f t="shared" si="75"/>
-        <v>6899.3359999999993</v>
+        <v>13036.6</v>
       </c>
       <c r="O42" s="105">
         <f t="shared" si="75"/>
-        <v>7918.3696000000018</v>
+        <v>13351.560000000003</v>
       </c>
       <c r="P42" s="136">
         <f t="shared" si="1"/>
-        <v>41213.217600000004</v>
+        <v>76208.36</v>
       </c>
       <c r="Q42" s="105">
         <f t="shared" ref="Q42:AB42" si="76">+Q24-Q41</f>
-        <v>8342.4032000000007</v>
+        <v>14864.52</v>
       </c>
       <c r="R42" s="105">
         <f t="shared" si="76"/>
-        <v>9361.4367999999995</v>
+        <v>16377.48</v>
       </c>
       <c r="S42" s="105">
         <f t="shared" si="76"/>
-        <v>10380.470400000004</v>
+        <v>17295.440000000002</v>
       </c>
       <c r="T42" s="105">
         <f t="shared" si="76"/>
-        <v>11399.504000000001</v>
+        <v>18808.400000000001</v>
       </c>
       <c r="U42" s="105">
         <f t="shared" si="76"/>
-        <v>12418.5376</v>
+        <v>20321.360000000004</v>
       </c>
       <c r="V42" s="105">
         <f t="shared" si="76"/>
-        <v>12239.571200000002</v>
+        <v>21834.320000000003</v>
       </c>
       <c r="W42" s="105">
         <f t="shared" si="76"/>
-        <v>13258.604800000001</v>
+        <v>23347.279999999999</v>
       </c>
       <c r="X42" s="105">
         <f t="shared" si="76"/>
-        <v>14277.638400000003</v>
+        <v>24860.239999999998</v>
       </c>
       <c r="Y42" s="105">
         <f t="shared" si="76"/>
-        <v>14701.671999999999</v>
+        <v>26373.200000000001</v>
       </c>
       <c r="Z42" s="105">
         <f t="shared" si="76"/>
-        <v>15720.705599999998</v>
+        <v>27886.16</v>
       </c>
       <c r="AA42" s="105">
         <f t="shared" si="76"/>
-        <v>16739.739200000004</v>
+        <v>28201.120000000006</v>
       </c>
       <c r="AB42" s="105">
         <f t="shared" si="76"/>
-        <v>17758.772799999999</v>
+        <v>29714.080000000002</v>
       </c>
       <c r="AC42" s="136">
         <f t="shared" si="3"/>
-        <v>156599.05600000001</v>
+        <v>269883.59999999998</v>
       </c>
       <c r="AD42" s="105">
         <f t="shared" ref="AD42:AO42" si="77">+AD24-AD41</f>
-        <v>18777.806400000001</v>
+        <v>31227.040000000001</v>
       </c>
       <c r="AE42" s="105">
         <f t="shared" si="77"/>
-        <v>18598.840000000004</v>
+        <v>32145.000000000007</v>
       </c>
       <c r="AF42" s="105">
         <f t="shared" si="77"/>
-        <v>19617.873599999999</v>
+        <v>33657.96</v>
       </c>
       <c r="AG42" s="105">
         <f t="shared" si="77"/>
-        <v>20636.907199999998</v>
+        <v>35170.920000000006</v>
       </c>
       <c r="AH42" s="105">
         <f t="shared" si="77"/>
-        <v>21060.940800000008</v>
+        <v>36683.880000000005</v>
       </c>
       <c r="AI42" s="105">
         <f t="shared" si="77"/>
-        <v>22079.974399999999</v>
+        <v>38196.839999999997</v>
       </c>
       <c r="AJ42" s="105">
         <f t="shared" si="77"/>
-        <v>23099.008000000002</v>
+        <v>39709.800000000003</v>
       </c>
       <c r="AK42" s="105">
         <f t="shared" si="77"/>
-        <v>24118.0416</v>
+        <v>41222.76</v>
       </c>
       <c r="AL42" s="105">
         <f t="shared" si="77"/>
-        <v>25137.075199999999</v>
+        <v>42735.720000000008</v>
       </c>
       <c r="AM42" s="105">
         <f t="shared" si="77"/>
-        <v>24958.108800000005</v>
+        <v>43050.680000000008</v>
       </c>
       <c r="AN42" s="105">
         <f t="shared" si="77"/>
-        <v>25977.142400000004</v>
+        <v>44563.640000000007</v>
       </c>
       <c r="AO42" s="105">
         <f t="shared" si="77"/>
-        <v>26996.175999999999</v>
+        <v>46076.6</v>
       </c>
       <c r="AP42" s="136">
         <f t="shared" si="4"/>
-        <v>271057.89440000005</v>
+        <v>464440.84</v>
       </c>
       <c r="AQ42" s="105">
         <f t="shared" ref="AQ42:BB42" si="78">+AQ24-AQ41</f>
-        <v>27420.209600000002</v>
+        <v>46994.559999999998</v>
       </c>
       <c r="AR42" s="105">
         <f t="shared" si="78"/>
-        <v>28439.243199999997</v>
+        <v>48507.520000000004</v>
       </c>
       <c r="AS42" s="105">
         <f t="shared" si="78"/>
-        <v>29458.276800000007</v>
+        <v>50020.479999999996</v>
       </c>
       <c r="AT42" s="105">
         <f t="shared" si="78"/>
-        <v>30477.310400000006</v>
+        <v>51533.440000000017</v>
       </c>
       <c r="AU42" s="105">
         <f t="shared" si="78"/>
-        <v>31496.343999999997</v>
+        <v>53046.400000000001</v>
       </c>
       <c r="AV42" s="105">
         <f t="shared" si="78"/>
-        <v>31317.3776</v>
+        <v>54559.360000000001</v>
       </c>
       <c r="AW42" s="105">
         <f t="shared" si="78"/>
-        <v>32336.411199999995</v>
+        <v>56072.32</v>
       </c>
       <c r="AX42" s="105">
         <f t="shared" si="78"/>
-        <v>33355.444800000005</v>
+        <v>57585.279999999999</v>
       </c>
       <c r="AY42" s="105">
         <f t="shared" si="78"/>
-        <v>33779.478400000007</v>
+        <v>57900.240000000013</v>
       </c>
       <c r="AZ42" s="105">
         <f t="shared" si="78"/>
-        <v>34798.512000000002</v>
+        <v>59413.200000000012</v>
       </c>
       <c r="BA42" s="105">
         <f t="shared" si="78"/>
-        <v>35817.545599999998</v>
+        <v>60926.16</v>
       </c>
       <c r="BB42" s="105">
         <f t="shared" si="78"/>
-        <v>36836.579199999993</v>
+        <v>61844.119999999995</v>
       </c>
       <c r="BC42" s="136">
         <f t="shared" si="5"/>
-        <v>385532.7328</v>
+        <v>658403.08000000007</v>
       </c>
       <c r="BD42" s="105">
         <f t="shared" ref="BD42:BO42" si="79">+BD24-BD41</f>
-        <v>37855.612800000003</v>
+        <v>63357.08</v>
       </c>
       <c r="BE42" s="105">
         <f t="shared" si="79"/>
-        <v>37676.646400000005</v>
+        <v>64870.040000000015</v>
       </c>
       <c r="BF42" s="105">
         <f t="shared" si="79"/>
-        <v>38695.680000000008</v>
+        <v>66383.000000000015</v>
       </c>
       <c r="BG42" s="105">
         <f t="shared" si="79"/>
-        <v>39714.713600000003</v>
+        <v>67895.959999999992</v>
       </c>
       <c r="BH42" s="105">
         <f t="shared" si="79"/>
-        <v>40138.747199999998</v>
+        <v>69408.92</v>
       </c>
       <c r="BI42" s="105">
         <f t="shared" si="79"/>
-        <v>41157.7808</v>
+        <v>70921.88</v>
       </c>
       <c r="BJ42" s="105">
         <f t="shared" si="79"/>
-        <v>42176.814399999996</v>
+        <v>72434.840000000011</v>
       </c>
       <c r="BK42" s="105">
         <f t="shared" si="79"/>
-        <v>43195.848000000013</v>
+        <v>72749.800000000017</v>
       </c>
       <c r="BL42" s="105">
         <f t="shared" si="79"/>
-        <v>44214.881600000015</v>
+        <v>74262.760000000009</v>
       </c>
       <c r="BM42" s="105">
         <f t="shared" si="79"/>
-        <v>44035.915199999996</v>
+        <v>75775.72</v>
       </c>
       <c r="BN42" s="105">
         <f t="shared" si="79"/>
-        <v>45054.948799999998</v>
+        <v>76693.679999999993</v>
       </c>
       <c r="BO42" s="105">
         <f t="shared" si="79"/>
-        <v>46073.982400000001</v>
+        <v>78206.640000000014</v>
       </c>
       <c r="BP42" s="136">
         <f t="shared" si="6"/>
-        <v>499991.57120000001</v>
+        <v>852960.32000000018</v>
       </c>
     </row>
     <row r="43" spans="1:68" s="103" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14142,59 +14140,59 @@
       </c>
       <c r="M50" s="76">
         <f>IF(M4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="N50" s="76">
         <f>IF(N4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="O50" s="76">
         <f>IF(O4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="P50" s="127">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="76">
         <f>IF(Q4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="R50" s="76">
         <f>IF(R4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="S50" s="76">
         <f>IF(S4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="T50" s="76">
         <f>IF(T4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="U50" s="76">
         <f>IF(U4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="V50" s="76">
         <f>IF(V4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="W50" s="76">
         <f>IF(W4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="X50" s="76">
         <f>IF(X4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="76">
         <f>IF(Y4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="76">
         <f>IF(Z4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="76">
         <f>IF(AA4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
@@ -14206,7 +14204,7 @@
       </c>
       <c r="AC50" s="127">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>7500</v>
       </c>
       <c r="AD50" s="76">
         <f>IF(AD4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
@@ -15210,59 +15208,59 @@
       </c>
       <c r="M54" s="97">
         <f t="shared" si="81"/>
-        <v>4261</v>
+        <v>511</v>
       </c>
       <c r="N54" s="97">
         <f t="shared" si="81"/>
-        <v>4281</v>
+        <v>531</v>
       </c>
       <c r="O54" s="97">
         <f t="shared" si="81"/>
-        <v>4301</v>
+        <v>551</v>
       </c>
       <c r="P54" s="135">
         <f t="shared" si="81"/>
-        <v>16542</v>
+        <v>5292</v>
       </c>
       <c r="Q54" s="97">
         <f t="shared" si="81"/>
-        <v>4321</v>
+        <v>571</v>
       </c>
       <c r="R54" s="97">
         <f t="shared" si="81"/>
-        <v>4341</v>
+        <v>591</v>
       </c>
       <c r="S54" s="97">
         <f t="shared" si="81"/>
-        <v>4361</v>
+        <v>611</v>
       </c>
       <c r="T54" s="97">
         <f t="shared" si="81"/>
-        <v>4381</v>
+        <v>631</v>
       </c>
       <c r="U54" s="97">
         <f t="shared" si="81"/>
-        <v>4401</v>
+        <v>651</v>
       </c>
       <c r="V54" s="97">
         <f t="shared" si="81"/>
-        <v>4421</v>
+        <v>671</v>
       </c>
       <c r="W54" s="97">
         <f t="shared" si="81"/>
-        <v>4441</v>
+        <v>691</v>
       </c>
       <c r="X54" s="97">
         <f t="shared" si="81"/>
-        <v>4461</v>
+        <v>711</v>
       </c>
       <c r="Y54" s="97">
         <f t="shared" si="81"/>
-        <v>4481</v>
+        <v>731</v>
       </c>
       <c r="Z54" s="97">
         <f t="shared" si="81"/>
-        <v>4501</v>
+        <v>751</v>
       </c>
       <c r="AA54" s="97">
         <f t="shared" si="81"/>
@@ -15274,7 +15272,7 @@
       </c>
       <c r="AC54" s="135">
         <f t="shared" si="81"/>
-        <v>53172</v>
+        <v>15672</v>
       </c>
       <c r="AD54" s="97">
         <f t="shared" si="81"/>
@@ -15515,259 +15513,259 @@
       </c>
       <c r="E56" s="97">
         <f t="shared" si="82"/>
-        <v>-757.96640000000002</v>
+        <v>-264.03999999999974</v>
       </c>
       <c r="F56" s="97">
         <f t="shared" si="82"/>
-        <v>217.06719999999996</v>
+        <v>1204.9200000000005</v>
       </c>
       <c r="G56" s="97">
         <f t="shared" si="82"/>
-        <v>597.10080000000016</v>
+        <v>2078.88</v>
       </c>
       <c r="H56" s="97">
         <f t="shared" si="82"/>
-        <v>1572.1343999999999</v>
+        <v>3547.8400000000011</v>
       </c>
       <c r="I56" s="97">
         <f t="shared" si="82"/>
-        <v>2571.1679999999997</v>
+        <v>5040.8</v>
       </c>
       <c r="J56" s="97">
         <f t="shared" si="82"/>
-        <v>3570.2016000000003</v>
+        <v>6533.76</v>
       </c>
       <c r="K56" s="97">
         <f t="shared" si="82"/>
-        <v>4569.2352000000019</v>
+        <v>8026.7200000000012</v>
       </c>
       <c r="L56" s="97">
         <f t="shared" si="82"/>
-        <v>5568.2687999999998</v>
+        <v>9519.6800000000021</v>
       </c>
       <c r="M56" s="97">
         <f t="shared" si="82"/>
-        <v>1619.3024000000005</v>
+        <v>11012.64</v>
       </c>
       <c r="N56" s="97">
         <f t="shared" si="82"/>
-        <v>2618.3359999999993</v>
+        <v>12505.6</v>
       </c>
       <c r="O56" s="97">
         <f t="shared" si="82"/>
-        <v>3617.3696000000018</v>
+        <v>12800.560000000003</v>
       </c>
       <c r="P56" s="135">
         <f t="shared" si="1"/>
-        <v>24671.217600000004</v>
+        <v>70916.36</v>
       </c>
       <c r="Q56" s="97">
         <f t="shared" ref="Q56:AB56" si="83">+Q24-Q41-Q54</f>
-        <v>4021.4032000000007</v>
+        <v>14293.52</v>
       </c>
       <c r="R56" s="97">
         <f t="shared" si="83"/>
-        <v>5020.4367999999995</v>
+        <v>15786.48</v>
       </c>
       <c r="S56" s="97">
         <f t="shared" si="83"/>
-        <v>6019.4704000000038</v>
+        <v>16684.440000000002</v>
       </c>
       <c r="T56" s="97">
         <f t="shared" si="83"/>
-        <v>7018.5040000000008</v>
+        <v>18177.400000000001</v>
       </c>
       <c r="U56" s="97">
         <f t="shared" si="83"/>
-        <v>8017.5375999999997</v>
+        <v>19670.360000000004</v>
       </c>
       <c r="V56" s="97">
         <f t="shared" si="83"/>
-        <v>7818.5712000000021</v>
+        <v>21163.320000000003</v>
       </c>
       <c r="W56" s="97">
         <f t="shared" si="83"/>
-        <v>8817.604800000001</v>
+        <v>22656.28</v>
       </c>
       <c r="X56" s="97">
         <f t="shared" si="83"/>
-        <v>9816.6384000000035</v>
+        <v>24149.239999999998</v>
       </c>
       <c r="Y56" s="97">
         <f t="shared" si="83"/>
-        <v>10220.671999999999</v>
+        <v>25642.2</v>
       </c>
       <c r="Z56" s="97">
         <f t="shared" si="83"/>
-        <v>11219.705599999998</v>
+        <v>27135.16</v>
       </c>
       <c r="AA56" s="97">
         <f t="shared" si="83"/>
-        <v>12218.739200000004</v>
+        <v>23680.120000000006</v>
       </c>
       <c r="AB56" s="97">
         <f t="shared" si="83"/>
-        <v>13217.772799999999</v>
+        <v>25173.08</v>
       </c>
       <c r="AC56" s="135">
         <f t="shared" si="3"/>
-        <v>103427.05600000001</v>
+        <v>254211.60000000003</v>
       </c>
       <c r="AD56" s="97">
         <f t="shared" ref="AD56:AO56" si="84">+AD24-AD41-AD54</f>
-        <v>14216.806400000001</v>
+        <v>26666.04</v>
       </c>
       <c r="AE56" s="97">
         <f t="shared" si="84"/>
-        <v>14017.840000000004</v>
+        <v>27564.000000000007</v>
       </c>
       <c r="AF56" s="97">
         <f t="shared" si="84"/>
-        <v>15016.873599999999</v>
+        <v>29056.959999999999</v>
       </c>
       <c r="AG56" s="97">
         <f t="shared" si="84"/>
-        <v>16015.907199999998</v>
+        <v>30549.920000000006</v>
       </c>
       <c r="AH56" s="97">
         <f t="shared" si="84"/>
-        <v>16419.940800000008</v>
+        <v>32042.880000000005</v>
       </c>
       <c r="AI56" s="97">
         <f t="shared" si="84"/>
-        <v>17418.974399999999</v>
+        <v>33535.839999999997</v>
       </c>
       <c r="AJ56" s="97">
         <f t="shared" si="84"/>
-        <v>18418.008000000002</v>
+        <v>35028.800000000003</v>
       </c>
       <c r="AK56" s="97">
         <f t="shared" si="84"/>
-        <v>19417.0416</v>
+        <v>36521.760000000002</v>
       </c>
       <c r="AL56" s="97">
         <f t="shared" si="84"/>
-        <v>20416.075199999999</v>
+        <v>38014.720000000008</v>
       </c>
       <c r="AM56" s="97">
         <f t="shared" si="84"/>
-        <v>20217.108800000005</v>
+        <v>38309.680000000008</v>
       </c>
       <c r="AN56" s="97">
         <f t="shared" si="84"/>
-        <v>21216.142400000004</v>
+        <v>39802.640000000007</v>
       </c>
       <c r="AO56" s="97">
         <f t="shared" si="84"/>
-        <v>22215.175999999999</v>
+        <v>41295.599999999999</v>
       </c>
       <c r="AP56" s="135">
         <f t="shared" si="4"/>
-        <v>215005.89440000005</v>
+        <v>408388.84</v>
       </c>
       <c r="AQ56" s="97">
         <f t="shared" ref="AQ56:BB56" si="85">+AQ24-AQ41-AQ54</f>
-        <v>22619.209600000002</v>
+        <v>42193.56</v>
       </c>
       <c r="AR56" s="97">
         <f t="shared" si="85"/>
-        <v>23618.243199999997</v>
+        <v>43686.520000000004</v>
       </c>
       <c r="AS56" s="97">
         <f t="shared" si="85"/>
-        <v>24617.276800000007</v>
+        <v>45179.479999999996</v>
       </c>
       <c r="AT56" s="97">
         <f t="shared" si="85"/>
-        <v>25616.310400000006</v>
+        <v>46672.440000000017</v>
       </c>
       <c r="AU56" s="97">
         <f t="shared" si="85"/>
-        <v>26615.343999999997</v>
+        <v>48165.4</v>
       </c>
       <c r="AV56" s="97">
         <f t="shared" si="85"/>
-        <v>26416.3776</v>
+        <v>49658.36</v>
       </c>
       <c r="AW56" s="97">
         <f t="shared" si="85"/>
-        <v>27415.411199999995</v>
+        <v>51151.32</v>
       </c>
       <c r="AX56" s="97">
         <f t="shared" si="85"/>
-        <v>28414.444800000005</v>
+        <v>52644.28</v>
       </c>
       <c r="AY56" s="97">
         <f t="shared" si="85"/>
-        <v>28818.478400000007</v>
+        <v>52939.240000000013</v>
       </c>
       <c r="AZ56" s="97">
         <f t="shared" si="85"/>
-        <v>29817.512000000002</v>
+        <v>54432.200000000012</v>
       </c>
       <c r="BA56" s="97">
         <f t="shared" si="85"/>
-        <v>30816.545599999998</v>
+        <v>55925.16</v>
       </c>
       <c r="BB56" s="97">
         <f t="shared" si="85"/>
-        <v>31815.579199999993</v>
+        <v>56823.119999999995</v>
       </c>
       <c r="BC56" s="135">
         <f t="shared" si="5"/>
-        <v>326600.7328</v>
+        <v>599471.07999999996</v>
       </c>
       <c r="BD56" s="97">
         <f t="shared" ref="BD56:BO56" si="86">+BD24-BD41-BD54</f>
-        <v>32814.612800000003</v>
+        <v>58316.08</v>
       </c>
       <c r="BE56" s="97">
         <f t="shared" si="86"/>
-        <v>32615.646400000005</v>
+        <v>59809.040000000015</v>
       </c>
       <c r="BF56" s="97">
         <f t="shared" si="86"/>
-        <v>33614.680000000008</v>
+        <v>61302.000000000015</v>
       </c>
       <c r="BG56" s="97">
         <f t="shared" si="86"/>
-        <v>34613.713600000003</v>
+        <v>62794.959999999992</v>
       </c>
       <c r="BH56" s="97">
         <f t="shared" si="86"/>
-        <v>35017.747199999998</v>
+        <v>64287.92</v>
       </c>
       <c r="BI56" s="97">
         <f t="shared" si="86"/>
-        <v>36016.7808</v>
+        <v>65780.88</v>
       </c>
       <c r="BJ56" s="97">
         <f t="shared" si="86"/>
-        <v>37015.814399999996</v>
+        <v>67273.840000000011</v>
       </c>
       <c r="BK56" s="97">
         <f t="shared" si="86"/>
-        <v>38014.848000000013</v>
+        <v>67568.800000000017</v>
       </c>
       <c r="BL56" s="97">
         <f t="shared" si="86"/>
-        <v>39013.881600000015</v>
+        <v>69061.760000000009</v>
       </c>
       <c r="BM56" s="97">
         <f t="shared" si="86"/>
-        <v>38814.915199999996</v>
+        <v>70554.720000000001</v>
       </c>
       <c r="BN56" s="97">
         <f t="shared" si="86"/>
-        <v>39813.948799999998</v>
+        <v>71452.679999999993</v>
       </c>
       <c r="BO56" s="97">
         <f t="shared" si="86"/>
-        <v>40812.982400000001</v>
+        <v>72945.640000000014</v>
       </c>
       <c r="BP56" s="135">
         <f t="shared" si="6"/>
-        <v>438179.57120000006</v>
+        <v>791148.32000000018</v>
       </c>
     </row>
     <row r="57" spans="1:68" s="77" customFormat="1" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -15918,259 +15916,259 @@
       <c r="D59" s="112"/>
       <c r="E59" s="112">
         <f t="shared" ref="E59:AJ59" si="87">+E41/E24</f>
-        <v>1.3303298701298703</v>
+        <v>0.95294372294372276</v>
       </c>
       <c r="F59" s="112">
         <f t="shared" si="87"/>
-        <v>0.7613363636363637</v>
+        <v>0.57361471861471858</v>
       </c>
       <c r="G59" s="112">
         <f t="shared" si="87"/>
-        <v>0.73265670995670995</v>
+        <v>0.55449494949494949</v>
       </c>
       <c r="H59" s="112">
         <f t="shared" si="87"/>
-        <v>0.59757824675324678</v>
+        <v>0.46444264069264063</v>
       </c>
       <c r="I59" s="112">
         <f t="shared" si="87"/>
-        <v>0.51546675274370568</v>
+        <v>0.41011211729193614</v>
       </c>
       <c r="J59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4612538049303323</v>
+        <v>0.37412544802867381</v>
       </c>
       <c r="K59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42278570774163987</v>
+        <v>0.34853419196565472</v>
       </c>
       <c r="L59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39407312000000005</v>
+        <v>0.3294024651661307</v>
       </c>
       <c r="M59" s="112">
         <f t="shared" si="87"/>
-        <v>0.47814142705005319</v>
+        <v>0.31455864858434457</v>
       </c>
       <c r="N59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4496381620931717</v>
+        <v>0.30270646127513906</v>
       </c>
       <c r="O59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42637137061721236</v>
+        <v>0.35123615160349853</v>
       </c>
       <c r="P59" s="139">
         <f t="shared" si="87"/>
-        <v>0.49935352769679303</v>
+        <v>0.3802989201144939</v>
       </c>
       <c r="Q59" s="112">
         <f t="shared" si="87"/>
-        <v>0.44649660297239918</v>
+        <v>0.33829594017094017</v>
       </c>
       <c r="R59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42708465116279071</v>
+        <v>0.32735830458353871</v>
       </c>
       <c r="S59" s="112">
         <f t="shared" si="87"/>
-        <v>0.41046851431167641</v>
+        <v>0.34067398597133275</v>
       </c>
       <c r="T59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39608476372112739</v>
+        <v>0.33104282259211837</v>
       </c>
       <c r="U59" s="112">
         <f t="shared" si="87"/>
-        <v>0.3835118347895155</v>
+        <v>0.32262133333333326</v>
       </c>
       <c r="V59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42837795628619463</v>
+        <v>0.31519508217287667</v>
       </c>
       <c r="W59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4154054320987654</v>
+        <v>0.30859748874674253</v>
       </c>
       <c r="X59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40380664773676295</v>
+        <v>0.30269718388870193</v>
       </c>
       <c r="Y59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4169704949238579</v>
+        <v>0.29738917306052853</v>
       </c>
       <c r="Z59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40640743090167658</v>
+        <v>0.29258853373921867</v>
       </c>
       <c r="AA59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39680962813490916</v>
+        <v>0.31723029246562073</v>
       </c>
       <c r="AB59" s="112">
         <f t="shared" si="87"/>
-        <v>0.38805055823569956</v>
+        <v>0.31198295822913774</v>
       </c>
       <c r="AC59" s="139">
         <f t="shared" si="87"/>
-        <v>0.40805945144999856</v>
+        <v>0.31486321818071039</v>
       </c>
       <c r="AD59" s="112">
         <f t="shared" si="87"/>
-        <v>0.38002488114104599</v>
+        <v>0.30717429889953851</v>
       </c>
       <c r="AE59" s="112">
         <f t="shared" si="87"/>
-        <v>0.41060844213461778</v>
+        <v>0.31542294914387936</v>
       </c>
       <c r="AF59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40233141603704609</v>
+        <v>0.31085257985257986</v>
       </c>
       <c r="AG59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39467009269036729</v>
+        <v>0.30662171753016321</v>
       </c>
       <c r="AH59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40438515837104061</v>
+        <v>0.30269388686131388</v>
       </c>
       <c r="AI59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39718318226493393</v>
+        <v>0.29903765690376571</v>
       </c>
       <c r="AJ59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39046316233903317</v>
+        <v>0.29562579821200513</v>
       </c>
       <c r="AK59" s="112">
         <f t="shared" ref="AK59:BP59" si="88">+AK41/AK24</f>
-        <v>0.38417828618118677</v>
+        <v>0.29243460350154477</v>
       </c>
       <c r="AL59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37828761377127029</v>
+        <v>0.28944333599361527</v>
       </c>
       <c r="AM59" s="112">
         <f t="shared" si="88"/>
-        <v>0.40148420143884889</v>
+        <v>0.30594763655123486</v>
       </c>
       <c r="AN59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39543049711413147</v>
+        <v>0.30273438477907122</v>
       </c>
       <c r="AO59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3897238448322633</v>
+        <v>0.2997051492491945</v>
       </c>
       <c r="AP59" s="139">
         <f t="shared" si="88"/>
-        <v>0.39380178555454176</v>
+        <v>0.30181110269269162</v>
       </c>
       <c r="AQ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.397411005625879</v>
+        <v>0.30563593380614662</v>
       </c>
       <c r="AR59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3919600786795519</v>
+        <v>0.30269219711344947</v>
       </c>
       <c r="AS59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38679690258118232</v>
+        <v>0.29990370619191586</v>
       </c>
       <c r="AT59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38189927800762552</v>
+        <v>0.29725849560901102</v>
       </c>
       <c r="AU59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3772472318886429</v>
+        <v>0.29474579876621992</v>
       </c>
       <c r="AV59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39593053005169354</v>
+        <v>0.29235590142671852</v>
       </c>
       <c r="AW59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39116562735351718</v>
+        <v>0.29008001620581386</v>
       </c>
       <c r="AX59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38662293490253768</v>
+        <v>0.28791017460553003</v>
       </c>
       <c r="AY59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39297947096032199</v>
+        <v>0.30031612529002316</v>
       </c>
       <c r="AZ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38859877714526675</v>
+        <v>0.29801502906564581</v>
       </c>
       <c r="BA59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38440901966176272</v>
+        <v>0.29581414701803049</v>
       </c>
       <c r="BB59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38039798156496002</v>
+        <v>0.30043753676304241</v>
       </c>
       <c r="BC59" s="139">
         <f t="shared" si="88"/>
-        <v>0.38778673475869263</v>
+        <v>0.29695646788481422</v>
       </c>
       <c r="BD59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37655446640316209</v>
+        <v>0.29827795498848131</v>
       </c>
       <c r="BE59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39219451506743241</v>
+        <v>0.29620665711929867</v>
       </c>
       <c r="BF59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38826862273934482</v>
+        <v>0.29421833801139746</v>
       </c>
       <c r="BG59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38449703056227141</v>
+        <v>0.2923081092349385</v>
       </c>
       <c r="BH59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38991446984435801</v>
+        <v>0.29047145894667975</v>
       </c>
       <c r="BI59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38625438711601551</v>
+        <v>0.28870421631162996</v>
       </c>
       <c r="BJ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38273014869453231</v>
+        <v>0.28700251988345532</v>
       </c>
       <c r="BK59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37933432955917001</v>
+        <v>0.29694035331864393</v>
       </c>
       <c r="BL59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37606003612553618</v>
+        <v>0.29515223993925588</v>
       </c>
       <c r="BM59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38950929961736824</v>
+        <v>0.2934269516243333</v>
       </c>
       <c r="BN59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38617235967302455</v>
+        <v>0.29721354739388606</v>
       </c>
       <c r="BO59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38294875448652704</v>
+        <v>0.29551183655820989</v>
       </c>
       <c r="BP59" s="139">
         <f t="shared" si="88"/>
-        <v>0.38449546094680964</v>
+        <v>0.29379009769829439</v>
       </c>
     </row>
     <row r="60" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16181,259 +16179,259 @@
       <c r="D60" s="112"/>
       <c r="E60" s="112">
         <f t="shared" ref="E60:BO60" si="89">1-E59</f>
-        <v>-0.33032987012987025</v>
+        <v>4.705627705627724E-2</v>
       </c>
       <c r="F60" s="112">
         <f t="shared" si="89"/>
-        <v>0.2386636363636363</v>
+        <v>0.42638528138528142</v>
       </c>
       <c r="G60" s="112">
         <f t="shared" si="89"/>
-        <v>0.26734329004329005</v>
+        <v>0.44550505050505051</v>
       </c>
       <c r="H60" s="112">
         <f t="shared" si="89"/>
-        <v>0.40242175324675322</v>
+        <v>0.53555735930735937</v>
       </c>
       <c r="I60" s="112">
         <f>1-I59</f>
-        <v>0.48453324725629432</v>
+        <v>0.5898878827080638</v>
       </c>
       <c r="J60" s="112">
         <f t="shared" si="89"/>
-        <v>0.5387461950696677</v>
+        <v>0.62587455197132624</v>
       </c>
       <c r="K60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57721429225836007</v>
+        <v>0.65146580803434528</v>
       </c>
       <c r="L60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60592687999999995</v>
+        <v>0.6705975348338693</v>
       </c>
       <c r="M60" s="112">
         <f t="shared" si="89"/>
-        <v>0.52185857294994675</v>
+        <v>0.68544135141565543</v>
       </c>
       <c r="N60" s="112">
         <f t="shared" si="89"/>
-        <v>0.55036183790682824</v>
+        <v>0.69729353872486088</v>
       </c>
       <c r="O60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57362862938278769</v>
+        <v>0.64876384839650147</v>
       </c>
       <c r="P60" s="139">
         <f t="shared" ref="P60" si="90">1-P59</f>
-        <v>0.50064647230320691</v>
+        <v>0.61970107988550605</v>
       </c>
       <c r="Q60" s="112">
         <f t="shared" si="89"/>
-        <v>0.55350339702760087</v>
+        <v>0.66170405982905978</v>
       </c>
       <c r="R60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57291534883720929</v>
+        <v>0.67264169541646135</v>
       </c>
       <c r="S60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58953148568832359</v>
+        <v>0.6593260140286672</v>
       </c>
       <c r="T60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60391523627887267</v>
+        <v>0.66895717740788163</v>
       </c>
       <c r="U60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61648816521048455</v>
+        <v>0.6773786666666668</v>
       </c>
       <c r="V60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57162204371380532</v>
+        <v>0.68480491782712338</v>
       </c>
       <c r="W60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58459456790123454</v>
+        <v>0.69140251125325747</v>
       </c>
       <c r="X60" s="112">
         <f t="shared" si="89"/>
-        <v>0.596193352263237</v>
+        <v>0.69730281611129807</v>
       </c>
       <c r="Y60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58302950507614204</v>
+        <v>0.70261082693947152</v>
       </c>
       <c r="Z60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59359256909832347</v>
+        <v>0.70741146626078133</v>
       </c>
       <c r="AA60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60319037186509084</v>
+        <v>0.68276970753437927</v>
       </c>
       <c r="AB60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61194944176430044</v>
+        <v>0.6880170417708622</v>
       </c>
       <c r="AC60" s="139">
         <f t="shared" si="89"/>
-        <v>0.59194054855000144</v>
+        <v>0.68513678181928961</v>
       </c>
       <c r="AD60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61997511885895396</v>
+        <v>0.69282570110046149</v>
       </c>
       <c r="AE60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58939155786538222</v>
+        <v>0.68457705085612064</v>
       </c>
       <c r="AF60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59766858396295386</v>
+        <v>0.68914742014742014</v>
       </c>
       <c r="AG60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60532990730963276</v>
+        <v>0.69337828246983679</v>
       </c>
       <c r="AH60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59561484162895939</v>
+        <v>0.69730611313868618</v>
       </c>
       <c r="AI60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60281681773506612</v>
+        <v>0.70096234309623429</v>
       </c>
       <c r="AJ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60953683766096689</v>
+        <v>0.70437420178799481</v>
       </c>
       <c r="AK60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61582171381881323</v>
+        <v>0.70756539649845518</v>
       </c>
       <c r="AL60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62171238622872971</v>
+        <v>0.71055666400638473</v>
       </c>
       <c r="AM60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59851579856115111</v>
+        <v>0.6940523634487652</v>
       </c>
       <c r="AN60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60456950288586853</v>
+        <v>0.69726561522092878</v>
       </c>
       <c r="AO60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6102761551677367</v>
+        <v>0.70029485075080555</v>
       </c>
       <c r="AP60" s="139">
         <f t="shared" ref="AP60" si="91">1-AP59</f>
-        <v>0.60619821444545829</v>
+        <v>0.69818889730730838</v>
       </c>
       <c r="AQ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60258899437412095</v>
+        <v>0.69436406619385338</v>
       </c>
       <c r="AR60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60803992132044815</v>
+        <v>0.69730780288655048</v>
       </c>
       <c r="AS60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61320309741881762</v>
+        <v>0.70009629380808414</v>
       </c>
       <c r="AT60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61810072199237442</v>
+        <v>0.70274150439098904</v>
       </c>
       <c r="AU60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62275276811135716</v>
+        <v>0.70525420123378013</v>
       </c>
       <c r="AV60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60406946994830646</v>
+        <v>0.70764409857328148</v>
       </c>
       <c r="AW60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60883437264648288</v>
+        <v>0.70991998379418608</v>
       </c>
       <c r="AX60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61337706509746237</v>
+        <v>0.71208982539446997</v>
       </c>
       <c r="AY60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60702052903967796</v>
+        <v>0.69968387470997684</v>
       </c>
       <c r="AZ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6114012228547332</v>
+        <v>0.70198497093435419</v>
       </c>
       <c r="BA60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61559098033823734</v>
+        <v>0.70418585298196956</v>
       </c>
       <c r="BB60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61960201843503993</v>
+        <v>0.69956246323695759</v>
       </c>
       <c r="BC60" s="139">
         <f t="shared" si="89"/>
-        <v>0.61221326524130737</v>
+        <v>0.70304353211518578</v>
       </c>
       <c r="BD60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62344553359683785</v>
+        <v>0.70172204501151869</v>
       </c>
       <c r="BE60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60780548493256759</v>
+        <v>0.70379334288070128</v>
       </c>
       <c r="BF60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61173137726065518</v>
+        <v>0.70578166198860259</v>
       </c>
       <c r="BG60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61550296943772853</v>
+        <v>0.70769189076506156</v>
       </c>
       <c r="BH60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61008553015564204</v>
+        <v>0.70952854105332031</v>
       </c>
       <c r="BI60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61374561288398444</v>
+        <v>0.71129578368836999</v>
       </c>
       <c r="BJ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61726985130546774</v>
+        <v>0.71299748011654462</v>
       </c>
       <c r="BK60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62066567044082999</v>
+        <v>0.70305964668135612</v>
       </c>
       <c r="BL60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62393996387446382</v>
+        <v>0.70484776006074412</v>
       </c>
       <c r="BM60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61049070038263176</v>
+        <v>0.7065730483756667</v>
       </c>
       <c r="BN60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61382764032697545</v>
+        <v>0.70278645260611394</v>
       </c>
       <c r="BO60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6170512455134729</v>
+        <v>0.70448816344179011</v>
       </c>
       <c r="BP60" s="139">
         <f t="shared" ref="BP60" si="92">1-BP59</f>
-        <v>0.61550453905319036</v>
+        <v>0.70620990230170566</v>
       </c>
     </row>
     <row r="61" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16444,259 +16442,259 @@
       <c r="D61" s="112"/>
       <c r="E61" s="112">
         <f t="shared" ref="E61:AJ61" si="93">E56/E24</f>
-        <v>-0.61523246753246752</v>
+        <v>-0.14287878787878772</v>
       </c>
       <c r="F61" s="112">
         <f t="shared" si="93"/>
-        <v>8.8095454545454532E-2</v>
+        <v>0.32600649350649363</v>
       </c>
       <c r="G61" s="112">
         <f t="shared" si="93"/>
-        <v>0.16155324675324678</v>
+        <v>0.37497835497835502</v>
       </c>
       <c r="H61" s="112">
         <f t="shared" si="93"/>
-        <v>0.3190207792207792</v>
+        <v>0.47995670995671003</v>
       </c>
       <c r="I61" s="112">
         <f t="shared" si="93"/>
-        <v>0.41497224015493861</v>
+        <v>0.54342388960758947</v>
       </c>
       <c r="J61" s="112">
         <f t="shared" si="93"/>
-        <v>0.47832282958199357</v>
+        <v>0.58546236559139786</v>
       </c>
       <c r="K61" s="112">
         <f t="shared" si="93"/>
-        <v>0.52327475950526814</v>
+        <v>0.61535725237657157</v>
       </c>
       <c r="L61" s="112">
         <f t="shared" si="93"/>
-        <v>0.55682688000000002</v>
+        <v>0.63770632368703117</v>
       </c>
       <c r="M61" s="112">
         <f t="shared" si="93"/>
-        <v>0.14370805821796243</v>
+        <v>0.65504639543183441</v>
       </c>
       <c r="N61" s="112">
         <f t="shared" si="93"/>
-        <v>0.20886534779834073</v>
+        <v>0.66889174154899445</v>
       </c>
       <c r="O61" s="112">
         <f t="shared" si="93"/>
-        <v>0.26205227470298476</v>
+        <v>0.62199028182701654</v>
       </c>
       <c r="P61" s="139">
         <f t="shared" si="93"/>
-        <v>0.29969895043731781</v>
+        <v>0.57666829300026023</v>
       </c>
       <c r="Q61" s="112">
         <f t="shared" si="93"/>
-        <v>0.2668128450106157</v>
+        <v>0.63628561253561255</v>
       </c>
       <c r="R61" s="112">
         <f t="shared" si="93"/>
-        <v>0.30724827417380657</v>
+        <v>0.64836865450961068</v>
       </c>
       <c r="S61" s="112">
         <f t="shared" si="93"/>
-        <v>0.34185997273966395</v>
+        <v>0.63603385178408056</v>
       </c>
       <c r="T61" s="112">
         <f t="shared" si="93"/>
-        <v>0.37182157236702695</v>
+        <v>0.64651444017641202</v>
       </c>
       <c r="U61" s="112">
         <f t="shared" si="93"/>
-        <v>0.39801119936457502</v>
+        <v>0.65567866666666674</v>
       </c>
       <c r="V61" s="112">
         <f t="shared" si="93"/>
-        <v>0.36514903792266024</v>
+        <v>0.66375987956341742</v>
       </c>
       <c r="W61" s="112">
         <f t="shared" si="93"/>
-        <v>0.38878328042328048</v>
+        <v>0.670939350864724</v>
       </c>
       <c r="X61" s="112">
         <f t="shared" si="93"/>
-        <v>0.40991474862201444</v>
+        <v>0.67736003590261407</v>
       </c>
       <c r="Y61" s="112">
         <f t="shared" si="93"/>
-        <v>0.40532487309644666</v>
+        <v>0.68313618925831199</v>
       </c>
       <c r="Z61" s="112">
         <f t="shared" si="93"/>
-        <v>0.42364090016613792</v>
+        <v>0.68836022323693558</v>
       </c>
       <c r="AA61" s="112">
         <f t="shared" si="93"/>
-        <v>0.44028319400403582</v>
+        <v>0.57331299631996901</v>
       </c>
       <c r="AB61" s="112">
         <f t="shared" si="93"/>
-        <v>0.45547115093039281</v>
+        <v>0.58287209410021301</v>
       </c>
       <c r="AC61" s="139">
         <f t="shared" si="93"/>
-        <v>0.39095170703680188</v>
+        <v>0.64535124596356552</v>
       </c>
       <c r="AD61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46938742736397254</v>
+        <v>0.59163205537806174</v>
       </c>
       <c r="AE61" s="112">
         <f t="shared" si="93"/>
-        <v>0.4442210673089112</v>
+        <v>0.58701763352926151</v>
       </c>
       <c r="AF61" s="112">
         <f t="shared" si="93"/>
-        <v>0.45749675846941257</v>
+        <v>0.59494185094185092</v>
       </c>
       <c r="AG61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46978491141616796</v>
+        <v>0.60227742291617381</v>
       </c>
       <c r="AH61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46436484162895941</v>
+        <v>0.60908759124087597</v>
       </c>
       <c r="AI61" s="112">
         <f t="shared" si="93"/>
-        <v>0.47556444250300317</v>
+        <v>0.6154268516479483</v>
       </c>
       <c r="AJ61" s="112">
         <f t="shared" si="93"/>
-        <v>0.48601456618112732</v>
+        <v>0.62134241521214706</v>
       </c>
       <c r="AK61" s="112">
         <f t="shared" ref="AK61:BP61" si="94">AK56/AK24</f>
-        <v>0.49578800939638445</v>
+        <v>0.6268753861997941</v>
       </c>
       <c r="AL61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5049484368816779</v>
+        <v>0.63206171854216553</v>
       </c>
       <c r="AM61" s="112">
         <f t="shared" si="94"/>
-        <v>0.48482275299760197</v>
+        <v>0.61761913974334182</v>
       </c>
       <c r="AN61" s="112">
         <f t="shared" si="94"/>
-        <v>0.49376611431763173</v>
+        <v>0.62277256227312561</v>
       </c>
       <c r="AO61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50219676281761461</v>
+        <v>0.62763085901878535</v>
       </c>
       <c r="AP61" s="139">
         <f t="shared" si="94"/>
-        <v>0.48084262430000191</v>
+        <v>0.61392653125037588</v>
       </c>
       <c r="AQ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.49708178621659638</v>
+        <v>0.62342730496453902</v>
       </c>
       <c r="AR61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50496543230992896</v>
+        <v>0.62800471508251399</v>
       </c>
       <c r="AS61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51243290591174029</v>
+        <v>0.63234072332325597</v>
       </c>
       <c r="AT61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51951631378275331</v>
+        <v>0.63645393552610063</v>
       </c>
       <c r="AU61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5262445428661815</v>
+        <v>0.64036109338438629</v>
       </c>
       <c r="AV61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50953586914589921</v>
+        <v>0.64407730220492865</v>
       </c>
       <c r="AW61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51618111161319469</v>
+        <v>0.64761622607110303</v>
       </c>
       <c r="AX61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52251645457888929</v>
+        <v>0.65099025572537961</v>
       </c>
       <c r="AY61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51787087406555499</v>
+        <v>0.63973366202629545</v>
       </c>
       <c r="AZ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52388628856560548</v>
+        <v>0.64313294579138902</v>
       </c>
       <c r="BA61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52963951601814929</v>
+        <v>0.64638418862690716</v>
       </c>
       <c r="BB61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53514733230168865</v>
+        <v>0.64276639066105601</v>
       </c>
       <c r="BC61" s="139">
         <f t="shared" si="94"/>
-        <v>0.51863119275378888</v>
+        <v>0.64011587777521506</v>
       </c>
       <c r="BD61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54042511198945975</v>
+        <v>0.64588959773170307</v>
       </c>
       <c r="BE61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52616065044847393</v>
+        <v>0.64888512780453944</v>
       </c>
       <c r="BF61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53140698115593787</v>
+        <v>0.65176065322786425</v>
       </c>
       <c r="BG61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53644711425206126</v>
+        <v>0.6545232436939753</v>
       </c>
       <c r="BH61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53224931906614781</v>
+        <v>0.65717942427216225</v>
       </c>
       <c r="BI61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5370829227557411</v>
+        <v>0.65973522686243835</v>
       </c>
       <c r="BJ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54173712680014041</v>
+        <v>0.66219623592408849</v>
       </c>
       <c r="BK61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54622173688143005</v>
+        <v>0.65299006532915849</v>
       </c>
       <c r="BL61" s="112">
         <f t="shared" si="94"/>
-        <v>0.55054585685256274</v>
+        <v>0.65548367501898253</v>
       </c>
       <c r="BM61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53810951034215049</v>
+        <v>0.6578896721494909</v>
       </c>
       <c r="BN61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54242437057220705</v>
+        <v>0.65476028150428844</v>
       </c>
       <c r="BO61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54659268227353086</v>
+        <v>0.65709689042626029</v>
       </c>
       <c r="BP61" s="139">
         <f t="shared" si="94"/>
-        <v>0.53941212318176901</v>
+        <v>0.65503255505878477</v>
       </c>
     </row>
     <row r="62" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16707,259 +16705,259 @@
       <c r="D62" s="113"/>
       <c r="E62" s="113">
         <f t="shared" ref="E62:O62" si="95">+E24/E4</f>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F62" s="113">
         <f t="shared" si="95"/>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G62" s="114">
         <f t="shared" si="95"/>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H62" s="114">
         <f t="shared" si="95"/>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I62" s="114">
         <f t="shared" si="95"/>
-        <v>6196</v>
+        <v>9276</v>
       </c>
       <c r="J62" s="114">
         <f t="shared" si="95"/>
-        <v>7464.0000000000009</v>
+        <v>11160</v>
       </c>
       <c r="K62" s="114">
         <f t="shared" si="95"/>
-        <v>8732.0000000000018</v>
+        <v>13044.000000000002</v>
       </c>
       <c r="L62" s="114">
         <f t="shared" si="95"/>
-        <v>10000</v>
+        <v>14928.000000000002</v>
       </c>
       <c r="M62" s="114">
         <f t="shared" si="95"/>
-        <v>5634</v>
+        <v>16812</v>
       </c>
       <c r="N62" s="114">
         <f t="shared" si="95"/>
-        <v>6268</v>
+        <v>18696</v>
       </c>
       <c r="O62" s="114">
         <f t="shared" si="95"/>
-        <v>6902.0000000000009</v>
+        <v>10290.000000000002</v>
       </c>
       <c r="P62" s="140">
         <f>AVERAGE(D62:O62)</f>
-        <v>5774.181818181818</v>
+        <v>10244.181818181818</v>
       </c>
       <c r="Q62" s="114">
         <f t="shared" ref="Q62:AV62" si="96">+Q24/Q4</f>
-        <v>7536.0000000000009</v>
+        <v>11232</v>
       </c>
       <c r="R62" s="114">
         <f t="shared" si="96"/>
-        <v>8170</v>
+        <v>12174</v>
       </c>
       <c r="S62" s="114">
         <f t="shared" si="96"/>
-        <v>8804.0000000000018</v>
+        <v>13116.000000000002</v>
       </c>
       <c r="T62" s="114">
         <f t="shared" si="96"/>
-        <v>9438</v>
+        <v>14058</v>
       </c>
       <c r="U62" s="114">
         <f t="shared" si="96"/>
-        <v>10072</v>
+        <v>15000.000000000002</v>
       </c>
       <c r="V62" s="114">
         <f t="shared" si="96"/>
-        <v>7137.3333333333348</v>
+        <v>15942.000000000002</v>
       </c>
       <c r="W62" s="114">
         <f t="shared" si="96"/>
-        <v>7560</v>
+        <v>16884</v>
       </c>
       <c r="X62" s="114">
         <f t="shared" si="96"/>
-        <v>7982.6666666666679</v>
+        <v>17826</v>
       </c>
       <c r="Y62" s="114">
         <f t="shared" si="96"/>
-        <v>8405.3333333333339</v>
+        <v>18768</v>
       </c>
       <c r="Z62" s="114">
         <f t="shared" si="96"/>
-        <v>8828</v>
+        <v>19710</v>
       </c>
       <c r="AA62" s="114">
         <f t="shared" si="96"/>
-        <v>9250.6666666666679</v>
+        <v>13768.000000000002</v>
       </c>
       <c r="AB62" s="114">
         <f t="shared" si="96"/>
-        <v>9673.3333333333339</v>
+        <v>14396</v>
       </c>
       <c r="AC62" s="140">
         <f>AVERAGE(Q62:AB62)</f>
-        <v>8571.4444444444434</v>
+        <v>15239.5</v>
       </c>
       <c r="AD62" s="114">
         <f t="shared" si="96"/>
-        <v>10096.000000000002</v>
+        <v>15024</v>
       </c>
       <c r="AE62" s="114">
         <f t="shared" si="96"/>
-        <v>7889.0000000000009</v>
+        <v>15652.000000000002</v>
       </c>
       <c r="AF62" s="114">
         <f t="shared" si="96"/>
-        <v>8206</v>
+        <v>16280</v>
       </c>
       <c r="AG62" s="114">
         <f t="shared" si="96"/>
-        <v>8523</v>
+        <v>16908.000000000004</v>
       </c>
       <c r="AH62" s="114">
         <f t="shared" si="96"/>
-        <v>8840.0000000000018</v>
+        <v>17536.000000000004</v>
       </c>
       <c r="AI62" s="114">
         <f t="shared" si="96"/>
-        <v>9157</v>
+        <v>18164</v>
       </c>
       <c r="AJ62" s="114">
         <f t="shared" si="96"/>
-        <v>9474</v>
+        <v>18792</v>
       </c>
       <c r="AK62" s="114">
         <f t="shared" si="96"/>
-        <v>9791</v>
+        <v>19420</v>
       </c>
       <c r="AL62" s="114">
         <f t="shared" si="96"/>
-        <v>10108</v>
+        <v>20048.000000000004</v>
       </c>
       <c r="AM62" s="114">
         <f t="shared" si="96"/>
-        <v>8340.0000000000018</v>
+        <v>15507.000000000002</v>
       </c>
       <c r="AN62" s="114">
         <f t="shared" si="96"/>
-        <v>8593.6000000000022</v>
+        <v>15978.000000000002</v>
       </c>
       <c r="AO62" s="114">
         <f t="shared" si="96"/>
-        <v>8847.2000000000007</v>
+        <v>16449</v>
       </c>
       <c r="AP62" s="140">
         <f>AVERAGE(AD62:AO62)</f>
-        <v>8988.7333333333336</v>
+        <v>17146.5</v>
       </c>
       <c r="AQ62" s="114">
         <f t="shared" si="96"/>
-        <v>9100.7999999999993</v>
+        <v>16920</v>
       </c>
       <c r="AR62" s="114">
         <f t="shared" si="96"/>
-        <v>9354.4</v>
+        <v>17391</v>
       </c>
       <c r="AS62" s="114">
         <f t="shared" si="96"/>
-        <v>9608.0000000000018</v>
+        <v>17862</v>
       </c>
       <c r="AT62" s="114">
         <f t="shared" si="96"/>
-        <v>9861.6000000000022</v>
+        <v>18333.000000000004</v>
       </c>
       <c r="AU62" s="114">
         <f t="shared" si="96"/>
-        <v>10115.200000000001</v>
+        <v>18804</v>
       </c>
       <c r="AV62" s="114">
         <f t="shared" si="96"/>
-        <v>8640.6666666666661</v>
+        <v>19275</v>
       </c>
       <c r="AW62" s="114">
         <f t="shared" ref="AW62:BO62" si="97">+AW24/AW4</f>
-        <v>8852</v>
+        <v>19746</v>
       </c>
       <c r="AX62" s="114">
         <f t="shared" si="97"/>
-        <v>9063.3333333333339</v>
+        <v>20217</v>
       </c>
       <c r="AY62" s="114">
         <f t="shared" si="97"/>
-        <v>9274.6666666666679</v>
+        <v>16550.400000000001</v>
       </c>
       <c r="AZ62" s="114">
         <f t="shared" si="97"/>
-        <v>9486.0000000000018</v>
+        <v>16927.200000000004</v>
       </c>
       <c r="BA62" s="114">
         <f t="shared" si="97"/>
-        <v>9697.3333333333339</v>
+        <v>17304</v>
       </c>
       <c r="BB62" s="114">
         <f t="shared" si="97"/>
-        <v>9908.6666666666661</v>
+        <v>17680.8</v>
       </c>
       <c r="BC62" s="140">
         <f>AVERAGE(AQ62:BB62)</f>
-        <v>9413.5555555555566</v>
+        <v>18084.2</v>
       </c>
       <c r="BD62" s="114">
         <f t="shared" si="97"/>
-        <v>10120.000000000002</v>
+        <v>18057.599999999999</v>
       </c>
       <c r="BE62" s="114">
         <f t="shared" si="97"/>
-        <v>8855.4285714285725</v>
+        <v>18434.400000000001</v>
       </c>
       <c r="BF62" s="114">
         <f t="shared" si="97"/>
-        <v>9036.5714285714294</v>
+        <v>18811.200000000004</v>
       </c>
       <c r="BG62" s="114">
         <f t="shared" si="97"/>
-        <v>9217.7142857142862</v>
+        <v>19188</v>
       </c>
       <c r="BH62" s="114">
         <f t="shared" si="97"/>
-        <v>9398.8571428571431</v>
+        <v>19564.8</v>
       </c>
       <c r="BI62" s="114">
         <f t="shared" si="97"/>
-        <v>9580</v>
+        <v>19941.599999999999</v>
       </c>
       <c r="BJ62" s="114">
         <f t="shared" si="97"/>
-        <v>9761.1428571428569</v>
+        <v>20318.400000000001</v>
       </c>
       <c r="BK62" s="114">
         <f t="shared" si="97"/>
-        <v>9942.2857142857156</v>
+        <v>17246.000000000004</v>
       </c>
       <c r="BL62" s="114">
         <f t="shared" si="97"/>
-        <v>10123.428571428574</v>
+        <v>17560.000000000004</v>
       </c>
       <c r="BM62" s="114">
         <f t="shared" si="97"/>
-        <v>9016.5</v>
+        <v>17874</v>
       </c>
       <c r="BN62" s="114">
         <f t="shared" si="97"/>
-        <v>9175</v>
+        <v>18188</v>
       </c>
       <c r="BO62" s="114">
         <f t="shared" si="97"/>
-        <v>9333.5</v>
+        <v>18502.000000000004</v>
       </c>
       <c r="BP62" s="140">
         <f>AVERAGE(BD62:BO62)</f>
-        <v>9463.3690476190477</v>
+        <v>18640.5</v>
       </c>
     </row>
     <row r="63" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16970,259 +16968,259 @@
       <c r="D63" s="113"/>
       <c r="E63" s="113">
         <f t="shared" ref="E63:AJ63" si="98">+E24/E3</f>
-        <v>56.994818652849744</v>
+        <v>66.956521739130437</v>
       </c>
       <c r="F63" s="113">
         <f t="shared" si="98"/>
-        <v>74.145402022147323</v>
+        <v>81.769911504424783</v>
       </c>
       <c r="G63" s="113">
         <f t="shared" si="98"/>
-        <v>82.411701748127001</v>
+        <v>88.280254777070056</v>
       </c>
       <c r="H63" s="113">
         <f t="shared" si="98"/>
-        <v>87.276848965712659</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="I63" s="113">
         <f t="shared" si="98"/>
-        <v>91.010575793184472</v>
+        <v>94.65306122448979</v>
       </c>
       <c r="J63" s="113">
         <f t="shared" si="98"/>
-        <v>93.655892391086127</v>
+        <v>96.539792387543244</v>
       </c>
       <c r="K63" s="113">
         <f t="shared" si="98"/>
-        <v>95.628175924303491</v>
+        <v>97.927927927927925</v>
       </c>
       <c r="L63" s="113">
         <f t="shared" si="98"/>
-        <v>97.155293020363743</v>
+        <v>98.992042440318301</v>
       </c>
       <c r="M63" s="113">
         <f t="shared" si="98"/>
-        <v>90.474049331962988</v>
+        <v>99.833729216152022</v>
       </c>
       <c r="N63" s="113">
         <f t="shared" si="98"/>
-        <v>92.068155111633359</v>
+        <v>100.51612903225806</v>
       </c>
       <c r="O63" s="113">
         <f t="shared" si="98"/>
-        <v>93.411650064963197</v>
+        <v>96.348314606741582</v>
       </c>
       <c r="P63" s="141">
         <f t="shared" si="98"/>
-        <v>90.795185825715578</v>
+        <v>95.955056179775283</v>
       </c>
       <c r="Q63" s="113">
         <f t="shared" si="98"/>
-        <v>94.559325436659307</v>
+        <v>97.162629757785453</v>
       </c>
       <c r="R63" s="113">
         <f t="shared" si="98"/>
-        <v>95.551085329341305</v>
+        <v>97.861736334405137</v>
       </c>
       <c r="S63" s="113">
         <f t="shared" si="98"/>
-        <v>96.416681268617495</v>
+        <v>98.468468468468473</v>
       </c>
       <c r="T63" s="113">
         <f t="shared" si="98"/>
-        <v>97.17874794069192</v>
+        <v>99</v>
       </c>
       <c r="U63" s="113">
         <f t="shared" si="98"/>
-        <v>97.854811130110363</v>
+        <v>99.469496021220166</v>
       </c>
       <c r="V63" s="113">
         <f t="shared" si="98"/>
-        <v>94.130266582260674</v>
+        <v>99.887218045112775</v>
       </c>
       <c r="W63" s="113">
         <f t="shared" si="98"/>
-        <v>94.860469785183696</v>
+        <v>100.26128266033254</v>
       </c>
       <c r="X63" s="113">
         <f t="shared" si="98"/>
-        <v>95.523007211691876</v>
+        <v>100.59819413092549</v>
       </c>
       <c r="Y63" s="113">
         <f t="shared" si="98"/>
-        <v>96.126867947544966</v>
+        <v>100.90322580645162</v>
       </c>
       <c r="Z63" s="113">
         <f t="shared" si="98"/>
-        <v>96.679516383388801</v>
+        <v>101.18069815195071</v>
       </c>
       <c r="AA63" s="113">
         <f t="shared" si="98"/>
-        <v>97.187202330923967</v>
+        <v>99.002876318312573</v>
       </c>
       <c r="AB63" s="113">
         <f t="shared" si="98"/>
-        <v>97.65519840628869</v>
+        <v>99.328426862925483</v>
       </c>
       <c r="AC63" s="141">
         <f t="shared" si="98"/>
-        <v>96.223121017254911</v>
+        <v>99.573306370070782</v>
       </c>
       <c r="AD63" s="113">
         <f t="shared" si="98"/>
-        <v>98.087983833359232</v>
+        <v>99.628647214854098</v>
       </c>
       <c r="AE63" s="113">
         <f t="shared" si="98"/>
-        <v>95.508474576271183</v>
+        <v>99.906382978723414</v>
       </c>
       <c r="AF63" s="113">
         <f t="shared" si="98"/>
-        <v>95.97211826347305</v>
+        <v>100.16406890894176</v>
       </c>
       <c r="AG63" s="113">
         <f t="shared" si="98"/>
-        <v>96.405302687539574</v>
+        <v>100.40380047505938</v>
       </c>
       <c r="AH63" s="113">
         <f t="shared" si="98"/>
-        <v>96.81093394077449</v>
+        <v>100.6273909716909</v>
       </c>
       <c r="AI63" s="113">
         <f t="shared" si="98"/>
-        <v>97.1915598199881</v>
+        <v>100.83641746854181</v>
       </c>
       <c r="AJ63" s="113">
         <f t="shared" si="98"/>
-        <v>97.549423393739701</v>
+        <v>101.03225806451613</v>
       </c>
       <c r="AK63" s="113">
         <f t="shared" ref="AK63:BP63" si="99">+AK24/AK3</f>
-        <v>97.886507238262823</v>
+        <v>101.21612230715775</v>
       </c>
       <c r="AL63" s="113">
         <f t="shared" si="99"/>
-        <v>98.204570184983666</v>
+        <v>101.38907619689819</v>
       </c>
       <c r="AM63" s="113">
         <f t="shared" si="99"/>
-        <v>96.231953624044607</v>
+        <v>99.916237113402062</v>
       </c>
       <c r="AN63" s="113">
         <f t="shared" si="99"/>
-        <v>96.569455931532957</v>
+        <v>100.11278195488721</v>
       </c>
       <c r="AO63" s="113">
         <f t="shared" si="99"/>
-        <v>96.889784475205886</v>
+        <v>100.29878048780488</v>
       </c>
       <c r="AP63" s="141">
         <f t="shared" si="99"/>
-        <v>96.950952978969909</v>
+        <v>100.47852093529093</v>
       </c>
       <c r="AQ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.194217559208496</v>
+        <v>100.4750593824228</v>
       </c>
       <c r="AR63" s="113">
         <f t="shared" si="99"/>
-        <v>97.483909694200818</v>
+        <v>100.6423611111111</v>
       </c>
       <c r="AS63" s="113">
         <f t="shared" si="99"/>
-        <v>97.759906228632829</v>
+        <v>100.80135440180585</v>
       </c>
       <c r="AT63" s="113">
         <f t="shared" si="99"/>
-        <v>98.023155952797481</v>
+        <v>100.95264317180617</v>
       </c>
       <c r="AU63" s="113">
         <f t="shared" si="99"/>
-        <v>98.274521995958324</v>
+        <v>101.09677419354838</v>
       </c>
       <c r="AV63" s="113">
         <f t="shared" si="99"/>
-        <v>96.677706170187363</v>
+        <v>101.23424369747899</v>
       </c>
       <c r="AW63" s="113">
         <f t="shared" si="99"/>
-        <v>96.942351498160136</v>
+        <v>101.36550308008214</v>
       </c>
       <c r="AX63" s="113">
         <f t="shared" si="99"/>
-        <v>97.196007778540377</v>
+        <v>101.49096385542168</v>
       </c>
       <c r="AY63" s="113">
         <f t="shared" si="99"/>
-        <v>97.439345548271419</v>
+        <v>100.37845705967977</v>
       </c>
       <c r="AZ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.672981878088947</v>
+        <v>100.51781472684085</v>
       </c>
       <c r="BA63" s="113">
         <f t="shared" si="99"/>
-        <v>97.897485597372523</v>
+        <v>100.65146579804561</v>
       </c>
       <c r="BB63" s="113">
         <f t="shared" si="99"/>
-        <v>98.113381918039693</v>
+        <v>100.7797537619699</v>
       </c>
       <c r="BC63" s="141">
         <f t="shared" si="99"/>
-        <v>97.561368588305541</v>
+        <v>100.86420816818885</v>
       </c>
       <c r="BD63" s="113">
         <f t="shared" si="99"/>
-        <v>98.321156536608115</v>
+        <v>100.90299508270003</v>
       </c>
       <c r="BE63" s="113">
         <f t="shared" si="99"/>
-        <v>96.97989937169892</v>
+        <v>101.02148180622534</v>
       </c>
       <c r="BF63" s="113">
         <f t="shared" si="99"/>
-        <v>97.19729563614014</v>
+        <v>101.13548387096775</v>
       </c>
       <c r="BG63" s="113">
         <f t="shared" si="99"/>
-        <v>97.407067462138585</v>
+        <v>101.24525116082735</v>
       </c>
       <c r="BH63" s="113">
         <f t="shared" si="99"/>
-        <v>97.609609039333435</v>
+        <v>101.35101533360961</v>
       </c>
       <c r="BI63" s="113">
         <f t="shared" si="99"/>
-        <v>97.80528784449163</v>
+        <v>101.45299145299144</v>
       </c>
       <c r="BJ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.994446866610048</v>
+        <v>101.55137944822071</v>
       </c>
       <c r="BK63" s="113">
         <f t="shared" si="99"/>
-        <v>98.177406613249076</v>
+        <v>100.65758754863815</v>
       </c>
       <c r="BL63" s="113">
         <f t="shared" si="99"/>
-        <v>98.354466922786528</v>
+        <v>100.76511094108646</v>
       </c>
       <c r="BM63" s="113">
         <f t="shared" si="99"/>
-        <v>97.198266568927593</v>
+        <v>100.86907449209932</v>
       </c>
       <c r="BN63" s="113">
         <f t="shared" si="99"/>
-        <v>97.382610172369866</v>
+        <v>100.96965210954846</v>
       </c>
       <c r="BO63" s="113">
         <f t="shared" si="99"/>
-        <v>97.561358029853238</v>
+        <v>101.06700655498908</v>
       </c>
       <c r="BP63" s="141">
         <f t="shared" si="99"/>
-        <v>97.665252134302321</v>
+        <v>101.07789642821274</v>
       </c>
     </row>
     <row r="64" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17233,259 +17231,259 @@
       <c r="D64" s="113"/>
       <c r="E64" s="113">
         <f t="shared" ref="E64:AJ64" si="100">+E19/E3</f>
-        <v>56.994818652849744</v>
+        <v>66.956521739130437</v>
       </c>
       <c r="F64" s="113">
         <f t="shared" si="100"/>
-        <v>74.145402022147323</v>
+        <v>81.769911504424783</v>
       </c>
       <c r="G64" s="113">
         <f t="shared" si="100"/>
-        <v>82.411701748127001</v>
+        <v>88.280254777070056</v>
       </c>
       <c r="H64" s="113">
         <f t="shared" si="100"/>
-        <v>87.276848965712659</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="I64" s="113">
         <f t="shared" si="100"/>
-        <v>90.481786133960028</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="J64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>95.916955017301035</v>
       </c>
       <c r="K64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>97.117117117117118</v>
       </c>
       <c r="L64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>98.037135278514597</v>
       </c>
       <c r="M64" s="113">
         <f t="shared" si="100"/>
-        <v>89.028776978417255</v>
+        <v>98.764845605700714</v>
       </c>
       <c r="N64" s="113">
         <f t="shared" si="100"/>
-        <v>90.481786133960028</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="O64" s="113">
         <f t="shared" si="100"/>
-        <v>91.70636639237766</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="P64" s="141">
         <f t="shared" si="100"/>
-        <v>89.683408040094577</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="Q64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>95.916955017301035</v>
       </c>
       <c r="R64" s="113">
         <f t="shared" si="100"/>
-        <v>93.656437125748496</v>
+        <v>96.559485530546624</v>
       </c>
       <c r="S64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>97.117117117117118</v>
       </c>
       <c r="T64" s="113">
         <f t="shared" si="100"/>
-        <v>95.140032948929161</v>
+        <v>97.605633802816897</v>
       </c>
       <c r="U64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>98.037135278514597</v>
       </c>
       <c r="V64" s="113">
         <f t="shared" si="100"/>
-        <v>92.072870507139342</v>
+        <v>98.421052631578945</v>
       </c>
       <c r="W64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>98.764845605700714</v>
       </c>
       <c r="X64" s="113">
         <f t="shared" si="100"/>
-        <v>93.369072691301298</v>
+        <v>99.074492099322796</v>
       </c>
       <c r="Y64" s="113">
         <f t="shared" si="100"/>
-        <v>93.931076547727955</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="Z64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832478</v>
+        <v>99.609856262833674</v>
       </c>
       <c r="AA64" s="113">
         <f t="shared" si="100"/>
-        <v>94.917913374796896</v>
+        <v>97.449664429530202</v>
       </c>
       <c r="AB64" s="113">
         <f t="shared" si="100"/>
-        <v>95.353470090992303</v>
+        <v>97.755289788408462</v>
       </c>
       <c r="AC64" s="141">
         <f t="shared" si="100"/>
-        <v>94.101900078563716</v>
+        <v>98.099089989888782</v>
       </c>
       <c r="AD64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>98.037135278514583</v>
       </c>
       <c r="AE64" s="113">
         <f t="shared" si="100"/>
-        <v>93.220338983050851</v>
+        <v>98.297872340425542</v>
       </c>
       <c r="AF64" s="113">
         <f t="shared" si="100"/>
-        <v>93.656437125748496</v>
+        <v>98.539786710418369</v>
       </c>
       <c r="AG64" s="113">
         <f t="shared" si="100"/>
-        <v>94.06388562121073</v>
+        <v>98.764845605700714</v>
       </c>
       <c r="AH64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>98.974751338944145</v>
       </c>
       <c r="AI64" s="113">
         <f t="shared" si="100"/>
-        <v>94.803430415216084</v>
+        <v>99.170984455958532</v>
       </c>
       <c r="AJ64" s="113">
         <f t="shared" si="100"/>
-        <v>95.140032948929161</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="AK64" s="113">
         <f t="shared" ref="AK64:BP64" si="101">+AK19/AK3</f>
-        <v>95.457090298328396</v>
+        <v>99.527449617790126</v>
       </c>
       <c r="AL64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870503</v>
+        <v>99.689817936614972</v>
       </c>
       <c r="AM64" s="113">
         <f t="shared" si="101"/>
-        <v>93.822693202377877</v>
+        <v>98.234536082474222</v>
       </c>
       <c r="AN64" s="113">
         <f t="shared" si="101"/>
-        <v>94.142184184976088</v>
+        <v>98.421052631578945</v>
       </c>
       <c r="AO64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832493</v>
+        <v>98.597560975609753</v>
       </c>
       <c r="AP64" s="141">
         <f t="shared" si="101"/>
-        <v>94.562434519555651</v>
+        <v>98.814573137574769</v>
       </c>
       <c r="AQ64" s="113">
         <f t="shared" si="101"/>
-        <v>94.733604456443715</v>
+        <v>98.764845605700714</v>
       </c>
       <c r="AR64" s="113">
         <f t="shared" si="101"/>
-        <v>95.007836729249334</v>
+        <v>98.9236111111111</v>
       </c>
       <c r="AS64" s="113">
         <f t="shared" si="101"/>
-        <v>95.269104288086481</v>
+        <v>99.074492099322796</v>
       </c>
       <c r="AT64" s="113">
         <f t="shared" si="101"/>
-        <v>95.518305289608449</v>
+        <v>99.218061674008823</v>
       </c>
       <c r="AU64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870489</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="AV64" s="113">
         <f t="shared" si="101"/>
-        <v>94.193817878028383</v>
+        <v>99.485294117647058</v>
       </c>
       <c r="AW64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832478</v>
+        <v>99.609856262833674</v>
       </c>
       <c r="AX64" s="113">
         <f t="shared" si="101"/>
-        <v>94.686570578814923</v>
+        <v>99.728915662650593</v>
       </c>
       <c r="AY64" s="113">
         <f t="shared" si="101"/>
-        <v>94.917913374796896</v>
+        <v>98.631732168850078</v>
       </c>
       <c r="AZ64" s="113">
         <f t="shared" si="101"/>
-        <v>95.140032948929147</v>
+        <v>98.764845605700714</v>
       </c>
       <c r="BA64" s="113">
         <f t="shared" si="101"/>
-        <v>95.353470090992303</v>
+        <v>98.892508143322473</v>
       </c>
       <c r="BB64" s="113">
         <f t="shared" si="101"/>
-        <v>95.558724123362893</v>
+        <v>99.015047879616958</v>
       </c>
       <c r="BC64" s="141">
         <f t="shared" si="101"/>
-        <v>95.051595967508021</v>
+        <v>99.119420989143535</v>
       </c>
       <c r="BD64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870503</v>
+        <v>99.132767098793025</v>
       </c>
       <c r="BE64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832478</v>
+        <v>99.245944761069708</v>
       </c>
       <c r="BF64" s="113">
         <f t="shared" si="101"/>
-        <v>94.65273509526736</v>
+        <v>99.354838709677423</v>
       </c>
       <c r="BG64" s="113">
         <f t="shared" si="101"/>
-        <v>94.852781333784193</v>
+        <v>99.459687631912203</v>
       </c>
       <c r="BH64" s="113">
         <f t="shared" si="101"/>
-        <v>95.045932537327602</v>
+        <v>99.560712805636129</v>
       </c>
       <c r="BI64" s="113">
         <f t="shared" si="101"/>
-        <v>95.23253914545073</v>
+        <v>99.658119658119645</v>
       </c>
       <c r="BJ64" s="113">
         <f t="shared" si="101"/>
-        <v>95.412928245255728</v>
+        <v>99.752099160335874</v>
       </c>
       <c r="BK64" s="113">
         <f t="shared" si="101"/>
-        <v>95.587405484708285</v>
+        <v>98.871595330739311</v>
       </c>
       <c r="BL64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870517</v>
+        <v>98.974751338944145</v>
       </c>
       <c r="BM64" s="113">
         <f t="shared" si="101"/>
-        <v>94.627226079082391</v>
+        <v>99.074492099322796</v>
       </c>
       <c r="BN64" s="113">
         <f t="shared" si="101"/>
-        <v>94.803430415216084</v>
+        <v>99.170984455958532</v>
       </c>
       <c r="BO64" s="113">
         <f t="shared" si="101"/>
-        <v>94.974286072667965</v>
+        <v>99.264384559359073</v>
       </c>
       <c r="BP64" s="141">
         <f t="shared" si="101"/>
-        <v>95.094278646204017</v>
+        <v>99.288320557024718</v>
       </c>
     </row>
     <row r="65" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17512,243 +17510,243 @@
       </c>
       <c r="I65" s="113">
         <f t="shared" si="102"/>
-        <v>0.52878965922444365</v>
+        <v>0.36734693877549773</v>
       </c>
       <c r="J65" s="113">
         <f t="shared" si="102"/>
-        <v>0.90343304557318049</v>
+        <v>0.62283737024220898</v>
       </c>
       <c r="K65" s="113">
         <f t="shared" si="102"/>
-        <v>1.1827580164709985</v>
+        <v>0.81081081081080697</v>
       </c>
       <c r="L65" s="113">
         <f t="shared" si="102"/>
-        <v>1.3990362194932402</v>
+        <v>0.95490716180370327</v>
       </c>
       <c r="M65" s="113">
         <f t="shared" si="102"/>
-        <v>1.4452723535457324</v>
+        <v>1.0688836104513086</v>
       </c>
       <c r="N65" s="113">
         <f t="shared" si="102"/>
-        <v>1.586368977673331</v>
+        <v>1.1612903225806406</v>
       </c>
       <c r="O65" s="113">
         <f t="shared" ref="O65:AW65" si="103">+O63-O64</f>
-        <v>1.7052836725855371</v>
+        <v>1.1797752808988804</v>
       </c>
       <c r="P65" s="141">
         <f t="shared" ref="P65" si="104">+P63-P64</f>
-        <v>1.1117777856210012</v>
+        <v>0.78651685393258219</v>
       </c>
       <c r="Q65" s="113">
         <f t="shared" si="103"/>
-        <v>1.806866091146361</v>
+        <v>1.245674740484418</v>
       </c>
       <c r="R65" s="113">
         <f t="shared" si="103"/>
-        <v>1.8946482035928085</v>
+        <v>1.302250803858513</v>
       </c>
       <c r="S65" s="113">
         <f t="shared" si="103"/>
-        <v>1.9712633607850023</v>
+        <v>1.3513513513513544</v>
       </c>
       <c r="T65" s="113">
         <f t="shared" si="103"/>
-        <v>2.0387149917627596</v>
+        <v>1.3943661971831034</v>
       </c>
       <c r="U65" s="113">
         <f t="shared" si="103"/>
-        <v>2.0985543292398603</v>
+        <v>1.4323607427055691</v>
       </c>
       <c r="V65" s="113">
         <f t="shared" si="103"/>
-        <v>2.057396075121332</v>
+        <v>1.4661654135338296</v>
       </c>
       <c r="W65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1080104396707497</v>
+        <v>1.4964370546318264</v>
       </c>
       <c r="X65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1539345203905782</v>
+        <v>1.5237020316026957</v>
       </c>
       <c r="Y65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1957913998170113</v>
+        <v>1.5483870967741922</v>
       </c>
       <c r="Z65" s="113">
         <f t="shared" si="103"/>
-        <v>2.2340984755563227</v>
+        <v>1.5708418891170339</v>
       </c>
       <c r="AA65" s="113">
         <f t="shared" si="103"/>
-        <v>2.2692889561270704</v>
+        <v>1.5532118887823714</v>
       </c>
       <c r="AB65" s="113">
         <f t="shared" si="103"/>
-        <v>2.301728315296387</v>
+        <v>1.573137074517021</v>
       </c>
       <c r="AC65" s="141">
         <f t="shared" si="103"/>
-        <v>2.1212209386911951</v>
+        <v>1.4742163801819999</v>
       </c>
       <c r="AD65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3317270324887289</v>
+        <v>1.5915119363395149</v>
       </c>
       <c r="AE65" s="113">
         <f t="shared" si="103"/>
-        <v>2.288135593220332</v>
+        <v>1.6085106382978722</v>
       </c>
       <c r="AF65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3156811377245532</v>
+        <v>1.6242821985233888</v>
       </c>
       <c r="AG65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3414170663288445</v>
+        <v>1.6389548693586704</v>
       </c>
       <c r="AH65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3655160329419971</v>
+        <v>1.6526396327467552</v>
       </c>
       <c r="AI65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3881294047720161</v>
+        <v>1.6654330125832786</v>
       </c>
       <c r="AJ65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4093904448105405</v>
+        <v>1.6774193548387046</v>
       </c>
       <c r="AK65" s="113">
         <f t="shared" si="103"/>
-        <v>2.429416939934427</v>
+        <v>1.6886726893676212</v>
       </c>
       <c r="AL65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4483133841131632</v>
+        <v>1.6992582602832158</v>
       </c>
       <c r="AM65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4092604216667297</v>
+        <v>1.6817010309278402</v>
       </c>
       <c r="AN65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4272717465568689</v>
+        <v>1.691729323308266</v>
       </c>
       <c r="AO65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4443665673733932</v>
+        <v>1.7012195121951237</v>
       </c>
       <c r="AP65" s="141">
         <f t="shared" ref="AP65" si="105">+AP63-AP64</f>
-        <v>2.3885184594142572</v>
+        <v>1.6639477977161619</v>
       </c>
       <c r="AQ65" s="113">
         <f t="shared" si="103"/>
-        <v>2.460613102764782</v>
+        <v>1.7102137767220853</v>
       </c>
       <c r="AR65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4760729649514843</v>
+        <v>1.71875</v>
       </c>
       <c r="AS65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4908019405463477</v>
+        <v>1.7268623024830561</v>
       </c>
       <c r="AT65" s="113">
         <f t="shared" si="103"/>
-        <v>2.5048506631890319</v>
+        <v>1.7345814977973504</v>
       </c>
       <c r="AU65" s="113">
         <f t="shared" si="103"/>
-        <v>2.5182651950878352</v>
+        <v>1.7419354838709609</v>
       </c>
       <c r="AV65" s="113">
         <f t="shared" si="103"/>
-        <v>2.48388829215898</v>
+        <v>1.7489495798319297</v>
       </c>
       <c r="AW65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4969335903276573</v>
+        <v>1.7556468172484614</v>
       </c>
       <c r="AX65" s="113">
         <f t="shared" ref="AX65:BO65" si="106">+AX63-AX64</f>
-        <v>2.5094371997254541</v>
+        <v>1.7620481927710898</v>
       </c>
       <c r="AY65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5214321734745226</v>
+        <v>1.7467248908296966</v>
       </c>
       <c r="AZ65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5329489291598009</v>
+        <v>1.7529691211401399</v>
       </c>
       <c r="BA65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5440155063802194</v>
+        <v>1.7589576547231331</v>
       </c>
       <c r="BB65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5546577946767997</v>
+        <v>1.764705882352942</v>
       </c>
       <c r="BC65" s="141">
         <f t="shared" si="106"/>
-        <v>2.5097726207975199</v>
+        <v>1.7447871790453178</v>
       </c>
       <c r="BD65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5648997357376118</v>
+        <v>1.7702279839070059</v>
       </c>
       <c r="BE65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5344814638664417</v>
+        <v>1.7755370451556303</v>
       </c>
       <c r="BF65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5445605408727801</v>
+        <v>1.7806451612903231</v>
       </c>
       <c r="BG65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5542861283543914</v>
+        <v>1.7855635289151479</v>
       </c>
       <c r="BH65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5636765020058334</v>
+        <v>1.7903025279734806</v>
       </c>
       <c r="BI65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5727486990409005</v>
+        <v>1.7948717948717956</v>
       </c>
       <c r="BJ65" s="113">
         <f t="shared" si="106"/>
-        <v>2.58151862135432</v>
+        <v>1.7992802878848408</v>
       </c>
       <c r="BK65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5900011285407913</v>
+        <v>1.785992217898837</v>
       </c>
       <c r="BL65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5982101219160114</v>
+        <v>1.7903596021423169</v>
       </c>
       <c r="BM65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5710404898452026</v>
+        <v>1.794582392776519</v>
       </c>
       <c r="BN65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5791797571537813</v>
+        <v>1.7986676535899306</v>
       </c>
       <c r="BO65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5870719571852732</v>
+        <v>1.8026219956300054</v>
       </c>
       <c r="BP65" s="141">
         <f t="shared" ref="BP65" si="107">+BP63-BP64</f>
-        <v>2.5709734880983035</v>
+        <v>1.7895758711880205</v>
       </c>
     </row>
     <row r="66" spans="1:68" s="116" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17759,259 +17757,259 @@
       <c r="D66" s="117"/>
       <c r="E66" s="117">
         <f>((E27+E28)/E24)</f>
-        <v>0.35792727272727282</v>
+        <v>0.3046753246753246</v>
       </c>
       <c r="F66" s="117">
         <f t="shared" ref="F66:BP66" si="108">((F27+F28)/F24)</f>
-        <v>0.27513506493506501</v>
+        <v>0.24948051948051947</v>
       </c>
       <c r="G66" s="117">
         <f t="shared" si="108"/>
-        <v>0.24753766233766236</v>
+        <v>0.23108225108225106</v>
       </c>
       <c r="H66" s="117">
         <f t="shared" si="108"/>
-        <v>0.23373896103896111</v>
+        <v>0.22188311688311688</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" si="108"/>
-        <v>0.22414977404777278</v>
+        <v>0.21552393272962483</v>
       </c>
       <c r="J66" s="117">
         <f t="shared" si="108"/>
-        <v>0.2178186495176849</v>
+        <v>0.21131182795698922</v>
       </c>
       <c r="K66" s="117">
         <f t="shared" si="108"/>
-        <v>0.21332624828218047</v>
+        <v>0.20831646734130638</v>
       </c>
       <c r="L66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20997312000000007</v>
+        <v>0.20607717041800641</v>
       </c>
       <c r="M66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20737465388711396</v>
+        <v>0.20433975731620271</v>
       </c>
       <c r="N66" s="117">
         <f t="shared" si="108"/>
-        <v>0.2053018506700702</v>
+        <v>0.20295250320924263</v>
       </c>
       <c r="O66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20360985221674877</v>
+        <v>0.20181924198250728</v>
       </c>
       <c r="P66" s="142">
         <f t="shared" si="108"/>
-        <v>0.21724711370262395</v>
+        <v>0.21094067135050742</v>
       </c>
       <c r="Q66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20220254777070065</v>
+        <v>0.20087606837606836</v>
       </c>
       <c r="R66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20101365973072219</v>
+        <v>0.20007885657959587</v>
       </c>
       <c r="S66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19999600181735572</v>
+        <v>0.19939615736505034</v>
       </c>
       <c r="T66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1991150667514304</v>
+        <v>0.19880495091762698</v>
       </c>
       <c r="U66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19834503574265291</v>
+        <v>0.19828799999999999</v>
       </c>
       <c r="V66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19766620586586961</v>
+        <v>0.19783214151298459</v>
       </c>
       <c r="W66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19706328042328042</v>
+        <v>0.19742714996446339</v>
       </c>
       <c r="X66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19652420243861701</v>
+        <v>0.19706496129249415</v>
       </c>
       <c r="Y66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19603934010152285</v>
+        <v>0.19673913043478261</v>
       </c>
       <c r="Z66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19560090620752157</v>
+        <v>0.19644444444444445</v>
       </c>
       <c r="AA66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19520253675410781</v>
+        <v>0.19617664148750724</v>
       </c>
       <c r="AB66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19483898001378361</v>
+        <v>0.1959322033898305</v>
       </c>
       <c r="AC66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19735607366415681</v>
+        <v>0.19762383476512518</v>
       </c>
       <c r="AD66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1945058637083994</v>
+        <v>0.19570820021299254</v>
       </c>
       <c r="AE66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19419951831664342</v>
+        <v>0.1955021722463583</v>
       </c>
       <c r="AF66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19391684133560813</v>
+        <v>0.19531203931203933</v>
       </c>
       <c r="AG66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19365519183386135</v>
+        <v>0.19513603028152351</v>
       </c>
       <c r="AH66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19341230769230766</v>
+        <v>0.19497262773722629</v>
       </c>
       <c r="AI66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19318624003494597</v>
+        <v>0.19482052411363135</v>
       </c>
       <c r="AJ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19297530082330588</v>
+        <v>0.19467858663260965</v>
       </c>
       <c r="AK66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19277802063119193</v>
+        <v>0.19454582904222451</v>
       </c>
       <c r="AL66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19259311436485954</v>
+        <v>0.19442138866719871</v>
       </c>
       <c r="AM66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19241945323741005</v>
+        <v>0.1943045076417102</v>
       </c>
       <c r="AN66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19225604170545521</v>
+        <v>0.19419451746150959</v>
       </c>
       <c r="AO66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19210199837236641</v>
+        <v>0.19409082619004195</v>
       </c>
       <c r="AP66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19307897590038106</v>
+        <v>0.19474834938846197</v>
       </c>
       <c r="AQ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19195654008438817</v>
+        <v>0.19399290780141845</v>
       </c>
       <c r="AR66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19181896861370051</v>
+        <v>0.19390029325513194</v>
       </c>
       <c r="AS66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19168865945045796</v>
+        <v>0.1938125629828687</v>
       </c>
       <c r="AT66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19156505232416646</v>
+        <v>0.19372934053346422</v>
       </c>
       <c r="AU66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19144764315090163</v>
+        <v>0.19365028717294194</v>
       </c>
       <c r="AV66" s="117">
         <f t="shared" si="108"/>
-        <v>0.191335977162256</v>
+        <v>0.1935750972762646</v>
       </c>
       <c r="AW66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19122964301852693</v>
+        <v>0.19350349437860834</v>
       </c>
       <c r="AX66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19112826774549468</v>
+        <v>0.19343522777860217</v>
       </c>
       <c r="AY66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19103151236342727</v>
+        <v>0.19337006960556843</v>
       </c>
       <c r="AZ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19093906810035846</v>
+        <v>0.19330781227846305</v>
       </c>
       <c r="BA66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19085065310050875</v>
+        <v>0.19324826629681</v>
       </c>
       <c r="BB66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19076600955392592</v>
+        <v>0.19319125831410344</v>
       </c>
       <c r="BC66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19128216776553991</v>
+        <v>0.19353886368878298</v>
       </c>
       <c r="BD66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19068490118577078</v>
+        <v>0.19313662945241891</v>
       </c>
       <c r="BE66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19060711105375236</v>
+        <v>0.19308423382372084</v>
       </c>
       <c r="BF66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19053243961047173</v>
+        <v>0.19303393722888493</v>
       </c>
       <c r="BG66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1904607029942347</v>
+        <v>0.19298561601000627</v>
       </c>
       <c r="BH66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19039173151750977</v>
+        <v>0.19293915603532877</v>
       </c>
       <c r="BI66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19032536832687147</v>
+        <v>0.19289445179925382</v>
       </c>
       <c r="BJ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19026146821215317</v>
+        <v>0.19285140562248992</v>
       </c>
       <c r="BK66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19019989654577849</v>
+        <v>0.19280992693958021</v>
       </c>
       <c r="BL66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19014052833596745</v>
+        <v>0.19276993166287018</v>
       </c>
       <c r="BM66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19008324737980373</v>
+        <v>0.19273134161351682</v>
       </c>
       <c r="BN66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19002794550408722</v>
+        <v>0.19269408401143612</v>
       </c>
       <c r="BO66" s="117">
         <f t="shared" si="108"/>
-        <v>0.18997452188353781</v>
+        <v>0.19265809101718731</v>
       </c>
       <c r="BP66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19029311903566051</v>
+        <v>0.19287272727272728</v>
       </c>
     </row>
     <row r="67" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/FiltaAnalysis/Filta Franchisee Business Planning worksheet.xlsx
+++ b/FiltaAnalysis/Filta Franchisee Business Planning worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT Home PC\Desktop\FiltaAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT Home PC\Desktop\Filta\FiltaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D1B78D-0CC2-4433-B325-68E21C4729D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE758938-2E66-4934-93B3-D68AC74CD2A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
   <si>
     <t>Dynamics</t>
   </si>
@@ -594,6 +594,24 @@
   </si>
   <si>
     <t>hourly rate for warehouse manager</t>
+  </si>
+  <si>
+    <t>Figure includes Rent</t>
+  </si>
+  <si>
+    <t>*This assumes that there are 3 fryers per job @ $35.00</t>
+  </si>
+  <si>
+    <t>80 fryer is Steve's target</t>
+  </si>
+  <si>
+    <t>figure above is 80/3 which is 80 fryers divided by the average</t>
+  </si>
+  <si>
+    <t>Total number of customers per week if each customer got serviced 1x</t>
+  </si>
+  <si>
+    <t>This is 2x a week, amount of customers</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1026,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1381,6 +1399,9 @@
     <xf numFmtId="43" fontId="1" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -1730,10 +1751,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,11 +1768,11 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>63</v>
       </c>
@@ -1759,27 +1780,40 @@
       <c r="C2" s="26"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="13">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="4"/>
+      <c r="F3" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3">
+        <f>80/3</f>
+        <v>26.666666666666668</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
+      <c r="N4" s="163" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -1792,30 +1826,40 @@
         <f>16*4</f>
         <v>64</v>
       </c>
+      <c r="N5" s="163" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="24">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="4"/>
       <c r="F6">
         <f>B6/B3</f>
-        <v>285.71428571428572</v>
+        <v>104.76190476190476</v>
       </c>
       <c r="G6" s="163" t="s">
         <v>180</v>
       </c>
+      <c r="N6">
+        <f>N3/2</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O6" s="163" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>113</v>
@@ -1823,30 +1867,30 @@
       <c r="D7" s="4"/>
       <c r="F7">
         <f>F6/4</f>
-        <v>71.428571428571431</v>
+        <v>26.19047619047619</v>
       </c>
       <c r="G7" s="163" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="F8">
         <f>F7/2</f>
-        <v>35.714285714285715</v>
+        <v>13.095238095238095</v>
       </c>
       <c r="G8" s="163" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>131</v>
       </c>
@@ -1861,7 +1905,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>162</v>
       </c>
@@ -1874,13 +1918,13 @@
       <c r="D10" s="4"/>
       <c r="F10">
         <f>F7/3</f>
-        <v>23.80952380952381</v>
+        <v>8.7301587301587293</v>
       </c>
       <c r="G10" s="163" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1893,7 +1937,7 @@
       <c r="D11" s="4"/>
       <c r="F11">
         <f>F10/5</f>
-        <v>4.7619047619047619</v>
+        <v>1.7460317460317458</v>
       </c>
       <c r="G11" s="163" t="s">
         <v>185</v>
@@ -1903,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>54</v>
       </c>
@@ -1919,7 +1963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
       <c r="E13" s="10" t="s">
         <v>124</v>
@@ -1931,7 +1975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>121</v>
       </c>
@@ -1948,7 +1992,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>122</v>
       </c>
@@ -1965,7 +2009,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
@@ -2366,10 +2410,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="24">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="4"/>
+      <c r="E51" s="164" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
@@ -2484,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BP74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2780,259 +2827,259 @@
       <c r="D3" s="76"/>
       <c r="E3" s="76">
         <f>(E7*Assumptions!$B$8)+(Assumptions!$B$9*E4)</f>
-        <v>21.616</v>
+        <v>27.6</v>
       </c>
       <c r="F3" s="76">
         <f>(F7*Assumptions!$B$8)+(Assumptions!$B$9*F4)</f>
-        <v>33.231999999999999</v>
+        <v>45.2</v>
       </c>
       <c r="G3" s="76">
         <f>(G7*Assumptions!$B$8)+(Assumptions!$B$9*G4)</f>
-        <v>44.848000000000006</v>
+        <v>62.800000000000004</v>
       </c>
       <c r="H3" s="76">
         <f>(H7*Assumptions!$B$8)+(Assumptions!$B$9*H4)</f>
-        <v>56.464000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I3" s="76">
         <f>(I7*Assumptions!$B$8)+(Assumptions!$B$9*I4)</f>
-        <v>68.080000000000013</v>
+        <v>98</v>
       </c>
       <c r="J3" s="76">
         <f>(J7*Assumptions!$B$8)+(Assumptions!$B$9*J4)</f>
-        <v>79.696000000000012</v>
+        <v>125.60000000000001</v>
       </c>
       <c r="K3" s="76">
         <f>(K7*Assumptions!$B$8)+(Assumptions!$B$9*K4)</f>
-        <v>91.312000000000012</v>
+        <v>143.20000000000002</v>
       </c>
       <c r="L3" s="76">
         <f>(L7*Assumptions!$B$8)+(Assumptions!$B$9*L4)</f>
-        <v>102.92800000000001</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="M3" s="76">
         <f>(M7*Assumptions!$B$8)+(Assumptions!$B$9*M4)</f>
-        <v>124.54400000000001</v>
+        <v>178.4</v>
       </c>
       <c r="N3" s="76">
         <f>(N7*Assumptions!$B$8)+(Assumptions!$B$9*N4)</f>
-        <v>136.16000000000003</v>
+        <v>196</v>
       </c>
       <c r="O3" s="76">
         <f>(O7*Assumptions!$B$8)+(Assumptions!$B$9*O4)</f>
-        <v>147.77600000000001</v>
+        <v>213.60000000000002</v>
       </c>
       <c r="P3" s="127">
         <f>SUM(D3:O3)</f>
-        <v>906.65600000000018</v>
+        <v>1331.6</v>
       </c>
       <c r="Q3" s="76">
         <f>(Q7*Assumptions!$B$8)+(Assumptions!$B$9*Q4)</f>
-        <v>159.39200000000002</v>
+        <v>241.20000000000002</v>
       </c>
       <c r="R3" s="76">
         <f>(R7*Assumptions!$B$8)+(Assumptions!$B$9*R4)</f>
-        <v>171.00800000000001</v>
+        <v>258.8</v>
       </c>
       <c r="S3" s="76">
         <f>(S7*Assumptions!$B$8)+(Assumptions!$B$9*S4)</f>
-        <v>182.62400000000002</v>
+        <v>276.40000000000003</v>
       </c>
       <c r="T3" s="76">
         <f>(T7*Assumptions!$B$8)+(Assumptions!$B$9*T4)</f>
-        <v>194.24</v>
+        <v>294</v>
       </c>
       <c r="U3" s="76">
         <f>(U7*Assumptions!$B$8)+(Assumptions!$B$9*U4)</f>
-        <v>205.85600000000002</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="V3" s="76">
         <f>(V7*Assumptions!$B$8)+(Assumptions!$B$9*V4)</f>
-        <v>227.47200000000004</v>
+        <v>329.20000000000005</v>
       </c>
       <c r="W3" s="76">
         <f>(W7*Assumptions!$B$8)+(Assumptions!$B$9*W4)</f>
-        <v>239.08800000000002</v>
+        <v>356.8</v>
       </c>
       <c r="X3" s="76">
         <f>(X7*Assumptions!$B$8)+(Assumptions!$B$9*X4)</f>
-        <v>250.70400000000004</v>
+        <v>374.40000000000003</v>
       </c>
       <c r="Y3" s="76">
         <f>(Y7*Assumptions!$B$8)+(Assumptions!$B$9*Y4)</f>
-        <v>262.32000000000005</v>
+        <v>392</v>
       </c>
       <c r="Z3" s="76">
         <f>(Z7*Assumptions!$B$8)+(Assumptions!$B$9*Z4)</f>
-        <v>273.93600000000004</v>
+        <v>409.6</v>
       </c>
       <c r="AA3" s="76">
         <f>(AA7*Assumptions!$B$8)+(Assumptions!$B$9*AA4)</f>
-        <v>285.55200000000002</v>
+        <v>427.20000000000005</v>
       </c>
       <c r="AB3" s="76">
         <f>(AB7*Assumptions!$B$8)+(Assumptions!$B$9*AB4)</f>
-        <v>297.16800000000001</v>
+        <v>444.8</v>
       </c>
       <c r="AC3" s="127">
         <f>SUM(Q3:AB3)</f>
-        <v>2749.3600000000006</v>
+        <v>4116</v>
       </c>
       <c r="AD3" s="76">
         <f>(AD7*Assumptions!$B$8)+(Assumptions!$B$9*AD4)</f>
-        <v>308.78400000000005</v>
+        <v>472.40000000000003</v>
       </c>
       <c r="AE3" s="76">
         <f>(AE7*Assumptions!$B$8)+(Assumptions!$B$9*AE4)</f>
-        <v>330.40000000000003</v>
+        <v>490.00000000000006</v>
       </c>
       <c r="AF3" s="76">
         <f>(AF7*Assumptions!$B$8)+(Assumptions!$B$9*AF4)</f>
-        <v>342.01600000000002</v>
+        <v>507.6</v>
       </c>
       <c r="AG3" s="76">
         <f>(AG7*Assumptions!$B$8)+(Assumptions!$B$9*AG4)</f>
-        <v>353.63200000000006</v>
+        <v>525.20000000000005</v>
       </c>
       <c r="AH3" s="76">
         <f>(AH7*Assumptions!$B$8)+(Assumptions!$B$9*AH4)</f>
-        <v>365.24800000000005</v>
+        <v>542.80000000000007</v>
       </c>
       <c r="AI3" s="76">
         <f>(AI7*Assumptions!$B$8)+(Assumptions!$B$9*AI4)</f>
-        <v>376.86400000000003</v>
+        <v>560.40000000000009</v>
       </c>
       <c r="AJ3" s="76">
         <f>(AJ7*Assumptions!$B$8)+(Assumptions!$B$9*AJ4)</f>
-        <v>388.48</v>
+        <v>588</v>
       </c>
       <c r="AK3" s="76">
         <f>(AK7*Assumptions!$B$8)+(Assumptions!$B$9*AK4)</f>
-        <v>400.096</v>
+        <v>605.6</v>
       </c>
       <c r="AL3" s="76">
         <f>(AL7*Assumptions!$B$8)+(Assumptions!$B$9*AL4)</f>
-        <v>411.71200000000005</v>
+        <v>623.20000000000005</v>
       </c>
       <c r="AM3" s="76">
         <f>(AM7*Assumptions!$B$8)+(Assumptions!$B$9*AM4)</f>
-        <v>433.32800000000009</v>
+        <v>640.80000000000007</v>
       </c>
       <c r="AN3" s="76">
         <f>(AN7*Assumptions!$B$8)+(Assumptions!$B$9*AN4)</f>
-        <v>444.94400000000007</v>
+        <v>658.40000000000009</v>
       </c>
       <c r="AO3" s="76">
         <f>(AO7*Assumptions!$B$8)+(Assumptions!$B$9*AO4)</f>
-        <v>456.56</v>
+        <v>676</v>
       </c>
       <c r="AP3" s="127">
         <f>SUM(AD3:AO3)</f>
-        <v>4612.0640000000012</v>
+        <v>6890.4</v>
       </c>
       <c r="AQ3" s="76">
         <f>(AQ7*Assumptions!$B$8)+(Assumptions!$B$9*AQ4)</f>
-        <v>468.17600000000004</v>
+        <v>703.6</v>
       </c>
       <c r="AR3" s="76">
         <f>(AR7*Assumptions!$B$8)+(Assumptions!$B$9*AR4)</f>
-        <v>479.79200000000003</v>
+        <v>721.2</v>
       </c>
       <c r="AS3" s="76">
         <f>(AS7*Assumptions!$B$8)+(Assumptions!$B$9*AS4)</f>
-        <v>491.40800000000007</v>
+        <v>738.80000000000007</v>
       </c>
       <c r="AT3" s="76">
         <f>(AT7*Assumptions!$B$8)+(Assumptions!$B$9*AT4)</f>
-        <v>503.02400000000006</v>
+        <v>756.40000000000009</v>
       </c>
       <c r="AU3" s="76">
         <f>(AU7*Assumptions!$B$8)+(Assumptions!$B$9*AU4)</f>
-        <v>514.6400000000001</v>
+        <v>774</v>
       </c>
       <c r="AV3" s="76">
         <f>(AV7*Assumptions!$B$8)+(Assumptions!$B$9*AV4)</f>
-        <v>536.25600000000009</v>
+        <v>791.6</v>
       </c>
       <c r="AW3" s="76">
         <f>(AW7*Assumptions!$B$8)+(Assumptions!$B$9*AW4)</f>
-        <v>547.87200000000007</v>
+        <v>819.2</v>
       </c>
       <c r="AX3" s="76">
         <f>(AX7*Assumptions!$B$8)+(Assumptions!$B$9*AX4)</f>
-        <v>559.48800000000006</v>
+        <v>836.80000000000007</v>
       </c>
       <c r="AY3" s="76">
         <f>(AY7*Assumptions!$B$8)+(Assumptions!$B$9*AY4)</f>
-        <v>571.10400000000004</v>
+        <v>854.40000000000009</v>
       </c>
       <c r="AZ3" s="76">
         <f>(AZ7*Assumptions!$B$8)+(Assumptions!$B$9*AZ4)</f>
-        <v>582.72000000000014</v>
+        <v>872.00000000000011</v>
       </c>
       <c r="BA3" s="76">
         <f>(BA7*Assumptions!$B$8)+(Assumptions!$B$9*BA4)</f>
-        <v>594.33600000000001</v>
+        <v>889.6</v>
       </c>
       <c r="BB3" s="76">
         <f>(BB7*Assumptions!$B$8)+(Assumptions!$B$9*BB4)</f>
-        <v>605.95200000000011</v>
+        <v>907.2</v>
       </c>
       <c r="BC3" s="127">
         <f>SUM(AQ3:BB3)</f>
-        <v>6454.7680000000018</v>
+        <v>9664.8000000000011</v>
       </c>
       <c r="BD3" s="76">
         <f>(BD7*Assumptions!$B$8)+(Assumptions!$B$9*BD4)</f>
-        <v>617.5680000000001</v>
+        <v>934.80000000000007</v>
       </c>
       <c r="BE3" s="76">
         <f>(BE7*Assumptions!$B$8)+(Assumptions!$B$9*BE4)</f>
-        <v>639.18400000000008</v>
+        <v>952.40000000000009</v>
       </c>
       <c r="BF3" s="76">
         <f>(BF7*Assumptions!$B$8)+(Assumptions!$B$9*BF4)</f>
-        <v>650.80000000000007</v>
+        <v>970.00000000000011</v>
       </c>
       <c r="BG3" s="76">
         <f>(BG7*Assumptions!$B$8)+(Assumptions!$B$9*BG4)</f>
-        <v>662.41600000000005</v>
+        <v>987.6</v>
       </c>
       <c r="BH3" s="76">
         <f>(BH7*Assumptions!$B$8)+(Assumptions!$B$9*BH4)</f>
-        <v>674.03200000000004</v>
+        <v>1005.2</v>
       </c>
       <c r="BI3" s="76">
         <f>(BI7*Assumptions!$B$8)+(Assumptions!$B$9*BI4)</f>
-        <v>685.64800000000002</v>
+        <v>1022.8000000000001</v>
       </c>
       <c r="BJ3" s="76">
         <f>(BJ7*Assumptions!$B$8)+(Assumptions!$B$9*BJ4)</f>
-        <v>697.26400000000012</v>
+        <v>1050.4000000000001</v>
       </c>
       <c r="BK3" s="76">
         <f>(BK7*Assumptions!$B$8)+(Assumptions!$B$9*BK4)</f>
-        <v>708.88000000000011</v>
+        <v>1068</v>
       </c>
       <c r="BL3" s="76">
         <f>(BL7*Assumptions!$B$8)+(Assumptions!$B$9*BL4)</f>
-        <v>720.49600000000009</v>
+        <v>1085.6000000000001</v>
       </c>
       <c r="BM3" s="76">
         <f>(BM7*Assumptions!$B$8)+(Assumptions!$B$9*BM4)</f>
-        <v>742.11200000000008</v>
+        <v>1103.2</v>
       </c>
       <c r="BN3" s="76">
         <f>(BN7*Assumptions!$B$8)+(Assumptions!$B$9*BN4)</f>
-        <v>753.72800000000007</v>
+        <v>1120.8000000000002</v>
       </c>
       <c r="BO3" s="76">
         <f>(BO7*Assumptions!$B$8)+(Assumptions!$B$9*BO4)</f>
-        <v>765.34400000000005</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="BP3" s="127">
         <f>SUM(BD3:BO3)</f>
-        <v>8317.4720000000016</v>
+        <v>12439.200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,15 +3112,15 @@
       </c>
       <c r="J4" s="78">
         <f>ROUNDUP(J19/Assumptions!$B$6,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="78">
         <f>ROUNDUP(K19/Assumptions!$B$6,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="78">
         <f>ROUNDUP(L19/Assumptions!$B$6,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="78">
         <f>ROUNDUP(M19/Assumptions!$B$6,0)</f>
@@ -3093,23 +3140,23 @@
       </c>
       <c r="Q4" s="78">
         <f>ROUNDUP(Q19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" s="78">
         <f>ROUNDUP(R19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" s="78">
         <f>ROUNDUP(S19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="78">
         <f>ROUNDUP(T19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" s="78">
         <f>ROUNDUP(U19/Assumptions!$B$6,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" s="78">
         <f>ROUNDUP(V19/Assumptions!$B$6,0)</f>
@@ -3117,187 +3164,187 @@
       </c>
       <c r="W4" s="78">
         <f>ROUNDUP(W19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" s="78">
         <f>ROUNDUP(X19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="78">
         <f>ROUNDUP(Y19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" s="78">
         <f>ROUNDUP(Z19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="78">
         <f>ROUNDUP(AA19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="78">
         <f>ROUNDUP(AB19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="128">
         <f>+AB4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="78">
         <f>ROUNDUP(AD19/Assumptions!$B$6,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="78">
         <f>ROUNDUP(AE19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="78">
         <f>ROUNDUP(AF19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="78">
         <f>ROUNDUP(AG19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="78">
         <f>ROUNDUP(AH19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="78">
         <f>ROUNDUP(AI19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="78">
         <f>ROUNDUP(AJ19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="78">
         <f>ROUNDUP(AK19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL4" s="78">
         <f>ROUNDUP(AL19/Assumptions!$B$6,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="78">
         <f>ROUNDUP(AM19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN4" s="78">
         <f>ROUNDUP(AN19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO4" s="78">
         <f>ROUNDUP(AO19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP4" s="128">
         <f>+AO4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ4" s="78">
         <f>ROUNDUP(AQ19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR4" s="78">
         <f>ROUNDUP(AR19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS4" s="78">
         <f>ROUNDUP(AS19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT4" s="78">
         <f>ROUNDUP(AT19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU4" s="78">
         <f>ROUNDUP(AU19/Assumptions!$B$6,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV4" s="78">
         <f>ROUNDUP(AV19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="78">
         <f>ROUNDUP(AW19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX4" s="78">
         <f>ROUNDUP(AX19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY4" s="78">
         <f>ROUNDUP(AY19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ4" s="78">
         <f>ROUNDUP(AZ19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA4" s="78">
         <f>ROUNDUP(BA19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB4" s="78">
         <f>ROUNDUP(BB19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC4" s="128">
         <f>+BB4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD4" s="78">
         <f>ROUNDUP(BD19/Assumptions!$B$6,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BE4" s="78">
         <f>ROUNDUP(BE19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF4" s="78">
         <f>ROUNDUP(BF19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG4" s="78">
         <f>ROUNDUP(BG19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH4" s="78">
         <f>ROUNDUP(BH19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI4" s="78">
         <f>ROUNDUP(BI19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ4" s="78">
         <f>ROUNDUP(BJ19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK4" s="78">
         <f>ROUNDUP(BK19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BL4" s="78">
         <f>ROUNDUP(BL19/Assumptions!$B$6,0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BM4" s="78">
         <f>ROUNDUP(BM19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BN4" s="78">
         <f>ROUNDUP(BN19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BO4" s="78">
         <f>ROUNDUP(BO19/Assumptions!$B$6,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP4" s="128">
         <f>+BO4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3328,7 +3375,7 @@
       </c>
       <c r="J5" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="76">
         <f t="shared" si="0"/>
@@ -3340,7 +3387,7 @@
       </c>
       <c r="M5" s="76">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="76">
         <f t="shared" si="0"/>
@@ -3356,7 +3403,7 @@
       </c>
       <c r="Q5" s="76">
         <f>+Q4-O4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="76">
         <f t="shared" ref="R5:BO5" si="2">+R4-Q4</f>
@@ -3376,11 +3423,11 @@
       </c>
       <c r="V5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="76">
         <f t="shared" si="2"/>
@@ -3404,15 +3451,15 @@
       </c>
       <c r="AC5" s="127">
         <f t="shared" ref="AC5:AC56" si="3">SUM(Q5:AB5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="76">
         <f>+AD4-AB4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="76">
         <f t="shared" si="2"/>
@@ -3432,7 +3479,7 @@
       </c>
       <c r="AJ5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="76">
         <f t="shared" si="2"/>
@@ -3444,7 +3491,7 @@
       </c>
       <c r="AM5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="76">
         <f t="shared" si="2"/>
@@ -3460,7 +3507,7 @@
       </c>
       <c r="AQ5" s="76">
         <f>+AQ4-AO4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="76">
         <f t="shared" si="2"/>
@@ -3480,11 +3527,11 @@
       </c>
       <c r="AV5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="76">
         <f t="shared" si="2"/>
@@ -3508,15 +3555,15 @@
       </c>
       <c r="BC5" s="127">
         <f t="shared" ref="BC5:BC56" si="5">SUM(AQ5:BB5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" s="76">
         <f>+BD4-BB4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="76">
         <f t="shared" si="2"/>
@@ -3536,7 +3583,7 @@
       </c>
       <c r="BJ5" s="76">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="76">
         <f t="shared" si="2"/>
@@ -3548,7 +3595,7 @@
       </c>
       <c r="BM5" s="76">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="76">
         <f t="shared" si="2"/>
@@ -3571,259 +3618,259 @@
       <c r="D6" s="81"/>
       <c r="E6" s="81">
         <f>+D6+Assumptions!$B$4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="81">
         <f>+E6+Assumptions!$B$4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="82">
         <f>+F6+Assumptions!$B$4</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" s="82">
         <f>+G6+Assumptions!$B$4</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I6" s="82">
         <f>+H6+Assumptions!$B$4</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" s="82">
         <f>+I6+Assumptions!$B$4</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K6" s="82">
         <f>+J6+Assumptions!$B$4</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L6" s="82">
         <f>+K6+Assumptions!$B$4</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M6" s="82">
         <f>+L6+Assumptions!$B$4</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N6" s="82">
         <f>+M6+Assumptions!$B$4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O6" s="82">
         <f>+N6+Assumptions!$B$4</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="P6" s="129">
         <f>+O6</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="82">
         <f>+O6+Assumptions!$B$4</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="R6" s="82">
         <f>+Q6+Assumptions!$B$4</f>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S6" s="82">
         <f>+R6+Assumptions!$B$4</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="T6" s="82">
         <f>+S6+Assumptions!$B$4</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="U6" s="82">
         <f>+T6+Assumptions!$B$4</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="V6" s="82">
         <f>+U6+Assumptions!$B$4</f>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="W6" s="82">
         <f>+V6+Assumptions!$B$4</f>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="X6" s="82">
         <f>+W6+Assumptions!$B$4</f>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" s="82">
         <f>+X6+Assumptions!$B$4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="82">
         <f>+Y6+Assumptions!$B$4</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="82">
         <f>+Z6+Assumptions!$B$4</f>
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AB6" s="82">
         <f>+AA6+Assumptions!$B$4</f>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="129">
         <f>+AB6</f>
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="82">
         <f>+AB6+Assumptions!$B$4</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="82">
         <f>+AD6+Assumptions!$B$4</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="82">
         <f>+AE6+Assumptions!$B$4</f>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="AG6" s="82">
         <f>+AF6+Assumptions!$B$4</f>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AH6" s="82">
         <f>+AG6+Assumptions!$B$4</f>
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="82">
         <f>+AH6+Assumptions!$B$4</f>
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="AJ6" s="82">
         <f>+AI6+Assumptions!$B$4</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AK6" s="82">
         <f>+AJ6+Assumptions!$B$4</f>
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="AL6" s="82">
         <f>+AK6+Assumptions!$B$4</f>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="AM6" s="82">
         <f>+AL6+Assumptions!$B$4</f>
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="AN6" s="82">
         <f>+AM6+Assumptions!$B$4</f>
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="AO6" s="82">
         <f>+AN6+Assumptions!$B$4</f>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="129">
         <f>+AO6</f>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AQ6" s="82">
         <f>+AO6+Assumptions!$B$4</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="82">
         <f>+AQ6+Assumptions!$B$4</f>
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AS6" s="82">
         <f>+AR6+Assumptions!$B$4</f>
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AT6" s="82">
         <f>+AS6+Assumptions!$B$4</f>
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AU6" s="82">
         <f>+AT6+Assumptions!$B$4</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AV6" s="82">
         <f>+AU6+Assumptions!$B$4</f>
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="AW6" s="82">
         <f>+AV6+Assumptions!$B$4</f>
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="AX6" s="82">
         <f>+AW6+Assumptions!$B$4</f>
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="AY6" s="82">
         <f>+AX6+Assumptions!$B$4</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="AZ6" s="82">
         <f>+AY6+Assumptions!$B$4</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="BA6" s="82">
         <f>+AZ6+Assumptions!$B$4</f>
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="BB6" s="82">
         <f>+BA6+Assumptions!$B$4</f>
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="BC6" s="129">
         <f>+BB6</f>
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="BD6" s="82">
         <f>+BB6+Assumptions!$B$4</f>
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="BE6" s="82">
         <f>+BD6+Assumptions!$B$4</f>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="BF6" s="82">
         <f>+BE6+Assumptions!$B$4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="BG6" s="82">
         <f>+BF6+Assumptions!$B$4</f>
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="BH6" s="82">
         <f>+BG6+Assumptions!$B$4</f>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="BI6" s="82">
         <f>+BH6+Assumptions!$B$4</f>
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="BJ6" s="82">
         <f>+BI6+Assumptions!$B$4</f>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="BK6" s="82">
         <f>+BJ6+Assumptions!$B$4</f>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="BL6" s="82">
         <f>+BK6+Assumptions!$B$4</f>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="BM6" s="82">
         <f>+BL6+Assumptions!$B$4</f>
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="BN6" s="82">
         <f>+BM6+Assumptions!$B$4</f>
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="BO6" s="82">
         <f>+BN6+Assumptions!$B$4</f>
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="BP6" s="129">
         <f>+BO6</f>
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:68" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3837,259 +3884,259 @@
       </c>
       <c r="E7" s="85">
         <f>ROUND((E6*Assumptions!$B$5),0)*4.4</f>
-        <v>35.200000000000003</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F7" s="85">
         <f>ROUND((F6*Assumptions!$B$5),0)*4.4</f>
-        <v>70.400000000000006</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G7" s="86">
         <f>ROUND((G6*Assumptions!$B$5),0)*4.4</f>
-        <v>105.60000000000001</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="H7" s="86">
         <f>ROUND((H6*Assumptions!$B$5),0)*4.4</f>
-        <v>140.80000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I7" s="86">
         <f>ROUND((I6*Assumptions!$B$5),0)*4.4</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="J7" s="86">
         <f>ROUND((J6*Assumptions!$B$5),0)*4.4</f>
-        <v>211.20000000000002</v>
+        <v>105.60000000000001</v>
       </c>
       <c r="K7" s="86">
         <f>ROUND((K6*Assumptions!$B$5),0)*4.4</f>
-        <v>246.40000000000003</v>
+        <v>123.20000000000002</v>
       </c>
       <c r="L7" s="86">
         <f>ROUND((L6*Assumptions!$B$5),0)*4.4</f>
-        <v>281.60000000000002</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="M7" s="86">
         <f>ROUND((M6*Assumptions!$B$5),0)*4.4</f>
-        <v>316.8</v>
+        <v>158.4</v>
       </c>
       <c r="N7" s="86">
         <f>ROUND((N6*Assumptions!$B$5),0)*4.4</f>
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="O7" s="86">
         <f>ROUND((O6*Assumptions!$B$5),0)*4.4</f>
-        <v>387.20000000000005</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="P7" s="130">
         <f t="shared" si="1"/>
-        <v>2323.2000000000003</v>
+        <v>1161.6000000000001</v>
       </c>
       <c r="Q7" s="86">
         <f>ROUND((Q6*Assumptions!$B$5),0)*4.4</f>
-        <v>422.40000000000003</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="R7" s="86">
         <f>ROUND((R6*Assumptions!$B$5),0)*4.4</f>
-        <v>457.6</v>
+        <v>228.8</v>
       </c>
       <c r="S7" s="86">
         <f>ROUND((S6*Assumptions!$B$5),0)*4.4</f>
-        <v>492.80000000000007</v>
+        <v>246.40000000000003</v>
       </c>
       <c r="T7" s="86">
         <f>ROUND((T6*Assumptions!$B$5),0)*4.4</f>
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="U7" s="86">
         <f>ROUND((U6*Assumptions!$B$5),0)*4.4</f>
-        <v>563.20000000000005</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="V7" s="86">
         <f>ROUND((V6*Assumptions!$B$5),0)*4.4</f>
-        <v>598.40000000000009</v>
+        <v>299.20000000000005</v>
       </c>
       <c r="W7" s="86">
         <f>ROUND((W6*Assumptions!$B$5),0)*4.4</f>
-        <v>633.6</v>
+        <v>316.8</v>
       </c>
       <c r="X7" s="86">
         <f>ROUND((X6*Assumptions!$B$5),0)*4.4</f>
-        <v>668.80000000000007</v>
+        <v>334.40000000000003</v>
       </c>
       <c r="Y7" s="86">
         <f>ROUND((Y6*Assumptions!$B$5),0)*4.4</f>
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="Z7" s="86">
         <f>ROUND((Z6*Assumptions!$B$5),0)*4.4</f>
-        <v>739.2</v>
+        <v>369.6</v>
       </c>
       <c r="AA7" s="86">
         <f>ROUND((AA6*Assumptions!$B$5),0)*4.4</f>
-        <v>774.40000000000009</v>
+        <v>387.20000000000005</v>
       </c>
       <c r="AB7" s="86">
         <f>ROUND((AB6*Assumptions!$B$5),0)*4.4</f>
-        <v>809.6</v>
+        <v>404.8</v>
       </c>
       <c r="AC7" s="130">
         <f t="shared" si="3"/>
-        <v>7392</v>
+        <v>3696</v>
       </c>
       <c r="AD7" s="86">
         <f>ROUND((AD6*Assumptions!$B$5),0)*4.4</f>
-        <v>844.80000000000007</v>
+        <v>422.40000000000003</v>
       </c>
       <c r="AE7" s="86">
         <f>ROUND((AE6*Assumptions!$B$5),0)*4.4</f>
-        <v>880.00000000000011</v>
+        <v>440.00000000000006</v>
       </c>
       <c r="AF7" s="86">
         <f>ROUND((AF6*Assumptions!$B$5),0)*4.4</f>
-        <v>915.2</v>
+        <v>457.6</v>
       </c>
       <c r="AG7" s="86">
         <f>ROUND((AG6*Assumptions!$B$5),0)*4.4</f>
-        <v>950.40000000000009</v>
+        <v>475.20000000000005</v>
       </c>
       <c r="AH7" s="86">
         <f>ROUND((AH6*Assumptions!$B$5),0)*4.4</f>
-        <v>985.60000000000014</v>
+        <v>492.80000000000007</v>
       </c>
       <c r="AI7" s="86">
         <f>ROUND((AI6*Assumptions!$B$5),0)*4.4</f>
-        <v>1020.8000000000001</v>
+        <v>510.40000000000003</v>
       </c>
       <c r="AJ7" s="86">
         <f>ROUND((AJ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1056</v>
+        <v>528</v>
       </c>
       <c r="AK7" s="86">
         <f>ROUND((AK6*Assumptions!$B$5),0)*4.4</f>
-        <v>1091.2</v>
+        <v>545.6</v>
       </c>
       <c r="AL7" s="86">
         <f>ROUND((AL6*Assumptions!$B$5),0)*4.4</f>
-        <v>1126.4000000000001</v>
+        <v>563.20000000000005</v>
       </c>
       <c r="AM7" s="86">
         <f>ROUND((AM6*Assumptions!$B$5),0)*4.4</f>
-        <v>1161.6000000000001</v>
+        <v>580.80000000000007</v>
       </c>
       <c r="AN7" s="86">
         <f>ROUND((AN6*Assumptions!$B$5),0)*4.4</f>
-        <v>1196.8000000000002</v>
+        <v>598.40000000000009</v>
       </c>
       <c r="AO7" s="86">
         <f>ROUND((AO6*Assumptions!$B$5),0)*4.4</f>
-        <v>1232</v>
+        <v>616</v>
       </c>
       <c r="AP7" s="130">
         <f t="shared" si="4"/>
-        <v>12460.8</v>
+        <v>6230.4</v>
       </c>
       <c r="AQ7" s="86">
         <f>ROUND((AQ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1267.2</v>
+        <v>633.6</v>
       </c>
       <c r="AR7" s="86">
         <f>ROUND((AR6*Assumptions!$B$5),0)*4.4</f>
-        <v>1302.4000000000001</v>
+        <v>651.20000000000005</v>
       </c>
       <c r="AS7" s="86">
         <f>ROUND((AS6*Assumptions!$B$5),0)*4.4</f>
-        <v>1337.6000000000001</v>
+        <v>668.80000000000007</v>
       </c>
       <c r="AT7" s="86">
         <f>ROUND((AT6*Assumptions!$B$5),0)*4.4</f>
-        <v>1372.8000000000002</v>
+        <v>686.40000000000009</v>
       </c>
       <c r="AU7" s="86">
         <f>ROUND((AU6*Assumptions!$B$5),0)*4.4</f>
-        <v>1408</v>
+        <v>704</v>
       </c>
       <c r="AV7" s="86">
         <f>ROUND((AV6*Assumptions!$B$5),0)*4.4</f>
-        <v>1443.2</v>
+        <v>721.6</v>
       </c>
       <c r="AW7" s="86">
         <f>ROUND((AW6*Assumptions!$B$5),0)*4.4</f>
-        <v>1478.4</v>
+        <v>739.2</v>
       </c>
       <c r="AX7" s="86">
         <f>ROUND((AX6*Assumptions!$B$5),0)*4.4</f>
-        <v>1513.6000000000001</v>
+        <v>756.80000000000007</v>
       </c>
       <c r="AY7" s="86">
         <f>ROUND((AY6*Assumptions!$B$5),0)*4.4</f>
-        <v>1548.8000000000002</v>
+        <v>774.40000000000009</v>
       </c>
       <c r="AZ7" s="86">
         <f>ROUND((AZ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1584.0000000000002</v>
+        <v>792.00000000000011</v>
       </c>
       <c r="BA7" s="86">
         <f>ROUND((BA6*Assumptions!$B$5),0)*4.4</f>
-        <v>1619.2</v>
+        <v>809.6</v>
       </c>
       <c r="BB7" s="86">
         <f>ROUND((BB6*Assumptions!$B$5),0)*4.4</f>
-        <v>1654.4</v>
+        <v>827.2</v>
       </c>
       <c r="BC7" s="130">
         <f t="shared" si="5"/>
-        <v>17529.600000000002</v>
+        <v>8764.8000000000011</v>
       </c>
       <c r="BD7" s="86">
         <f>ROUND((BD6*Assumptions!$B$5),0)*4.4</f>
-        <v>1689.6000000000001</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="BE7" s="86">
         <f>ROUND((BE6*Assumptions!$B$5),0)*4.4</f>
-        <v>1724.8000000000002</v>
+        <v>862.40000000000009</v>
       </c>
       <c r="BF7" s="86">
         <f>ROUND((BF6*Assumptions!$B$5),0)*4.4</f>
-        <v>1760.0000000000002</v>
+        <v>880.00000000000011</v>
       </c>
       <c r="BG7" s="86">
         <f>ROUND((BG6*Assumptions!$B$5),0)*4.4</f>
-        <v>1795.2</v>
+        <v>897.6</v>
       </c>
       <c r="BH7" s="86">
         <f>ROUND((BH6*Assumptions!$B$5),0)*4.4</f>
-        <v>1830.4</v>
+        <v>915.2</v>
       </c>
       <c r="BI7" s="86">
         <f>ROUND((BI6*Assumptions!$B$5),0)*4.4</f>
-        <v>1865.6000000000001</v>
+        <v>932.80000000000007</v>
       </c>
       <c r="BJ7" s="86">
         <f>ROUND((BJ6*Assumptions!$B$5),0)*4.4</f>
-        <v>1900.8000000000002</v>
+        <v>950.40000000000009</v>
       </c>
       <c r="BK7" s="86">
         <f>ROUND((BK6*Assumptions!$B$5),0)*4.4</f>
-        <v>1936.0000000000002</v>
+        <v>968.00000000000011</v>
       </c>
       <c r="BL7" s="86">
         <f>ROUND((BL6*Assumptions!$B$5),0)*4.4</f>
-        <v>1971.2000000000003</v>
+        <v>985.60000000000014</v>
       </c>
       <c r="BM7" s="86">
         <f>ROUND((BM6*Assumptions!$B$5),0)*4.4</f>
-        <v>2006.4</v>
+        <v>1003.2</v>
       </c>
       <c r="BN7" s="86">
         <f>ROUND((BN6*Assumptions!$B$5),0)*4.4</f>
-        <v>2041.6000000000001</v>
+        <v>1020.8000000000001</v>
       </c>
       <c r="BO7" s="86">
         <f>ROUND((BO6*Assumptions!$B$5),0)*4.4</f>
-        <v>2076.8000000000002</v>
+        <v>1038.4000000000001</v>
       </c>
       <c r="BP7" s="130">
         <f t="shared" si="6"/>
-        <v>22598.400000000001</v>
+        <v>11299.2</v>
       </c>
     </row>
     <row r="8" spans="1:68" s="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6589,259 +6636,259 @@
       </c>
       <c r="E19" s="78">
         <f>+E7*Assumptions!$B$3</f>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F19" s="78">
         <f>+F7*Assumptions!$B$3</f>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G19" s="76">
         <f>+G7*Assumptions!$B$3</f>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H19" s="76">
         <f>+H7*Assumptions!$B$3</f>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I19" s="76">
         <f>+I7*Assumptions!$B$3</f>
-        <v>6160</v>
+        <v>9240</v>
       </c>
       <c r="J19" s="76">
         <f>+J7*Assumptions!$B$3</f>
-        <v>7392.0000000000009</v>
+        <v>11088</v>
       </c>
       <c r="K19" s="76">
         <f>+K7*Assumptions!$B$3</f>
-        <v>8624.0000000000018</v>
+        <v>12936.000000000002</v>
       </c>
       <c r="L19" s="76">
         <f>+L7*Assumptions!$B$3</f>
-        <v>9856</v>
+        <v>14784.000000000002</v>
       </c>
       <c r="M19" s="76">
         <f>+M7*Assumptions!$B$3</f>
-        <v>11088</v>
+        <v>16632</v>
       </c>
       <c r="N19" s="76">
         <f>+N7*Assumptions!$B$3</f>
-        <v>12320</v>
+        <v>18480</v>
       </c>
       <c r="O19" s="76">
         <f>+O7*Assumptions!$B$3</f>
-        <v>13552.000000000002</v>
+        <v>20328.000000000004</v>
       </c>
       <c r="P19" s="127">
         <f t="shared" si="1"/>
-        <v>81312</v>
+        <v>121968</v>
       </c>
       <c r="Q19" s="76">
         <f>+Q7*Assumptions!$B$3</f>
-        <v>14784.000000000002</v>
+        <v>22176</v>
       </c>
       <c r="R19" s="76">
         <f>+R7*Assumptions!$B$3</f>
-        <v>16016</v>
+        <v>24024</v>
       </c>
       <c r="S19" s="76">
         <f>+S7*Assumptions!$B$3</f>
-        <v>17248.000000000004</v>
+        <v>25872.000000000004</v>
       </c>
       <c r="T19" s="76">
         <f>+T7*Assumptions!$B$3</f>
-        <v>18480</v>
+        <v>27720</v>
       </c>
       <c r="U19" s="76">
         <f>+U7*Assumptions!$B$3</f>
-        <v>19712</v>
+        <v>29568.000000000004</v>
       </c>
       <c r="V19" s="76">
         <f>+V7*Assumptions!$B$3</f>
-        <v>20944.000000000004</v>
+        <v>31416.000000000004</v>
       </c>
       <c r="W19" s="76">
         <f>+W7*Assumptions!$B$3</f>
-        <v>22176</v>
+        <v>33264</v>
       </c>
       <c r="X19" s="76">
         <f>+X7*Assumptions!$B$3</f>
-        <v>23408.000000000004</v>
+        <v>35112</v>
       </c>
       <c r="Y19" s="76">
         <f>+Y7*Assumptions!$B$3</f>
-        <v>24640</v>
+        <v>36960</v>
       </c>
       <c r="Z19" s="76">
         <f>+Z7*Assumptions!$B$3</f>
-        <v>25872</v>
+        <v>38808</v>
       </c>
       <c r="AA19" s="76">
         <f>+AA7*Assumptions!$B$3</f>
-        <v>27104.000000000004</v>
+        <v>40656.000000000007</v>
       </c>
       <c r="AB19" s="76">
         <f>+AB7*Assumptions!$B$3</f>
-        <v>28336</v>
+        <v>42504</v>
       </c>
       <c r="AC19" s="127">
         <f t="shared" si="3"/>
-        <v>258720</v>
+        <v>388080</v>
       </c>
       <c r="AD19" s="76">
         <f>+AD7*Assumptions!$B$3</f>
-        <v>29568.000000000004</v>
+        <v>44352</v>
       </c>
       <c r="AE19" s="76">
         <f>+AE7*Assumptions!$B$3</f>
-        <v>30800.000000000004</v>
+        <v>46200.000000000007</v>
       </c>
       <c r="AF19" s="76">
         <f>+AF7*Assumptions!$B$3</f>
-        <v>32032</v>
+        <v>48048</v>
       </c>
       <c r="AG19" s="76">
         <f>+AG7*Assumptions!$B$3</f>
-        <v>33264</v>
+        <v>49896.000000000007</v>
       </c>
       <c r="AH19" s="76">
         <f>+AH7*Assumptions!$B$3</f>
-        <v>34496.000000000007</v>
+        <v>51744.000000000007</v>
       </c>
       <c r="AI19" s="76">
         <f>+AI7*Assumptions!$B$3</f>
-        <v>35728</v>
+        <v>53592</v>
       </c>
       <c r="AJ19" s="76">
         <f>+AJ7*Assumptions!$B$3</f>
-        <v>36960</v>
+        <v>55440</v>
       </c>
       <c r="AK19" s="76">
         <f>+AK7*Assumptions!$B$3</f>
-        <v>38192</v>
+        <v>57288</v>
       </c>
       <c r="AL19" s="76">
         <f>+AL7*Assumptions!$B$3</f>
-        <v>39424</v>
+        <v>59136.000000000007</v>
       </c>
       <c r="AM19" s="76">
         <f>+AM7*Assumptions!$B$3</f>
-        <v>40656.000000000007</v>
+        <v>60984.000000000007</v>
       </c>
       <c r="AN19" s="76">
         <f>+AN7*Assumptions!$B$3</f>
-        <v>41888.000000000007</v>
+        <v>62832.000000000007</v>
       </c>
       <c r="AO19" s="76">
         <f>+AO7*Assumptions!$B$3</f>
-        <v>43120</v>
+        <v>64680</v>
       </c>
       <c r="AP19" s="127">
         <f t="shared" si="4"/>
-        <v>436128</v>
+        <v>654192</v>
       </c>
       <c r="AQ19" s="76">
         <f>+AQ7*Assumptions!$B$3</f>
-        <v>44352</v>
+        <v>66528</v>
       </c>
       <c r="AR19" s="76">
         <f>+AR7*Assumptions!$B$3</f>
-        <v>45584</v>
+        <v>68376</v>
       </c>
       <c r="AS19" s="76">
         <f>+AS7*Assumptions!$B$3</f>
-        <v>46816.000000000007</v>
+        <v>70224</v>
       </c>
       <c r="AT19" s="76">
         <f>+AT7*Assumptions!$B$3</f>
-        <v>48048.000000000007</v>
+        <v>72072.000000000015</v>
       </c>
       <c r="AU19" s="76">
         <f>+AU7*Assumptions!$B$3</f>
-        <v>49280</v>
+        <v>73920</v>
       </c>
       <c r="AV19" s="76">
         <f>+AV7*Assumptions!$B$3</f>
-        <v>50512</v>
+        <v>75768</v>
       </c>
       <c r="AW19" s="76">
         <f>+AW7*Assumptions!$B$3</f>
-        <v>51744</v>
+        <v>77616</v>
       </c>
       <c r="AX19" s="76">
         <f>+AX7*Assumptions!$B$3</f>
-        <v>52976.000000000007</v>
+        <v>79464</v>
       </c>
       <c r="AY19" s="76">
         <f>+AY7*Assumptions!$B$3</f>
-        <v>54208.000000000007</v>
+        <v>81312.000000000015</v>
       </c>
       <c r="AZ19" s="76">
         <f>+AZ7*Assumptions!$B$3</f>
-        <v>55440.000000000007</v>
+        <v>83160.000000000015</v>
       </c>
       <c r="BA19" s="76">
         <f>+BA7*Assumptions!$B$3</f>
-        <v>56672</v>
+        <v>85008</v>
       </c>
       <c r="BB19" s="76">
         <f>+BB7*Assumptions!$B$3</f>
-        <v>57904</v>
+        <v>86856</v>
       </c>
       <c r="BC19" s="127">
         <f t="shared" si="5"/>
-        <v>613536</v>
+        <v>920304</v>
       </c>
       <c r="BD19" s="76">
         <f>+BD7*Assumptions!$B$3</f>
-        <v>59136.000000000007</v>
+        <v>88704</v>
       </c>
       <c r="BE19" s="76">
         <f>+BE7*Assumptions!$B$3</f>
-        <v>60368.000000000007</v>
+        <v>90552.000000000015</v>
       </c>
       <c r="BF19" s="76">
         <f>+BF7*Assumptions!$B$3</f>
-        <v>61600.000000000007</v>
+        <v>92400.000000000015</v>
       </c>
       <c r="BG19" s="76">
         <f>+BG7*Assumptions!$B$3</f>
-        <v>62832</v>
+        <v>94248</v>
       </c>
       <c r="BH19" s="76">
         <f>+BH7*Assumptions!$B$3</f>
-        <v>64064</v>
+        <v>96096</v>
       </c>
       <c r="BI19" s="76">
         <f>+BI7*Assumptions!$B$3</f>
-        <v>65296.000000000007</v>
+        <v>97944</v>
       </c>
       <c r="BJ19" s="76">
         <f>+BJ7*Assumptions!$B$3</f>
-        <v>66528</v>
+        <v>99792.000000000015</v>
       </c>
       <c r="BK19" s="76">
         <f>+BK7*Assumptions!$B$3</f>
-        <v>67760.000000000015</v>
+        <v>101640.00000000001</v>
       </c>
       <c r="BL19" s="76">
         <f>+BL7*Assumptions!$B$3</f>
-        <v>68992.000000000015</v>
+        <v>103488.00000000001</v>
       </c>
       <c r="BM19" s="76">
         <f>+BM7*Assumptions!$B$3</f>
-        <v>70224</v>
+        <v>105336</v>
       </c>
       <c r="BN19" s="76">
         <f>+BN7*Assumptions!$B$3</f>
-        <v>71456</v>
+        <v>107184</v>
       </c>
       <c r="BO19" s="76">
         <f>+BO7*Assumptions!$B$3</f>
-        <v>72688</v>
+        <v>109032.00000000001</v>
       </c>
       <c r="BP19" s="127">
         <f t="shared" si="6"/>
-        <v>790944</v>
+        <v>1186416</v>
       </c>
     </row>
     <row r="20" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7920,259 +7967,259 @@
       </c>
       <c r="E24" s="97">
         <f t="shared" si="17"/>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F24" s="97">
         <f t="shared" si="17"/>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G24" s="98">
         <f t="shared" si="17"/>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H24" s="98">
         <f t="shared" si="17"/>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I24" s="98">
         <f t="shared" si="17"/>
-        <v>6196</v>
+        <v>9276</v>
       </c>
       <c r="J24" s="98">
         <f t="shared" si="17"/>
-        <v>7464.0000000000009</v>
+        <v>11160</v>
       </c>
       <c r="K24" s="98">
         <f t="shared" si="17"/>
-        <v>8732.0000000000018</v>
+        <v>13044.000000000002</v>
       </c>
       <c r="L24" s="98">
         <f t="shared" si="17"/>
-        <v>10000</v>
+        <v>14928.000000000002</v>
       </c>
       <c r="M24" s="98">
         <f t="shared" si="17"/>
-        <v>11268</v>
+        <v>16812</v>
       </c>
       <c r="N24" s="98">
         <f t="shared" si="17"/>
-        <v>12536</v>
+        <v>18696</v>
       </c>
       <c r="O24" s="98">
         <f t="shared" si="17"/>
-        <v>13804.000000000002</v>
+        <v>20580.000000000004</v>
       </c>
       <c r="P24" s="133">
         <f t="shared" si="1"/>
-        <v>82320</v>
+        <v>122976</v>
       </c>
       <c r="Q24" s="98">
         <f t="shared" ref="Q24:AB24" si="18">SUM(Q19:Q22)</f>
-        <v>15072.000000000002</v>
+        <v>22464</v>
       </c>
       <c r="R24" s="98">
         <f t="shared" si="18"/>
-        <v>16340</v>
+        <v>24348</v>
       </c>
       <c r="S24" s="98">
         <f t="shared" si="18"/>
-        <v>17608.000000000004</v>
+        <v>26232.000000000004</v>
       </c>
       <c r="T24" s="98">
         <f t="shared" si="18"/>
-        <v>18876</v>
+        <v>28116</v>
       </c>
       <c r="U24" s="98">
         <f t="shared" si="18"/>
-        <v>20144</v>
+        <v>30000.000000000004</v>
       </c>
       <c r="V24" s="98">
         <f t="shared" si="18"/>
-        <v>21412.000000000004</v>
+        <v>31884.000000000004</v>
       </c>
       <c r="W24" s="98">
         <f t="shared" si="18"/>
-        <v>22680</v>
+        <v>33768</v>
       </c>
       <c r="X24" s="98">
         <f t="shared" si="18"/>
-        <v>23948.000000000004</v>
+        <v>35652</v>
       </c>
       <c r="Y24" s="98">
         <f t="shared" si="18"/>
-        <v>25216</v>
+        <v>37536</v>
       </c>
       <c r="Z24" s="98">
         <f t="shared" si="18"/>
-        <v>26484</v>
+        <v>39420</v>
       </c>
       <c r="AA24" s="98">
         <f t="shared" si="18"/>
-        <v>27752.000000000004</v>
+        <v>41304.000000000007</v>
       </c>
       <c r="AB24" s="98">
         <f t="shared" si="18"/>
-        <v>29020</v>
+        <v>43188</v>
       </c>
       <c r="AC24" s="133">
         <f t="shared" si="3"/>
-        <v>264552</v>
+        <v>393912</v>
       </c>
       <c r="AD24" s="98">
         <f t="shared" ref="AD24:AO24" si="19">SUM(AD19:AD22)</f>
-        <v>30288.000000000004</v>
+        <v>45072</v>
       </c>
       <c r="AE24" s="98">
         <f t="shared" si="19"/>
-        <v>31556.000000000004</v>
+        <v>46956.000000000007</v>
       </c>
       <c r="AF24" s="98">
         <f t="shared" si="19"/>
-        <v>32824</v>
+        <v>48840</v>
       </c>
       <c r="AG24" s="98">
         <f t="shared" si="19"/>
-        <v>34092</v>
+        <v>50724.000000000007</v>
       </c>
       <c r="AH24" s="98">
         <f t="shared" si="19"/>
-        <v>35360.000000000007</v>
+        <v>52608.000000000007</v>
       </c>
       <c r="AI24" s="98">
         <f t="shared" si="19"/>
-        <v>36628</v>
+        <v>54492</v>
       </c>
       <c r="AJ24" s="98">
         <f t="shared" si="19"/>
-        <v>37896</v>
+        <v>56376</v>
       </c>
       <c r="AK24" s="98">
         <f t="shared" si="19"/>
-        <v>39164</v>
+        <v>58260</v>
       </c>
       <c r="AL24" s="98">
         <f t="shared" si="19"/>
-        <v>40432</v>
+        <v>60144.000000000007</v>
       </c>
       <c r="AM24" s="98">
         <f t="shared" si="19"/>
-        <v>41700.000000000007</v>
+        <v>62028.000000000007</v>
       </c>
       <c r="AN24" s="98">
         <f t="shared" si="19"/>
-        <v>42968.000000000007</v>
+        <v>63912.000000000007</v>
       </c>
       <c r="AO24" s="98">
         <f t="shared" si="19"/>
-        <v>44236</v>
+        <v>65796</v>
       </c>
       <c r="AP24" s="133">
         <f t="shared" si="4"/>
-        <v>447144</v>
+        <v>665208</v>
       </c>
       <c r="AQ24" s="98">
         <f t="shared" ref="AQ24:BB24" si="20">SUM(AQ19:AQ22)</f>
-        <v>45504</v>
+        <v>67680</v>
       </c>
       <c r="AR24" s="98">
         <f t="shared" si="20"/>
-        <v>46772</v>
+        <v>69564</v>
       </c>
       <c r="AS24" s="98">
         <f t="shared" si="20"/>
-        <v>48040.000000000007</v>
+        <v>71448</v>
       </c>
       <c r="AT24" s="98">
         <f t="shared" si="20"/>
-        <v>49308.000000000007</v>
+        <v>73332.000000000015</v>
       </c>
       <c r="AU24" s="98">
         <f t="shared" si="20"/>
-        <v>50576</v>
+        <v>75216</v>
       </c>
       <c r="AV24" s="98">
         <f t="shared" si="20"/>
-        <v>51844</v>
+        <v>77100</v>
       </c>
       <c r="AW24" s="98">
         <f t="shared" si="20"/>
-        <v>53112</v>
+        <v>78984</v>
       </c>
       <c r="AX24" s="98">
         <f t="shared" si="20"/>
-        <v>54380.000000000007</v>
+        <v>80868</v>
       </c>
       <c r="AY24" s="98">
         <f t="shared" si="20"/>
-        <v>55648.000000000007</v>
+        <v>82752.000000000015</v>
       </c>
       <c r="AZ24" s="98">
         <f t="shared" si="20"/>
-        <v>56916.000000000007</v>
+        <v>84636.000000000015</v>
       </c>
       <c r="BA24" s="98">
         <f t="shared" si="20"/>
-        <v>58184</v>
+        <v>86520</v>
       </c>
       <c r="BB24" s="98">
         <f t="shared" si="20"/>
-        <v>59452</v>
+        <v>88404</v>
       </c>
       <c r="BC24" s="133">
         <f t="shared" si="5"/>
-        <v>629736</v>
+        <v>936504</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" ref="BD24:BO24" si="21">SUM(BD19:BD22)</f>
-        <v>60720.000000000007</v>
+        <v>90288</v>
       </c>
       <c r="BE24" s="98">
         <f t="shared" si="21"/>
-        <v>61988.000000000007</v>
+        <v>92172.000000000015</v>
       </c>
       <c r="BF24" s="98">
         <f t="shared" si="21"/>
-        <v>63256.000000000007</v>
+        <v>94056.000000000015</v>
       </c>
       <c r="BG24" s="98">
         <f t="shared" si="21"/>
-        <v>64524</v>
+        <v>95940</v>
       </c>
       <c r="BH24" s="98">
         <f t="shared" si="21"/>
-        <v>65792</v>
+        <v>97824</v>
       </c>
       <c r="BI24" s="98">
         <f t="shared" si="21"/>
-        <v>67060</v>
+        <v>99708</v>
       </c>
       <c r="BJ24" s="98">
         <f t="shared" si="21"/>
-        <v>68328</v>
+        <v>101592.00000000001</v>
       </c>
       <c r="BK24" s="98">
         <f t="shared" si="21"/>
-        <v>69596.000000000015</v>
+        <v>103476.00000000001</v>
       </c>
       <c r="BL24" s="98">
         <f t="shared" si="21"/>
-        <v>70864.000000000015</v>
+        <v>105360.00000000001</v>
       </c>
       <c r="BM24" s="98">
         <f t="shared" si="21"/>
-        <v>72132</v>
+        <v>107244</v>
       </c>
       <c r="BN24" s="98">
         <f t="shared" si="21"/>
-        <v>73400</v>
+        <v>109128</v>
       </c>
       <c r="BO24" s="98">
         <f t="shared" si="21"/>
-        <v>74668</v>
+        <v>111012.00000000001</v>
       </c>
       <c r="BP24" s="133">
         <f t="shared" si="6"/>
-        <v>812328</v>
+        <v>1207800</v>
       </c>
     </row>
     <row r="25" spans="1:68" s="77" customFormat="1" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -8354,259 +8401,259 @@
       <c r="D27" s="101"/>
       <c r="E27" s="76">
         <f>(E7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>432.32000000000005</v>
+        <v>579.6</v>
       </c>
       <c r="F27" s="76">
         <f>(F7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>664.6400000000001</v>
+        <v>949.2</v>
       </c>
       <c r="G27" s="76">
         <f>(G7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>896.96000000000015</v>
+        <v>1318.8000000000002</v>
       </c>
       <c r="H27" s="76">
         <f>(H7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1129.2800000000002</v>
+        <v>1688.4</v>
       </c>
       <c r="I27" s="76">
         <f>(I7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1361.6000000000001</v>
+        <v>2058</v>
       </c>
       <c r="J27" s="76">
         <f>(J7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1593.9200000000003</v>
+        <v>2427.6000000000004</v>
       </c>
       <c r="K27" s="76">
         <f>(K7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>1826.2400000000002</v>
+        <v>2797.2000000000003</v>
       </c>
       <c r="L27" s="76">
         <f>(L7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2058.5600000000004</v>
+        <v>3166.8</v>
       </c>
       <c r="M27" s="76">
         <f>(M7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2290.88</v>
+        <v>3536.4</v>
       </c>
       <c r="N27" s="76">
         <f>(N7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2523.2000000000003</v>
+        <v>3906</v>
       </c>
       <c r="O27" s="76">
         <f>(O7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2755.5200000000004</v>
+        <v>4275.6000000000004</v>
       </c>
       <c r="P27" s="127">
         <f t="shared" si="1"/>
-        <v>17533.120000000003</v>
+        <v>26703.600000000006</v>
       </c>
       <c r="Q27" s="76">
         <f>(Q7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>2987.8400000000006</v>
+        <v>4645.2000000000007</v>
       </c>
       <c r="R27" s="76">
         <f>(R7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3220.1600000000003</v>
+        <v>5014.8</v>
       </c>
       <c r="S27" s="76">
         <f>(S7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3452.4800000000005</v>
+        <v>5384.4000000000005</v>
       </c>
       <c r="T27" s="76">
         <f>(T7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3684.8</v>
+        <v>5754</v>
       </c>
       <c r="U27" s="76">
         <f>(U7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>3917.1200000000003</v>
+        <v>6123.6</v>
       </c>
       <c r="V27" s="76">
         <f>(V7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4149.4400000000005</v>
+        <v>6493.2000000000007</v>
       </c>
       <c r="W27" s="76">
         <f>(W7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4381.76</v>
+        <v>6862.8</v>
       </c>
       <c r="X27" s="76">
         <f>(X7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4614.0800000000008</v>
+        <v>7232.4000000000005</v>
       </c>
       <c r="Y27" s="76">
         <f>(Y7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>4846.4000000000005</v>
+        <v>7602</v>
       </c>
       <c r="Z27" s="76">
         <f>(Z7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5078.7200000000012</v>
+        <v>7971.6</v>
       </c>
       <c r="AA27" s="76">
         <f>(AA7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5311.0400000000009</v>
+        <v>8341.2000000000007</v>
       </c>
       <c r="AB27" s="76">
         <f>(AB7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5543.3600000000006</v>
+        <v>8710.8000000000011</v>
       </c>
       <c r="AC27" s="127">
         <f t="shared" si="3"/>
-        <v>51187.200000000012</v>
+        <v>80136</v>
       </c>
       <c r="AD27" s="76">
         <f>(AD7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>5775.6800000000012</v>
+        <v>9080.4000000000015</v>
       </c>
       <c r="AE27" s="76">
         <f>(AE7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6008.0000000000009</v>
+        <v>9450.0000000000018</v>
       </c>
       <c r="AF27" s="76">
         <f>(AF7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6240.3200000000006</v>
+        <v>9819.6</v>
       </c>
       <c r="AG27" s="76">
         <f>(AG7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6472.6400000000012</v>
+        <v>10189.200000000001</v>
       </c>
       <c r="AH27" s="76">
         <f>(AH7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6704.9600000000009</v>
+        <v>10558.800000000001</v>
       </c>
       <c r="AI27" s="76">
         <f>(AI7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>6937.2800000000007</v>
+        <v>10928.400000000001</v>
       </c>
       <c r="AJ27" s="76">
         <f>(AJ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7169.6</v>
+        <v>11298</v>
       </c>
       <c r="AK27" s="76">
         <f>(AK7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7401.92</v>
+        <v>11667.6</v>
       </c>
       <c r="AL27" s="76">
         <f>(AL7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7634.2400000000007</v>
+        <v>12037.2</v>
       </c>
       <c r="AM27" s="76">
         <f>(AM7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>7866.5600000000013</v>
+        <v>12406.800000000001</v>
       </c>
       <c r="AN27" s="76">
         <f>(AN7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8098.880000000001</v>
+        <v>12776.400000000001</v>
       </c>
       <c r="AO27" s="76">
         <f>(AO7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8331.2000000000007</v>
+        <v>13146</v>
       </c>
       <c r="AP27" s="127">
         <f t="shared" si="4"/>
-        <v>84641.279999999999</v>
+        <v>133358.39999999999</v>
       </c>
       <c r="AQ27" s="76">
         <f>(AQ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8563.52</v>
+        <v>13515.6</v>
       </c>
       <c r="AR27" s="76">
         <f>(AR7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>8795.84</v>
+        <v>13885.2</v>
       </c>
       <c r="AS27" s="76">
         <f>(AS7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9028.1600000000017</v>
+        <v>14254.800000000001</v>
       </c>
       <c r="AT27" s="76">
         <f>(AT7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9260.4800000000014</v>
+        <v>14624.400000000001</v>
       </c>
       <c r="AU27" s="76">
         <f>(AU7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9492.8000000000011</v>
+        <v>14994</v>
       </c>
       <c r="AV27" s="76">
         <f>(AV7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9725.1200000000008</v>
+        <v>15363.6</v>
       </c>
       <c r="AW27" s="76">
         <f>(AW7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>9957.4400000000023</v>
+        <v>15733.2</v>
       </c>
       <c r="AX27" s="76">
         <f>(AX7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10189.760000000002</v>
+        <v>16102.800000000001</v>
       </c>
       <c r="AY27" s="76">
         <f>(AY7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10422.080000000002</v>
+        <v>16472.400000000001</v>
       </c>
       <c r="AZ27" s="76">
         <f>(AZ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10654.400000000003</v>
+        <v>16842.000000000004</v>
       </c>
       <c r="BA27" s="76">
         <f>(BA7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>10886.720000000001</v>
+        <v>17211.600000000002</v>
       </c>
       <c r="BB27" s="76">
         <f>(BB7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11119.040000000003</v>
+        <v>17581.2</v>
       </c>
       <c r="BC27" s="127">
         <f t="shared" si="5"/>
-        <v>118095.36000000004</v>
+        <v>186580.80000000002</v>
       </c>
       <c r="BD27" s="76">
         <f>(BD7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11351.360000000002</v>
+        <v>17950.800000000003</v>
       </c>
       <c r="BE27" s="76">
         <f>(BE7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11583.680000000002</v>
+        <v>18320.400000000001</v>
       </c>
       <c r="BF27" s="76">
         <f>(BF7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>11816.000000000002</v>
+        <v>18690.000000000004</v>
       </c>
       <c r="BG27" s="76">
         <f>(BG7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12048.320000000002</v>
+        <v>19059.600000000002</v>
       </c>
       <c r="BH27" s="76">
         <f>(BH7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12280.640000000001</v>
+        <v>19429.2</v>
       </c>
       <c r="BI27" s="76">
         <f>(BI7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12512.960000000001</v>
+        <v>19798.800000000003</v>
       </c>
       <c r="BJ27" s="76">
         <f>(BJ7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12745.280000000002</v>
+        <v>20168.400000000001</v>
       </c>
       <c r="BK27" s="76">
         <f>(BK7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>12977.600000000002</v>
+        <v>20538.000000000004</v>
       </c>
       <c r="BL27" s="76">
         <f>(BL7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13209.920000000002</v>
+        <v>20907.600000000002</v>
       </c>
       <c r="BM27" s="76">
         <f>(BM7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13442.240000000002</v>
+        <v>21277.200000000001</v>
       </c>
       <c r="BN27" s="76">
         <f>(BN7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13674.560000000001</v>
+        <v>21646.800000000003</v>
       </c>
       <c r="BO27" s="76">
         <f>(BO7*Assumptions!$B$8*Assumptions!$B$7)+(Assumptions!$B$9*Assumptions!$B$7)</f>
-        <v>13906.880000000001</v>
+        <v>22016.400000000001</v>
       </c>
       <c r="BP27" s="127">
         <f t="shared" si="6"/>
-        <v>151549.44000000003</v>
+        <v>239803.20000000004</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,259 +8664,259 @@
       <c r="D28" s="101"/>
       <c r="E28" s="76">
         <f>+E27*Assumptions!$B$10</f>
-        <v>8.6464000000000016</v>
+        <v>11.592000000000001</v>
       </c>
       <c r="F28" s="76">
         <f>+F27*Assumptions!$B$10</f>
-        <v>13.292800000000002</v>
+        <v>18.984000000000002</v>
       </c>
       <c r="G28" s="76">
         <f>+G27*Assumptions!$B$10</f>
-        <v>17.939200000000003</v>
+        <v>26.376000000000005</v>
       </c>
       <c r="H28" s="76">
         <f>+H27*Assumptions!$B$10</f>
-        <v>22.585600000000003</v>
+        <v>33.768000000000001</v>
       </c>
       <c r="I28" s="76">
         <f>+I27*Assumptions!$B$10</f>
-        <v>27.232000000000003</v>
+        <v>41.160000000000004</v>
       </c>
       <c r="J28" s="76">
         <f>+J27*Assumptions!$B$10</f>
-        <v>31.878400000000006</v>
+        <v>48.552000000000007</v>
       </c>
       <c r="K28" s="76">
         <f>+K27*Assumptions!$B$10</f>
-        <v>36.524800000000006</v>
+        <v>55.94400000000001</v>
       </c>
       <c r="L28" s="76">
         <f>+L27*Assumptions!$B$10</f>
-        <v>41.171200000000006</v>
+        <v>63.336000000000006</v>
       </c>
       <c r="M28" s="76">
         <f>+M27*Assumptions!$B$10</f>
-        <v>45.817600000000006</v>
+        <v>70.728000000000009</v>
       </c>
       <c r="N28" s="76">
         <f>+N27*Assumptions!$B$10</f>
-        <v>50.464000000000006</v>
+        <v>78.12</v>
       </c>
       <c r="O28" s="76">
         <f>+O27*Assumptions!$B$10</f>
-        <v>55.110400000000013</v>
+        <v>85.512000000000015</v>
       </c>
       <c r="P28" s="127">
         <f>+P27*Assumptions!$B$10</f>
-        <v>350.66240000000005</v>
+        <v>534.07200000000012</v>
       </c>
       <c r="Q28" s="76">
         <f>+Q27*Assumptions!$B$10</f>
-        <v>59.756800000000013</v>
+        <v>92.904000000000011</v>
       </c>
       <c r="R28" s="76">
         <f>+R27*Assumptions!$B$10</f>
-        <v>64.403200000000012</v>
+        <v>100.29600000000001</v>
       </c>
       <c r="S28" s="76">
         <f>+S27*Assumptions!$B$10</f>
-        <v>69.049600000000012</v>
+        <v>107.68800000000002</v>
       </c>
       <c r="T28" s="76">
         <f>+T27*Assumptions!$B$10</f>
-        <v>73.696000000000012</v>
+        <v>115.08</v>
       </c>
       <c r="U28" s="76">
         <f>+U27*Assumptions!$B$10</f>
-        <v>78.342400000000012</v>
+        <v>122.47200000000001</v>
       </c>
       <c r="V28" s="76">
         <f>+V27*Assumptions!$B$10</f>
-        <v>82.988800000000012</v>
+        <v>129.864</v>
       </c>
       <c r="W28" s="76">
         <f>+W27*Assumptions!$B$10</f>
-        <v>87.635200000000012</v>
+        <v>137.256</v>
       </c>
       <c r="X28" s="76">
         <f>+X27*Assumptions!$B$10</f>
-        <v>92.281600000000012</v>
+        <v>144.64800000000002</v>
       </c>
       <c r="Y28" s="76">
         <f>+Y27*Assumptions!$B$10</f>
-        <v>96.928000000000011</v>
+        <v>152.04</v>
       </c>
       <c r="Z28" s="76">
         <f>+Z27*Assumptions!$B$10</f>
-        <v>101.57440000000003</v>
+        <v>159.43200000000002</v>
       </c>
       <c r="AA28" s="76">
         <f>+AA27*Assumptions!$B$10</f>
-        <v>106.22080000000003</v>
+        <v>166.82400000000001</v>
       </c>
       <c r="AB28" s="76">
         <f>+AB27*Assumptions!$B$10</f>
-        <v>110.86720000000001</v>
+        <v>174.21600000000004</v>
       </c>
       <c r="AC28" s="127">
         <f>+AC27*Assumptions!$B$10</f>
-        <v>1023.7440000000003</v>
+        <v>1602.72</v>
       </c>
       <c r="AD28" s="76">
         <f>+AD27*Assumptions!$B$10</f>
-        <v>115.51360000000003</v>
+        <v>181.60800000000003</v>
       </c>
       <c r="AE28" s="76">
         <f>+AE27*Assumptions!$B$10</f>
-        <v>120.16000000000003</v>
+        <v>189.00000000000003</v>
       </c>
       <c r="AF28" s="76">
         <f>+AF27*Assumptions!$B$10</f>
-        <v>124.80640000000001</v>
+        <v>196.39200000000002</v>
       </c>
       <c r="AG28" s="76">
         <f>+AG27*Assumptions!$B$10</f>
-        <v>129.45280000000002</v>
+        <v>203.78400000000002</v>
       </c>
       <c r="AH28" s="76">
         <f>+AH27*Assumptions!$B$10</f>
-        <v>134.09920000000002</v>
+        <v>211.17600000000002</v>
       </c>
       <c r="AI28" s="76">
         <f>+AI27*Assumptions!$B$10</f>
-        <v>138.74560000000002</v>
+        <v>218.56800000000004</v>
       </c>
       <c r="AJ28" s="76">
         <f>+AJ27*Assumptions!$B$10</f>
-        <v>143.39200000000002</v>
+        <v>225.96</v>
       </c>
       <c r="AK28" s="76">
         <f>+AK27*Assumptions!$B$10</f>
-        <v>148.0384</v>
+        <v>233.352</v>
       </c>
       <c r="AL28" s="76">
         <f>+AL27*Assumptions!$B$10</f>
-        <v>152.68480000000002</v>
+        <v>240.74400000000003</v>
       </c>
       <c r="AM28" s="76">
         <f>+AM27*Assumptions!$B$10</f>
-        <v>157.33120000000002</v>
+        <v>248.13600000000002</v>
       </c>
       <c r="AN28" s="76">
         <f>+AN27*Assumptions!$B$10</f>
-        <v>161.97760000000002</v>
+        <v>255.52800000000005</v>
       </c>
       <c r="AO28" s="76">
         <f>+AO27*Assumptions!$B$10</f>
-        <v>166.62400000000002</v>
+        <v>262.92</v>
       </c>
       <c r="AP28" s="127">
         <f>+AP27*Assumptions!$B$10</f>
-        <v>1692.8256000000001</v>
+        <v>2667.1680000000001</v>
       </c>
       <c r="AQ28" s="76">
         <f>+AQ27*Assumptions!$B$10</f>
-        <v>171.27040000000002</v>
+        <v>270.31200000000001</v>
       </c>
       <c r="AR28" s="76">
         <f>+AR27*Assumptions!$B$10</f>
-        <v>175.91679999999999</v>
+        <v>277.70400000000001</v>
       </c>
       <c r="AS28" s="76">
         <f>+AS27*Assumptions!$B$10</f>
-        <v>180.56320000000002</v>
+        <v>285.096</v>
       </c>
       <c r="AT28" s="76">
         <f>+AT27*Assumptions!$B$10</f>
-        <v>185.20960000000002</v>
+        <v>292.48800000000006</v>
       </c>
       <c r="AU28" s="76">
         <f>+AU27*Assumptions!$B$10</f>
-        <v>189.85600000000002</v>
+        <v>299.88</v>
       </c>
       <c r="AV28" s="76">
         <f>+AV27*Assumptions!$B$10</f>
-        <v>194.50240000000002</v>
+        <v>307.27199999999999</v>
       </c>
       <c r="AW28" s="76">
         <f>+AW27*Assumptions!$B$10</f>
-        <v>199.14880000000005</v>
+        <v>314.66400000000004</v>
       </c>
       <c r="AX28" s="76">
         <f>+AX27*Assumptions!$B$10</f>
-        <v>203.79520000000005</v>
+        <v>322.05600000000004</v>
       </c>
       <c r="AY28" s="76">
         <f>+AY27*Assumptions!$B$10</f>
-        <v>208.44160000000005</v>
+        <v>329.44800000000004</v>
       </c>
       <c r="AZ28" s="76">
         <f>+AZ27*Assumptions!$B$10</f>
-        <v>213.08800000000008</v>
+        <v>336.84000000000009</v>
       </c>
       <c r="BA28" s="76">
         <f>+BA27*Assumptions!$B$10</f>
-        <v>217.73440000000002</v>
+        <v>344.23200000000003</v>
       </c>
       <c r="BB28" s="76">
         <f>+BB27*Assumptions!$B$10</f>
-        <v>222.38080000000005</v>
+        <v>351.62400000000002</v>
       </c>
       <c r="BC28" s="127">
         <f>+BC27*Assumptions!$B$10</f>
-        <v>2361.907200000001</v>
+        <v>3731.6160000000004</v>
       </c>
       <c r="BD28" s="76">
         <f>+BD27*Assumptions!$B$10</f>
-        <v>227.02720000000005</v>
+        <v>359.01600000000008</v>
       </c>
       <c r="BE28" s="76">
         <f>+BE27*Assumptions!$B$10</f>
-        <v>231.67360000000005</v>
+        <v>366.40800000000002</v>
       </c>
       <c r="BF28" s="76">
         <f>+BF27*Assumptions!$B$10</f>
-        <v>236.32000000000005</v>
+        <v>373.80000000000007</v>
       </c>
       <c r="BG28" s="76">
         <f>+BG27*Assumptions!$B$10</f>
-        <v>240.96640000000002</v>
+        <v>381.19200000000006</v>
       </c>
       <c r="BH28" s="76">
         <f>+BH27*Assumptions!$B$10</f>
-        <v>245.61280000000002</v>
+        <v>388.584</v>
       </c>
       <c r="BI28" s="76">
         <f>+BI27*Assumptions!$B$10</f>
-        <v>250.25920000000002</v>
+        <v>395.97600000000006</v>
       </c>
       <c r="BJ28" s="76">
         <f>+BJ27*Assumptions!$B$10</f>
-        <v>254.90560000000005</v>
+        <v>403.36800000000005</v>
       </c>
       <c r="BK28" s="76">
         <f>+BK27*Assumptions!$B$10</f>
-        <v>259.55200000000002</v>
+        <v>410.7600000000001</v>
       </c>
       <c r="BL28" s="76">
         <f>+BL27*Assumptions!$B$10</f>
-        <v>264.19840000000005</v>
+        <v>418.15200000000004</v>
       </c>
       <c r="BM28" s="76">
         <f>+BM27*Assumptions!$B$10</f>
-        <v>268.84480000000002</v>
+        <v>425.54400000000004</v>
       </c>
       <c r="BN28" s="76">
         <f>+BN27*Assumptions!$B$10</f>
-        <v>273.49120000000005</v>
+        <v>432.93600000000009</v>
       </c>
       <c r="BO28" s="76">
         <f>+BO27*Assumptions!$B$10</f>
-        <v>278.13760000000002</v>
+        <v>440.32800000000003</v>
       </c>
       <c r="BP28" s="127">
         <f t="shared" si="6"/>
-        <v>3030.9888000000001</v>
+        <v>4796.0640000000003</v>
       </c>
     </row>
     <row r="29" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8907,19 +8954,19 @@
       </c>
       <c r="M29" s="76">
         <f>+J4*Assumptions!$B$11</f>
-        <v>595</v>
+        <v>1190</v>
       </c>
       <c r="N29" s="76">
         <f>+K4*Assumptions!$B$11</f>
-        <v>595</v>
+        <v>1190</v>
       </c>
       <c r="O29" s="76">
         <f>+L4*Assumptions!$B$11</f>
-        <v>595</v>
+        <v>1190</v>
       </c>
       <c r="P29" s="127">
         <f t="shared" si="1"/>
-        <v>5355</v>
+        <v>7140</v>
       </c>
       <c r="Q29" s="76">
         <f>+M4*Assumptions!$B$11</f>
@@ -8935,23 +8982,23 @@
       </c>
       <c r="T29" s="76">
         <f>+Q4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="U29" s="76">
         <f>+R4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="V29" s="76">
         <f>+S4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="W29" s="76">
         <f>+T4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="X29" s="76">
         <f>+U4*Assumptions!$B$11</f>
-        <v>1190</v>
+        <v>1785</v>
       </c>
       <c r="Y29" s="76">
         <f>+V4*Assumptions!$B$11</f>
@@ -8959,175 +9006,175 @@
       </c>
       <c r="Z29" s="76">
         <f>+W4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AA29" s="76">
         <f>+X4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AB29" s="76">
         <f>+Y4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AC29" s="127">
         <f t="shared" si="3"/>
-        <v>16660</v>
+        <v>21420</v>
       </c>
       <c r="AD29" s="76">
         <f>+Z4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AE29" s="76">
         <f>+AA4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AF29" s="76">
         <f>+AB4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2380</v>
       </c>
       <c r="AG29" s="76">
         <f>+AD4*Assumptions!$B$11</f>
-        <v>1785</v>
+        <v>2975</v>
       </c>
       <c r="AH29" s="76">
         <f>+AE4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>2975</v>
       </c>
       <c r="AI29" s="76">
         <f>+AF4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>2975</v>
       </c>
       <c r="AJ29" s="76">
         <f>+AG4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>2975</v>
       </c>
       <c r="AK29" s="76">
         <f>+AH4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>2975</v>
       </c>
       <c r="AL29" s="76">
         <f>+AI4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>2975</v>
       </c>
       <c r="AM29" s="76">
         <f>+AJ4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>3570</v>
       </c>
       <c r="AN29" s="76">
         <f>+AK4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>3570</v>
       </c>
       <c r="AO29" s="76">
         <f>+AL4*Assumptions!$B$11</f>
-        <v>2380</v>
+        <v>3570</v>
       </c>
       <c r="AP29" s="127">
         <f t="shared" si="4"/>
-        <v>26180</v>
+        <v>35700</v>
       </c>
       <c r="AQ29" s="76">
         <f>+AM4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>3570</v>
       </c>
       <c r="AR29" s="76">
         <f>+AN4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>3570</v>
       </c>
       <c r="AS29" s="76">
         <f>+AO4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>3570</v>
       </c>
       <c r="AT29" s="76">
         <f>+AQ4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>4165</v>
       </c>
       <c r="AU29" s="76">
         <f>+AR4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>4165</v>
       </c>
       <c r="AV29" s="76">
         <f>+AS4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>4165</v>
       </c>
       <c r="AW29" s="76">
         <f>+AT4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>4165</v>
       </c>
       <c r="AX29" s="76">
         <f>+AU4*Assumptions!$B$11</f>
-        <v>2975</v>
+        <v>4165</v>
       </c>
       <c r="AY29" s="76">
         <f>+AV4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4165</v>
       </c>
       <c r="AZ29" s="76">
         <f>+AW4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BA29" s="76">
         <f>+AX4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BB29" s="76">
         <f>+AY4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BC29" s="127">
         <f t="shared" si="5"/>
-        <v>38080</v>
+        <v>49980</v>
       </c>
       <c r="BD29" s="76">
         <f>+AZ4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BE29" s="76">
         <f>+BA4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BF29" s="76">
         <f>+BB4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>4760</v>
       </c>
       <c r="BG29" s="76">
         <f>+BD4*Assumptions!$B$11</f>
-        <v>3570</v>
+        <v>5355</v>
       </c>
       <c r="BH29" s="76">
         <f>+BE4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5355</v>
       </c>
       <c r="BI29" s="76">
         <f>+BF4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5355</v>
       </c>
       <c r="BJ29" s="76">
         <f>+BG4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5355</v>
       </c>
       <c r="BK29" s="76">
         <f>+BH4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5355</v>
       </c>
       <c r="BL29" s="76">
         <f>+BI4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5355</v>
       </c>
       <c r="BM29" s="76">
         <f>+BJ4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5950</v>
       </c>
       <c r="BN29" s="76">
         <f>+BK4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5950</v>
       </c>
       <c r="BO29" s="76">
         <f>+BL4*Assumptions!$B$11</f>
-        <v>4165</v>
+        <v>5950</v>
       </c>
       <c r="BP29" s="127">
         <f t="shared" si="6"/>
-        <v>47600</v>
+        <v>64260</v>
       </c>
     </row>
     <row r="30" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9159,15 +9206,15 @@
       </c>
       <c r="J30" s="76">
         <f>+Assumptions!$B$12*J4</f>
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="K30" s="76">
         <f>+Assumptions!$B$12*K4</f>
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="L30" s="76">
         <f>+Assumptions!$B$12*L4</f>
-        <v>438</v>
+        <v>876</v>
       </c>
       <c r="M30" s="76">
         <f>+Assumptions!$B$12*M4</f>
@@ -9183,27 +9230,27 @@
       </c>
       <c r="P30" s="127">
         <f t="shared" si="1"/>
-        <v>6132</v>
+        <v>7446</v>
       </c>
       <c r="Q30" s="76">
         <f>+Assumptions!$B$12*Q4</f>
-        <v>876</v>
+        <v>1314</v>
       </c>
       <c r="R30" s="76">
         <f>+Assumptions!$B$12*R4</f>
-        <v>876</v>
+        <v>1314</v>
       </c>
       <c r="S30" s="76">
         <f>+Assumptions!$B$12*S4</f>
-        <v>876</v>
+        <v>1314</v>
       </c>
       <c r="T30" s="76">
         <f>+Assumptions!$B$12*T4</f>
-        <v>876</v>
+        <v>1314</v>
       </c>
       <c r="U30" s="76">
         <f>+Assumptions!$B$12*U4</f>
-        <v>876</v>
+        <v>1314</v>
       </c>
       <c r="V30" s="76">
         <f>+Assumptions!$B$12*V4</f>
@@ -9211,187 +9258,187 @@
       </c>
       <c r="W30" s="76">
         <f>+Assumptions!$B$12*W4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="X30" s="76">
         <f>+Assumptions!$B$12*X4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="Y30" s="76">
         <f>+Assumptions!$B$12*Y4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="Z30" s="76">
         <f>+Assumptions!$B$12*Z4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="AA30" s="76">
         <f>+Assumptions!$B$12*AA4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="AB30" s="76">
         <f>+Assumptions!$B$12*AB4</f>
-        <v>1314</v>
+        <v>1752</v>
       </c>
       <c r="AC30" s="127">
         <f t="shared" si="3"/>
-        <v>13578</v>
+        <v>18396</v>
       </c>
       <c r="AD30" s="76">
         <f>+Assumptions!$B$12*AD4</f>
-        <v>1314</v>
+        <v>2190</v>
       </c>
       <c r="AE30" s="76">
         <f>+Assumptions!$B$12*AE4</f>
-        <v>1752</v>
+        <v>2190</v>
       </c>
       <c r="AF30" s="76">
         <f>+Assumptions!$B$12*AF4</f>
-        <v>1752</v>
+        <v>2190</v>
       </c>
       <c r="AG30" s="76">
         <f>+Assumptions!$B$12*AG4</f>
-        <v>1752</v>
+        <v>2190</v>
       </c>
       <c r="AH30" s="76">
         <f>+Assumptions!$B$12*AH4</f>
-        <v>1752</v>
+        <v>2190</v>
       </c>
       <c r="AI30" s="76">
         <f>+Assumptions!$B$12*AI4</f>
-        <v>1752</v>
+        <v>2190</v>
       </c>
       <c r="AJ30" s="76">
         <f>+Assumptions!$B$12*AJ4</f>
-        <v>1752</v>
+        <v>2628</v>
       </c>
       <c r="AK30" s="76">
         <f>+Assumptions!$B$12*AK4</f>
-        <v>1752</v>
+        <v>2628</v>
       </c>
       <c r="AL30" s="76">
         <f>+Assumptions!$B$12*AL4</f>
-        <v>1752</v>
+        <v>2628</v>
       </c>
       <c r="AM30" s="76">
         <f>+Assumptions!$B$12*AM4</f>
-        <v>2190</v>
+        <v>2628</v>
       </c>
       <c r="AN30" s="76">
         <f>+Assumptions!$B$12*AN4</f>
-        <v>2190</v>
+        <v>2628</v>
       </c>
       <c r="AO30" s="76">
         <f>+Assumptions!$B$12*AO4</f>
-        <v>2190</v>
+        <v>2628</v>
       </c>
       <c r="AP30" s="127">
         <f t="shared" si="4"/>
-        <v>21900</v>
+        <v>28908</v>
       </c>
       <c r="AQ30" s="76">
         <f>+Assumptions!$B$12*AQ4</f>
-        <v>2190</v>
+        <v>3066</v>
       </c>
       <c r="AR30" s="76">
         <f>+Assumptions!$B$12*AR4</f>
-        <v>2190</v>
+        <v>3066</v>
       </c>
       <c r="AS30" s="76">
         <f>+Assumptions!$B$12*AS4</f>
-        <v>2190</v>
+        <v>3066</v>
       </c>
       <c r="AT30" s="76">
         <f>+Assumptions!$B$12*AT4</f>
-        <v>2190</v>
+        <v>3066</v>
       </c>
       <c r="AU30" s="76">
         <f>+Assumptions!$B$12*AU4</f>
-        <v>2190</v>
+        <v>3066</v>
       </c>
       <c r="AV30" s="76">
         <f>+Assumptions!$B$12*AV4</f>
-        <v>2628</v>
+        <v>3066</v>
       </c>
       <c r="AW30" s="76">
         <f>+Assumptions!$B$12*AW4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="AX30" s="76">
         <f>+Assumptions!$B$12*AX4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="AY30" s="76">
         <f>+Assumptions!$B$12*AY4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="AZ30" s="76">
         <f>+Assumptions!$B$12*AZ4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="BA30" s="76">
         <f>+Assumptions!$B$12*BA4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="BB30" s="76">
         <f>+Assumptions!$B$12*BB4</f>
-        <v>2628</v>
+        <v>3504</v>
       </c>
       <c r="BC30" s="127">
         <f t="shared" si="5"/>
-        <v>29346</v>
+        <v>39420</v>
       </c>
       <c r="BD30" s="76">
         <f>+Assumptions!$B$12*BD4</f>
-        <v>2628</v>
+        <v>3942</v>
       </c>
       <c r="BE30" s="76">
         <f>+Assumptions!$B$12*BE4</f>
-        <v>3066</v>
+        <v>3942</v>
       </c>
       <c r="BF30" s="76">
         <f>+Assumptions!$B$12*BF4</f>
-        <v>3066</v>
+        <v>3942</v>
       </c>
       <c r="BG30" s="76">
         <f>+Assumptions!$B$12*BG4</f>
-        <v>3066</v>
+        <v>3942</v>
       </c>
       <c r="BH30" s="76">
         <f>+Assumptions!$B$12*BH4</f>
-        <v>3066</v>
+        <v>3942</v>
       </c>
       <c r="BI30" s="76">
         <f>+Assumptions!$B$12*BI4</f>
-        <v>3066</v>
+        <v>3942</v>
       </c>
       <c r="BJ30" s="76">
         <f>+Assumptions!$B$12*BJ4</f>
-        <v>3066</v>
+        <v>4380</v>
       </c>
       <c r="BK30" s="76">
         <f>+Assumptions!$B$12*BK4</f>
-        <v>3066</v>
+        <v>4380</v>
       </c>
       <c r="BL30" s="76">
         <f>+Assumptions!$B$12*BL4</f>
-        <v>3066</v>
+        <v>4380</v>
       </c>
       <c r="BM30" s="76">
         <f>+Assumptions!$B$12*BM4</f>
-        <v>3504</v>
+        <v>4380</v>
       </c>
       <c r="BN30" s="76">
         <f>+Assumptions!$B$12*BN4</f>
-        <v>3504</v>
+        <v>4380</v>
       </c>
       <c r="BO30" s="76">
         <f>+Assumptions!$B$12*BO4</f>
-        <v>3504</v>
+        <v>4380</v>
       </c>
       <c r="BP30" s="127">
         <f t="shared" si="6"/>
-        <v>37668</v>
+        <v>49932</v>
       </c>
     </row>
     <row r="31" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9426,15 +9473,15 @@
       </c>
       <c r="J31" s="76">
         <f>+Assumptions!$B$39*J4</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K31" s="76">
         <f>+Assumptions!$B$39*K4</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L31" s="76">
         <f>+Assumptions!$B$39*L4</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M31" s="76">
         <f>+Assumptions!$B$39*M4</f>
@@ -9450,27 +9497,27 @@
       </c>
       <c r="P31" s="127">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>6300</v>
       </c>
       <c r="Q31" s="76">
         <f>+Assumptions!$B$39*Q4</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="R31" s="76">
         <f>+Assumptions!$B$39*R4</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="S31" s="76">
         <f>+Assumptions!$B$39*S4</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="T31" s="76">
         <f>+Assumptions!$B$39*T4</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="U31" s="76">
         <f>+Assumptions!$B$39*U4</f>
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="V31" s="76">
         <f>+Assumptions!$B$39*V4</f>
@@ -9478,187 +9525,187 @@
       </c>
       <c r="W31" s="76">
         <f>+Assumptions!$B$39*W4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="X31" s="76">
         <f>+Assumptions!$B$39*X4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="Y31" s="76">
         <f>+Assumptions!$B$39*Y4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="Z31" s="76">
         <f>+Assumptions!$B$39*Z4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="AA31" s="76">
         <f>+Assumptions!$B$39*AA4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="AB31" s="76">
         <f>+Assumptions!$B$39*AB4</f>
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="AC31" s="127">
         <f t="shared" si="3"/>
-        <v>10850</v>
+        <v>14700</v>
       </c>
       <c r="AD31" s="76">
         <f>+Assumptions!$B$39*AD4</f>
-        <v>1050</v>
+        <v>1750</v>
       </c>
       <c r="AE31" s="76">
         <f>+Assumptions!$B$39*AE4</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="AF31" s="76">
         <f>+Assumptions!$B$39*AF4</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="AG31" s="76">
         <f>+Assumptions!$B$39*AG4</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="AH31" s="76">
         <f>+Assumptions!$B$39*AH4</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="AI31" s="76">
         <f>+Assumptions!$B$39*AI4</f>
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="AJ31" s="76">
         <f>+Assumptions!$B$39*AJ4</f>
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="AK31" s="76">
         <f>+Assumptions!$B$39*AK4</f>
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="AL31" s="76">
         <f>+Assumptions!$B$39*AL4</f>
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="AM31" s="76">
         <f>+Assumptions!$B$39*AM4</f>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="AN31" s="76">
         <f>+Assumptions!$B$39*AN4</f>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="AO31" s="76">
         <f>+Assumptions!$B$39*AO4</f>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="AP31" s="127">
         <f t="shared" si="4"/>
-        <v>17500</v>
+        <v>23100</v>
       </c>
       <c r="AQ31" s="76">
         <f>+Assumptions!$B$39*AQ4</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="AR31" s="76">
         <f>+Assumptions!$B$39*AR4</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="AS31" s="76">
         <f>+Assumptions!$B$39*AS4</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="AT31" s="76">
         <f>+Assumptions!$B$39*AT4</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="AU31" s="76">
         <f>+Assumptions!$B$39*AU4</f>
-        <v>1750</v>
+        <v>2450</v>
       </c>
       <c r="AV31" s="76">
         <f>+Assumptions!$B$39*AV4</f>
-        <v>2100</v>
+        <v>2450</v>
       </c>
       <c r="AW31" s="76">
         <f>+Assumptions!$B$39*AW4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="AX31" s="76">
         <f>+Assumptions!$B$39*AX4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="AY31" s="76">
         <f>+Assumptions!$B$39*AY4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="AZ31" s="76">
         <f>+Assumptions!$B$39*AZ4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="BA31" s="76">
         <f>+Assumptions!$B$39*BA4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="BB31" s="76">
         <f>+Assumptions!$B$39*BB4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="BC31" s="127">
         <f t="shared" si="5"/>
-        <v>23450</v>
+        <v>31500</v>
       </c>
       <c r="BD31" s="76">
         <f>+Assumptions!$B$39*BD4</f>
-        <v>2100</v>
+        <v>3150</v>
       </c>
       <c r="BE31" s="76">
         <f>+Assumptions!$B$39*BE4</f>
-        <v>2450</v>
+        <v>3150</v>
       </c>
       <c r="BF31" s="76">
         <f>+Assumptions!$B$39*BF4</f>
-        <v>2450</v>
+        <v>3150</v>
       </c>
       <c r="BG31" s="76">
         <f>+Assumptions!$B$39*BG4</f>
-        <v>2450</v>
+        <v>3150</v>
       </c>
       <c r="BH31" s="76">
         <f>+Assumptions!$B$39*BH4</f>
-        <v>2450</v>
+        <v>3150</v>
       </c>
       <c r="BI31" s="76">
         <f>+Assumptions!$B$39*BI4</f>
-        <v>2450</v>
+        <v>3150</v>
       </c>
       <c r="BJ31" s="76">
         <f>+Assumptions!$B$39*BJ4</f>
-        <v>2450</v>
+        <v>3500</v>
       </c>
       <c r="BK31" s="76">
         <f>+Assumptions!$B$39*BK4</f>
-        <v>2450</v>
+        <v>3500</v>
       </c>
       <c r="BL31" s="76">
         <f>+Assumptions!$B$39*BL4</f>
-        <v>2450</v>
+        <v>3500</v>
       </c>
       <c r="BM31" s="76">
         <f>+Assumptions!$B$39*BM4</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="BN31" s="76">
         <f>+Assumptions!$B$39*BN4</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="BO31" s="76">
         <f>+Assumptions!$B$39*BO4</f>
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="BP31" s="127">
         <f t="shared" si="6"/>
-        <v>30100</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="32" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9693,15 +9740,15 @@
       </c>
       <c r="J32" s="76">
         <f>+Assumptions!$B$40*J4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K32" s="76">
         <f>+Assumptions!$B$40*K4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L32" s="76">
         <f>+Assumptions!$B$40*L4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M32" s="76">
         <f>+Assumptions!$B$40*M4</f>
@@ -9717,27 +9764,27 @@
       </c>
       <c r="P32" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q32" s="76">
         <f>+Assumptions!$B$40*Q4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R32" s="76">
         <f>+Assumptions!$B$40*R4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S32" s="76">
         <f>+Assumptions!$B$40*S4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T32" s="76">
         <f>+Assumptions!$B$40*T4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U32" s="76">
         <f>+Assumptions!$B$40*U4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V32" s="76">
         <f>+Assumptions!$B$40*V4</f>
@@ -9745,187 +9792,187 @@
       </c>
       <c r="W32" s="76">
         <f>+Assumptions!$B$40*W4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X32" s="76">
         <f>+Assumptions!$B$40*X4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y32" s="76">
         <f>+Assumptions!$B$40*Y4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z32" s="76">
         <f>+Assumptions!$B$40*Z4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA32" s="76">
         <f>+Assumptions!$B$40*AA4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB32" s="76">
         <f>+Assumptions!$B$40*AB4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC32" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>4200</v>
       </c>
       <c r="AD32" s="76">
         <f>+Assumptions!$B$40*AD4</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AE32" s="76">
         <f>+Assumptions!$B$40*AE4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AF32" s="76">
         <f>+Assumptions!$B$40*AF4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AG32" s="76">
         <f>+Assumptions!$B$40*AG4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH32" s="76">
         <f>+Assumptions!$B$40*AH4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AI32" s="76">
         <f>+Assumptions!$B$40*AI4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ32" s="76">
         <f>+Assumptions!$B$40*AJ4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AK32" s="76">
         <f>+Assumptions!$B$40*AK4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AL32" s="76">
         <f>+Assumptions!$B$40*AL4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AM32" s="76">
         <f>+Assumptions!$B$40*AM4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN32" s="76">
         <f>+Assumptions!$B$40*AN4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO32" s="76">
         <f>+Assumptions!$B$40*AO4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP32" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="AQ32" s="76">
         <f>+Assumptions!$B$40*AQ4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AR32" s="76">
         <f>+Assumptions!$B$40*AR4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AS32" s="76">
         <f>+Assumptions!$B$40*AS4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AT32" s="76">
         <f>+Assumptions!$B$40*AT4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AU32" s="76">
         <f>+Assumptions!$B$40*AU4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AV32" s="76">
         <f>+Assumptions!$B$40*AV4</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AW32" s="76">
         <f>+Assumptions!$B$40*AW4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AX32" s="76">
         <f>+Assumptions!$B$40*AX4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AY32" s="76">
         <f>+Assumptions!$B$40*AY4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AZ32" s="76">
         <f>+Assumptions!$B$40*AZ4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BA32" s="76">
         <f>+Assumptions!$B$40*BA4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BB32" s="76">
         <f>+Assumptions!$B$40*BB4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BC32" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>9000</v>
       </c>
       <c r="BD32" s="76">
         <f>+Assumptions!$B$40*BD4</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="BE32" s="76">
         <f>+Assumptions!$B$40*BE4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BF32" s="76">
         <f>+Assumptions!$B$40*BF4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BG32" s="76">
         <f>+Assumptions!$B$40*BG4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BH32" s="76">
         <f>+Assumptions!$B$40*BH4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BI32" s="76">
         <f>+Assumptions!$B$40*BI4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BJ32" s="76">
         <f>+Assumptions!$B$40*BJ4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BK32" s="76">
         <f>+Assumptions!$B$40*BK4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BL32" s="76">
         <f>+Assumptions!$B$40*BL4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BM32" s="76">
         <f>+Assumptions!$B$40*BM4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BN32" s="76">
         <f>+Assumptions!$B$40*BN4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BO32" s="76">
         <f>+Assumptions!$B$40*BO4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BP32" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="33" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9960,15 +10007,15 @@
       </c>
       <c r="J33" s="76">
         <f>+Assumptions!$B$41*J4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="76">
         <f>+Assumptions!$B$41*K4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="76">
         <f>+Assumptions!$B$41*L4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="76">
         <f>+Assumptions!$B$41*M4</f>
@@ -9984,27 +10031,27 @@
       </c>
       <c r="P33" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q33" s="76">
         <f>+Assumptions!$B$41*Q4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R33" s="76">
         <f>+Assumptions!$B$41*R4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S33" s="76">
         <f>+Assumptions!$B$41*S4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T33" s="76">
         <f>+Assumptions!$B$41*T4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U33" s="76">
         <f>+Assumptions!$B$41*U4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V33" s="76">
         <f>+Assumptions!$B$41*V4</f>
@@ -10012,187 +10059,187 @@
       </c>
       <c r="W33" s="76">
         <f>+Assumptions!$B$41*W4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X33" s="76">
         <f>+Assumptions!$B$41*X4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y33" s="76">
         <f>+Assumptions!$B$41*Y4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z33" s="76">
         <f>+Assumptions!$B$41*Z4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA33" s="76">
         <f>+Assumptions!$B$41*AA4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB33" s="76">
         <f>+Assumptions!$B$41*AB4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC33" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>4200</v>
       </c>
       <c r="AD33" s="76">
         <f>+Assumptions!$B$41*AD4</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AE33" s="76">
         <f>+Assumptions!$B$41*AE4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AF33" s="76">
         <f>+Assumptions!$B$41*AF4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AG33" s="76">
         <f>+Assumptions!$B$41*AG4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH33" s="76">
         <f>+Assumptions!$B$41*AH4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AI33" s="76">
         <f>+Assumptions!$B$41*AI4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ33" s="76">
         <f>+Assumptions!$B$41*AJ4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AK33" s="76">
         <f>+Assumptions!$B$41*AK4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AL33" s="76">
         <f>+Assumptions!$B$41*AL4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AM33" s="76">
         <f>+Assumptions!$B$41*AM4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN33" s="76">
         <f>+Assumptions!$B$41*AN4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO33" s="76">
         <f>+Assumptions!$B$41*AO4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP33" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="AQ33" s="76">
         <f>+Assumptions!$B$41*AQ4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AR33" s="76">
         <f>+Assumptions!$B$41*AR4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AS33" s="76">
         <f>+Assumptions!$B$41*AS4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AT33" s="76">
         <f>+Assumptions!$B$41*AT4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AU33" s="76">
         <f>+Assumptions!$B$41*AU4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AV33" s="76">
         <f>+Assumptions!$B$41*AV4</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AW33" s="76">
         <f>+Assumptions!$B$41*AW4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AX33" s="76">
         <f>+Assumptions!$B$41*AX4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AY33" s="76">
         <f>+Assumptions!$B$41*AY4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AZ33" s="76">
         <f>+Assumptions!$B$41*AZ4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BA33" s="76">
         <f>+Assumptions!$B$41*BA4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BB33" s="76">
         <f>+Assumptions!$B$41*BB4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BC33" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>9000</v>
       </c>
       <c r="BD33" s="76">
         <f>+Assumptions!$B$41*BD4</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="BE33" s="76">
         <f>+Assumptions!$B$41*BE4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BF33" s="76">
         <f>+Assumptions!$B$41*BF4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BG33" s="76">
         <f>+Assumptions!$B$41*BG4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BH33" s="76">
         <f>+Assumptions!$B$41*BH4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BI33" s="76">
         <f>+Assumptions!$B$41*BI4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BJ33" s="76">
         <f>+Assumptions!$B$41*BJ4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BK33" s="76">
         <f>+Assumptions!$B$41*BK4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BL33" s="76">
         <f>+Assumptions!$B$41*BL4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BM33" s="76">
         <f>+Assumptions!$B$41*BM4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BN33" s="76">
         <f>+Assumptions!$B$41*BN4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BO33" s="76">
         <f>+Assumptions!$B$41*BO4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BP33" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="34" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10227,15 +10274,15 @@
       </c>
       <c r="J34" s="76">
         <f>+Assumptions!$B$42*J4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K34" s="76">
         <f>+Assumptions!$B$42*K4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L34" s="76">
         <f>+Assumptions!$B$42*L4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M34" s="76">
         <f>+Assumptions!$B$42*M4</f>
@@ -10251,27 +10298,27 @@
       </c>
       <c r="P34" s="127">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q34" s="76">
         <f>+Assumptions!$B$42*Q4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R34" s="76">
         <f>+Assumptions!$B$42*R4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S34" s="76">
         <f>+Assumptions!$B$42*S4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T34" s="76">
         <f>+Assumptions!$B$42*T4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U34" s="76">
         <f>+Assumptions!$B$42*U4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V34" s="76">
         <f>+Assumptions!$B$42*V4</f>
@@ -10279,187 +10326,187 @@
       </c>
       <c r="W34" s="76">
         <f>+Assumptions!$B$42*W4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X34" s="76">
         <f>+Assumptions!$B$42*X4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y34" s="76">
         <f>+Assumptions!$B$42*Y4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z34" s="76">
         <f>+Assumptions!$B$42*Z4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA34" s="76">
         <f>+Assumptions!$B$42*AA4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB34" s="76">
         <f>+Assumptions!$B$42*AB4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC34" s="127">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>4200</v>
       </c>
       <c r="AD34" s="76">
         <f>+Assumptions!$B$42*AD4</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AE34" s="76">
         <f>+Assumptions!$B$42*AE4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AF34" s="76">
         <f>+Assumptions!$B$42*AF4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AG34" s="76">
         <f>+Assumptions!$B$42*AG4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH34" s="76">
         <f>+Assumptions!$B$42*AH4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AI34" s="76">
         <f>+Assumptions!$B$42*AI4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ34" s="76">
         <f>+Assumptions!$B$42*AJ4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AK34" s="76">
         <f>+Assumptions!$B$42*AK4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AL34" s="76">
         <f>+Assumptions!$B$42*AL4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AM34" s="76">
         <f>+Assumptions!$B$42*AM4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN34" s="76">
         <f>+Assumptions!$B$42*AN4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO34" s="76">
         <f>+Assumptions!$B$42*AO4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP34" s="127">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="AQ34" s="76">
         <f>+Assumptions!$B$42*AQ4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AR34" s="76">
         <f>+Assumptions!$B$42*AR4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AS34" s="76">
         <f>+Assumptions!$B$42*AS4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AT34" s="76">
         <f>+Assumptions!$B$42*AT4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AU34" s="76">
         <f>+Assumptions!$B$42*AU4</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AV34" s="76">
         <f>+Assumptions!$B$42*AV4</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AW34" s="76">
         <f>+Assumptions!$B$42*AW4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AX34" s="76">
         <f>+Assumptions!$B$42*AX4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AY34" s="76">
         <f>+Assumptions!$B$42*AY4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AZ34" s="76">
         <f>+Assumptions!$B$42*AZ4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BA34" s="76">
         <f>+Assumptions!$B$42*BA4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BB34" s="76">
         <f>+Assumptions!$B$42*BB4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="BC34" s="127">
         <f t="shared" si="5"/>
-        <v>6700</v>
+        <v>9000</v>
       </c>
       <c r="BD34" s="76">
         <f>+Assumptions!$B$42*BD4</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="BE34" s="76">
         <f>+Assumptions!$B$42*BE4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BF34" s="76">
         <f>+Assumptions!$B$42*BF4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BG34" s="76">
         <f>+Assumptions!$B$42*BG4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BH34" s="76">
         <f>+Assumptions!$B$42*BH4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BI34" s="76">
         <f>+Assumptions!$B$42*BI4</f>
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="BJ34" s="76">
         <f>+Assumptions!$B$42*BJ4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BK34" s="76">
         <f>+Assumptions!$B$42*BK4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BL34" s="76">
         <f>+Assumptions!$B$42*BL4</f>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="BM34" s="76">
         <f>+Assumptions!$B$42*BM4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BN34" s="76">
         <f>+Assumptions!$B$42*BN4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BO34" s="76">
         <f>+Assumptions!$B$42*BO4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="BP34" s="127">
         <f t="shared" si="6"/>
-        <v>8600</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="35" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10493,15 +10540,15 @@
       </c>
       <c r="J35" s="78">
         <f>+J4*Assumptions!$B$44</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K35" s="78">
         <f>+K4*Assumptions!$B$44</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L35" s="78">
         <f>+L4*Assumptions!$B$44</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M35" s="78">
         <f>+M4*Assumptions!$B$44</f>
@@ -10517,27 +10564,27 @@
       </c>
       <c r="P35" s="127">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="78">
         <f>+Q4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R35" s="78">
         <f>+R4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S35" s="78">
         <f>+S4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T35" s="78">
         <f>+T4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U35" s="78">
         <f>+U4*Assumptions!$B$44</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="V35" s="78">
         <f>+V4*Assumptions!$B$44</f>
@@ -10545,187 +10592,187 @@
       </c>
       <c r="W35" s="78">
         <f>+W4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X35" s="78">
         <f>+X4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y35" s="78">
         <f>+Y4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z35" s="78">
         <f>+Z4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA35" s="78">
         <f>+AA4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB35" s="78">
         <f>+AB4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC35" s="127">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="AD35" s="78">
         <f>+AD4*Assumptions!$B$44</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AE35" s="78">
         <f>+AE4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF35" s="78">
         <f>+AF4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG35" s="78">
         <f>+AG4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AH35" s="78">
         <f>+AH4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI35" s="78">
         <f>+AI4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ35" s="78">
         <f>+AJ4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK35" s="78">
         <f>+AK4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL35" s="78">
         <f>+AL4*Assumptions!$B$44</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM35" s="78">
         <f>+AM4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN35" s="78">
         <f>+AN4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO35" s="78">
         <f>+AO4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP35" s="127">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="AQ35" s="78">
         <f>+AQ4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AR35" s="78">
         <f>+AR4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AS35" s="78">
         <f>+AS4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AT35" s="78">
         <f>+AT4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AU35" s="78">
         <f>+AU4*Assumptions!$B$44</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AV35" s="78">
         <f>+AV4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW35" s="78">
         <f>+AW4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AX35" s="78">
         <f>+AX4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AY35" s="78">
         <f>+AY4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AZ35" s="78">
         <f>+AZ4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BA35" s="78">
         <f>+BA4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BB35" s="78">
         <f>+BB4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BC35" s="127">
         <f t="shared" si="5"/>
-        <v>670</v>
+        <v>900</v>
       </c>
       <c r="BD35" s="78">
         <f>+BD4*Assumptions!$B$44</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BE35" s="78">
         <f>+BE4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BF35" s="78">
         <f>+BF4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BG35" s="78">
         <f>+BG4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BH35" s="78">
         <f>+BH4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BI35" s="78">
         <f>+BI4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BJ35" s="78">
         <f>+BJ4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BK35" s="78">
         <f>+BK4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BL35" s="78">
         <f>+BL4*Assumptions!$B$44</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BM35" s="78">
         <f>+BM4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BN35" s="78">
         <f>+BN4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BO35" s="78">
         <f>+BO4*Assumptions!$B$44</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BP35" s="127">
         <f t="shared" si="6"/>
-        <v>860</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10759,15 +10806,15 @@
       </c>
       <c r="J36" s="78">
         <f>+J4*Assumptions!$B$43</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K36" s="78">
         <f>+K4*Assumptions!$B$43</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L36" s="78">
         <f>+L4*Assumptions!$B$43</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M36" s="78">
         <f>+M4*Assumptions!$B$43</f>
@@ -10783,27 +10830,27 @@
       </c>
       <c r="P36" s="127">
         <f>SUM(D36:O36)</f>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q36" s="78">
         <f>+Q4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R36" s="78">
         <f>+R4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S36" s="78">
         <f>+S4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T36" s="78">
         <f>+T4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U36" s="78">
         <f>+U4*Assumptions!$B$43</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V36" s="78">
         <f>+V4*Assumptions!$B$43</f>
@@ -10811,187 +10858,187 @@
       </c>
       <c r="W36" s="78">
         <f>+W4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="X36" s="78">
         <f>+X4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Y36" s="78">
         <f>+Y4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Z36" s="78">
         <f>+Z4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA36" s="78">
         <f>+AA4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB36" s="78">
         <f>+AB4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AC36" s="127">
         <f>SUM(Q36:AB36)</f>
-        <v>1550</v>
+        <v>2100</v>
       </c>
       <c r="AD36" s="78">
         <f>+AD4*Assumptions!$B$43</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AE36" s="78">
         <f>+AE4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF36" s="78">
         <f>+AF4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG36" s="78">
         <f>+AG4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH36" s="78">
         <f>+AH4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI36" s="78">
         <f>+AI4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ36" s="78">
         <f>+AJ4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AK36" s="78">
         <f>+AK4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AL36" s="78">
         <f>+AL4*Assumptions!$B$43</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AM36" s="78">
         <f>+AM4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN36" s="78">
         <f>+AN4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AO36" s="78">
         <f>+AO4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP36" s="127">
         <f>SUM(AD36:AO36)</f>
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="AQ36" s="78">
         <f>+AQ4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AR36" s="78">
         <f>+AR4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AS36" s="78">
         <f>+AS4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT36" s="78">
         <f>+AT4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AU36" s="78">
         <f>+AU4*Assumptions!$B$43</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AV36" s="78">
         <f>+AV4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AW36" s="78">
         <f>+AW4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AX36" s="78">
         <f>+AX4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AY36" s="78">
         <f>+AY4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AZ36" s="78">
         <f>+AZ4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA36" s="78">
         <f>+BA4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB36" s="78">
         <f>+BB4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC36" s="127">
         <f>SUM(AQ36:BB36)</f>
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="BD36" s="78">
         <f>+BD4*Assumptions!$B$43</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BE36" s="78">
         <f>+BE4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BF36" s="78">
         <f>+BF4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BG36" s="78">
         <f>+BG4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BH36" s="78">
         <f>+BH4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BI36" s="78">
         <f>+BI4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BJ36" s="78">
         <f>+BJ4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BK36" s="78">
         <f>+BK4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BL36" s="78">
         <f>+BL4*Assumptions!$B$43</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BM36" s="78">
         <f>+BM4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BN36" s="78">
         <f>+BN4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BO36" s="78">
         <f>+BO4*Assumptions!$B$43</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BP36" s="127">
         <f>SUM(BD36:BO36)</f>
-        <v>4300</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="37" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11025,15 +11072,15 @@
       </c>
       <c r="J37" s="78">
         <f>+J4*Assumptions!$B$45</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K37" s="78">
         <f>+K4*Assumptions!$B$45</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L37" s="78">
         <f>+L4*Assumptions!$B$45</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M37" s="78">
         <f>+M4*Assumptions!$B$45</f>
@@ -11049,27 +11096,27 @@
       </c>
       <c r="P37" s="128">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="Q37" s="78">
         <f>+Q4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R37" s="78">
         <f>+R4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S37" s="78">
         <f>+S4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="T37" s="78">
         <f>+T4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U37" s="78">
         <f>+U4*Assumptions!$B$45</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="V37" s="78">
         <f>+V4*Assumptions!$B$45</f>
@@ -11077,187 +11124,187 @@
       </c>
       <c r="W37" s="78">
         <f>+W4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="X37" s="78">
         <f>+X4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Y37" s="78">
         <f>+Y4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Z37" s="78">
         <f>+Z4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA37" s="78">
         <f>+AA4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB37" s="78">
         <f>+AB4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AC37" s="128">
         <f t="shared" si="3"/>
-        <v>1550</v>
+        <v>2100</v>
       </c>
       <c r="AD37" s="78">
         <f>+AD4*Assumptions!$B$45</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AE37" s="78">
         <f>+AE4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF37" s="78">
         <f>+AF4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG37" s="78">
         <f>+AG4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH37" s="78">
         <f>+AH4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI37" s="78">
         <f>+AI4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ37" s="78">
         <f>+AJ4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AK37" s="78">
         <f>+AK4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AL37" s="78">
         <f>+AL4*Assumptions!$B$45</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AM37" s="78">
         <f>+AM4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN37" s="78">
         <f>+AN4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AO37" s="78">
         <f>+AO4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP37" s="128">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="AQ37" s="78">
         <f>+AQ4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AR37" s="78">
         <f>+AR4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AS37" s="78">
         <f>+AS4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT37" s="78">
         <f>+AT4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AU37" s="78">
         <f>+AU4*Assumptions!$B$45</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AV37" s="78">
         <f>+AV4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AW37" s="78">
         <f>+AW4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AX37" s="78">
         <f>+AX4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AY37" s="78">
         <f>+AY4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AZ37" s="78">
         <f>+AZ4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA37" s="78">
         <f>+BA4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB37" s="78">
         <f>+BB4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC37" s="128">
         <f t="shared" si="5"/>
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="BD37" s="78">
         <f>+BD4*Assumptions!$B$45</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BE37" s="78">
         <f>+BE4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BF37" s="78">
         <f>+BF4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BG37" s="78">
         <f>+BG4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BH37" s="78">
         <f>+BH4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BI37" s="78">
         <f>+BI4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BJ37" s="78">
         <f>+BJ4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BK37" s="78">
         <f>+BK4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BL37" s="78">
         <f>+BL4*Assumptions!$B$45</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BM37" s="78">
         <f>+BM4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BN37" s="78">
         <f>+BN4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BO37" s="78">
         <f>+BO4*Assumptions!$B$45</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BP37" s="128">
         <f t="shared" si="6"/>
-        <v>4300</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="38" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12070,259 +12117,259 @@
       </c>
       <c r="E41" s="97">
         <f t="shared" ref="E41:I41" si="26">SUM(E27:E39)</f>
-        <v>1638.9664</v>
+        <v>1789.192</v>
       </c>
       <c r="F41" s="97">
         <f t="shared" si="26"/>
-        <v>1875.9328</v>
+        <v>2166.1840000000002</v>
       </c>
       <c r="G41" s="97">
         <f t="shared" si="26"/>
-        <v>2707.8992000000003</v>
+        <v>3138.1760000000004</v>
       </c>
       <c r="H41" s="97">
         <f t="shared" si="26"/>
-        <v>2944.8656000000001</v>
+        <v>3515.1680000000001</v>
       </c>
       <c r="I41" s="97">
         <f t="shared" si="26"/>
-        <v>3193.8320000000003</v>
+        <v>3904.16</v>
       </c>
       <c r="J41" s="97">
         <f t="shared" ref="J41" si="27">SUM(J27:J39)</f>
-        <v>3442.7984000000006</v>
+        <v>5491.152</v>
       </c>
       <c r="K41" s="97">
         <f t="shared" ref="K41" si="28">SUM(K27:K39)</f>
-        <v>3691.7647999999999</v>
+        <v>5880.1440000000002</v>
       </c>
       <c r="L41" s="97">
         <f t="shared" ref="L41" si="29">SUM(L27:L39)</f>
-        <v>3940.7312000000006</v>
+        <v>6269.1360000000004</v>
       </c>
       <c r="M41" s="97">
         <f t="shared" ref="M41:N41" si="30">SUM(M27:M39)</f>
-        <v>5387.6975999999995</v>
+        <v>7253.1280000000006</v>
       </c>
       <c r="N41" s="97">
         <f t="shared" si="30"/>
-        <v>5636.6640000000007</v>
+        <v>7642.12</v>
       </c>
       <c r="O41" s="97">
         <f t="shared" ref="O41" si="31">SUM(O27:O39)</f>
-        <v>5885.6304</v>
+        <v>8031.1120000000001</v>
       </c>
       <c r="P41" s="97">
         <f t="shared" ref="P41" si="32">SUM(P27:P39)</f>
-        <v>41106.782400000004</v>
+        <v>55839.672000000006</v>
       </c>
       <c r="Q41" s="97">
         <f t="shared" ref="Q41" si="33">SUM(Q27:Q39)</f>
-        <v>6729.5968000000012</v>
+        <v>9618.1040000000012</v>
       </c>
       <c r="R41" s="97">
         <f t="shared" ref="R41:S41" si="34">SUM(R27:R39)</f>
-        <v>6978.5632000000005</v>
+        <v>10007.096000000001</v>
       </c>
       <c r="S41" s="97">
         <f t="shared" si="34"/>
-        <v>7227.5295999999998</v>
+        <v>10396.088</v>
       </c>
       <c r="T41" s="97">
         <f t="shared" ref="T41" si="35">SUM(T27:T39)</f>
-        <v>7476.4960000000001</v>
+        <v>11380.08</v>
       </c>
       <c r="U41" s="97">
         <f t="shared" ref="U41" si="36">SUM(U27:U39)</f>
-        <v>7725.4624000000003</v>
+        <v>11769.072</v>
       </c>
       <c r="V41" s="97">
         <f t="shared" ref="V41" si="37">SUM(V27:V39)</f>
-        <v>9172.4288000000015</v>
+        <v>12158.064</v>
       </c>
       <c r="W41" s="97">
         <f t="shared" ref="W41:X41" si="38">SUM(W27:W39)</f>
-        <v>9421.395199999999</v>
+        <v>13745.056</v>
       </c>
       <c r="X41" s="97">
         <f t="shared" si="38"/>
-        <v>9670.3616000000002</v>
+        <v>14134.048000000001</v>
       </c>
       <c r="Y41" s="97">
         <f t="shared" ref="Y41" si="39">SUM(Y27:Y39)</f>
-        <v>10514.328000000001</v>
+        <v>14523.04</v>
       </c>
       <c r="Z41" s="97">
         <f t="shared" ref="Z41" si="40">SUM(Z27:Z39)</f>
-        <v>10763.294400000002</v>
+        <v>15507.031999999999</v>
       </c>
       <c r="AA41" s="97">
         <f t="shared" ref="AA41" si="41">SUM(AA27:AA39)</f>
-        <v>11012.2608</v>
+        <v>15896.024000000001</v>
       </c>
       <c r="AB41" s="97">
         <f t="shared" ref="AB41:AC41" si="42">SUM(AB27:AB39)</f>
-        <v>11261.227200000001</v>
+        <v>16285.016000000001</v>
       </c>
       <c r="AC41" s="97">
         <f t="shared" si="42"/>
-        <v>107952.94400000002</v>
+        <v>155418.72</v>
       </c>
       <c r="AD41" s="97">
         <f t="shared" ref="AD41" si="43">SUM(AD27:AD39)</f>
-        <v>11510.193600000002</v>
+        <v>17872.008000000002</v>
       </c>
       <c r="AE41" s="97">
         <f t="shared" ref="AE41" si="44">SUM(AE27:AE39)</f>
-        <v>12957.16</v>
+        <v>18261</v>
       </c>
       <c r="AF41" s="97">
         <f t="shared" ref="AF41" si="45">SUM(AF27:AF39)</f>
-        <v>13206.126400000001</v>
+        <v>18649.991999999998</v>
       </c>
       <c r="AG41" s="97">
         <f t="shared" ref="AG41:AH41" si="46">SUM(AG27:AG39)</f>
-        <v>13455.092800000002</v>
+        <v>19633.984</v>
       </c>
       <c r="AH41" s="97">
         <f t="shared" si="46"/>
-        <v>14299.0592</v>
+        <v>20022.976000000002</v>
       </c>
       <c r="AI41" s="97">
         <f t="shared" ref="AI41" si="47">SUM(AI27:AI39)</f>
-        <v>14548.025600000001</v>
+        <v>20411.968000000001</v>
       </c>
       <c r="AJ41" s="97">
         <f t="shared" ref="AJ41" si="48">SUM(AJ27:AJ39)</f>
-        <v>14796.992</v>
+        <v>21998.959999999999</v>
       </c>
       <c r="AK41" s="97">
         <f t="shared" ref="AK41" si="49">SUM(AK27:AK39)</f>
-        <v>15045.9584</v>
+        <v>22387.952000000001</v>
       </c>
       <c r="AL41" s="97">
         <f t="shared" ref="AL41:AM41" si="50">SUM(AL27:AL39)</f>
-        <v>15294.924800000001</v>
+        <v>22776.944000000003</v>
       </c>
       <c r="AM41" s="97">
         <f t="shared" si="50"/>
-        <v>16741.891200000002</v>
+        <v>23760.936000000002</v>
       </c>
       <c r="AN41" s="97">
         <f t="shared" ref="AN41" si="51">SUM(AN27:AN39)</f>
-        <v>16990.857600000003</v>
+        <v>24149.928</v>
       </c>
       <c r="AO41" s="97">
         <f t="shared" ref="AO41" si="52">SUM(AO27:AO39)</f>
-        <v>17239.824000000001</v>
+        <v>24538.92</v>
       </c>
       <c r="AP41" s="97">
         <f t="shared" ref="AP41" si="53">SUM(AP27:AP39)</f>
-        <v>176086.10560000001</v>
+        <v>254465.568</v>
       </c>
       <c r="AQ41" s="97">
         <f t="shared" ref="AQ41:AR41" si="54">SUM(AQ27:AQ39)</f>
-        <v>18083.790399999998</v>
+        <v>26125.912</v>
       </c>
       <c r="AR41" s="97">
         <f t="shared" si="54"/>
-        <v>18332.756800000003</v>
+        <v>26514.904000000002</v>
       </c>
       <c r="AS41" s="97">
         <f t="shared" ref="AS41" si="55">SUM(AS27:AS39)</f>
-        <v>18581.7232</v>
+        <v>26903.896000000001</v>
       </c>
       <c r="AT41" s="97">
         <f t="shared" ref="AT41" si="56">SUM(AT27:AT39)</f>
-        <v>18830.689600000002</v>
+        <v>27887.887999999999</v>
       </c>
       <c r="AU41" s="97">
         <f t="shared" ref="AU41" si="57">SUM(AU27:AU39)</f>
-        <v>19079.656000000003</v>
+        <v>28276.879999999997</v>
       </c>
       <c r="AV41" s="97">
         <f t="shared" ref="AV41:AW41" si="58">SUM(AV27:AV39)</f>
-        <v>20526.6224</v>
+        <v>28665.872000000003</v>
       </c>
       <c r="AW41" s="97">
         <f t="shared" si="58"/>
-        <v>20775.588800000005</v>
+        <v>30252.864000000001</v>
       </c>
       <c r="AX41" s="97">
         <f t="shared" ref="AX41" si="59">SUM(AX27:AX39)</f>
-        <v>21024.555200000003</v>
+        <v>30641.856</v>
       </c>
       <c r="AY41" s="97">
         <f t="shared" ref="AY41" si="60">SUM(AY27:AY39)</f>
-        <v>21868.5216</v>
+        <v>31030.848000000002</v>
       </c>
       <c r="AZ41" s="97">
         <f t="shared" ref="AZ41" si="61">SUM(AZ27:AZ39)</f>
-        <v>22117.488000000005</v>
+        <v>32014.840000000004</v>
       </c>
       <c r="BA41" s="97">
         <f t="shared" ref="BA41:BB41" si="62">SUM(BA27:BA39)</f>
-        <v>22366.454400000002</v>
+        <v>32403.832000000002</v>
       </c>
       <c r="BB41" s="97">
         <f t="shared" si="62"/>
-        <v>22615.420800000004</v>
+        <v>32792.824000000001</v>
       </c>
       <c r="BC41" s="97">
         <f t="shared" ref="BC41" si="63">SUM(BC27:BC39)</f>
-        <v>244203.26720000006</v>
+        <v>353512.41600000003</v>
       </c>
       <c r="BD41" s="97">
         <f t="shared" ref="BD41" si="64">SUM(BD27:BD39)</f>
-        <v>22864.387200000005</v>
+        <v>34379.816000000006</v>
       </c>
       <c r="BE41" s="97">
         <f t="shared" ref="BE41" si="65">SUM(BE27:BE39)</f>
-        <v>24311.353600000002</v>
+        <v>34768.808000000005</v>
       </c>
       <c r="BF41" s="97">
         <f t="shared" ref="BF41:BG41" si="66">SUM(BF27:BF39)</f>
-        <v>24560.32</v>
+        <v>35157.800000000003</v>
       </c>
       <c r="BG41" s="97">
         <f t="shared" si="66"/>
-        <v>24809.286400000001</v>
+        <v>36141.792000000001</v>
       </c>
       <c r="BH41" s="97">
         <f t="shared" ref="BH41" si="67">SUM(BH27:BH39)</f>
-        <v>25653.252800000002</v>
+        <v>36530.784</v>
       </c>
       <c r="BI41" s="97">
         <f t="shared" ref="BI41" si="68">SUM(BI27:BI39)</f>
-        <v>25902.2192</v>
+        <v>36919.775999999998</v>
       </c>
       <c r="BJ41" s="97">
         <f t="shared" ref="BJ41" si="69">SUM(BJ27:BJ39)</f>
-        <v>26151.185600000004</v>
+        <v>38506.767999999996</v>
       </c>
       <c r="BK41" s="97">
         <f t="shared" ref="BK41:BL41" si="70">SUM(BK27:BK39)</f>
-        <v>26400.152000000002</v>
+        <v>38895.760000000002</v>
       </c>
       <c r="BL41" s="97">
         <f t="shared" si="70"/>
-        <v>26649.118399999999</v>
+        <v>39284.752</v>
       </c>
       <c r="BM41" s="97">
         <f t="shared" ref="BM41" si="71">SUM(BM27:BM39)</f>
-        <v>28096.084800000004</v>
+        <v>40268.744000000006</v>
       </c>
       <c r="BN41" s="97">
         <f t="shared" ref="BN41" si="72">SUM(BN27:BN39)</f>
-        <v>28345.051200000002</v>
+        <v>40657.736000000004</v>
       </c>
       <c r="BO41" s="97">
         <f t="shared" ref="BO41" si="73">SUM(BO27:BO39)</f>
-        <v>28594.017599999999</v>
+        <v>41046.728000000003</v>
       </c>
       <c r="BP41" s="97">
         <f t="shared" ref="BP41" si="74">SUM(BP27:BP39)</f>
-        <v>312336.42879999999</v>
+        <v>452559.26400000008</v>
       </c>
     </row>
     <row r="42" spans="1:68" s="103" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -12336,259 +12383,259 @@
       </c>
       <c r="E42" s="104">
         <f t="shared" si="75"/>
-        <v>-406.96640000000002</v>
+        <v>58.80800000000022</v>
       </c>
       <c r="F42" s="104">
         <f t="shared" si="75"/>
-        <v>588.06719999999996</v>
+        <v>1529.8160000000003</v>
       </c>
       <c r="G42" s="105">
         <f t="shared" si="75"/>
-        <v>988.10080000000016</v>
+        <v>2405.8239999999996</v>
       </c>
       <c r="H42" s="105">
         <f t="shared" si="75"/>
-        <v>1983.1343999999999</v>
+        <v>3876.8320000000008</v>
       </c>
       <c r="I42" s="105">
         <f t="shared" si="75"/>
-        <v>3002.1679999999997</v>
+        <v>5371.84</v>
       </c>
       <c r="J42" s="105">
         <f t="shared" si="75"/>
-        <v>4021.2016000000003</v>
+        <v>5668.848</v>
       </c>
       <c r="K42" s="105">
         <f t="shared" si="75"/>
-        <v>5040.2352000000019</v>
+        <v>7163.8560000000016</v>
       </c>
       <c r="L42" s="105">
         <f t="shared" si="75"/>
-        <v>6059.2687999999998</v>
+        <v>8658.8640000000014</v>
       </c>
       <c r="M42" s="105">
         <f t="shared" si="75"/>
-        <v>5880.3024000000005</v>
+        <v>9558.8719999999994</v>
       </c>
       <c r="N42" s="105">
         <f t="shared" si="75"/>
-        <v>6899.3359999999993</v>
+        <v>11053.880000000001</v>
       </c>
       <c r="O42" s="105">
         <f t="shared" si="75"/>
-        <v>7918.3696000000018</v>
+        <v>12548.888000000003</v>
       </c>
       <c r="P42" s="136">
         <f t="shared" si="1"/>
-        <v>41213.217600000004</v>
+        <v>67136.328000000009</v>
       </c>
       <c r="Q42" s="105">
         <f t="shared" ref="Q42:AB42" si="76">+Q24-Q41</f>
-        <v>8342.4032000000007</v>
+        <v>12845.895999999999</v>
       </c>
       <c r="R42" s="105">
         <f t="shared" si="76"/>
-        <v>9361.4367999999995</v>
+        <v>14340.903999999999</v>
       </c>
       <c r="S42" s="105">
         <f t="shared" si="76"/>
-        <v>10380.470400000004</v>
+        <v>15835.912000000004</v>
       </c>
       <c r="T42" s="105">
         <f t="shared" si="76"/>
-        <v>11399.504000000001</v>
+        <v>16735.919999999998</v>
       </c>
       <c r="U42" s="105">
         <f t="shared" si="76"/>
-        <v>12418.5376</v>
+        <v>18230.928000000004</v>
       </c>
       <c r="V42" s="105">
         <f t="shared" si="76"/>
-        <v>12239.571200000002</v>
+        <v>19725.936000000002</v>
       </c>
       <c r="W42" s="105">
         <f t="shared" si="76"/>
-        <v>13258.604800000001</v>
+        <v>20022.944</v>
       </c>
       <c r="X42" s="105">
         <f t="shared" si="76"/>
-        <v>14277.638400000003</v>
+        <v>21517.951999999997</v>
       </c>
       <c r="Y42" s="105">
         <f t="shared" si="76"/>
-        <v>14701.671999999999</v>
+        <v>23012.959999999999</v>
       </c>
       <c r="Z42" s="105">
         <f t="shared" si="76"/>
-        <v>15720.705599999998</v>
+        <v>23912.968000000001</v>
       </c>
       <c r="AA42" s="105">
         <f t="shared" si="76"/>
-        <v>16739.739200000004</v>
+        <v>25407.976000000006</v>
       </c>
       <c r="AB42" s="105">
         <f t="shared" si="76"/>
-        <v>17758.772799999999</v>
+        <v>26902.983999999997</v>
       </c>
       <c r="AC42" s="136">
         <f t="shared" si="3"/>
-        <v>156599.05600000001</v>
+        <v>238493.27999999997</v>
       </c>
       <c r="AD42" s="105">
         <f t="shared" ref="AD42:AO42" si="77">+AD24-AD41</f>
-        <v>18777.806400000001</v>
+        <v>27199.991999999998</v>
       </c>
       <c r="AE42" s="105">
         <f t="shared" si="77"/>
-        <v>18598.840000000004</v>
+        <v>28695.000000000007</v>
       </c>
       <c r="AF42" s="105">
         <f t="shared" si="77"/>
-        <v>19617.873599999999</v>
+        <v>30190.008000000002</v>
       </c>
       <c r="AG42" s="105">
         <f t="shared" si="77"/>
-        <v>20636.907199999998</v>
+        <v>31090.016000000007</v>
       </c>
       <c r="AH42" s="105">
         <f t="shared" si="77"/>
-        <v>21060.940800000008</v>
+        <v>32585.024000000005</v>
       </c>
       <c r="AI42" s="105">
         <f t="shared" si="77"/>
-        <v>22079.974399999999</v>
+        <v>34080.031999999999</v>
       </c>
       <c r="AJ42" s="105">
         <f t="shared" si="77"/>
-        <v>23099.008000000002</v>
+        <v>34377.040000000001</v>
       </c>
       <c r="AK42" s="105">
         <f t="shared" si="77"/>
-        <v>24118.0416</v>
+        <v>35872.047999999995</v>
       </c>
       <c r="AL42" s="105">
         <f t="shared" si="77"/>
-        <v>25137.075199999999</v>
+        <v>37367.056000000004</v>
       </c>
       <c r="AM42" s="105">
         <f t="shared" si="77"/>
-        <v>24958.108800000005</v>
+        <v>38267.064000000006</v>
       </c>
       <c r="AN42" s="105">
         <f t="shared" si="77"/>
-        <v>25977.142400000004</v>
+        <v>39762.072000000007</v>
       </c>
       <c r="AO42" s="105">
         <f t="shared" si="77"/>
-        <v>26996.175999999999</v>
+        <v>41257.08</v>
       </c>
       <c r="AP42" s="136">
         <f t="shared" si="4"/>
-        <v>271057.89440000005</v>
+        <v>410742.43200000003</v>
       </c>
       <c r="AQ42" s="105">
         <f t="shared" ref="AQ42:BB42" si="78">+AQ24-AQ41</f>
-        <v>27420.209600000002</v>
+        <v>41554.088000000003</v>
       </c>
       <c r="AR42" s="105">
         <f t="shared" si="78"/>
-        <v>28439.243199999997</v>
+        <v>43049.095999999998</v>
       </c>
       <c r="AS42" s="105">
         <f t="shared" si="78"/>
-        <v>29458.276800000007</v>
+        <v>44544.103999999999</v>
       </c>
       <c r="AT42" s="105">
         <f t="shared" si="78"/>
-        <v>30477.310400000006</v>
+        <v>45444.112000000016</v>
       </c>
       <c r="AU42" s="105">
         <f t="shared" si="78"/>
-        <v>31496.343999999997</v>
+        <v>46939.12</v>
       </c>
       <c r="AV42" s="105">
         <f t="shared" si="78"/>
-        <v>31317.3776</v>
+        <v>48434.127999999997</v>
       </c>
       <c r="AW42" s="105">
         <f t="shared" si="78"/>
-        <v>32336.411199999995</v>
+        <v>48731.135999999999</v>
       </c>
       <c r="AX42" s="105">
         <f t="shared" si="78"/>
-        <v>33355.444800000005</v>
+        <v>50226.144</v>
       </c>
       <c r="AY42" s="105">
         <f t="shared" si="78"/>
-        <v>33779.478400000007</v>
+        <v>51721.152000000016</v>
       </c>
       <c r="AZ42" s="105">
         <f t="shared" si="78"/>
-        <v>34798.512000000002</v>
+        <v>52621.160000000011</v>
       </c>
       <c r="BA42" s="105">
         <f t="shared" si="78"/>
-        <v>35817.545599999998</v>
+        <v>54116.167999999998</v>
       </c>
       <c r="BB42" s="105">
         <f t="shared" si="78"/>
-        <v>36836.579199999993</v>
+        <v>55611.175999999999</v>
       </c>
       <c r="BC42" s="136">
         <f t="shared" si="5"/>
-        <v>385532.7328</v>
+        <v>582991.58400000003</v>
       </c>
       <c r="BD42" s="105">
         <f t="shared" ref="BD42:BO42" si="79">+BD24-BD41</f>
-        <v>37855.612800000003</v>
+        <v>55908.183999999994</v>
       </c>
       <c r="BE42" s="105">
         <f t="shared" si="79"/>
-        <v>37676.646400000005</v>
+        <v>57403.19200000001</v>
       </c>
       <c r="BF42" s="105">
         <f t="shared" si="79"/>
-        <v>38695.680000000008</v>
+        <v>58898.200000000012</v>
       </c>
       <c r="BG42" s="105">
         <f t="shared" si="79"/>
-        <v>39714.713600000003</v>
+        <v>59798.207999999999</v>
       </c>
       <c r="BH42" s="105">
         <f t="shared" si="79"/>
-        <v>40138.747199999998</v>
+        <v>61293.216</v>
       </c>
       <c r="BI42" s="105">
         <f t="shared" si="79"/>
-        <v>41157.7808</v>
+        <v>62788.224000000002</v>
       </c>
       <c r="BJ42" s="105">
         <f t="shared" si="79"/>
-        <v>42176.814399999996</v>
+        <v>63085.232000000018</v>
       </c>
       <c r="BK42" s="105">
         <f t="shared" si="79"/>
-        <v>43195.848000000013</v>
+        <v>64580.240000000013</v>
       </c>
       <c r="BL42" s="105">
         <f t="shared" si="79"/>
-        <v>44214.881600000015</v>
+        <v>66075.248000000021</v>
       </c>
       <c r="BM42" s="105">
         <f t="shared" si="79"/>
-        <v>44035.915199999996</v>
+        <v>66975.255999999994</v>
       </c>
       <c r="BN42" s="105">
         <f t="shared" si="79"/>
-        <v>45054.948799999998</v>
+        <v>68470.263999999996</v>
       </c>
       <c r="BO42" s="105">
         <f t="shared" si="79"/>
-        <v>46073.982400000001</v>
+        <v>69965.272000000012</v>
       </c>
       <c r="BP42" s="136">
         <f t="shared" si="6"/>
-        <v>499991.57120000001</v>
+        <v>755240.73599999992</v>
       </c>
     </row>
     <row r="43" spans="1:68" s="103" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13572,263 +13619,263 @@
       <c r="C48" s="75"/>
       <c r="D48" s="78">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="78">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="F48" s="78">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="G48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="H48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="K48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="L48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="M48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="N48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="O48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="P48" s="127">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>31200</v>
       </c>
       <c r="Q48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="R48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="S48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="T48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="U48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="V48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="W48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="X48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="Y48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="Z48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AA48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AB48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AC48" s="127">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>31200</v>
       </c>
       <c r="AD48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AE48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AF48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AG48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AH48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AI48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AJ48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AK48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AL48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AM48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AN48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AO48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AP48" s="127">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>31200</v>
       </c>
       <c r="AQ48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AR48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AS48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AT48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AU48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AV48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AW48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AX48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AY48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="AZ48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BA48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BB48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BC48" s="127">
         <f t="shared" si="5"/>
-        <v>1200</v>
+        <v>31200</v>
       </c>
       <c r="BD48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BE48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BF48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BG48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BH48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BI48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BJ48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BK48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BL48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BM48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BN48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BO48" s="76">
         <f>+Assumptions!$B$51</f>
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="BP48" s="127">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="49" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14130,15 +14177,15 @@
       </c>
       <c r="J50" s="76">
         <f>IF(J4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="K50" s="76">
         <f>IF(K4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="L50" s="76">
         <f>IF(L4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="M50" s="76">
         <f>IF(M4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
@@ -14154,7 +14201,7 @@
       </c>
       <c r="P50" s="127">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="Q50" s="76">
         <f>IF(Q4&lt;Assumptions!$B$54,0,Assumptions!$B$53)</f>
@@ -15174,263 +15221,263 @@
       <c r="C54" s="110"/>
       <c r="D54" s="97">
         <f>SUM(D45:D53)</f>
-        <v>331</v>
+        <v>2831</v>
       </c>
       <c r="E54" s="97">
         <f t="shared" ref="E54:BP54" si="81">SUM(E45:E53)</f>
-        <v>351</v>
+        <v>2851</v>
       </c>
       <c r="F54" s="97">
         <f t="shared" si="81"/>
-        <v>371</v>
+        <v>2871</v>
       </c>
       <c r="G54" s="97">
         <f t="shared" si="81"/>
-        <v>391</v>
+        <v>2891</v>
       </c>
       <c r="H54" s="97">
         <f t="shared" si="81"/>
-        <v>411</v>
+        <v>2911</v>
       </c>
       <c r="I54" s="97">
         <f t="shared" si="81"/>
-        <v>431</v>
+        <v>2931</v>
       </c>
       <c r="J54" s="97">
         <f t="shared" si="81"/>
-        <v>451</v>
+        <v>6701</v>
       </c>
       <c r="K54" s="97">
         <f t="shared" si="81"/>
-        <v>471</v>
+        <v>6721</v>
       </c>
       <c r="L54" s="97">
         <f t="shared" si="81"/>
-        <v>491</v>
+        <v>6741</v>
       </c>
       <c r="M54" s="97">
         <f t="shared" si="81"/>
-        <v>4261</v>
+        <v>6761</v>
       </c>
       <c r="N54" s="97">
         <f t="shared" si="81"/>
-        <v>4281</v>
+        <v>6781</v>
       </c>
       <c r="O54" s="97">
         <f t="shared" si="81"/>
-        <v>4301</v>
+        <v>6801</v>
       </c>
       <c r="P54" s="135">
         <f t="shared" si="81"/>
-        <v>16542</v>
+        <v>57792</v>
       </c>
       <c r="Q54" s="97">
         <f t="shared" si="81"/>
-        <v>4321</v>
+        <v>6821</v>
       </c>
       <c r="R54" s="97">
         <f t="shared" si="81"/>
-        <v>4341</v>
+        <v>6841</v>
       </c>
       <c r="S54" s="97">
         <f t="shared" si="81"/>
-        <v>4361</v>
+        <v>6861</v>
       </c>
       <c r="T54" s="97">
         <f t="shared" si="81"/>
-        <v>4381</v>
+        <v>6881</v>
       </c>
       <c r="U54" s="97">
         <f t="shared" si="81"/>
-        <v>4401</v>
+        <v>6901</v>
       </c>
       <c r="V54" s="97">
         <f t="shared" si="81"/>
-        <v>4421</v>
+        <v>6921</v>
       </c>
       <c r="W54" s="97">
         <f t="shared" si="81"/>
-        <v>4441</v>
+        <v>6941</v>
       </c>
       <c r="X54" s="97">
         <f t="shared" si="81"/>
-        <v>4461</v>
+        <v>6961</v>
       </c>
       <c r="Y54" s="97">
         <f t="shared" si="81"/>
-        <v>4481</v>
+        <v>6981</v>
       </c>
       <c r="Z54" s="97">
         <f t="shared" si="81"/>
-        <v>4501</v>
+        <v>7001</v>
       </c>
       <c r="AA54" s="97">
         <f t="shared" si="81"/>
-        <v>4521</v>
+        <v>7021</v>
       </c>
       <c r="AB54" s="97">
         <f t="shared" si="81"/>
-        <v>4541</v>
+        <v>7041</v>
       </c>
       <c r="AC54" s="135">
         <f t="shared" si="81"/>
-        <v>53172</v>
+        <v>83172</v>
       </c>
       <c r="AD54" s="97">
         <f t="shared" si="81"/>
-        <v>4561</v>
+        <v>7061</v>
       </c>
       <c r="AE54" s="97">
         <f t="shared" si="81"/>
-        <v>4581</v>
+        <v>7081</v>
       </c>
       <c r="AF54" s="97">
         <f t="shared" si="81"/>
-        <v>4601</v>
+        <v>7101</v>
       </c>
       <c r="AG54" s="97">
         <f t="shared" si="81"/>
-        <v>4621</v>
+        <v>7121</v>
       </c>
       <c r="AH54" s="97">
         <f t="shared" si="81"/>
-        <v>4641</v>
+        <v>7141</v>
       </c>
       <c r="AI54" s="97">
         <f t="shared" si="81"/>
-        <v>4661</v>
+        <v>7161</v>
       </c>
       <c r="AJ54" s="97">
         <f t="shared" si="81"/>
-        <v>4681</v>
+        <v>7181</v>
       </c>
       <c r="AK54" s="97">
         <f t="shared" si="81"/>
-        <v>4701</v>
+        <v>7201</v>
       </c>
       <c r="AL54" s="97">
         <f t="shared" si="81"/>
-        <v>4721</v>
+        <v>7221</v>
       </c>
       <c r="AM54" s="97">
         <f t="shared" si="81"/>
-        <v>4741</v>
+        <v>7241</v>
       </c>
       <c r="AN54" s="97">
         <f t="shared" si="81"/>
-        <v>4761</v>
+        <v>7261</v>
       </c>
       <c r="AO54" s="97">
         <f t="shared" si="81"/>
-        <v>4781</v>
+        <v>7281</v>
       </c>
       <c r="AP54" s="135">
         <f t="shared" si="81"/>
-        <v>56052</v>
+        <v>86052</v>
       </c>
       <c r="AQ54" s="97">
         <f t="shared" si="81"/>
-        <v>4801</v>
+        <v>7301</v>
       </c>
       <c r="AR54" s="97">
         <f t="shared" si="81"/>
-        <v>4821</v>
+        <v>7321</v>
       </c>
       <c r="AS54" s="97">
         <f t="shared" si="81"/>
-        <v>4841</v>
+        <v>7341</v>
       </c>
       <c r="AT54" s="97">
         <f t="shared" si="81"/>
-        <v>4861</v>
+        <v>7361</v>
       </c>
       <c r="AU54" s="97">
         <f t="shared" si="81"/>
-        <v>4881</v>
+        <v>7381</v>
       </c>
       <c r="AV54" s="97">
         <f t="shared" si="81"/>
-        <v>4901</v>
+        <v>7401</v>
       </c>
       <c r="AW54" s="97">
         <f t="shared" si="81"/>
-        <v>4921</v>
+        <v>7421</v>
       </c>
       <c r="AX54" s="97">
         <f t="shared" si="81"/>
-        <v>4941</v>
+        <v>7441</v>
       </c>
       <c r="AY54" s="97">
         <f t="shared" si="81"/>
-        <v>4961</v>
+        <v>7461</v>
       </c>
       <c r="AZ54" s="97">
         <f t="shared" si="81"/>
-        <v>4981</v>
+        <v>7481</v>
       </c>
       <c r="BA54" s="97">
         <f t="shared" si="81"/>
-        <v>5001</v>
+        <v>7501</v>
       </c>
       <c r="BB54" s="97">
         <f t="shared" si="81"/>
-        <v>5021</v>
+        <v>7521</v>
       </c>
       <c r="BC54" s="135">
         <f t="shared" si="81"/>
-        <v>58932</v>
+        <v>88932</v>
       </c>
       <c r="BD54" s="97">
         <f t="shared" si="81"/>
-        <v>5041</v>
+        <v>7541</v>
       </c>
       <c r="BE54" s="97">
         <f t="shared" si="81"/>
-        <v>5061</v>
+        <v>7561</v>
       </c>
       <c r="BF54" s="97">
         <f t="shared" si="81"/>
-        <v>5081</v>
+        <v>7581</v>
       </c>
       <c r="BG54" s="97">
         <f t="shared" si="81"/>
-        <v>5101</v>
+        <v>7601</v>
       </c>
       <c r="BH54" s="97">
         <f t="shared" si="81"/>
-        <v>5121</v>
+        <v>7621</v>
       </c>
       <c r="BI54" s="97">
         <f t="shared" si="81"/>
-        <v>5141</v>
+        <v>7641</v>
       </c>
       <c r="BJ54" s="97">
         <f t="shared" si="81"/>
-        <v>5161</v>
+        <v>7661</v>
       </c>
       <c r="BK54" s="97">
         <f t="shared" si="81"/>
-        <v>5181</v>
+        <v>7681</v>
       </c>
       <c r="BL54" s="97">
         <f t="shared" si="81"/>
-        <v>5201</v>
+        <v>7701</v>
       </c>
       <c r="BM54" s="97">
         <f t="shared" si="81"/>
-        <v>5221</v>
+        <v>7721</v>
       </c>
       <c r="BN54" s="97">
         <f t="shared" si="81"/>
-        <v>5241</v>
+        <v>7741</v>
       </c>
       <c r="BO54" s="97">
         <f t="shared" si="81"/>
-        <v>5261</v>
+        <v>7761</v>
       </c>
       <c r="BP54" s="135">
         <f t="shared" si="81"/>
-        <v>61812</v>
+        <v>91812</v>
       </c>
     </row>
     <row r="55" spans="1:68" s="77" customFormat="1" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15511,263 +15558,263 @@
       <c r="C56" s="96"/>
       <c r="D56" s="97">
         <f t="shared" ref="D56:O56" si="82">+D24-D41-D54</f>
-        <v>-1091</v>
+        <v>-3591</v>
       </c>
       <c r="E56" s="97">
         <f t="shared" si="82"/>
-        <v>-757.96640000000002</v>
+        <v>-2792.192</v>
       </c>
       <c r="F56" s="97">
         <f t="shared" si="82"/>
-        <v>217.06719999999996</v>
+        <v>-1341.1839999999997</v>
       </c>
       <c r="G56" s="97">
         <f t="shared" si="82"/>
-        <v>597.10080000000016</v>
+        <v>-485.17600000000039</v>
       </c>
       <c r="H56" s="97">
         <f t="shared" si="82"/>
-        <v>1572.1343999999999</v>
+        <v>965.83200000000079</v>
       </c>
       <c r="I56" s="97">
         <f t="shared" si="82"/>
-        <v>2571.1679999999997</v>
+        <v>2440.84</v>
       </c>
       <c r="J56" s="97">
         <f t="shared" si="82"/>
-        <v>3570.2016000000003</v>
+        <v>-1032.152</v>
       </c>
       <c r="K56" s="97">
         <f t="shared" si="82"/>
-        <v>4569.2352000000019</v>
+        <v>442.85600000000159</v>
       </c>
       <c r="L56" s="97">
         <f t="shared" si="82"/>
-        <v>5568.2687999999998</v>
+        <v>1917.8640000000014</v>
       </c>
       <c r="M56" s="97">
         <f t="shared" si="82"/>
-        <v>1619.3024000000005</v>
+        <v>2797.8719999999994</v>
       </c>
       <c r="N56" s="97">
         <f t="shared" si="82"/>
-        <v>2618.3359999999993</v>
+        <v>4272.880000000001</v>
       </c>
       <c r="O56" s="97">
         <f t="shared" si="82"/>
-        <v>3617.3696000000018</v>
+        <v>5747.8880000000026</v>
       </c>
       <c r="P56" s="135">
         <f t="shared" si="1"/>
-        <v>24671.217600000004</v>
+        <v>9344.3280000000068</v>
       </c>
       <c r="Q56" s="97">
         <f t="shared" ref="Q56:AB56" si="83">+Q24-Q41-Q54</f>
-        <v>4021.4032000000007</v>
+        <v>6024.8959999999988</v>
       </c>
       <c r="R56" s="97">
         <f t="shared" si="83"/>
-        <v>5020.4367999999995</v>
+        <v>7499.9039999999986</v>
       </c>
       <c r="S56" s="97">
         <f t="shared" si="83"/>
-        <v>6019.4704000000038</v>
+        <v>8974.9120000000039</v>
       </c>
       <c r="T56" s="97">
         <f t="shared" si="83"/>
-        <v>7018.5040000000008</v>
+        <v>9854.9199999999983</v>
       </c>
       <c r="U56" s="97">
         <f t="shared" si="83"/>
-        <v>8017.5375999999997</v>
+        <v>11329.928000000004</v>
       </c>
       <c r="V56" s="97">
         <f t="shared" si="83"/>
-        <v>7818.5712000000021</v>
+        <v>12804.936000000002</v>
       </c>
       <c r="W56" s="97">
         <f t="shared" si="83"/>
-        <v>8817.604800000001</v>
+        <v>13081.944</v>
       </c>
       <c r="X56" s="97">
         <f t="shared" si="83"/>
-        <v>9816.6384000000035</v>
+        <v>14556.951999999997</v>
       </c>
       <c r="Y56" s="97">
         <f t="shared" si="83"/>
-        <v>10220.671999999999</v>
+        <v>16031.96</v>
       </c>
       <c r="Z56" s="97">
         <f t="shared" si="83"/>
-        <v>11219.705599999998</v>
+        <v>16911.968000000001</v>
       </c>
       <c r="AA56" s="97">
         <f t="shared" si="83"/>
-        <v>12218.739200000004</v>
+        <v>18386.976000000006</v>
       </c>
       <c r="AB56" s="97">
         <f t="shared" si="83"/>
-        <v>13217.772799999999</v>
+        <v>19861.983999999997</v>
       </c>
       <c r="AC56" s="135">
         <f t="shared" si="3"/>
-        <v>103427.05600000001</v>
+        <v>155321.27999999997</v>
       </c>
       <c r="AD56" s="97">
         <f t="shared" ref="AD56:AO56" si="84">+AD24-AD41-AD54</f>
-        <v>14216.806400000001</v>
+        <v>20138.991999999998</v>
       </c>
       <c r="AE56" s="97">
         <f t="shared" si="84"/>
-        <v>14017.840000000004</v>
+        <v>21614.000000000007</v>
       </c>
       <c r="AF56" s="97">
         <f t="shared" si="84"/>
-        <v>15016.873599999999</v>
+        <v>23089.008000000002</v>
       </c>
       <c r="AG56" s="97">
         <f t="shared" si="84"/>
-        <v>16015.907199999998</v>
+        <v>23969.016000000007</v>
       </c>
       <c r="AH56" s="97">
         <f t="shared" si="84"/>
-        <v>16419.940800000008</v>
+        <v>25444.024000000005</v>
       </c>
       <c r="AI56" s="97">
         <f t="shared" si="84"/>
-        <v>17418.974399999999</v>
+        <v>26919.031999999999</v>
       </c>
       <c r="AJ56" s="97">
         <f t="shared" si="84"/>
-        <v>18418.008000000002</v>
+        <v>27196.04</v>
       </c>
       <c r="AK56" s="97">
         <f t="shared" si="84"/>
-        <v>19417.0416</v>
+        <v>28671.047999999995</v>
       </c>
       <c r="AL56" s="97">
         <f t="shared" si="84"/>
-        <v>20416.075199999999</v>
+        <v>30146.056000000004</v>
       </c>
       <c r="AM56" s="97">
         <f t="shared" si="84"/>
-        <v>20217.108800000005</v>
+        <v>31026.064000000006</v>
       </c>
       <c r="AN56" s="97">
         <f t="shared" si="84"/>
-        <v>21216.142400000004</v>
+        <v>32501.072000000007</v>
       </c>
       <c r="AO56" s="97">
         <f t="shared" si="84"/>
-        <v>22215.175999999999</v>
+        <v>33976.080000000002</v>
       </c>
       <c r="AP56" s="135">
         <f t="shared" si="4"/>
-        <v>215005.89440000005</v>
+        <v>324690.43200000009</v>
       </c>
       <c r="AQ56" s="97">
         <f t="shared" ref="AQ56:BB56" si="85">+AQ24-AQ41-AQ54</f>
-        <v>22619.209600000002</v>
+        <v>34253.088000000003</v>
       </c>
       <c r="AR56" s="97">
         <f t="shared" si="85"/>
-        <v>23618.243199999997</v>
+        <v>35728.095999999998</v>
       </c>
       <c r="AS56" s="97">
         <f t="shared" si="85"/>
-        <v>24617.276800000007</v>
+        <v>37203.103999999999</v>
       </c>
       <c r="AT56" s="97">
         <f t="shared" si="85"/>
-        <v>25616.310400000006</v>
+        <v>38083.112000000016</v>
       </c>
       <c r="AU56" s="97">
         <f t="shared" si="85"/>
-        <v>26615.343999999997</v>
+        <v>39558.120000000003</v>
       </c>
       <c r="AV56" s="97">
         <f t="shared" si="85"/>
-        <v>26416.3776</v>
+        <v>41033.127999999997</v>
       </c>
       <c r="AW56" s="97">
         <f t="shared" si="85"/>
-        <v>27415.411199999995</v>
+        <v>41310.135999999999</v>
       </c>
       <c r="AX56" s="97">
         <f t="shared" si="85"/>
-        <v>28414.444800000005</v>
+        <v>42785.144</v>
       </c>
       <c r="AY56" s="97">
         <f t="shared" si="85"/>
-        <v>28818.478400000007</v>
+        <v>44260.152000000016</v>
       </c>
       <c r="AZ56" s="97">
         <f t="shared" si="85"/>
-        <v>29817.512000000002</v>
+        <v>45140.160000000011</v>
       </c>
       <c r="BA56" s="97">
         <f t="shared" si="85"/>
-        <v>30816.545599999998</v>
+        <v>46615.167999999998</v>
       </c>
       <c r="BB56" s="97">
         <f t="shared" si="85"/>
-        <v>31815.579199999993</v>
+        <v>48090.175999999999</v>
       </c>
       <c r="BC56" s="135">
         <f t="shared" si="5"/>
-        <v>326600.7328</v>
+        <v>494059.58399999997</v>
       </c>
       <c r="BD56" s="97">
         <f t="shared" ref="BD56:BO56" si="86">+BD24-BD41-BD54</f>
-        <v>32814.612800000003</v>
+        <v>48367.183999999994</v>
       </c>
       <c r="BE56" s="97">
         <f t="shared" si="86"/>
-        <v>32615.646400000005</v>
+        <v>49842.19200000001</v>
       </c>
       <c r="BF56" s="97">
         <f t="shared" si="86"/>
-        <v>33614.680000000008</v>
+        <v>51317.200000000012</v>
       </c>
       <c r="BG56" s="97">
         <f t="shared" si="86"/>
-        <v>34613.713600000003</v>
+        <v>52197.207999999999</v>
       </c>
       <c r="BH56" s="97">
         <f t="shared" si="86"/>
-        <v>35017.747199999998</v>
+        <v>53672.216</v>
       </c>
       <c r="BI56" s="97">
         <f t="shared" si="86"/>
-        <v>36016.7808</v>
+        <v>55147.224000000002</v>
       </c>
       <c r="BJ56" s="97">
         <f t="shared" si="86"/>
-        <v>37015.814399999996</v>
+        <v>55424.232000000018</v>
       </c>
       <c r="BK56" s="97">
         <f t="shared" si="86"/>
-        <v>38014.848000000013</v>
+        <v>56899.240000000013</v>
       </c>
       <c r="BL56" s="97">
         <f t="shared" si="86"/>
-        <v>39013.881600000015</v>
+        <v>58374.248000000021</v>
       </c>
       <c r="BM56" s="97">
         <f t="shared" si="86"/>
-        <v>38814.915199999996</v>
+        <v>59254.255999999994</v>
       </c>
       <c r="BN56" s="97">
         <f t="shared" si="86"/>
-        <v>39813.948799999998</v>
+        <v>60729.263999999996</v>
       </c>
       <c r="BO56" s="97">
         <f t="shared" si="86"/>
-        <v>40812.982400000001</v>
+        <v>62204.272000000012</v>
       </c>
       <c r="BP56" s="135">
         <f t="shared" si="6"/>
-        <v>438179.57120000006</v>
+        <v>663428.73599999992</v>
       </c>
     </row>
     <row r="57" spans="1:68" s="77" customFormat="1" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -15918,259 +15965,259 @@
       <c r="D59" s="112"/>
       <c r="E59" s="112">
         <f t="shared" ref="E59:AJ59" si="87">+E41/E24</f>
-        <v>1.3303298701298703</v>
+        <v>0.96817748917748903</v>
       </c>
       <c r="F59" s="112">
         <f t="shared" si="87"/>
-        <v>0.7613363636363637</v>
+        <v>0.5860887445887446</v>
       </c>
       <c r="G59" s="112">
         <f t="shared" si="87"/>
-        <v>0.73265670995670995</v>
+        <v>0.56604906204906213</v>
       </c>
       <c r="H59" s="112">
         <f t="shared" si="87"/>
-        <v>0.59757824675324678</v>
+        <v>0.47553679653679648</v>
       </c>
       <c r="I59" s="112">
         <f t="shared" si="87"/>
-        <v>0.51546675274370568</v>
+        <v>0.42088831392841741</v>
       </c>
       <c r="J59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4612538049303323</v>
+        <v>0.49203870967741936</v>
       </c>
       <c r="K59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42278570774163987</v>
+        <v>0.45079300827966878</v>
       </c>
       <c r="L59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39407312000000005</v>
+        <v>0.41995819935691314</v>
       </c>
       <c r="M59" s="112">
         <f t="shared" si="87"/>
-        <v>0.47814142705005319</v>
+        <v>0.43142564834641928</v>
       </c>
       <c r="N59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4496381620931717</v>
+        <v>0.40875695335900725</v>
       </c>
       <c r="O59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42637137061721236</v>
+        <v>0.3902386783284742</v>
       </c>
       <c r="P59" s="139">
         <f t="shared" si="87"/>
-        <v>0.49935352769679303</v>
+        <v>0.45406967213114757</v>
       </c>
       <c r="Q59" s="112">
         <f t="shared" si="87"/>
-        <v>0.44649660297239918</v>
+        <v>0.42815633903133909</v>
       </c>
       <c r="R59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42708465116279071</v>
+        <v>0.4110027928371941</v>
       </c>
       <c r="S59" s="112">
         <f t="shared" si="87"/>
-        <v>0.41046851431167641</v>
+        <v>0.39631320524550162</v>
       </c>
       <c r="T59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39608476372112739</v>
+        <v>0.40475458813486981</v>
       </c>
       <c r="U59" s="112">
         <f t="shared" si="87"/>
-        <v>0.3835118347895155</v>
+        <v>0.39230239999999994</v>
       </c>
       <c r="V59" s="112">
         <f t="shared" si="87"/>
-        <v>0.42837795628619463</v>
+        <v>0.38132179149416634</v>
       </c>
       <c r="W59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4154054320987654</v>
+        <v>0.40704382847666432</v>
       </c>
       <c r="X59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40380664773676295</v>
+        <v>0.39644474363289578</v>
       </c>
       <c r="Y59" s="112">
         <f t="shared" si="87"/>
-        <v>0.4169704949238579</v>
+        <v>0.38690963341858486</v>
       </c>
       <c r="Z59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40640743090167658</v>
+        <v>0.39337980720446469</v>
       </c>
       <c r="AA59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39680962813490916</v>
+        <v>0.3848543482471431</v>
       </c>
       <c r="AB59" s="112">
         <f t="shared" si="87"/>
-        <v>0.38805055823569956</v>
+        <v>0.37707270538112442</v>
       </c>
       <c r="AC59" s="139">
         <f t="shared" si="87"/>
-        <v>0.40805945144999856</v>
+        <v>0.39455187960762811</v>
       </c>
       <c r="AD59" s="112">
         <f t="shared" si="87"/>
-        <v>0.38002488114104599</v>
+        <v>0.39652129925452612</v>
       </c>
       <c r="AE59" s="112">
         <f t="shared" si="87"/>
-        <v>0.41060844213461778</v>
+        <v>0.388895987733197</v>
       </c>
       <c r="AF59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40233141603704609</v>
+        <v>0.38185896805896802</v>
       </c>
       <c r="AG59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39467009269036729</v>
+        <v>0.38707483636937146</v>
       </c>
       <c r="AH59" s="112">
         <f t="shared" si="87"/>
-        <v>0.40438515837104061</v>
+        <v>0.38060705596107053</v>
       </c>
       <c r="AI59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39718318226493393</v>
+        <v>0.37458650811128241</v>
       </c>
       <c r="AJ59" s="112">
         <f t="shared" si="87"/>
-        <v>0.39046316233903317</v>
+        <v>0.39021853270895412</v>
       </c>
       <c r="AK59" s="112">
         <f t="shared" ref="AK59:BP59" si="88">+AK41/AK24</f>
-        <v>0.38417828618118677</v>
+        <v>0.38427655338139377</v>
       </c>
       <c r="AL59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37828761377127029</v>
+        <v>0.37870683692471402</v>
       </c>
       <c r="AM59" s="112">
         <f t="shared" si="88"/>
-        <v>0.40148420143884889</v>
+        <v>0.38306790481717934</v>
       </c>
       <c r="AN59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39543049711413147</v>
+        <v>0.37786218550506945</v>
       </c>
       <c r="AO59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3897238448322633</v>
+        <v>0.37295458690497901</v>
       </c>
       <c r="AP59" s="139">
         <f t="shared" si="88"/>
-        <v>0.39380178555454176</v>
+        <v>0.3825353393224375</v>
       </c>
       <c r="AQ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.397411005625879</v>
+        <v>0.386021158392435</v>
       </c>
       <c r="AR59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3919600786795519</v>
+        <v>0.38115841527226729</v>
       </c>
       <c r="AS59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38679690258118232</v>
+        <v>0.37655212182286418</v>
       </c>
       <c r="AT59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38189927800762552</v>
+        <v>0.38029629629629619</v>
       </c>
       <c r="AU59" s="112">
         <f t="shared" si="88"/>
-        <v>0.3772472318886429</v>
+        <v>0.3759423526909168</v>
       </c>
       <c r="AV59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39593053005169354</v>
+        <v>0.37180119325551236</v>
       </c>
       <c r="AW59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39116562735351718</v>
+        <v>0.38302522029778185</v>
       </c>
       <c r="AX59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38662293490253768</v>
+        <v>0.37891200474847903</v>
       </c>
       <c r="AY59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39297947096032199</v>
+        <v>0.37498607888631086</v>
       </c>
       <c r="AZ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38859877714526675</v>
+        <v>0.37826504088094898</v>
       </c>
       <c r="BA59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38440901966176272</v>
+        <v>0.3745241793804901</v>
       </c>
       <c r="BB59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38039798156496002</v>
+        <v>0.37094276277091537</v>
       </c>
       <c r="BC59" s="139">
         <f t="shared" si="88"/>
-        <v>0.38778673475869263</v>
+        <v>0.37748094615719746</v>
       </c>
       <c r="BD59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37655446640316209</v>
+        <v>0.38077946127946133</v>
       </c>
       <c r="BE59" s="112">
         <f t="shared" si="88"/>
-        <v>0.39219451506743241</v>
+        <v>0.37721659506140692</v>
       </c>
       <c r="BF59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38826862273934482</v>
+        <v>0.37379646168240194</v>
       </c>
       <c r="BG59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38449703056227141</v>
+        <v>0.37671244527829895</v>
       </c>
       <c r="BH59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38991446984435801</v>
+        <v>0.37343375858684985</v>
       </c>
       <c r="BI59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38625438711601551</v>
+        <v>0.37027897460584908</v>
       </c>
       <c r="BJ59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38273014869453231</v>
+        <v>0.37903346720214182</v>
       </c>
       <c r="BK59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37933432955917001</v>
+        <v>0.37589160771579883</v>
       </c>
       <c r="BL59" s="112">
         <f t="shared" si="88"/>
-        <v>0.37606003612553618</v>
+        <v>0.37286211085801058</v>
       </c>
       <c r="BM59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38950929961736824</v>
+        <v>0.37548715079631501</v>
       </c>
       <c r="BN59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38617235967302455</v>
+        <v>0.37256923979180417</v>
       </c>
       <c r="BO59" s="112">
         <f t="shared" si="88"/>
-        <v>0.38294875448652704</v>
+        <v>0.36975036932944183</v>
       </c>
       <c r="BP59" s="139">
         <f t="shared" si="88"/>
-        <v>0.38449546094680964</v>
+        <v>0.37469718827620474</v>
       </c>
     </row>
     <row r="60" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16181,259 +16228,259 @@
       <c r="D60" s="112"/>
       <c r="E60" s="112">
         <f t="shared" ref="E60:BO60" si="89">1-E59</f>
-        <v>-0.33032987012987025</v>
+        <v>3.1822510822510974E-2</v>
       </c>
       <c r="F60" s="112">
         <f t="shared" si="89"/>
-        <v>0.2386636363636363</v>
+        <v>0.4139112554112554</v>
       </c>
       <c r="G60" s="112">
         <f t="shared" si="89"/>
-        <v>0.26734329004329005</v>
+        <v>0.43395093795093787</v>
       </c>
       <c r="H60" s="112">
         <f t="shared" si="89"/>
-        <v>0.40242175324675322</v>
+        <v>0.52446320346320352</v>
       </c>
       <c r="I60" s="112">
         <f>1-I59</f>
-        <v>0.48453324725629432</v>
+        <v>0.57911168607158259</v>
       </c>
       <c r="J60" s="112">
         <f t="shared" si="89"/>
-        <v>0.5387461950696677</v>
+        <v>0.50796129032258064</v>
       </c>
       <c r="K60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57721429225836007</v>
+        <v>0.54920699172033127</v>
       </c>
       <c r="L60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60592687999999995</v>
+        <v>0.58004180064308686</v>
       </c>
       <c r="M60" s="112">
         <f t="shared" si="89"/>
-        <v>0.52185857294994675</v>
+        <v>0.56857435165358072</v>
       </c>
       <c r="N60" s="112">
         <f t="shared" si="89"/>
-        <v>0.55036183790682824</v>
+        <v>0.59124304664099281</v>
       </c>
       <c r="O60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57362862938278769</v>
+        <v>0.60976132167152586</v>
       </c>
       <c r="P60" s="139">
         <f t="shared" ref="P60" si="90">1-P59</f>
-        <v>0.50064647230320691</v>
+        <v>0.54593032786885243</v>
       </c>
       <c r="Q60" s="112">
         <f t="shared" si="89"/>
-        <v>0.55350339702760087</v>
+        <v>0.57184366096866091</v>
       </c>
       <c r="R60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57291534883720929</v>
+        <v>0.5889972071628059</v>
       </c>
       <c r="S60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58953148568832359</v>
+        <v>0.60368679475449838</v>
       </c>
       <c r="T60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60391523627887267</v>
+        <v>0.59524541186513025</v>
       </c>
       <c r="U60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61648816521048455</v>
+        <v>0.60769760000000006</v>
       </c>
       <c r="V60" s="112">
         <f t="shared" si="89"/>
-        <v>0.57162204371380532</v>
+        <v>0.61867820850583366</v>
       </c>
       <c r="W60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58459456790123454</v>
+        <v>0.59295617152333568</v>
       </c>
       <c r="X60" s="112">
         <f t="shared" si="89"/>
-        <v>0.596193352263237</v>
+        <v>0.60355525636710428</v>
       </c>
       <c r="Y60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58302950507614204</v>
+        <v>0.61309036658141514</v>
       </c>
       <c r="Z60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59359256909832347</v>
+        <v>0.60662019279553525</v>
       </c>
       <c r="AA60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60319037186509084</v>
+        <v>0.61514565175285685</v>
       </c>
       <c r="AB60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61194944176430044</v>
+        <v>0.62292729461887553</v>
       </c>
       <c r="AC60" s="139">
         <f t="shared" si="89"/>
-        <v>0.59194054855000144</v>
+        <v>0.60544812039237184</v>
       </c>
       <c r="AD60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61997511885895396</v>
+        <v>0.60347870074547383</v>
       </c>
       <c r="AE60" s="112">
         <f t="shared" si="89"/>
-        <v>0.58939155786538222</v>
+        <v>0.611104012266803</v>
       </c>
       <c r="AF60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59766858396295386</v>
+        <v>0.61814103194103198</v>
       </c>
       <c r="AG60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60532990730963276</v>
+        <v>0.61292516363062854</v>
       </c>
       <c r="AH60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59561484162895939</v>
+        <v>0.61939294403892942</v>
       </c>
       <c r="AI60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60281681773506612</v>
+        <v>0.62541349188871753</v>
       </c>
       <c r="AJ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60953683766096689</v>
+        <v>0.60978146729104588</v>
       </c>
       <c r="AK60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61582171381881323</v>
+        <v>0.61572344661860623</v>
       </c>
       <c r="AL60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62171238622872971</v>
+        <v>0.62129316307528604</v>
       </c>
       <c r="AM60" s="112">
         <f t="shared" si="89"/>
-        <v>0.59851579856115111</v>
+        <v>0.61693209518282066</v>
       </c>
       <c r="AN60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60456950288586853</v>
+        <v>0.62213781449493055</v>
       </c>
       <c r="AO60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6102761551677367</v>
+        <v>0.62704541309502093</v>
       </c>
       <c r="AP60" s="139">
         <f t="shared" ref="AP60" si="91">1-AP59</f>
-        <v>0.60619821444545829</v>
+        <v>0.61746466067756245</v>
       </c>
       <c r="AQ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60258899437412095</v>
+        <v>0.613978841607565</v>
       </c>
       <c r="AR60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60803992132044815</v>
+        <v>0.61884158472773265</v>
       </c>
       <c r="AS60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61320309741881762</v>
+        <v>0.62344787817713576</v>
       </c>
       <c r="AT60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61810072199237442</v>
+        <v>0.61970370370370387</v>
       </c>
       <c r="AU60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62275276811135716</v>
+        <v>0.6240576473090832</v>
       </c>
       <c r="AV60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60406946994830646</v>
+        <v>0.62819880674448769</v>
       </c>
       <c r="AW60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60883437264648288</v>
+        <v>0.61697477970221815</v>
       </c>
       <c r="AX60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61337706509746237</v>
+        <v>0.62108799525152092</v>
       </c>
       <c r="AY60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60702052903967796</v>
+        <v>0.62501392111368914</v>
       </c>
       <c r="AZ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6114012228547332</v>
+        <v>0.62173495911905108</v>
       </c>
       <c r="BA60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61559098033823734</v>
+        <v>0.6254758206195099</v>
       </c>
       <c r="BB60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61960201843503993</v>
+        <v>0.62905723722908458</v>
       </c>
       <c r="BC60" s="139">
         <f t="shared" si="89"/>
-        <v>0.61221326524130737</v>
+        <v>0.62251905384280248</v>
       </c>
       <c r="BD60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62344553359683785</v>
+        <v>0.61922053872053873</v>
       </c>
       <c r="BE60" s="112">
         <f t="shared" si="89"/>
-        <v>0.60780548493256759</v>
+        <v>0.62278340493859308</v>
       </c>
       <c r="BF60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61173137726065518</v>
+        <v>0.62620353831759812</v>
       </c>
       <c r="BG60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61550296943772853</v>
+        <v>0.62328755472170105</v>
       </c>
       <c r="BH60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61008553015564204</v>
+        <v>0.62656624141315009</v>
       </c>
       <c r="BI60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61374561288398444</v>
+        <v>0.62972102539415098</v>
       </c>
       <c r="BJ60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61726985130546774</v>
+        <v>0.62096653279785818</v>
       </c>
       <c r="BK60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62066567044082999</v>
+        <v>0.62410839228420123</v>
       </c>
       <c r="BL60" s="112">
         <f t="shared" si="89"/>
-        <v>0.62393996387446382</v>
+        <v>0.62713788914198942</v>
       </c>
       <c r="BM60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61049070038263176</v>
+        <v>0.62451284920368499</v>
       </c>
       <c r="BN60" s="112">
         <f t="shared" si="89"/>
-        <v>0.61382764032697545</v>
+        <v>0.62743076020819588</v>
       </c>
       <c r="BO60" s="112">
         <f t="shared" si="89"/>
-        <v>0.6170512455134729</v>
+        <v>0.63024963067055817</v>
       </c>
       <c r="BP60" s="139">
         <f t="shared" ref="BP60" si="92">1-BP59</f>
-        <v>0.61550453905319036</v>
+        <v>0.62530281172379532</v>
       </c>
     </row>
     <row r="61" spans="1:68" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16444,259 +16491,259 @@
       <c r="D61" s="112"/>
       <c r="E61" s="112">
         <f t="shared" ref="E61:AJ61" si="93">E56/E24</f>
-        <v>-0.61523246753246752</v>
+        <v>-1.5109264069264068</v>
       </c>
       <c r="F61" s="112">
         <f t="shared" si="93"/>
-        <v>8.8095454545454532E-2</v>
+        <v>-0.36287445887445874</v>
       </c>
       <c r="G61" s="112">
         <f t="shared" si="93"/>
-        <v>0.16155324675324678</v>
+        <v>-8.7513708513708585E-2</v>
       </c>
       <c r="H61" s="112">
         <f t="shared" si="93"/>
-        <v>0.3190207792207792</v>
+        <v>0.130659090909091</v>
       </c>
       <c r="I61" s="112">
         <f t="shared" si="93"/>
-        <v>0.41497224015493861</v>
+        <v>0.26313497197067703</v>
       </c>
       <c r="J61" s="112">
         <f t="shared" si="93"/>
-        <v>0.47832282958199357</v>
+        <v>-9.2486738351254483E-2</v>
       </c>
       <c r="K61" s="112">
         <f t="shared" si="93"/>
-        <v>0.52327475950526814</v>
+        <v>3.3950935295921615E-2</v>
       </c>
       <c r="L61" s="112">
         <f t="shared" si="93"/>
-        <v>0.55682688000000002</v>
+        <v>0.12847427652733126</v>
       </c>
       <c r="M61" s="112">
         <f t="shared" si="93"/>
-        <v>0.14370805821796243</v>
+        <v>0.16642112776588147</v>
       </c>
       <c r="N61" s="112">
         <f t="shared" si="93"/>
-        <v>0.20886534779834073</v>
+        <v>0.22854514334617035</v>
       </c>
       <c r="O61" s="112">
         <f t="shared" si="93"/>
-        <v>0.26205227470298476</v>
+        <v>0.27929484936831883</v>
       </c>
       <c r="P61" s="139">
         <f t="shared" si="93"/>
-        <v>0.29969895043731781</v>
+        <v>7.5984972677595686E-2</v>
       </c>
       <c r="Q61" s="112">
         <f t="shared" si="93"/>
-        <v>0.2668128450106157</v>
+        <v>0.26820227920227913</v>
       </c>
       <c r="R61" s="112">
         <f t="shared" si="93"/>
-        <v>0.30724827417380657</v>
+        <v>0.30802957121734842</v>
       </c>
       <c r="S61" s="112">
         <f t="shared" si="93"/>
-        <v>0.34185997273966395</v>
+        <v>0.34213601707837765</v>
       </c>
       <c r="T61" s="112">
         <f t="shared" si="93"/>
-        <v>0.37182157236702695</v>
+        <v>0.35050931853748751</v>
       </c>
       <c r="U61" s="112">
         <f t="shared" si="93"/>
-        <v>0.39801119936457502</v>
+        <v>0.37766426666666675</v>
       </c>
       <c r="V61" s="112">
         <f t="shared" si="93"/>
-        <v>0.36514903792266024</v>
+        <v>0.40161008656379377</v>
       </c>
       <c r="W61" s="112">
         <f t="shared" si="93"/>
-        <v>0.38878328042328048</v>
+        <v>0.38740653873489694</v>
       </c>
       <c r="X61" s="112">
         <f t="shared" si="93"/>
-        <v>0.40991474862201444</v>
+        <v>0.40830674295972169</v>
       </c>
       <c r="Y61" s="112">
         <f t="shared" si="93"/>
-        <v>0.40532487309644666</v>
+        <v>0.42710890878090363</v>
       </c>
       <c r="Z61" s="112">
         <f t="shared" si="93"/>
-        <v>0.42364090016613792</v>
+        <v>0.4290199898528666</v>
       </c>
       <c r="AA61" s="112">
         <f t="shared" si="93"/>
-        <v>0.44028319400403582</v>
+        <v>0.44516211504938996</v>
       </c>
       <c r="AB61" s="112">
         <f t="shared" si="93"/>
-        <v>0.45547115093039281</v>
+        <v>0.4598958970084282</v>
       </c>
       <c r="AC61" s="139">
         <f t="shared" si="93"/>
-        <v>0.39095170703680188</v>
+        <v>0.39430451471394617</v>
       </c>
       <c r="AD61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46938742736397254</v>
+        <v>0.44681824636137729</v>
       </c>
       <c r="AE61" s="112">
         <f t="shared" si="93"/>
-        <v>0.4442210673089112</v>
+        <v>0.46030326262884413</v>
       </c>
       <c r="AF61" s="112">
         <f t="shared" si="93"/>
-        <v>0.45749675846941257</v>
+        <v>0.47274791154791157</v>
       </c>
       <c r="AG61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46978491141616796</v>
+        <v>0.47253797019162536</v>
       </c>
       <c r="AH61" s="112">
         <f t="shared" si="93"/>
-        <v>0.46436484162895941</v>
+        <v>0.48365313260340637</v>
       </c>
       <c r="AI61" s="112">
         <f t="shared" si="93"/>
-        <v>0.47556444250300317</v>
+        <v>0.49399970637891799</v>
       </c>
       <c r="AJ61" s="112">
         <f t="shared" si="93"/>
-        <v>0.48601456618112732</v>
+        <v>0.48240456932027814</v>
       </c>
       <c r="AK61" s="112">
         <f t="shared" ref="AK61:BP61" si="94">AK56/AK24</f>
-        <v>0.49578800939638445</v>
+        <v>0.49212234809474759</v>
       </c>
       <c r="AL61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5049484368816779</v>
+        <v>0.50123131151902101</v>
       </c>
       <c r="AM61" s="112">
         <f t="shared" si="94"/>
-        <v>0.48482275299760197</v>
+        <v>0.50019449280969885</v>
       </c>
       <c r="AN61" s="112">
         <f t="shared" si="94"/>
-        <v>0.49376611431763173</v>
+        <v>0.50852847665540124</v>
       </c>
       <c r="AO61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50219676281761461</v>
+        <v>0.5163851905890936</v>
       </c>
       <c r="AP61" s="139">
         <f t="shared" si="94"/>
-        <v>0.48084262430000191</v>
+        <v>0.48810361871775459</v>
       </c>
       <c r="AQ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.49708178621659638</v>
+        <v>0.50610354609929087</v>
       </c>
       <c r="AR61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50496543230992896</v>
+        <v>0.51360036800644004</v>
       </c>
       <c r="AS61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51243290591174029</v>
+        <v>0.52070182510357177</v>
       </c>
       <c r="AT61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51951631378275331</v>
+        <v>0.51932460590192564</v>
       </c>
       <c r="AU61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5262445428661815</v>
+        <v>0.5259269304403319</v>
       </c>
       <c r="AV61" s="112">
         <f t="shared" si="94"/>
-        <v>0.50953586914589921</v>
+        <v>0.53220658884565497</v>
       </c>
       <c r="AW61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51618111161319469</v>
+        <v>0.52301904183125691</v>
       </c>
       <c r="AX61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52251645457888929</v>
+        <v>0.52907384874115848</v>
       </c>
       <c r="AY61" s="112">
         <f t="shared" si="94"/>
-        <v>0.51787087406555499</v>
+        <v>0.53485295823665902</v>
       </c>
       <c r="AZ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52388628856560548</v>
+        <v>0.53334467602438684</v>
       </c>
       <c r="BA61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52963951601814929</v>
+        <v>0.53877910309754973</v>
       </c>
       <c r="BB61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53514733230168865</v>
+        <v>0.54398190127143564</v>
       </c>
       <c r="BC61" s="139">
         <f t="shared" si="94"/>
-        <v>0.51863119275378888</v>
+        <v>0.52755736654621865</v>
       </c>
       <c r="BD61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54042511198945975</v>
+        <v>0.53569891901470845</v>
       </c>
       <c r="BE61" s="112">
         <f t="shared" si="94"/>
-        <v>0.52616065044847393</v>
+        <v>0.54075198541856528</v>
       </c>
       <c r="BF61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53140698115593787</v>
+        <v>0.54560261971591395</v>
       </c>
       <c r="BG61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53644711425206126</v>
+        <v>0.54406095476339378</v>
       </c>
       <c r="BH61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53224931906614781</v>
+        <v>0.54866102387962057</v>
       </c>
       <c r="BI61" s="112">
         <f t="shared" si="94"/>
-        <v>0.5370829227557411</v>
+        <v>0.55308725478396925</v>
       </c>
       <c r="BJ61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54173712680014041</v>
+        <v>0.54555705173635727</v>
       </c>
       <c r="BK61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54622173688143005</v>
+        <v>0.54987861919672198</v>
       </c>
       <c r="BL61" s="112">
         <f t="shared" si="94"/>
-        <v>0.55054585685256274</v>
+        <v>0.55404563401670481</v>
       </c>
       <c r="BM61" s="112">
         <f t="shared" si="94"/>
-        <v>0.53810951034215049</v>
+        <v>0.5525181455372794</v>
       </c>
       <c r="BN61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54242437057220705</v>
+        <v>0.55649571145810417</v>
       </c>
       <c r="BO61" s="112">
         <f t="shared" si="94"/>
-        <v>0.54659268227353086</v>
+        <v>0.56033826973660505</v>
       </c>
       <c r="BP61" s="139">
         <f t="shared" si="94"/>
-        <v>0.53941212318176901</v>
+        <v>0.54928691505216087</v>
       </c>
     </row>
     <row r="62" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16707,259 +16754,259 @@
       <c r="D62" s="113"/>
       <c r="E62" s="113">
         <f t="shared" ref="E62:O62" si="95">+E24/E4</f>
-        <v>1232</v>
+        <v>1848.0000000000002</v>
       </c>
       <c r="F62" s="113">
         <f t="shared" si="95"/>
-        <v>2464</v>
+        <v>3696.0000000000005</v>
       </c>
       <c r="G62" s="114">
         <f t="shared" si="95"/>
-        <v>3696.0000000000005</v>
+        <v>5544</v>
       </c>
       <c r="H62" s="114">
         <f t="shared" si="95"/>
-        <v>4928</v>
+        <v>7392.0000000000009</v>
       </c>
       <c r="I62" s="114">
         <f t="shared" si="95"/>
-        <v>6196</v>
+        <v>9276</v>
       </c>
       <c r="J62" s="114">
         <f t="shared" si="95"/>
-        <v>7464.0000000000009</v>
+        <v>5580</v>
       </c>
       <c r="K62" s="114">
         <f t="shared" si="95"/>
-        <v>8732.0000000000018</v>
+        <v>6522.0000000000009</v>
       </c>
       <c r="L62" s="114">
         <f t="shared" si="95"/>
-        <v>10000</v>
+        <v>7464.0000000000009</v>
       </c>
       <c r="M62" s="114">
         <f t="shared" si="95"/>
-        <v>5634</v>
+        <v>8406</v>
       </c>
       <c r="N62" s="114">
         <f t="shared" si="95"/>
-        <v>6268</v>
+        <v>9348</v>
       </c>
       <c r="O62" s="114">
         <f t="shared" si="95"/>
-        <v>6902.0000000000009</v>
+        <v>10290.000000000002</v>
       </c>
       <c r="P62" s="140">
         <f>AVERAGE(D62:O62)</f>
-        <v>5774.181818181818</v>
+        <v>6851.454545454545</v>
       </c>
       <c r="Q62" s="114">
         <f t="shared" ref="Q62:AV62" si="96">+Q24/Q4</f>
-        <v>7536.0000000000009</v>
+        <v>7488</v>
       </c>
       <c r="R62" s="114">
         <f t="shared" si="96"/>
-        <v>8170</v>
+        <v>8116</v>
       </c>
       <c r="S62" s="114">
         <f t="shared" si="96"/>
-        <v>8804.0000000000018</v>
+        <v>8744.0000000000018</v>
       </c>
       <c r="T62" s="114">
         <f t="shared" si="96"/>
-        <v>9438</v>
+        <v>9372</v>
       </c>
       <c r="U62" s="114">
         <f t="shared" si="96"/>
-        <v>10072</v>
+        <v>10000.000000000002</v>
       </c>
       <c r="V62" s="114">
         <f t="shared" si="96"/>
-        <v>7137.3333333333348</v>
+        <v>10628.000000000002</v>
       </c>
       <c r="W62" s="114">
         <f t="shared" si="96"/>
-        <v>7560</v>
+        <v>8442</v>
       </c>
       <c r="X62" s="114">
         <f t="shared" si="96"/>
-        <v>7982.6666666666679</v>
+        <v>8913</v>
       </c>
       <c r="Y62" s="114">
         <f t="shared" si="96"/>
-        <v>8405.3333333333339</v>
+        <v>9384</v>
       </c>
       <c r="Z62" s="114">
         <f t="shared" si="96"/>
-        <v>8828</v>
+        <v>9855</v>
       </c>
       <c r="AA62" s="114">
         <f t="shared" si="96"/>
-        <v>9250.6666666666679</v>
+        <v>10326.000000000002</v>
       </c>
       <c r="AB62" s="114">
         <f t="shared" si="96"/>
-        <v>9673.3333333333339</v>
+        <v>10797</v>
       </c>
       <c r="AC62" s="140">
         <f>AVERAGE(Q62:AB62)</f>
-        <v>8571.4444444444434</v>
+        <v>9338.75</v>
       </c>
       <c r="AD62" s="114">
         <f t="shared" si="96"/>
-        <v>10096.000000000002</v>
+        <v>9014.4</v>
       </c>
       <c r="AE62" s="114">
         <f t="shared" si="96"/>
-        <v>7889.0000000000009</v>
+        <v>9391.2000000000007</v>
       </c>
       <c r="AF62" s="114">
         <f t="shared" si="96"/>
-        <v>8206</v>
+        <v>9768</v>
       </c>
       <c r="AG62" s="114">
         <f t="shared" si="96"/>
-        <v>8523</v>
+        <v>10144.800000000001</v>
       </c>
       <c r="AH62" s="114">
         <f t="shared" si="96"/>
-        <v>8840.0000000000018</v>
+        <v>10521.600000000002</v>
       </c>
       <c r="AI62" s="114">
         <f t="shared" si="96"/>
-        <v>9157</v>
+        <v>10898.4</v>
       </c>
       <c r="AJ62" s="114">
         <f t="shared" si="96"/>
-        <v>9474</v>
+        <v>9396</v>
       </c>
       <c r="AK62" s="114">
         <f t="shared" si="96"/>
-        <v>9791</v>
+        <v>9710</v>
       </c>
       <c r="AL62" s="114">
         <f t="shared" si="96"/>
-        <v>10108</v>
+        <v>10024.000000000002</v>
       </c>
       <c r="AM62" s="114">
         <f t="shared" si="96"/>
-        <v>8340.0000000000018</v>
+        <v>10338.000000000002</v>
       </c>
       <c r="AN62" s="114">
         <f t="shared" si="96"/>
-        <v>8593.6000000000022</v>
+        <v>10652.000000000002</v>
       </c>
       <c r="AO62" s="114">
         <f t="shared" si="96"/>
-        <v>8847.2000000000007</v>
+        <v>10966</v>
       </c>
       <c r="AP62" s="140">
         <f>AVERAGE(AD62:AO62)</f>
-        <v>8988.7333333333336</v>
+        <v>10068.699999999999</v>
       </c>
       <c r="AQ62" s="114">
         <f t="shared" si="96"/>
-        <v>9100.7999999999993</v>
+        <v>9668.5714285714294</v>
       </c>
       <c r="AR62" s="114">
         <f t="shared" si="96"/>
-        <v>9354.4</v>
+        <v>9937.7142857142862</v>
       </c>
       <c r="AS62" s="114">
         <f t="shared" si="96"/>
-        <v>9608.0000000000018</v>
+        <v>10206.857142857143</v>
       </c>
       <c r="AT62" s="114">
         <f t="shared" si="96"/>
-        <v>9861.6000000000022</v>
+        <v>10476.000000000002</v>
       </c>
       <c r="AU62" s="114">
         <f t="shared" si="96"/>
-        <v>10115.200000000001</v>
+        <v>10745.142857142857</v>
       </c>
       <c r="AV62" s="114">
         <f t="shared" si="96"/>
-        <v>8640.6666666666661</v>
+        <v>11014.285714285714</v>
       </c>
       <c r="AW62" s="114">
         <f t="shared" ref="AW62:BO62" si="97">+AW24/AW4</f>
-        <v>8852</v>
+        <v>9873</v>
       </c>
       <c r="AX62" s="114">
         <f t="shared" si="97"/>
-        <v>9063.3333333333339</v>
+        <v>10108.5</v>
       </c>
       <c r="AY62" s="114">
         <f t="shared" si="97"/>
-        <v>9274.6666666666679</v>
+        <v>10344.000000000002</v>
       </c>
       <c r="AZ62" s="114">
         <f t="shared" si="97"/>
-        <v>9486.0000000000018</v>
+        <v>10579.500000000002</v>
       </c>
       <c r="BA62" s="114">
         <f t="shared" si="97"/>
-        <v>9697.3333333333339</v>
+        <v>10815</v>
       </c>
       <c r="BB62" s="114">
         <f t="shared" si="97"/>
-        <v>9908.6666666666661</v>
+        <v>11050.5</v>
       </c>
       <c r="BC62" s="140">
         <f>AVERAGE(AQ62:BB62)</f>
-        <v>9413.5555555555566</v>
+        <v>10401.589285714286</v>
       </c>
       <c r="BD62" s="114">
         <f t="shared" si="97"/>
-        <v>10120.000000000002</v>
+        <v>10032</v>
       </c>
       <c r="BE62" s="114">
         <f t="shared" si="97"/>
-        <v>8855.4285714285725</v>
+        <v>10241.333333333336</v>
       </c>
       <c r="BF62" s="114">
         <f t="shared" si="97"/>
-        <v>9036.5714285714294</v>
+        <v>10450.666666666668</v>
       </c>
       <c r="BG62" s="114">
         <f t="shared" si="97"/>
-        <v>9217.7142857142862</v>
+        <v>10660</v>
       </c>
       <c r="BH62" s="114">
         <f t="shared" si="97"/>
-        <v>9398.8571428571431</v>
+        <v>10869.333333333334</v>
       </c>
       <c r="BI62" s="114">
         <f t="shared" si="97"/>
-        <v>9580</v>
+        <v>11078.666666666666</v>
       </c>
       <c r="BJ62" s="114">
         <f t="shared" si="97"/>
-        <v>9761.1428571428569</v>
+        <v>10159.200000000001</v>
       </c>
       <c r="BK62" s="114">
         <f t="shared" si="97"/>
-        <v>9942.2857142857156</v>
+        <v>10347.600000000002</v>
       </c>
       <c r="BL62" s="114">
         <f t="shared" si="97"/>
-        <v>10123.428571428574</v>
+        <v>10536.000000000002</v>
       </c>
       <c r="BM62" s="114">
         <f t="shared" si="97"/>
-        <v>9016.5</v>
+        <v>10724.4</v>
       </c>
       <c r="BN62" s="114">
         <f t="shared" si="97"/>
-        <v>9175</v>
+        <v>10912.8</v>
       </c>
       <c r="BO62" s="114">
         <f t="shared" si="97"/>
-        <v>9333.5</v>
+        <v>11101.2</v>
       </c>
       <c r="BP62" s="140">
         <f>AVERAGE(BD62:BO62)</f>
-        <v>9463.3690476190477</v>
+        <v>10592.766666666666</v>
       </c>
     </row>
     <row r="63" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16970,259 +17017,259 @@
       <c r="D63" s="113"/>
       <c r="E63" s="113">
         <f t="shared" ref="E63:AJ63" si="98">+E24/E3</f>
-        <v>56.994818652849744</v>
+        <v>66.956521739130437</v>
       </c>
       <c r="F63" s="113">
         <f t="shared" si="98"/>
-        <v>74.145402022147323</v>
+        <v>81.769911504424783</v>
       </c>
       <c r="G63" s="113">
         <f t="shared" si="98"/>
-        <v>82.411701748127001</v>
+        <v>88.280254777070056</v>
       </c>
       <c r="H63" s="113">
         <f t="shared" si="98"/>
-        <v>87.276848965712659</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="I63" s="113">
         <f t="shared" si="98"/>
-        <v>91.010575793184472</v>
+        <v>94.65306122448979</v>
       </c>
       <c r="J63" s="113">
         <f t="shared" si="98"/>
-        <v>93.655892391086127</v>
+        <v>88.853503184713375</v>
       </c>
       <c r="K63" s="113">
         <f t="shared" si="98"/>
-        <v>95.628175924303491</v>
+        <v>91.089385474860336</v>
       </c>
       <c r="L63" s="113">
         <f t="shared" si="98"/>
-        <v>97.155293020363743</v>
+        <v>92.835820895522389</v>
       </c>
       <c r="M63" s="113">
         <f t="shared" si="98"/>
-        <v>90.474049331962988</v>
+        <v>94.237668161434968</v>
       </c>
       <c r="N63" s="113">
         <f t="shared" si="98"/>
-        <v>92.068155111633359</v>
+        <v>95.387755102040813</v>
       </c>
       <c r="O63" s="113">
         <f t="shared" si="98"/>
-        <v>93.411650064963197</v>
+        <v>96.348314606741582</v>
       </c>
       <c r="P63" s="141">
         <f t="shared" si="98"/>
-        <v>90.795185825715578</v>
+        <v>92.352057674977473</v>
       </c>
       <c r="Q63" s="113">
         <f t="shared" si="98"/>
-        <v>94.559325436659307</v>
+        <v>93.134328358208947</v>
       </c>
       <c r="R63" s="113">
         <f t="shared" si="98"/>
-        <v>95.551085329341305</v>
+        <v>94.080370942812976</v>
       </c>
       <c r="S63" s="113">
         <f t="shared" si="98"/>
-        <v>96.416681268617495</v>
+        <v>94.905933429811867</v>
       </c>
       <c r="T63" s="113">
         <f t="shared" si="98"/>
-        <v>97.17874794069192</v>
+        <v>95.632653061224488</v>
       </c>
       <c r="U63" s="113">
         <f t="shared" si="98"/>
-        <v>97.854811130110363</v>
+        <v>96.277278562259312</v>
       </c>
       <c r="V63" s="113">
         <f t="shared" si="98"/>
-        <v>94.130266582260674</v>
+        <v>96.852976913730259</v>
       </c>
       <c r="W63" s="113">
         <f t="shared" si="98"/>
-        <v>94.860469785183696</v>
+        <v>94.641255605381161</v>
       </c>
       <c r="X63" s="113">
         <f t="shared" si="98"/>
-        <v>95.523007211691876</v>
+        <v>95.224358974358964</v>
       </c>
       <c r="Y63" s="113">
         <f t="shared" si="98"/>
-        <v>96.126867947544966</v>
+        <v>95.755102040816325</v>
       </c>
       <c r="Z63" s="113">
         <f t="shared" si="98"/>
-        <v>96.679516383388801</v>
+        <v>96.240234375</v>
       </c>
       <c r="AA63" s="113">
         <f t="shared" si="98"/>
-        <v>97.187202330923967</v>
+        <v>96.68539325842697</v>
       </c>
       <c r="AB63" s="113">
         <f t="shared" si="98"/>
-        <v>97.65519840628869</v>
+        <v>97.095323741007192</v>
       </c>
       <c r="AC63" s="141">
         <f t="shared" si="98"/>
-        <v>96.223121017254911</v>
+        <v>95.70262390670554</v>
       </c>
       <c r="AD63" s="113">
         <f t="shared" si="98"/>
-        <v>98.087983833359232</v>
+        <v>95.410668924640134</v>
       </c>
       <c r="AE63" s="113">
         <f t="shared" si="98"/>
-        <v>95.508474576271183</v>
+        <v>95.828571428571436</v>
       </c>
       <c r="AF63" s="113">
         <f t="shared" si="98"/>
-        <v>95.97211826347305</v>
+        <v>96.217494089834517</v>
       </c>
       <c r="AG63" s="113">
         <f t="shared" si="98"/>
-        <v>96.405302687539574</v>
+        <v>96.580350342726589</v>
       </c>
       <c r="AH63" s="113">
         <f t="shared" si="98"/>
-        <v>96.81093394077449</v>
+        <v>96.919675755342666</v>
       </c>
       <c r="AI63" s="113">
         <f t="shared" si="98"/>
-        <v>97.1915598199881</v>
+        <v>97.237687366167009</v>
       </c>
       <c r="AJ63" s="113">
         <f t="shared" si="98"/>
-        <v>97.549423393739701</v>
+        <v>95.877551020408163</v>
       </c>
       <c r="AK63" s="113">
         <f t="shared" ref="AK63:BP63" si="99">+AK24/AK3</f>
-        <v>97.886507238262823</v>
+        <v>96.202113606340816</v>
       </c>
       <c r="AL63" s="113">
         <f t="shared" si="99"/>
-        <v>98.204570184983666</v>
+        <v>96.508344030808729</v>
       </c>
       <c r="AM63" s="113">
         <f t="shared" si="99"/>
-        <v>96.231953624044607</v>
+        <v>96.797752808988761</v>
       </c>
       <c r="AN63" s="113">
         <f t="shared" si="99"/>
-        <v>96.569455931532957</v>
+        <v>97.071688942891853</v>
       </c>
       <c r="AO63" s="113">
         <f t="shared" si="99"/>
-        <v>96.889784475205886</v>
+        <v>97.331360946745562</v>
       </c>
       <c r="AP63" s="141">
         <f t="shared" si="99"/>
-        <v>96.950952978969909</v>
+        <v>96.541274817136895</v>
       </c>
       <c r="AQ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.194217559208496</v>
+        <v>96.191017623649799</v>
       </c>
       <c r="AR63" s="113">
         <f t="shared" si="99"/>
-        <v>97.483909694200818</v>
+        <v>96.455906821963382</v>
       </c>
       <c r="AS63" s="113">
         <f t="shared" si="99"/>
-        <v>97.759906228632829</v>
+        <v>96.708175419599343</v>
       </c>
       <c r="AT63" s="113">
         <f t="shared" si="99"/>
-        <v>98.023155952797481</v>
+        <v>96.948704389212068</v>
       </c>
       <c r="AU63" s="113">
         <f t="shared" si="99"/>
-        <v>98.274521995958324</v>
+        <v>97.178294573643413</v>
       </c>
       <c r="AV63" s="113">
         <f t="shared" si="99"/>
-        <v>96.677706170187363</v>
+        <v>97.397675593734206</v>
       </c>
       <c r="AW63" s="113">
         <f t="shared" si="99"/>
-        <v>96.942351498160136</v>
+        <v>96.416015625</v>
       </c>
       <c r="AX63" s="113">
         <f t="shared" si="99"/>
-        <v>97.196007778540377</v>
+        <v>96.639579349904395</v>
       </c>
       <c r="AY63" s="113">
         <f t="shared" si="99"/>
-        <v>97.439345548271419</v>
+        <v>96.853932584269671</v>
       </c>
       <c r="AZ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.672981878088947</v>
+        <v>97.059633027522935</v>
       </c>
       <c r="BA63" s="113">
         <f t="shared" si="99"/>
-        <v>97.897485597372523</v>
+        <v>97.257194244604321</v>
       </c>
       <c r="BB63" s="113">
         <f t="shared" si="99"/>
-        <v>98.113381918039693</v>
+        <v>97.447089947089935</v>
       </c>
       <c r="BC63" s="141">
         <f t="shared" si="99"/>
-        <v>97.561368588305541</v>
+        <v>96.898435559970196</v>
       </c>
       <c r="BD63" s="113">
         <f t="shared" si="99"/>
-        <v>98.321156536608115</v>
+        <v>96.58536585365853</v>
       </c>
       <c r="BE63" s="113">
         <f t="shared" si="99"/>
-        <v>96.97989937169892</v>
+        <v>96.778664426711472</v>
       </c>
       <c r="BF63" s="113">
         <f t="shared" si="99"/>
-        <v>97.19729563614014</v>
+        <v>96.964948453608244</v>
       </c>
       <c r="BG63" s="113">
         <f t="shared" si="99"/>
-        <v>97.407067462138585</v>
+        <v>97.144592952612385</v>
       </c>
       <c r="BH63" s="113">
         <f t="shared" si="99"/>
-        <v>97.609609039333435</v>
+        <v>97.317946677278144</v>
       </c>
       <c r="BI63" s="113">
         <f t="shared" si="99"/>
-        <v>97.80528784449163</v>
+        <v>97.485334376222127</v>
       </c>
       <c r="BJ63" s="113">
         <f t="shared" si="99"/>
-        <v>97.994446866610048</v>
+        <v>96.717440974866719</v>
       </c>
       <c r="BK63" s="113">
         <f t="shared" si="99"/>
-        <v>98.177406613249076</v>
+        <v>96.887640449438223</v>
       </c>
       <c r="BL63" s="113">
         <f t="shared" si="99"/>
-        <v>98.354466922786528</v>
+        <v>97.052321296978633</v>
       </c>
       <c r="BM63" s="113">
         <f t="shared" si="99"/>
-        <v>97.198266568927593</v>
+        <v>97.211747643219724</v>
       </c>
       <c r="BN63" s="113">
         <f t="shared" si="99"/>
-        <v>97.382610172369866</v>
+        <v>97.366167023554581</v>
       </c>
       <c r="BO63" s="113">
         <f t="shared" si="99"/>
-        <v>97.561358029853238</v>
+        <v>97.515811665495434</v>
       </c>
       <c r="BP63" s="141">
         <f t="shared" si="99"/>
-        <v>97.665252134302321</v>
+        <v>97.096276287864157</v>
       </c>
     </row>
     <row r="64" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17233,259 +17280,259 @@
       <c r="D64" s="113"/>
       <c r="E64" s="113">
         <f t="shared" ref="E64:AJ64" si="100">+E19/E3</f>
-        <v>56.994818652849744</v>
+        <v>66.956521739130437</v>
       </c>
       <c r="F64" s="113">
         <f t="shared" si="100"/>
-        <v>74.145402022147323</v>
+        <v>81.769911504424783</v>
       </c>
       <c r="G64" s="113">
         <f t="shared" si="100"/>
-        <v>82.411701748127001</v>
+        <v>88.280254777070056</v>
       </c>
       <c r="H64" s="113">
         <f t="shared" si="100"/>
-        <v>87.276848965712659</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="I64" s="113">
         <f t="shared" si="100"/>
-        <v>90.481786133960028</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="J64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>88.280254777070056</v>
       </c>
       <c r="K64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>90.335195530726253</v>
       </c>
       <c r="L64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="M64" s="113">
         <f t="shared" si="100"/>
-        <v>89.028776978417255</v>
+        <v>93.228699551569505</v>
       </c>
       <c r="N64" s="113">
         <f t="shared" si="100"/>
-        <v>90.481786133960028</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="O64" s="113">
         <f t="shared" si="100"/>
-        <v>91.70636639237766</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="P64" s="141">
         <f t="shared" si="100"/>
-        <v>89.683408040094577</v>
+        <v>91.595073595674378</v>
       </c>
       <c r="Q64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>91.940298507462686</v>
       </c>
       <c r="R64" s="113">
         <f t="shared" si="100"/>
-        <v>93.656437125748496</v>
+        <v>92.828438948995355</v>
       </c>
       <c r="S64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>93.603473227206948</v>
       </c>
       <c r="T64" s="113">
         <f t="shared" si="100"/>
-        <v>95.140032948929161</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="U64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>94.890885750962781</v>
       </c>
       <c r="V64" s="113">
         <f t="shared" si="100"/>
-        <v>92.072870507139342</v>
+        <v>95.431348724179827</v>
       </c>
       <c r="W64" s="113">
         <f t="shared" si="100"/>
-        <v>92.752459345512946</v>
+        <v>93.228699551569505</v>
       </c>
       <c r="X64" s="113">
         <f t="shared" si="100"/>
-        <v>93.369072691301298</v>
+        <v>93.78205128205127</v>
       </c>
       <c r="Y64" s="113">
         <f t="shared" si="100"/>
-        <v>93.931076547727955</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="Z64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832478</v>
+        <v>94.74609375</v>
       </c>
       <c r="AA64" s="113">
         <f t="shared" si="100"/>
-        <v>94.917913374796896</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="AB64" s="113">
         <f t="shared" si="100"/>
-        <v>95.353470090992303</v>
+        <v>95.557553956834525</v>
       </c>
       <c r="AC64" s="141">
         <f t="shared" si="100"/>
-        <v>94.101900078563716</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="AD64" s="113">
         <f t="shared" si="100"/>
-        <v>95.756256800870503</v>
+        <v>93.88653683319221</v>
       </c>
       <c r="AE64" s="113">
         <f t="shared" si="100"/>
-        <v>93.220338983050851</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="AF64" s="113">
         <f t="shared" si="100"/>
-        <v>93.656437125748496</v>
+        <v>94.657210401891248</v>
       </c>
       <c r="AG64" s="113">
         <f t="shared" si="100"/>
-        <v>94.06388562121073</v>
+        <v>95.00380807311501</v>
       </c>
       <c r="AH64" s="113">
         <f t="shared" si="100"/>
-        <v>94.445417907832493</v>
+        <v>95.327929255711126</v>
       </c>
       <c r="AI64" s="113">
         <f t="shared" si="100"/>
-        <v>94.803430415216084</v>
+        <v>95.631691648822255</v>
       </c>
       <c r="AJ64" s="113">
         <f t="shared" si="100"/>
-        <v>95.140032948929161</v>
+        <v>94.285714285714292</v>
       </c>
       <c r="AK64" s="113">
         <f t="shared" ref="AK64:BP64" si="101">+AK19/AK3</f>
-        <v>95.457090298328396</v>
+        <v>94.597093791281367</v>
       </c>
       <c r="AL64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870503</v>
+        <v>94.890885750962781</v>
       </c>
       <c r="AM64" s="113">
         <f t="shared" si="101"/>
-        <v>93.822693202377877</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="AN64" s="113">
         <f t="shared" si="101"/>
-        <v>94.142184184976088</v>
+        <v>95.431348724179827</v>
       </c>
       <c r="AO64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832493</v>
+        <v>95.680473372781066</v>
       </c>
       <c r="AP64" s="141">
         <f t="shared" si="101"/>
-        <v>94.562434519555651</v>
+        <v>94.942528735632195</v>
       </c>
       <c r="AQ64" s="113">
         <f t="shared" si="101"/>
-        <v>94.733604456443715</v>
+        <v>94.55372370665151</v>
       </c>
       <c r="AR64" s="113">
         <f t="shared" si="101"/>
-        <v>95.007836729249334</v>
+        <v>94.80865224625623</v>
       </c>
       <c r="AS64" s="113">
         <f t="shared" si="101"/>
-        <v>95.269104288086481</v>
+        <v>95.051434759068755</v>
       </c>
       <c r="AT64" s="113">
         <f t="shared" si="101"/>
-        <v>95.518305289608449</v>
+        <v>95.282919090428351</v>
       </c>
       <c r="AU64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870489</v>
+        <v>95.503875968992247</v>
       </c>
       <c r="AV64" s="113">
         <f t="shared" si="101"/>
-        <v>94.193817878028383</v>
+        <v>95.715007579585645</v>
       </c>
       <c r="AW64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832478</v>
+        <v>94.74609375</v>
       </c>
       <c r="AX64" s="113">
         <f t="shared" si="101"/>
-        <v>94.686570578814923</v>
+        <v>94.961759082217966</v>
       </c>
       <c r="AY64" s="113">
         <f t="shared" si="101"/>
-        <v>94.917913374796896</v>
+        <v>95.168539325842701</v>
       </c>
       <c r="AZ64" s="113">
         <f t="shared" si="101"/>
-        <v>95.140032948929147</v>
+        <v>95.366972477064223</v>
       </c>
       <c r="BA64" s="113">
         <f t="shared" si="101"/>
-        <v>95.353470090992303</v>
+        <v>95.557553956834525</v>
       </c>
       <c r="BB64" s="113">
         <f t="shared" si="101"/>
-        <v>95.558724123362893</v>
+        <v>95.740740740740733</v>
       </c>
       <c r="BC64" s="141">
         <f t="shared" si="101"/>
-        <v>95.051595967508021</v>
+        <v>95.222249813757131</v>
       </c>
       <c r="BD64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870503</v>
+        <v>94.890885750962767</v>
       </c>
       <c r="BE64" s="113">
         <f t="shared" si="101"/>
-        <v>94.445417907832478</v>
+        <v>95.077698446031079</v>
       </c>
       <c r="BF64" s="113">
         <f t="shared" si="101"/>
-        <v>94.65273509526736</v>
+        <v>95.257731958762889</v>
       </c>
       <c r="BG64" s="113">
         <f t="shared" si="101"/>
-        <v>94.852781333784193</v>
+        <v>95.431348724179827</v>
       </c>
       <c r="BH64" s="113">
         <f t="shared" si="101"/>
-        <v>95.045932537327602</v>
+        <v>95.598885793871858</v>
       </c>
       <c r="BI64" s="113">
         <f t="shared" si="101"/>
-        <v>95.23253914545073</v>
+        <v>95.760657019945242</v>
       </c>
       <c r="BJ64" s="113">
         <f t="shared" si="101"/>
-        <v>95.412928245255728</v>
+        <v>95.00380807311501</v>
       </c>
       <c r="BK64" s="113">
         <f t="shared" si="101"/>
-        <v>95.587405484708285</v>
+        <v>95.168539325842715</v>
       </c>
       <c r="BL64" s="113">
         <f t="shared" si="101"/>
-        <v>95.756256800870517</v>
+        <v>95.327929255711126</v>
       </c>
       <c r="BM64" s="113">
         <f t="shared" si="101"/>
-        <v>94.627226079082391</v>
+        <v>95.482233502538065</v>
       </c>
       <c r="BN64" s="113">
         <f t="shared" si="101"/>
-        <v>94.803430415216084</v>
+        <v>95.631691648822255</v>
       </c>
       <c r="BO64" s="113">
         <f t="shared" si="101"/>
-        <v>94.974286072667965</v>
+        <v>95.776528460997895</v>
       </c>
       <c r="BP64" s="141">
         <f t="shared" si="101"/>
-        <v>95.094278646204017</v>
+        <v>95.377194674898689</v>
       </c>
     </row>
     <row r="65" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17512,243 +17559,243 @@
       </c>
       <c r="I65" s="113">
         <f t="shared" si="102"/>
-        <v>0.52878965922444365</v>
+        <v>0.36734693877549773</v>
       </c>
       <c r="J65" s="113">
         <f t="shared" si="102"/>
-        <v>0.90343304557318049</v>
+        <v>0.57324840764331952</v>
       </c>
       <c r="K65" s="113">
         <f t="shared" si="102"/>
-        <v>1.1827580164709985</v>
+        <v>0.75418994413408313</v>
       </c>
       <c r="L65" s="113">
         <f t="shared" si="102"/>
-        <v>1.3990362194932402</v>
+        <v>0.89552238805970319</v>
       </c>
       <c r="M65" s="113">
         <f t="shared" si="102"/>
-        <v>1.4452723535457324</v>
+        <v>1.0089686098654624</v>
       </c>
       <c r="N65" s="113">
         <f t="shared" si="102"/>
-        <v>1.586368977673331</v>
+        <v>1.1020408163265216</v>
       </c>
       <c r="O65" s="113">
         <f t="shared" ref="O65:AW65" si="103">+O63-O64</f>
-        <v>1.7052836725855371</v>
+        <v>1.1797752808988804</v>
       </c>
       <c r="P65" s="141">
         <f t="shared" ref="P65" si="104">+P63-P64</f>
-        <v>1.1117777856210012</v>
+        <v>0.75698407930309486</v>
       </c>
       <c r="Q65" s="113">
         <f t="shared" si="103"/>
-        <v>1.806866091146361</v>
+        <v>1.1940298507462614</v>
       </c>
       <c r="R65" s="113">
         <f t="shared" si="103"/>
-        <v>1.8946482035928085</v>
+        <v>1.251931993817621</v>
       </c>
       <c r="S65" s="113">
         <f t="shared" si="103"/>
-        <v>1.9712633607850023</v>
+        <v>1.3024602026049195</v>
       </c>
       <c r="T65" s="113">
         <f t="shared" si="103"/>
-        <v>2.0387149917627596</v>
+        <v>1.3469387755101963</v>
       </c>
       <c r="U65" s="113">
         <f t="shared" si="103"/>
-        <v>2.0985543292398603</v>
+        <v>1.3863928112965311</v>
       </c>
       <c r="V65" s="113">
         <f t="shared" si="103"/>
-        <v>2.057396075121332</v>
+        <v>1.4216281895504324</v>
       </c>
       <c r="W65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1080104396707497</v>
+        <v>1.4125560538116559</v>
       </c>
       <c r="X65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1539345203905782</v>
+        <v>1.4423076923076934</v>
       </c>
       <c r="Y65" s="113">
         <f t="shared" si="103"/>
-        <v>2.1957913998170113</v>
+        <v>1.4693877551020336</v>
       </c>
       <c r="Z65" s="113">
         <f t="shared" si="103"/>
-        <v>2.2340984755563227</v>
+        <v>1.494140625</v>
       </c>
       <c r="AA65" s="113">
         <f t="shared" si="103"/>
-        <v>2.2692889561270704</v>
+        <v>1.5168539325842687</v>
       </c>
       <c r="AB65" s="113">
         <f t="shared" si="103"/>
-        <v>2.301728315296387</v>
+        <v>1.5377697841726672</v>
       </c>
       <c r="AC65" s="141">
         <f t="shared" si="103"/>
-        <v>2.1212209386911951</v>
+        <v>1.4169096209912482</v>
       </c>
       <c r="AD65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3317270324887289</v>
+        <v>1.5241320914479246</v>
       </c>
       <c r="AE65" s="113">
         <f t="shared" si="103"/>
-        <v>2.288135593220332</v>
+        <v>1.5428571428571445</v>
       </c>
       <c r="AF65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3156811377245532</v>
+        <v>1.5602836879432687</v>
       </c>
       <c r="AG65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3414170663288445</v>
+        <v>1.5765422696115792</v>
       </c>
       <c r="AH65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3655160329419971</v>
+        <v>1.5917464996315402</v>
       </c>
       <c r="AI65" s="113">
         <f t="shared" si="103"/>
-        <v>2.3881294047720161</v>
+        <v>1.6059957173447543</v>
       </c>
       <c r="AJ65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4093904448105405</v>
+        <v>1.5918367346938709</v>
       </c>
       <c r="AK65" s="113">
         <f t="shared" si="103"/>
-        <v>2.429416939934427</v>
+        <v>1.6050198150594497</v>
       </c>
       <c r="AL65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4483133841131632</v>
+        <v>1.6174582798459483</v>
       </c>
       <c r="AM65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4092604216667297</v>
+        <v>1.6292134831460601</v>
       </c>
       <c r="AN65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4272717465568689</v>
+        <v>1.6403402187120264</v>
       </c>
       <c r="AO65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4443665673733932</v>
+        <v>1.6508875739644964</v>
       </c>
       <c r="AP65" s="141">
         <f t="shared" ref="AP65" si="105">+AP63-AP64</f>
-        <v>2.3885184594142572</v>
+        <v>1.5987460815047001</v>
       </c>
       <c r="AQ65" s="113">
         <f t="shared" si="103"/>
-        <v>2.460613102764782</v>
+        <v>1.6372939169982885</v>
       </c>
       <c r="AR65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4760729649514843</v>
+        <v>1.6472545757071515</v>
       </c>
       <c r="AS65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4908019405463477</v>
+        <v>1.6567406605305877</v>
       </c>
       <c r="AT65" s="113">
         <f t="shared" si="103"/>
-        <v>2.5048506631890319</v>
+        <v>1.6657852987837174</v>
       </c>
       <c r="AU65" s="113">
         <f t="shared" si="103"/>
-        <v>2.5182651950878352</v>
+        <v>1.6744186046511658</v>
       </c>
       <c r="AV65" s="113">
         <f t="shared" si="103"/>
-        <v>2.48388829215898</v>
+        <v>1.682668014148561</v>
       </c>
       <c r="AW65" s="113">
         <f t="shared" si="103"/>
-        <v>2.4969335903276573</v>
+        <v>1.669921875</v>
       </c>
       <c r="AX65" s="113">
         <f t="shared" ref="AX65:BO65" si="106">+AX63-AX64</f>
-        <v>2.5094371997254541</v>
+        <v>1.6778202676864282</v>
       </c>
       <c r="AY65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5214321734745226</v>
+        <v>1.68539325842697</v>
       </c>
       <c r="AZ65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5329489291598009</v>
+        <v>1.6926605504587116</v>
       </c>
       <c r="BA65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5440155063802194</v>
+        <v>1.699640287769796</v>
       </c>
       <c r="BB65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5546577946767997</v>
+        <v>1.7063492063492021</v>
       </c>
       <c r="BC65" s="141">
         <f t="shared" si="106"/>
-        <v>2.5097726207975199</v>
+        <v>1.6761857462130649</v>
       </c>
       <c r="BD65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5648997357376118</v>
+        <v>1.6944801026957634</v>
       </c>
       <c r="BE65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5344814638664417</v>
+        <v>1.7009659806803938</v>
       </c>
       <c r="BF65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5445605408727801</v>
+        <v>1.7072164948453548</v>
       </c>
       <c r="BG65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5542861283543914</v>
+        <v>1.7132442284325577</v>
       </c>
       <c r="BH65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5636765020058334</v>
+        <v>1.7190608834062857</v>
       </c>
       <c r="BI65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5727486990409005</v>
+        <v>1.7246773562768851</v>
       </c>
       <c r="BJ65" s="113">
         <f t="shared" si="106"/>
-        <v>2.58151862135432</v>
+        <v>1.7136329017517085</v>
       </c>
       <c r="BK65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5900011285407913</v>
+        <v>1.7191011235955074</v>
       </c>
       <c r="BL65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5982101219160114</v>
+        <v>1.7243920412675067</v>
       </c>
       <c r="BM65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5710404898452026</v>
+        <v>1.7295141406816583</v>
       </c>
       <c r="BN65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5791797571537813</v>
+        <v>1.7344753747323267</v>
       </c>
       <c r="BO65" s="113">
         <f t="shared" si="106"/>
-        <v>2.5870719571852732</v>
+        <v>1.7392832044975393</v>
       </c>
       <c r="BP65" s="141">
         <f t="shared" ref="BP65" si="107">+BP63-BP64</f>
-        <v>2.5709734880983035</v>
+        <v>1.7190816129654678</v>
       </c>
     </row>
     <row r="66" spans="1:68" s="116" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17759,259 +17806,259 @@
       <c r="D66" s="117"/>
       <c r="E66" s="117">
         <f>((E27+E28)/E24)</f>
-        <v>0.35792727272727282</v>
+        <v>0.31990909090909087</v>
       </c>
       <c r="F66" s="117">
         <f t="shared" ref="F66:BP66" si="108">((F27+F28)/F24)</f>
-        <v>0.27513506493506501</v>
+        <v>0.26195454545454544</v>
       </c>
       <c r="G66" s="117">
         <f t="shared" si="108"/>
-        <v>0.24753766233766236</v>
+        <v>0.24263636363636368</v>
       </c>
       <c r="H66" s="117">
         <f t="shared" si="108"/>
-        <v>0.23373896103896111</v>
+        <v>0.23297727272727273</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" si="108"/>
-        <v>0.22414977404777278</v>
+        <v>0.22630012936610605</v>
       </c>
       <c r="J66" s="117">
         <f t="shared" si="108"/>
-        <v>0.2178186495176849</v>
+        <v>0.22187741935483876</v>
       </c>
       <c r="K66" s="117">
         <f t="shared" si="108"/>
-        <v>0.21332624828218047</v>
+        <v>0.21873229070837166</v>
       </c>
       <c r="L66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20997312000000007</v>
+        <v>0.21638102893890673</v>
       </c>
       <c r="M66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20737465388711396</v>
+        <v>0.21455674518201287</v>
       </c>
       <c r="N66" s="117">
         <f t="shared" si="108"/>
-        <v>0.2053018506700702</v>
+        <v>0.21310012836970474</v>
       </c>
       <c r="O66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20360985221674877</v>
+        <v>0.21191020408163261</v>
       </c>
       <c r="P66" s="142">
         <f t="shared" si="108"/>
-        <v>0.21724711370262395</v>
+        <v>0.22148770491803282</v>
       </c>
       <c r="Q66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20220254777070065</v>
+        <v>0.21091987179487184</v>
       </c>
       <c r="R66" s="117">
         <f t="shared" si="108"/>
-        <v>0.20101365973072219</v>
+        <v>0.21008279940857566</v>
       </c>
       <c r="S66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19999600181735572</v>
+        <v>0.20936596523330284</v>
       </c>
       <c r="T66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1991150667514304</v>
+        <v>0.20874519846350831</v>
       </c>
       <c r="U66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19834503574265291</v>
+        <v>0.20820239999999998</v>
       </c>
       <c r="V66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19766620586586961</v>
+        <v>0.20772374858863379</v>
       </c>
       <c r="W66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19706328042328042</v>
+        <v>0.20729850746268658</v>
       </c>
       <c r="X66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19652420243861701</v>
+        <v>0.20691820935711883</v>
       </c>
       <c r="Y66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19603934010152285</v>
+        <v>0.20657608695652174</v>
       </c>
       <c r="Z66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19560090620752157</v>
+        <v>0.20626666666666668</v>
       </c>
       <c r="AA66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19520253675410781</v>
+        <v>0.20598547356188263</v>
       </c>
       <c r="AB66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19483898001378361</v>
+        <v>0.20572881355932207</v>
       </c>
       <c r="AC66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19735607366415681</v>
+        <v>0.20750502650338146</v>
       </c>
       <c r="AD66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1945058637083994</v>
+        <v>0.20549361022364221</v>
       </c>
       <c r="AE66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19419951831664342</v>
+        <v>0.20527728085867622</v>
       </c>
       <c r="AF66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19391684133560813</v>
+        <v>0.20507764127764128</v>
       </c>
       <c r="AG66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19365519183386135</v>
+        <v>0.20489283179559969</v>
       </c>
       <c r="AH66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19341230769230766</v>
+        <v>0.20472125912408756</v>
       </c>
       <c r="AI66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19318624003494597</v>
+        <v>0.20456155031931295</v>
       </c>
       <c r="AJ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19297530082330588</v>
+        <v>0.20441251596424009</v>
       </c>
       <c r="AK66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19277802063119193</v>
+        <v>0.20427312049433577</v>
       </c>
       <c r="AL66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19259311436485954</v>
+        <v>0.20414245810055864</v>
       </c>
       <c r="AM66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19241945323741005</v>
+        <v>0.2040197330237957</v>
       </c>
       <c r="AN66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19225604170545521</v>
+        <v>0.20390424333458507</v>
       </c>
       <c r="AO66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19210199837236641</v>
+        <v>0.20379536749954405</v>
       </c>
       <c r="AP66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19307897590038106</v>
+        <v>0.20448576685788505</v>
       </c>
       <c r="AQ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19195654008438817</v>
+        <v>0.20369255319148938</v>
       </c>
       <c r="AR66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19181896861370051</v>
+        <v>0.20359530791788857</v>
       </c>
       <c r="AS66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19168865945045796</v>
+        <v>0.2035031911320121</v>
       </c>
       <c r="AT66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19156505232416646</v>
+        <v>0.20341580756013744</v>
       </c>
       <c r="AU66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19144764315090163</v>
+        <v>0.203332801531589</v>
       </c>
       <c r="AV66" s="117">
         <f t="shared" si="108"/>
-        <v>0.191335977162256</v>
+        <v>0.20325385214007782</v>
       </c>
       <c r="AW66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19122964301852693</v>
+        <v>0.20317866909753876</v>
       </c>
       <c r="AX66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19112826774549468</v>
+        <v>0.20310698916753228</v>
       </c>
       <c r="AY66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19103151236342727</v>
+        <v>0.20303857308584686</v>
       </c>
       <c r="AZ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19093906810035846</v>
+        <v>0.20297320289238624</v>
       </c>
       <c r="BA66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19085065310050875</v>
+        <v>0.20291067961165052</v>
       </c>
       <c r="BB66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19076600955392592</v>
+        <v>0.2028508212298086</v>
       </c>
       <c r="BC66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19128216776553991</v>
+        <v>0.20321580687322213</v>
       </c>
       <c r="BD66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19068490118577078</v>
+        <v>0.20279346092503989</v>
       </c>
       <c r="BE66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19060711105375236</v>
+        <v>0.20273844551490688</v>
       </c>
       <c r="BF66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19053243961047173</v>
+        <v>0.20268563409032916</v>
       </c>
       <c r="BG66" s="117">
         <f t="shared" si="108"/>
-        <v>0.1904607029942347</v>
+        <v>0.20263489681050659</v>
       </c>
       <c r="BH66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19039173151750977</v>
+        <v>0.20258611383709518</v>
       </c>
       <c r="BI66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19032536832687147</v>
+        <v>0.20253917438921654</v>
       </c>
       <c r="BJ66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19026146821215317</v>
+        <v>0.20249397590361443</v>
       </c>
       <c r="BK66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19019989654577849</v>
+        <v>0.20245042328655918</v>
       </c>
       <c r="BL66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19014052833596745</v>
+        <v>0.20240842824601366</v>
       </c>
       <c r="BM66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19008324737980373</v>
+        <v>0.20236790869419272</v>
       </c>
       <c r="BN66" s="117">
         <f t="shared" si="108"/>
-        <v>0.19002794550408722</v>
+        <v>0.20232878821200795</v>
       </c>
       <c r="BO66" s="117">
         <f t="shared" si="108"/>
-        <v>0.18997452188353781</v>
+        <v>0.20229099556804669</v>
       </c>
       <c r="BP66" s="142">
         <f t="shared" si="108"/>
-        <v>0.19029311903566051</v>
+        <v>0.20251636363636369</v>
       </c>
     </row>
     <row r="67" spans="1:68" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
